--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -44602,7 +44602,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>7773905</v>
+        <v>7773904</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44614,10 +44614,10 @@
         <v>45324.625</v>
       </c>
       <c r="F494" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G494" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H494">
         <v>2</v>
@@ -44629,43 +44629,43 @@
         <v>113</v>
       </c>
       <c r="K494">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L494">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M494">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="N494">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O494">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P494">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="Q494">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R494">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S494">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T494">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U494">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V494">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W494">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="X494">
         <v>-1</v>
@@ -44674,16 +44674,16 @@
         <v>-1</v>
       </c>
       <c r="Z494">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA494">
         <v>-1</v>
       </c>
       <c r="AB494">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC494">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -44780,7 +44780,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>7773904</v>
+        <v>7773905</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -44792,10 +44792,10 @@
         <v>45324.625</v>
       </c>
       <c r="F496" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G496" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H496">
         <v>2</v>
@@ -44807,44 +44807,44 @@
         <v>113</v>
       </c>
       <c r="K496">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L496">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="M496">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="N496">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O496">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P496">
+        <v>1.833</v>
+      </c>
+      <c r="Q496">
+        <v>0.5</v>
+      </c>
+      <c r="R496">
+        <v>1.95</v>
+      </c>
+      <c r="S496">
+        <v>1.85</v>
+      </c>
+      <c r="T496">
+        <v>2.25</v>
+      </c>
+      <c r="U496">
+        <v>1.925</v>
+      </c>
+      <c r="V496">
+        <v>1.875</v>
+      </c>
+      <c r="W496">
         <v>3</v>
       </c>
-      <c r="Q496">
-        <v>-0.25</v>
-      </c>
-      <c r="R496">
-        <v>2.05</v>
-      </c>
-      <c r="S496">
-        <v>1.75</v>
-      </c>
-      <c r="T496">
-        <v>2</v>
-      </c>
-      <c r="U496">
-        <v>1.75</v>
-      </c>
-      <c r="V496">
-        <v>2.05</v>
-      </c>
-      <c r="W496">
-        <v>1.375</v>
-      </c>
       <c r="X496">
         <v>-1</v>
       </c>
@@ -44852,16 +44852,16 @@
         <v>-1</v>
       </c>
       <c r="Z496">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA496">
         <v>-1</v>
       </c>
       <c r="AB496">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC496">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="497" spans="1:29">

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -103,34 +103,34 @@
     <t>France National 2</t>
   </si>
   <si>
-    <t>FC Chartres</t>
+    <t>Colmar</t>
+  </si>
+  <si>
+    <t>Olympique dAles</t>
   </si>
   <si>
     <t>Grasse</t>
   </si>
   <si>
-    <t>Colmar</t>
+    <t>FC Chartres</t>
   </si>
   <si>
     <t>Racing Paris</t>
   </si>
   <si>
-    <t>Olympique dAles</t>
+    <t>Sporting Club Toulon</t>
+  </si>
+  <si>
+    <t>Creteil</t>
   </si>
   <si>
     <t>Beauvais</t>
   </si>
   <si>
-    <t>Wasquehal</t>
-  </si>
-  <si>
     <t>Furiani Agliani</t>
   </si>
   <si>
-    <t>Creteil</t>
-  </si>
-  <si>
-    <t>Sporting Club Toulon</t>
+    <t>Wasquehal</t>
   </si>
   <si>
     <t>Lyon II</t>
@@ -250,22 +250,22 @@
     <t>Granville</t>
   </si>
   <si>
+    <t>Lyon Duchere</t>
+  </si>
+  <si>
     <t>Jura Sud Foot</t>
   </si>
   <si>
-    <t>Lyon Duchere</t>
+    <t>Canet Roussillon</t>
   </si>
   <si>
     <t>Rouen</t>
   </si>
   <si>
-    <t>ASM Belfort</t>
-  </si>
-  <si>
     <t>Sainte Genevieve Sports</t>
   </si>
   <si>
-    <t>Canet Roussillon</t>
+    <t>ASM Belfort</t>
   </si>
   <si>
     <t>Voltigeurs de Chateaubriant</t>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6730012</v>
+        <v>6730011</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -775,10 +775,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -787,31 +787,31 @@
         <v>93</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N2">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O2">
         <v>3.4</v>
       </c>
       <c r="P2">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q2">
         <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T2">
         <v>2.75</v>
@@ -823,7 +823,7 @@
         <v>1.825</v>
       </c>
       <c r="W2">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -832,7 +832,7 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA2">
         <v>-1</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6730010</v>
+        <v>6730007</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -867,70 +867,70 @@
         <v>78</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB3">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6730011</v>
+        <v>6730010</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -953,73 +953,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6730013</v>
+        <v>6730012</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1042,55 +1042,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>93</v>
       </c>
       <c r="K5">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1099,16 +1099,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1116,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6730007</v>
+        <v>6730013</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1131,13 +1131,13 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>93</v>
@@ -1152,34 +1152,34 @@
         <v>5.5</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1188,16 +1188,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6730003</v>
+        <v>6727601</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1223,67 +1223,67 @@
         <v>80</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L7">
+        <v>3.25</v>
+      </c>
+      <c r="M7">
+        <v>3.3</v>
+      </c>
+      <c r="N7">
+        <v>1.7</v>
+      </c>
+      <c r="O7">
         <v>3.6</v>
       </c>
-      <c r="M7">
+      <c r="P7">
+        <v>4.2</v>
+      </c>
+      <c r="Q7">
+        <v>-0.75</v>
+      </c>
+      <c r="R7">
         <v>1.95</v>
       </c>
-      <c r="N7">
-        <v>3.1</v>
-      </c>
-      <c r="O7">
-        <v>3.75</v>
-      </c>
-      <c r="P7">
-        <v>1.95</v>
-      </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.8</v>
-      </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1294,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6730005</v>
+        <v>6730002</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1309,13 +1309,13 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>94</v>
@@ -1324,37 +1324,37 @@
         <v>2.4</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1363,19 +1363,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1383,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6730004</v>
+        <v>6730003</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1398,73 +1398,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6730002</v>
+        <v>6730004</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1487,73 +1487,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N10">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
         <v>2.25</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1561,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6727601</v>
+        <v>6730005</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1582,64 +1582,64 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L11">
+        <v>3.2</v>
+      </c>
+      <c r="M11">
+        <v>2.625</v>
+      </c>
+      <c r="N11">
+        <v>2.05</v>
+      </c>
+      <c r="O11">
         <v>3.25</v>
       </c>
-      <c r="M11">
-        <v>3.3</v>
-      </c>
-      <c r="N11">
-        <v>1.7</v>
-      </c>
-      <c r="O11">
-        <v>3.6</v>
-      </c>
       <c r="P11">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
         <v>1.95</v>
       </c>
-      <c r="S11">
-        <v>1.85</v>
-      </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z11">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB11">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1843,7 +1843,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2107,7 +2107,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -2451,7 +2451,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7120892</v>
+        <v>7120889</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2466,70 +2466,70 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="N21">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
         <v>3.2</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2540,7 +2540,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7120889</v>
+        <v>7120892</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2552,73 +2552,73 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K22">
+        <v>2.5</v>
+      </c>
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="L22">
-        <v>3.1</v>
-      </c>
       <c r="M22">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="N22">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
         <v>3.2</v>
       </c>
       <c r="P22">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -3697,7 +3697,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7152456</v>
+        <v>7152407</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3709,40 +3709,40 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K35">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N35">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <v>1.8</v>
@@ -3751,34 +3751,34 @@
         <v>2</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3875,7 +3875,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7152407</v>
+        <v>7152456</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3887,40 +3887,40 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O37">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
         <v>1.8</v>
@@ -3929,34 +3929,34 @@
         <v>2</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3979,7 +3979,7 @@
         <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4065,7 +4065,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
@@ -4157,7 +4157,7 @@
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7176760</v>
+        <v>7176761</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4332,13 +4332,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -4347,40 +4347,40 @@
         <v>94</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4389,19 +4389,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4409,7 +4409,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7176761</v>
+        <v>7176760</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4421,13 +4421,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -4436,40 +4436,40 @@
         <v>94</v>
       </c>
       <c r="K43">
+        <v>2.1</v>
+      </c>
+      <c r="L43">
+        <v>3.75</v>
+      </c>
+      <c r="M43">
+        <v>2.7</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
         <v>3.6</v>
       </c>
-      <c r="L43">
-        <v>3.25</v>
-      </c>
-      <c r="M43">
-        <v>1.909</v>
-      </c>
-      <c r="N43">
+      <c r="P43">
+        <v>3.1</v>
+      </c>
+      <c r="Q43">
+        <v>-0.5</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>1.8</v>
+      </c>
+      <c r="T43">
         <v>2.25</v>
       </c>
-      <c r="O43">
-        <v>3.1</v>
-      </c>
-      <c r="P43">
-        <v>2.875</v>
-      </c>
-      <c r="Q43">
-        <v>-0.25</v>
-      </c>
-      <c r="R43">
-        <v>1.975</v>
-      </c>
-      <c r="S43">
-        <v>1.825</v>
-      </c>
-      <c r="T43">
-        <v>2.5</v>
-      </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4478,19 +4478,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4510,10 +4510,10 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>58</v>
@@ -4955,7 +4955,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>56</v>
@@ -5136,7 +5136,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5222,7 +5222,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>74</v>
@@ -5578,7 +5578,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
         <v>57</v>
@@ -6026,7 +6026,7 @@
         <v>53</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6545,7 +6545,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7215517</v>
+        <v>7215467</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6557,73 +6557,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K67">
+        <v>1.727</v>
+      </c>
+      <c r="L67">
+        <v>3.4</v>
+      </c>
+      <c r="M67">
+        <v>4.2</v>
+      </c>
+      <c r="N67">
+        <v>1.727</v>
+      </c>
+      <c r="O67">
+        <v>3.4</v>
+      </c>
+      <c r="P67">
+        <v>4.2</v>
+      </c>
+      <c r="Q67">
+        <v>-0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.975</v>
+      </c>
+      <c r="S67">
+        <v>1.825</v>
+      </c>
+      <c r="T67">
         <v>2.25</v>
       </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
-      <c r="M67">
-        <v>3</v>
-      </c>
-      <c r="N67">
-        <v>2</v>
-      </c>
-      <c r="O67">
-        <v>3.1</v>
-      </c>
-      <c r="P67">
-        <v>3.5</v>
-      </c>
-      <c r="Q67">
-        <v>-0.25</v>
-      </c>
-      <c r="R67">
-        <v>1.775</v>
-      </c>
-      <c r="S67">
-        <v>2.025</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
       <c r="U67">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6634,7 +6634,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7215466</v>
+        <v>7215517</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6646,73 +6646,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K68">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
         <v>3</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W68">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6723,7 +6723,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7215467</v>
+        <v>7215466</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6735,13 +6735,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6750,43 +6750,43 @@
         <v>93</v>
       </c>
       <c r="K69">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
         <v>4.2</v>
       </c>
-      <c r="N69">
-        <v>1.727</v>
-      </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>0.7270000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6795,13 +6795,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6824,7 +6824,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -7002,7 +7002,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>49</v>
@@ -7079,7 +7079,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7215496</v>
+        <v>7215469</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7091,10 +7091,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7106,25 +7106,25 @@
         <v>93</v>
       </c>
       <c r="K73">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L73">
         <v>3.25</v>
       </c>
       <c r="M73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
         <v>1.8</v>
@@ -7142,7 +7142,7 @@
         <v>2</v>
       </c>
       <c r="W73">
-        <v>0.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7151,10 +7151,10 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -7168,7 +7168,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7215497</v>
+        <v>7215496</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7180,13 +7180,13 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G74" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7195,43 +7195,43 @@
         <v>93</v>
       </c>
       <c r="K74">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L74">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7240,16 +7240,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7257,7 +7257,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7215498</v>
+        <v>7215497</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7269,76 +7269,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K75">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M75">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
         <v>2.25</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7346,7 +7346,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7215469</v>
+        <v>7215498</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7358,76 +7358,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K76">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L76">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N76">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
         <v>1.8</v>
       </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
       <c r="W76">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7450,7 +7450,7 @@
         <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>61</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -8070,7 +8070,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
         <v>48</v>
@@ -8159,7 +8159,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>55</v>
@@ -8251,7 +8251,7 @@
         <v>71</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8426,7 +8426,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
         <v>59</v>
@@ -8518,7 +8518,7 @@
         <v>72</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>51</v>
@@ -9393,7 +9393,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7305039</v>
+        <v>7304511</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9405,76 +9405,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K99">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="N99">
+        <v>1.444</v>
+      </c>
+      <c r="O99">
         <v>4</v>
       </c>
-      <c r="N99">
-        <v>1.95</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
       <c r="P99">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9482,7 +9482,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7304518</v>
+        <v>7305039</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9494,13 +9494,13 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9509,40 +9509,40 @@
         <v>93</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N100">
         <v>1.95</v>
       </c>
       <c r="O100">
+        <v>3.5</v>
+      </c>
+      <c r="P100">
         <v>3.2</v>
       </c>
-      <c r="P100">
-        <v>3.5</v>
-      </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>0.95</v>
@@ -9554,7 +9554,7 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA100">
         <v>-1</v>
@@ -9563,7 +9563,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9571,7 +9571,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7304517</v>
+        <v>7304518</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9583,76 +9583,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X101">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9660,7 +9660,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7304511</v>
+        <v>7304517</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9672,61 +9672,61 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G102" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>95</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="O102">
+        <v>3.75</v>
+      </c>
+      <c r="P102">
         <v>4</v>
       </c>
-      <c r="P102">
-        <v>6</v>
-      </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
+        <v>1.925</v>
+      </c>
+      <c r="S102">
+        <v>1.875</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
         <v>1.775</v>
       </c>
-      <c r="S102">
+      <c r="V102">
         <v>2.025</v>
       </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y102">
         <v>-1</v>
@@ -9735,13 +9735,13 @@
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9853,7 +9853,7 @@
         <v>75</v>
       </c>
       <c r="G104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10028,7 +10028,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>85</v>
@@ -10295,7 +10295,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
         <v>62</v>
@@ -10639,7 +10639,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7363348</v>
+        <v>7362873</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10651,10 +10651,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10666,61 +10666,61 @@
         <v>95</v>
       </c>
       <c r="K113">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
+        <v>3.75</v>
+      </c>
+      <c r="N113">
+        <v>1.8</v>
+      </c>
+      <c r="O113">
+        <v>3.5</v>
+      </c>
+      <c r="P113">
+        <v>3.75</v>
+      </c>
+      <c r="Q113">
+        <v>-0.5</v>
+      </c>
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
+        <v>1.95</v>
+      </c>
+      <c r="T113">
         <v>2.25</v>
       </c>
-      <c r="N113">
-        <v>2.8</v>
-      </c>
-      <c r="O113">
-        <v>3.2</v>
-      </c>
-      <c r="P113">
-        <v>2.25</v>
-      </c>
-      <c r="Q113">
-        <v>0.25</v>
-      </c>
-      <c r="R113">
-        <v>1.775</v>
-      </c>
-      <c r="S113">
-        <v>2.025</v>
-      </c>
-      <c r="T113">
+      <c r="U113">
+        <v>1.825</v>
+      </c>
+      <c r="V113">
+        <v>1.975</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
         <v>2.5</v>
       </c>
-      <c r="U113">
-        <v>1.95</v>
-      </c>
-      <c r="V113">
-        <v>1.85</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.2</v>
-      </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
+        <v>0.95</v>
+      </c>
+      <c r="AB113">
         <v>-0.5</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10728,7 +10728,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7362873</v>
+        <v>7363348</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10740,10 +10740,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10755,61 +10755,61 @@
         <v>95</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N114">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P114">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.775</v>
+      </c>
+      <c r="S114">
+        <v>2.025</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
+        <v>1.85</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>2.2</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3875</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>1.95</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>2.5</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>-1</v>
-      </c>
-      <c r="AA114">
-        <v>0.95</v>
-      </c>
       <c r="AB114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10829,7 +10829,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
         <v>75</v>
@@ -10906,7 +10906,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7363154</v>
+        <v>7363042</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10918,73 +10918,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>2</v>
-      </c>
       <c r="J116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10995,7 +10995,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7363042</v>
+        <v>7363154</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11007,73 +11007,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N117">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T117">
         <v>2.25</v>
       </c>
       <c r="U117">
+        <v>1.925</v>
+      </c>
+      <c r="V117">
+        <v>1.875</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
         <v>1.8</v>
       </c>
-      <c r="V117">
-        <v>2</v>
-      </c>
-      <c r="W117">
-        <v>1.1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>-1</v>
-      </c>
       <c r="Z117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11099,7 +11099,7 @@
         <v>61</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>57</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11796,7 +11796,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7427013</v>
+        <v>7427015</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11808,76 +11808,76 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G126" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
         <v>0</v>
       </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
       <c r="J126" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K126">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L126">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="N126">
-        <v>1.181</v>
+        <v>2.875</v>
       </c>
       <c r="O126">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="Q126">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
+        <v>1.75</v>
+      </c>
+      <c r="S126">
+        <v>2.05</v>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
         <v>1.85</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>1.95</v>
       </c>
-      <c r="T126">
-        <v>3</v>
-      </c>
-      <c r="U126">
-        <v>1.7</v>
-      </c>
-      <c r="V126">
-        <v>2.1</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11885,7 +11885,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7427024</v>
+        <v>7427013</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11897,76 +11897,76 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G127" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K127">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M127">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="N127">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="O127">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P127">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R127">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11974,7 +11974,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7427025</v>
+        <v>7427024</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11986,76 +11986,76 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K128">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N128">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
         <v>3.3</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12063,7 +12063,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7427015</v>
+        <v>7427025</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -12075,73 +12075,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
       <c r="J129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K129">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N129">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
         <v>1.75</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12167,7 +12167,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12434,7 +12434,7 @@
         <v>47</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12698,7 +12698,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -13146,7 +13146,7 @@
         <v>68</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13321,7 +13321,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
         <v>67</v>
@@ -13410,7 +13410,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>58</v>
@@ -13588,7 +13588,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>85</v>
@@ -13665,7 +13665,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7458192</v>
+        <v>7458007</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13677,10 +13677,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G147" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13692,61 +13692,61 @@
         <v>95</v>
       </c>
       <c r="K147">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="L147">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N147">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
         <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13754,7 +13754,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7458007</v>
+        <v>7458008</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13766,76 +13766,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G148" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K148">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N148">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q148">
         <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X148">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13855,7 +13855,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>45</v>
@@ -13932,7 +13932,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7458008</v>
+        <v>7458192</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13944,40 +13944,40 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G150" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K150">
-        <v>1.615</v>
+        <v>4.333</v>
       </c>
       <c r="L150">
         <v>3.25</v>
       </c>
       <c r="M150">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N150">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="O150">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P150">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R150">
         <v>1.825</v>
@@ -13986,19 +13986,19 @@
         <v>1.975</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W150">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -14010,10 +14010,10 @@
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14033,7 +14033,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>57</v>
@@ -14122,10 +14122,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14567,10 +14567,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -15012,7 +15012,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
         <v>76</v>
@@ -15190,7 +15190,7 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>84</v>
@@ -15534,7 +15534,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7535760</v>
+        <v>7535815</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15546,13 +15546,13 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15561,43 +15561,43 @@
         <v>93</v>
       </c>
       <c r="K168">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L168">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M168">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N168">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O168">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P168">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15606,16 +15606,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC168">
-        <v>0.7250000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15623,7 +15623,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7535815</v>
+        <v>7535760</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15635,13 +15635,13 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15650,43 +15650,43 @@
         <v>93</v>
       </c>
       <c r="K169">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M169">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N169">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O169">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P169">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T169">
         <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W169">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15695,16 +15695,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.475</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16080,7 +16080,7 @@
         <v>45275.625</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
         <v>71</v>
@@ -16246,7 +16246,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7594616</v>
+        <v>7594560</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16258,76 +16258,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K176">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L176">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M176">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N176">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
+        <v>1.975</v>
+      </c>
+      <c r="S176">
         <v>1.825</v>
       </c>
-      <c r="S176">
+      <c r="T176">
+        <v>2</v>
+      </c>
+      <c r="U176">
         <v>1.975</v>
       </c>
-      <c r="T176">
-        <v>2.5</v>
-      </c>
-      <c r="U176">
-        <v>1.9</v>
-      </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y176">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
+        <v>0.4125</v>
+      </c>
+      <c r="AB176">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB176">
-        <v>-1</v>
-      </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16335,7 +16335,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7594615</v>
+        <v>7594616</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16347,76 +16347,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G177" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K177">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="L177">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M177">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N177">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P177">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q177">
         <v>0</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB177">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16424,7 +16424,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7594613</v>
+        <v>7594615</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16436,58 +16436,58 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H178">
         <v>2</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>93</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N178">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O178">
         <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q178">
         <v>0</v>
       </c>
       <c r="R178">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W178">
-        <v>1.625</v>
+        <v>1.45</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16496,16 +16496,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC178">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16513,7 +16513,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7594553</v>
+        <v>7594613</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16525,76 +16525,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L179">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
+        <v>2.9</v>
+      </c>
+      <c r="N179">
+        <v>2.625</v>
+      </c>
+      <c r="O179">
         <v>3.2</v>
       </c>
-      <c r="N179">
-        <v>2.1</v>
-      </c>
-      <c r="O179">
-        <v>3.1</v>
-      </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X179">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA179">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
         <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16602,7 +16602,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7594506</v>
+        <v>7594553</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16614,76 +16614,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K180">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
         <v>3.1</v>
       </c>
       <c r="M180">
+        <v>3.2</v>
+      </c>
+      <c r="N180">
+        <v>2.1</v>
+      </c>
+      <c r="O180">
         <v>3.1</v>
       </c>
-      <c r="N180">
+      <c r="P180">
+        <v>3.2</v>
+      </c>
+      <c r="Q180">
+        <v>-0.25</v>
+      </c>
+      <c r="R180">
         <v>1.85</v>
       </c>
-      <c r="O180">
-        <v>3.2</v>
-      </c>
-      <c r="P180">
-        <v>4</v>
-      </c>
-      <c r="Q180">
-        <v>-0.5</v>
-      </c>
-      <c r="R180">
+      <c r="S180">
         <v>1.95</v>
-      </c>
-      <c r="S180">
-        <v>1.85</v>
       </c>
       <c r="T180">
         <v>2.25</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16691,7 +16691,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7594505</v>
+        <v>7594506</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16703,76 +16703,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K181">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="L181">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M181">
+        <v>3.1</v>
+      </c>
+      <c r="N181">
+        <v>1.85</v>
+      </c>
+      <c r="O181">
+        <v>3.2</v>
+      </c>
+      <c r="P181">
+        <v>4</v>
+      </c>
+      <c r="Q181">
+        <v>-0.5</v>
+      </c>
+      <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.85</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
+        <v>1.8</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
         <v>3</v>
       </c>
-      <c r="N181">
-        <v>2.375</v>
-      </c>
-      <c r="O181">
-        <v>2.8</v>
-      </c>
-      <c r="P181">
-        <v>3</v>
-      </c>
-      <c r="Q181">
-        <v>-0.25</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
-        <v>1.7</v>
-      </c>
-      <c r="T181">
-        <v>2</v>
-      </c>
-      <c r="U181">
-        <v>1.875</v>
-      </c>
-      <c r="V181">
-        <v>1.925</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>1.8</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16780,7 +16780,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7594560</v>
+        <v>7594505</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16792,61 +16792,61 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>95</v>
       </c>
       <c r="K182">
-        <v>1.909</v>
+        <v>2.35</v>
       </c>
       <c r="L182">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M182">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O182">
+        <v>2.8</v>
+      </c>
+      <c r="P182">
         <v>3</v>
-      </c>
-      <c r="P182">
-        <v>3.1</v>
       </c>
       <c r="Q182">
         <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V182">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y182">
         <v>-1</v>
@@ -16855,13 +16855,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA182">
-        <v>0.4125</v>
+        <v>0.35</v>
       </c>
       <c r="AB182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17062,7 +17062,7 @@
         <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17240,7 +17240,7 @@
         <v>55</v>
       </c>
       <c r="G187" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17326,7 +17326,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>49</v>
@@ -17418,7 +17418,7 @@
         <v>65</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17504,7 +17504,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
         <v>47</v>
@@ -17581,7 +17581,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7690591</v>
+        <v>7690468</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17593,73 +17593,73 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K191">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L191">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N191">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P191">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17670,7 +17670,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7690594</v>
+        <v>7690467</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17682,76 +17682,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G192" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>95</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N192">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
+        <v>1.85</v>
+      </c>
+      <c r="V192">
         <v>1.95</v>
       </c>
-      <c r="V192">
-        <v>1.85</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
+        <v>0.825</v>
+      </c>
+      <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
         <v>-0.5</v>
       </c>
-      <c r="AA192">
-        <v>0.5</v>
-      </c>
-      <c r="AB192">
-        <v>-1</v>
-      </c>
       <c r="AC192">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17848,7 +17848,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7690467</v>
+        <v>7690590</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17860,46 +17860,46 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G194" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K194">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L194">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M194">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N194">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O194">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P194">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="Q194">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S194">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T194">
         <v>2.25</v>
@@ -17914,22 +17914,22 @@
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17937,7 +17937,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7690468</v>
+        <v>7690591</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17949,73 +17949,73 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G195" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K195">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="L195">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N195">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O195">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R195">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>1.95</v>
+      </c>
+      <c r="V195">
+        <v>1.85</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
         <v>2.5</v>
       </c>
-      <c r="U195">
-        <v>1.9</v>
-      </c>
-      <c r="V195">
-        <v>1.9</v>
-      </c>
-      <c r="W195">
-        <v>-1</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
       <c r="Y195">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -18026,7 +18026,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7690590</v>
+        <v>7690594</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -18038,76 +18038,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K196">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L196">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="N196">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q196">
+        <v>-0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.95</v>
+      </c>
+      <c r="V196">
+        <v>1.85</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>2.3</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
         <v>-0.5</v>
       </c>
-      <c r="R196">
-        <v>1.775</v>
-      </c>
-      <c r="S196">
-        <v>2.025</v>
-      </c>
-      <c r="T196">
-        <v>2.25</v>
-      </c>
-      <c r="U196">
-        <v>1.85</v>
-      </c>
-      <c r="V196">
-        <v>1.95</v>
-      </c>
-      <c r="W196">
-        <v>-1</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>3.333</v>
-      </c>
-      <c r="Z196">
-        <v>-1</v>
-      </c>
       <c r="AA196">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18216,7 +18216,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
         <v>62</v>
@@ -18572,10 +18572,10 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18827,7 +18827,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7743546</v>
+        <v>7743545</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18839,76 +18839,76 @@
         <v>45317.625</v>
       </c>
       <c r="F205" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G205" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K205">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O205">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P205">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X205">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC205">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18916,7 +18916,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7743545</v>
+        <v>7743546</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18928,76 +18928,76 @@
         <v>45317.625</v>
       </c>
       <c r="F206" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G206" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K206">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L206">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N206">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O206">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P206">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
+        <v>2.025</v>
+      </c>
+      <c r="S206">
+        <v>1.775</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.725</v>
+      </c>
+      <c r="V206">
+        <v>1.975</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>1.8</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>-0.5</v>
+      </c>
+      <c r="AA206">
+        <v>0.3875</v>
+      </c>
+      <c r="AB206">
         <v>0</v>
       </c>
-      <c r="R206">
-        <v>1.95</v>
-      </c>
-      <c r="S206">
-        <v>1.85</v>
-      </c>
-      <c r="T206">
-        <v>2.25</v>
-      </c>
-      <c r="U206">
-        <v>1.975</v>
-      </c>
-      <c r="V206">
-        <v>1.825</v>
-      </c>
-      <c r="W206">
-        <v>1.55</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
-      <c r="Y206">
-        <v>-1</v>
-      </c>
-      <c r="Z206">
-        <v>0.95</v>
-      </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
-      <c r="AB206">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19284,10 +19284,10 @@
         <v>45318.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19910,7 +19910,7 @@
         <v>56</v>
       </c>
       <c r="G217" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19999,7 +19999,7 @@
         <v>67</v>
       </c>
       <c r="G218" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -20177,7 +20177,7 @@
         <v>57</v>
       </c>
       <c r="G220" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20263,7 +20263,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
         <v>44</v>
@@ -20352,7 +20352,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>76</v>
@@ -20530,10 +20530,10 @@
         <v>45332.5</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20711,7 +20711,7 @@
         <v>49</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7843096</v>
+        <v>7842640</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21153,49 +21153,49 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J231" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K231">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M231">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N231">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="O231">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="P231">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
         <v>2</v>
@@ -21204,25 +21204,25 @@
         <v>1.8</v>
       </c>
       <c r="W231">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z231">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC231">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21230,7 +21230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7842640</v>
+        <v>7843096</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21242,49 +21242,49 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G232" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K232">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L232">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M232">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N232">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="O232">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P232">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
         <v>2</v>
@@ -21293,25 +21293,25 @@
         <v>1.8</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA232">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB232">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21598,7 +21598,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
         <v>67</v>
@@ -21687,7 +21687,7 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
         <v>61</v>
@@ -21868,7 +21868,7 @@
         <v>48</v>
       </c>
       <c r="G239" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H239">
         <v>2</v>
@@ -21954,7 +21954,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
         <v>56</v>
@@ -22043,7 +22043,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
         <v>46</v>
@@ -22298,7 +22298,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7873346</v>
+        <v>7873430</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22310,76 +22310,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K244">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L244">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N244">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O244">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P244">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q244">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R244">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S244">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X244">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA244">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC244">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22387,7 +22387,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7873430</v>
+        <v>7873413</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22399,49 +22399,49 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G245" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K245">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M245">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N245">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="O245">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P245">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R245">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S245">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U245">
         <v>1.925</v>
@@ -22450,25 +22450,25 @@
         <v>1.875</v>
       </c>
       <c r="W245">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22476,7 +22476,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7873413</v>
+        <v>7873346</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22488,55 +22488,55 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G246" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>95</v>
       </c>
       <c r="K246">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L246">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M246">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N246">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O246">
         <v>3.1</v>
       </c>
       <c r="P246">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S246">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
         <v>2</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V246">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W246">
         <v>-1</v>
@@ -22548,16 +22548,16 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22577,7 +22577,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G247" t="s">
         <v>71</v>
@@ -22743,7 +22743,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7898969</v>
+        <v>7898970</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22755,58 +22755,58 @@
         <v>45352.625</v>
       </c>
       <c r="F249" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G249" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J249" t="s">
         <v>93</v>
       </c>
       <c r="K249">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L249">
+        <v>3</v>
+      </c>
+      <c r="M249">
+        <v>3.1</v>
+      </c>
+      <c r="N249">
+        <v>2.375</v>
+      </c>
+      <c r="O249">
         <v>2.9</v>
       </c>
-      <c r="M249">
-        <v>3.75</v>
-      </c>
-      <c r="N249">
-        <v>2.2</v>
-      </c>
-      <c r="O249">
-        <v>2.75</v>
-      </c>
       <c r="P249">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="T249">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U249">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W249">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22815,13 +22815,13 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC249">
         <v>-1</v>
@@ -22832,7 +22832,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7898970</v>
+        <v>7898969</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22844,58 +22844,58 @@
         <v>45352.625</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G250" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
         <v>93</v>
       </c>
       <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>2.9</v>
+      </c>
+      <c r="M250">
+        <v>3.75</v>
+      </c>
+      <c r="N250">
         <v>2.2</v>
       </c>
-      <c r="L250">
-        <v>3</v>
-      </c>
-      <c r="M250">
-        <v>3.1</v>
-      </c>
-      <c r="N250">
-        <v>2.375</v>
-      </c>
       <c r="O250">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P250">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q250">
         <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S250">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U250">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="X250">
         <v>-1</v>
@@ -22904,13 +22904,13 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC250">
         <v>-1</v>
@@ -23200,10 +23200,10 @@
         <v>45360.5</v>
       </c>
       <c r="F254" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G254" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23470,7 +23470,7 @@
         <v>42</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23645,7 +23645,7 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G259" t="s">
         <v>45</v>
@@ -23826,7 +23826,7 @@
         <v>55</v>
       </c>
       <c r="G261" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -24268,7 +24268,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
         <v>77</v>
@@ -24449,7 +24449,7 @@
         <v>62</v>
       </c>
       <c r="G268" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24624,7 +24624,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G270" t="s">
         <v>72</v>
@@ -24701,7 +24701,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7965142</v>
+        <v>7965146</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24713,73 +24713,73 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G271" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H271">
         <v>2</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K271">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L271">
+        <v>2.875</v>
+      </c>
+      <c r="M271">
+        <v>2.9</v>
+      </c>
+      <c r="N271">
+        <v>2.15</v>
+      </c>
+      <c r="O271">
+        <v>3</v>
+      </c>
+      <c r="P271">
         <v>3.1</v>
       </c>
-      <c r="M271">
-        <v>3.4</v>
-      </c>
-      <c r="N271">
+      <c r="Q271">
+        <v>-0.25</v>
+      </c>
+      <c r="R271">
+        <v>1.95</v>
+      </c>
+      <c r="S271">
         <v>1.85</v>
       </c>
-      <c r="O271">
-        <v>3.1</v>
-      </c>
-      <c r="P271">
-        <v>4</v>
-      </c>
-      <c r="Q271">
+      <c r="T271">
+        <v>2.25</v>
+      </c>
+      <c r="U271">
+        <v>2.025</v>
+      </c>
+      <c r="V271">
+        <v>1.775</v>
+      </c>
+      <c r="W271">
+        <v>-1</v>
+      </c>
+      <c r="X271">
+        <v>2</v>
+      </c>
+      <c r="Y271">
+        <v>-1</v>
+      </c>
+      <c r="Z271">
         <v>-0.5</v>
       </c>
-      <c r="R271">
-        <v>1.9</v>
-      </c>
-      <c r="S271">
-        <v>1.9</v>
-      </c>
-      <c r="T271">
-        <v>2</v>
-      </c>
-      <c r="U271">
-        <v>1.825</v>
-      </c>
-      <c r="V271">
-        <v>1.975</v>
-      </c>
-      <c r="W271">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X271">
-        <v>-1</v>
-      </c>
-      <c r="Y271">
-        <v>-1</v>
-      </c>
-      <c r="Z271">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB271">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC271">
         <v>-1</v>
@@ -24790,7 +24790,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7965143</v>
+        <v>7965142</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24802,46 +24802,46 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G272" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K272">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L272">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M272">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N272">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O272">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P272">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q272">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R272">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S272">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T272">
         <v>2</v>
@@ -24853,25 +24853,25 @@
         <v>1.975</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA272">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC272">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24879,7 +24879,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7965144</v>
+        <v>7965143</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24891,76 +24891,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G273" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H273">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273" t="s">
+        <v>94</v>
+      </c>
+      <c r="K273">
+        <v>2.45</v>
+      </c>
+      <c r="L273">
+        <v>2.875</v>
+      </c>
+      <c r="M273">
+        <v>2.75</v>
+      </c>
+      <c r="N273">
+        <v>2.45</v>
+      </c>
+      <c r="O273">
+        <v>2.875</v>
+      </c>
+      <c r="P273">
+        <v>2.75</v>
+      </c>
+      <c r="Q273">
         <v>0</v>
       </c>
-      <c r="J273" t="s">
-        <v>93</v>
-      </c>
-      <c r="K273">
-        <v>1.444</v>
-      </c>
-      <c r="L273">
-        <v>4.2</v>
-      </c>
-      <c r="M273">
-        <v>5.5</v>
-      </c>
-      <c r="N273">
-        <v>1.5</v>
-      </c>
-      <c r="O273">
-        <v>3.8</v>
-      </c>
-      <c r="P273">
-        <v>5.25</v>
-      </c>
-      <c r="Q273">
-        <v>-1</v>
-      </c>
       <c r="R273">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S273">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U273">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V273">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W273">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z273">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB273">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24968,7 +24968,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7965145</v>
+        <v>7965144</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24980,49 +24980,49 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G274" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K274">
+        <v>1.444</v>
+      </c>
+      <c r="L274">
+        <v>4.2</v>
+      </c>
+      <c r="M274">
+        <v>5.5</v>
+      </c>
+      <c r="N274">
+        <v>1.5</v>
+      </c>
+      <c r="O274">
+        <v>3.8</v>
+      </c>
+      <c r="P274">
+        <v>5.25</v>
+      </c>
+      <c r="Q274">
+        <v>-1</v>
+      </c>
+      <c r="R274">
+        <v>1.85</v>
+      </c>
+      <c r="S274">
+        <v>1.95</v>
+      </c>
+      <c r="T274">
         <v>2.5</v>
-      </c>
-      <c r="L274">
-        <v>2.75</v>
-      </c>
-      <c r="M274">
-        <v>2.875</v>
-      </c>
-      <c r="N274">
-        <v>2.5</v>
-      </c>
-      <c r="O274">
-        <v>2.75</v>
-      </c>
-      <c r="P274">
-        <v>2.875</v>
-      </c>
-      <c r="Q274">
-        <v>0</v>
-      </c>
-      <c r="R274">
-        <v>1.775</v>
-      </c>
-      <c r="S274">
-        <v>2.025</v>
-      </c>
-      <c r="T274">
-        <v>2</v>
       </c>
       <c r="U274">
         <v>1.95</v>
@@ -25031,19 +25031,19 @@
         <v>1.85</v>
       </c>
       <c r="W274">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X274">
         <v>-1</v>
       </c>
       <c r="Y274">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA274">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
         <v>0.95</v>
@@ -25057,7 +25057,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7965146</v>
+        <v>7965145</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -25069,73 +25069,73 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F275" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G275" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K275">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L275">
+        <v>2.75</v>
+      </c>
+      <c r="M275">
         <v>2.875</v>
       </c>
-      <c r="M275">
-        <v>2.9</v>
-      </c>
       <c r="N275">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O275">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P275">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R275">
+        <v>1.775</v>
+      </c>
+      <c r="S275">
+        <v>2.025</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
         <v>1.95</v>
       </c>
-      <c r="S275">
+      <c r="V275">
         <v>1.85</v>
       </c>
-      <c r="T275">
-        <v>2.25</v>
-      </c>
-      <c r="U275">
-        <v>2.025</v>
-      </c>
-      <c r="V275">
-        <v>1.775</v>
-      </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z275">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AB275">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC275">
         <v>-1</v>
@@ -25250,7 +25250,7 @@
         <v>42</v>
       </c>
       <c r="G277" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H277">
         <v>2</v>
@@ -25336,7 +25336,7 @@
         <v>45374.5</v>
       </c>
       <c r="F278" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G278" t="s">
         <v>57</v>
@@ -25591,7 +25591,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7995296</v>
+        <v>7995297</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25603,76 +25603,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G281" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K281">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L281">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M281">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N281">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O281">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P281">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q281">
         <v>-0.75</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S281">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA281">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25680,7 +25680,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7995297</v>
+        <v>7995296</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25692,76 +25692,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G282" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K282">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L282">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M282">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N282">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O282">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P282">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q282">
         <v>-0.75</v>
       </c>
       <c r="R282">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T282">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W282">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z282">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC282">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25769,7 +25769,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7995189</v>
+        <v>7995294</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25781,76 +25781,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G283" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K283">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="L283">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M283">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N283">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="O283">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P283">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="Q283">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S283">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V283">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA283">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25858,7 +25858,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7995190</v>
+        <v>7995293</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25870,76 +25870,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G284" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K284">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L284">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M284">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N284">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O284">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P284">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q284">
         <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S284">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T284">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U284">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X284">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA284">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC284">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25947,7 +25947,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7995188</v>
+        <v>7995242</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25959,55 +25959,55 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G285" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
         <v>1</v>
-      </c>
-      <c r="I285">
-        <v>2</v>
       </c>
       <c r="J285" t="s">
         <v>94</v>
       </c>
       <c r="K285">
+        <v>1.727</v>
+      </c>
+      <c r="L285">
+        <v>3.5</v>
+      </c>
+      <c r="M285">
+        <v>4</v>
+      </c>
+      <c r="N285">
+        <v>1.727</v>
+      </c>
+      <c r="O285">
+        <v>3.5</v>
+      </c>
+      <c r="P285">
+        <v>4</v>
+      </c>
+      <c r="Q285">
+        <v>-0.5</v>
+      </c>
+      <c r="R285">
+        <v>1.75</v>
+      </c>
+      <c r="S285">
+        <v>1.95</v>
+      </c>
+      <c r="T285">
         <v>2.25</v>
       </c>
-      <c r="L285">
-        <v>2.8</v>
-      </c>
-      <c r="M285">
-        <v>3.2</v>
-      </c>
-      <c r="N285">
-        <v>2.25</v>
-      </c>
-      <c r="O285">
-        <v>2.75</v>
-      </c>
-      <c r="P285">
-        <v>3.2</v>
-      </c>
-      <c r="Q285">
-        <v>-0.25</v>
-      </c>
-      <c r="R285">
-        <v>1.975</v>
-      </c>
-      <c r="S285">
-        <v>1.825</v>
-      </c>
-      <c r="T285">
-        <v>2</v>
-      </c>
       <c r="U285">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V285">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W285">
         <v>-1</v>
@@ -26016,19 +26016,19 @@
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB285">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26125,7 +26125,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7995242</v>
+        <v>7995196</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26137,55 +26137,55 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G287" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J287" t="s">
         <v>94</v>
       </c>
       <c r="K287">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L287">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="M287">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N287">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="O287">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P287">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q287">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R287">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S287">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T287">
         <v>2.25</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V287">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W287">
         <v>-1</v>
@@ -26194,19 +26194,19 @@
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>3</v>
+        <v>1.15</v>
       </c>
       <c r="Z287">
         <v>-1</v>
       </c>
       <c r="AA287">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC287">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26214,7 +26214,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7995293</v>
+        <v>7995190</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26226,76 +26226,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G288" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288" t="s">
+        <v>95</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
         <v>3</v>
       </c>
-      <c r="I288">
-        <v>0</v>
-      </c>
-      <c r="J288" t="s">
-        <v>93</v>
-      </c>
-      <c r="K288">
-        <v>2.3</v>
-      </c>
-      <c r="L288">
-        <v>2.75</v>
-      </c>
       <c r="M288">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N288">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O288">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P288">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q288">
         <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S288">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T288">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U288">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V288">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W288">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB288">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26303,7 +26303,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7995294</v>
+        <v>7995189</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26315,76 +26315,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G289" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H289">
         <v>1</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J289" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K289">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L289">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M289">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N289">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="O289">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P289">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="Q289">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R289">
+        <v>1.925</v>
+      </c>
+      <c r="S289">
+        <v>1.875</v>
+      </c>
+      <c r="T289">
+        <v>2.5</v>
+      </c>
+      <c r="U289">
         <v>1.95</v>
       </c>
-      <c r="S289">
+      <c r="V289">
         <v>1.85</v>
       </c>
-      <c r="T289">
-        <v>2</v>
-      </c>
-      <c r="U289">
-        <v>1.775</v>
-      </c>
-      <c r="V289">
-        <v>2.025</v>
-      </c>
       <c r="W289">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z289">
+        <v>-1</v>
+      </c>
+      <c r="AA289">
+        <v>0.875</v>
+      </c>
+      <c r="AB289">
         <v>0.95</v>
       </c>
-      <c r="AA289">
-        <v>-1</v>
-      </c>
-      <c r="AB289">
-        <v>-1</v>
-      </c>
       <c r="AC289">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26392,7 +26392,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7995196</v>
+        <v>7995188</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26404,56 +26404,56 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F290" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G290" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J290" t="s">
         <v>94</v>
       </c>
       <c r="K290">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L290">
         <v>2.8</v>
       </c>
       <c r="M290">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N290">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="O290">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P290">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q290">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
+        <v>1.975</v>
+      </c>
+      <c r="S290">
+        <v>1.825</v>
+      </c>
+      <c r="T290">
+        <v>2</v>
+      </c>
+      <c r="U290">
         <v>1.9</v>
       </c>
-      <c r="S290">
+      <c r="V290">
         <v>1.9</v>
       </c>
-      <c r="T290">
-        <v>2.25</v>
-      </c>
-      <c r="U290">
-        <v>2.025</v>
-      </c>
-      <c r="V290">
-        <v>1.775</v>
-      </c>
       <c r="W290">
         <v>-1</v>
       </c>
@@ -26461,16 +26461,16 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>1.15</v>
+        <v>2.2</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
+        <v>0.825</v>
+      </c>
+      <c r="AB290">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB290">
-        <v>1.025</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26493,7 +26493,7 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G291" t="s">
         <v>48</v>

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -103,34 +103,34 @@
     <t>France National 2</t>
   </si>
   <si>
+    <t>FC Chartres</t>
+  </si>
+  <si>
+    <t>Grasse</t>
+  </si>
+  <si>
     <t>Colmar</t>
+  </si>
+  <si>
+    <t>Racing Paris</t>
   </si>
   <si>
     <t>Olympique dAles</t>
   </si>
   <si>
-    <t>Grasse</t>
+    <t>Beauvais</t>
   </si>
   <si>
-    <t>FC Chartres</t>
+    <t>Wasquehal</t>
   </si>
   <si>
-    <t>Racing Paris</t>
-  </si>
-  <si>
-    <t>Sporting Club Toulon</t>
+    <t>Furiani Agliani</t>
   </si>
   <si>
     <t>Creteil</t>
   </si>
   <si>
-    <t>Beauvais</t>
-  </si>
-  <si>
-    <t>Furiani Agliani</t>
-  </si>
-  <si>
-    <t>Wasquehal</t>
+    <t>Sporting Club Toulon</t>
   </si>
   <si>
     <t>Lyon II</t>
@@ -157,6 +157,9 @@
     <t>Saint Malo</t>
   </si>
   <si>
+    <t>Hyeres FC</t>
+  </si>
+  <si>
     <t>Asf Andrezieux</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
   </si>
   <si>
     <t>Chambly Thelle FC</t>
-  </si>
-  <si>
-    <t>Hyeres FC</t>
   </si>
   <si>
     <t>Lorient II</t>
@@ -229,10 +229,10 @@
     <t>Libourne</t>
   </si>
   <si>
-    <t>BourgPeronnas</t>
+    <t>FC Fleury 91</t>
   </si>
   <si>
-    <t>FC Fleury 91</t>
+    <t>BourgPeronnas</t>
   </si>
   <si>
     <t>La Roche VF</t>
@@ -250,22 +250,22 @@
     <t>Granville</t>
   </si>
   <si>
-    <t>Lyon Duchere</t>
-  </si>
-  <si>
     <t>Jura Sud Foot</t>
   </si>
   <si>
-    <t>Canet Roussillon</t>
+    <t>Lyon Duchere</t>
   </si>
   <si>
     <t>Rouen</t>
   </si>
   <si>
+    <t>ASM Belfort</t>
+  </si>
+  <si>
     <t>Sainte Genevieve Sports</t>
   </si>
   <si>
-    <t>ASM Belfort</t>
+    <t>Canet Roussillon</t>
   </si>
   <si>
     <t>Voltigeurs de Chateaubriant</t>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6730011</v>
+        <v>6730012</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -775,10 +775,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -787,31 +787,31 @@
         <v>93</v>
       </c>
       <c r="K2">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="N2">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O2">
         <v>3.4</v>
       </c>
       <c r="P2">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q2">
         <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.75</v>
@@ -823,7 +823,7 @@
         <v>1.825</v>
       </c>
       <c r="W2">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -832,7 +832,7 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA2">
         <v>-1</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6730007</v>
+        <v>6730010</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -867,70 +867,70 @@
         <v>78</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3">
+        <v>2.2</v>
+      </c>
+      <c r="L3">
+        <v>3.3</v>
+      </c>
+      <c r="M3">
+        <v>2.8</v>
+      </c>
+      <c r="N3">
+        <v>2.05</v>
+      </c>
+      <c r="O3">
+        <v>3.3</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3">
-        <v>1.5</v>
-      </c>
-      <c r="L3">
-        <v>3.75</v>
-      </c>
-      <c r="M3">
-        <v>5.5</v>
-      </c>
-      <c r="N3">
-        <v>1.4</v>
-      </c>
-      <c r="O3">
-        <v>4.2</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6730010</v>
+        <v>6730011</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -953,73 +953,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N4">
+        <v>2.7</v>
+      </c>
+      <c r="O4">
+        <v>3.4</v>
+      </c>
+      <c r="P4">
+        <v>2.3</v>
+      </c>
+      <c r="Q4">
+        <v>0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.75</v>
+      </c>
+      <c r="S4">
         <v>2.05</v>
-      </c>
-      <c r="O4">
-        <v>3.3</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.85</v>
-      </c>
-      <c r="S4">
-        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6730012</v>
+        <v>6730013</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1042,55 +1042,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>93</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N5">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1099,16 +1099,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1116,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6730013</v>
+        <v>6730007</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1131,13 +1131,13 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>93</v>
@@ -1152,34 +1152,34 @@
         <v>5.5</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1188,16 +1188,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>0.875</v>
+      </c>
+      <c r="AB6">
         <v>0.825</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6727601</v>
+        <v>6730003</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1223,67 +1223,67 @@
         <v>80</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>3.1</v>
+      </c>
+      <c r="L7">
+        <v>3.6</v>
+      </c>
+      <c r="M7">
+        <v>1.95</v>
+      </c>
+      <c r="N7">
+        <v>3.1</v>
+      </c>
+      <c r="O7">
+        <v>3.75</v>
+      </c>
+      <c r="P7">
+        <v>1.95</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
+        <v>1.975</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>0.95</v>
+      </c>
+      <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>3.25</v>
-      </c>
-      <c r="M7">
-        <v>3.3</v>
-      </c>
-      <c r="N7">
-        <v>1.7</v>
-      </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
-      <c r="P7">
-        <v>4.2</v>
-      </c>
-      <c r="Q7">
-        <v>-0.75</v>
-      </c>
-      <c r="R7">
-        <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.775</v>
-      </c>
-      <c r="V7">
-        <v>2.025</v>
-      </c>
-      <c r="W7">
-        <v>0.7</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>0.475</v>
-      </c>
-      <c r="AA7">
-        <v>-0.5</v>
-      </c>
       <c r="AB7">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1294,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6730002</v>
+        <v>6730005</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1309,13 +1309,13 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
         <v>94</v>
@@ -1324,37 +1324,37 @@
         <v>2.4</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P8">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1363,19 +1363,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1383,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6730003</v>
+        <v>6730004</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1398,73 +1398,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
+        <v>1.775</v>
+      </c>
+      <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>2.5</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.8</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>1.825</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6730004</v>
+        <v>6730002</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1487,73 +1487,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P10">
         <v>2.25</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z10">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1561,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6730005</v>
+        <v>6727601</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1582,64 +1582,64 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N11">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
         <v>1.85</v>
       </c>
-      <c r="S11">
-        <v>1.95</v>
-      </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA11">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1843,7 +1843,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2107,7 +2107,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -2463,10 +2463,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7120892</v>
+        <v>7121662</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2552,76 +2552,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>93</v>
       </c>
       <c r="K22">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L22">
         <v>3</v>
       </c>
       <c r="M22">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O22">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>1.875</v>
+      </c>
+      <c r="V22">
+        <v>1.925</v>
+      </c>
+      <c r="W22">
+        <v>1.4</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>-0.5</v>
       </c>
-      <c r="R22">
-        <v>1.8</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.775</v>
-      </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
-      <c r="W22">
-        <v>0.75</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.8</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2629,7 +2629,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7121837</v>
+        <v>7120892</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2641,13 +2641,13 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2656,43 +2656,43 @@
         <v>93</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>2</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W23">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2701,13 +2701,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2718,7 +2718,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7122190</v>
+        <v>7121837</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2733,73 +2733,73 @@
         <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
+        <v>2.2</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3.1</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.975</v>
+      </c>
+      <c r="S24">
+        <v>1.825</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
         <v>1.8</v>
       </c>
-      <c r="O24">
-        <v>3.25</v>
-      </c>
-      <c r="P24">
-        <v>4</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.8</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>1.975</v>
-      </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X24">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2807,7 +2807,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7122192</v>
+        <v>7122190</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2822,73 +2822,73 @@
         <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K25">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N25">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
+        <v>3.25</v>
+      </c>
+      <c r="P25">
         <v>4</v>
       </c>
-      <c r="P25">
-        <v>6.5</v>
-      </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2896,7 +2896,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7121662</v>
+        <v>7122192</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2911,7 +2911,7 @@
         <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2923,43 +2923,43 @@
         <v>93</v>
       </c>
       <c r="K26">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L26">
+        <v>3.75</v>
+      </c>
+      <c r="M26">
+        <v>5.5</v>
+      </c>
+      <c r="N26">
+        <v>1.4</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>6.5</v>
+      </c>
+      <c r="Q26">
+        <v>-1.25</v>
+      </c>
+      <c r="R26">
+        <v>1.9</v>
+      </c>
+      <c r="S26">
+        <v>1.9</v>
+      </c>
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="M26">
-        <v>2.75</v>
-      </c>
-      <c r="N26">
-        <v>2.4</v>
-      </c>
-      <c r="O26">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>2.75</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1.775</v>
-      </c>
-      <c r="S26">
-        <v>2.025</v>
-      </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2968,16 +2968,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3531,10 +3531,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7152407</v>
+        <v>7152456</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3709,40 +3709,40 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O35">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
         <v>1.8</v>
@@ -3751,34 +3751,34 @@
         <v>2</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3875,7 +3875,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7152456</v>
+        <v>7152407</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3887,40 +3887,40 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K37">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N37">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>1.8</v>
@@ -3929,34 +3929,34 @@
         <v>2</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3979,7 +3979,7 @@
         <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4065,7 +4065,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
@@ -4154,10 +4154,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7176761</v>
+        <v>7176760</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4332,13 +4332,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -4347,40 +4347,40 @@
         <v>94</v>
       </c>
       <c r="K42">
+        <v>2.1</v>
+      </c>
+      <c r="L42">
+        <v>3.75</v>
+      </c>
+      <c r="M42">
+        <v>2.7</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
         <v>3.6</v>
       </c>
-      <c r="L42">
-        <v>3.25</v>
-      </c>
-      <c r="M42">
-        <v>1.909</v>
-      </c>
-      <c r="N42">
+      <c r="P42">
+        <v>3.1</v>
+      </c>
+      <c r="Q42">
+        <v>-0.5</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>1.8</v>
+      </c>
+      <c r="T42">
         <v>2.25</v>
       </c>
-      <c r="O42">
-        <v>3.1</v>
-      </c>
-      <c r="P42">
-        <v>2.875</v>
-      </c>
-      <c r="Q42">
-        <v>-0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.975</v>
-      </c>
-      <c r="S42">
-        <v>1.825</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4389,19 +4389,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4409,7 +4409,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7176760</v>
+        <v>7176761</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4421,13 +4421,13 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -4436,40 +4436,40 @@
         <v>94</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P43">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4478,19 +4478,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4510,10 +4510,10 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>58</v>
@@ -4955,7 +4955,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
         <v>56</v>
@@ -5044,7 +5044,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
         <v>84</v>
@@ -5136,7 +5136,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5222,7 +5222,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>74</v>
@@ -5492,7 +5492,7 @@
         <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5578,7 +5578,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>57</v>
@@ -6026,7 +6026,7 @@
         <v>53</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6290,7 +6290,7 @@
         <v>45185.5</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
         <v>62</v>
@@ -6456,7 +6456,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7215518</v>
+        <v>7215466</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6468,58 +6468,58 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>1</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>93</v>
       </c>
       <c r="K66">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M66">
+        <v>2.2</v>
+      </c>
+      <c r="N66">
         <v>4.2</v>
       </c>
-      <c r="N66">
-        <v>1.55</v>
-      </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P66">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>0.55</v>
+        <v>3.2</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6528,16 +6528,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6545,7 +6545,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7215467</v>
+        <v>7215518</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6557,58 +6557,58 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>93</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M67">
         <v>4.2</v>
       </c>
       <c r="N67">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>0.7270000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6617,16 +6617,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6634,7 +6634,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7215517</v>
+        <v>7215467</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6646,73 +6646,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K68">
+        <v>1.727</v>
+      </c>
+      <c r="L68">
+        <v>3.4</v>
+      </c>
+      <c r="M68">
+        <v>4.2</v>
+      </c>
+      <c r="N68">
+        <v>1.727</v>
+      </c>
+      <c r="O68">
+        <v>3.4</v>
+      </c>
+      <c r="P68">
+        <v>4.2</v>
+      </c>
+      <c r="Q68">
+        <v>-0.75</v>
+      </c>
+      <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
+        <v>1.825</v>
+      </c>
+      <c r="T68">
         <v>2.25</v>
       </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
-      <c r="M68">
-        <v>3</v>
-      </c>
-      <c r="N68">
-        <v>2</v>
-      </c>
-      <c r="O68">
-        <v>3.1</v>
-      </c>
-      <c r="P68">
-        <v>3.5</v>
-      </c>
-      <c r="Q68">
-        <v>-0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.775</v>
-      </c>
-      <c r="S68">
-        <v>2.025</v>
-      </c>
-      <c r="T68">
-        <v>2</v>
-      </c>
       <c r="U68">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6723,7 +6723,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7215466</v>
+        <v>7215517</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6735,73 +6735,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K69">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
         <v>3</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W69">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6824,7 +6824,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -7002,10 +7002,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7091,10 +7091,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7358,7 +7358,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>51</v>
@@ -7450,7 +7450,7 @@
         <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>61</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7981,7 +7981,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s">
         <v>68</v>
@@ -8070,10 +8070,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>55</v>
@@ -8236,7 +8236,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7244444</v>
+        <v>7244429</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8248,73 +8248,73 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>94</v>
+      </c>
+      <c r="K86">
         <v>3</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>93</v>
-      </c>
-      <c r="K86">
-        <v>2</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q86">
         <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z86">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8325,7 +8325,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7244429</v>
+        <v>7244426</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8337,73 +8337,73 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
       <c r="J87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
         <v>3.1</v>
       </c>
       <c r="M87">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P87">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA87">
+        <v>-0.5</v>
+      </c>
+      <c r="AB87">
         <v>0.825</v>
-      </c>
-      <c r="AB87">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8414,7 +8414,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7244426</v>
+        <v>7244425</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8426,58 +8426,58 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>93</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
         <v>3.1</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>0.6000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8486,13 +8486,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8515,10 +8515,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8592,7 +8592,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7244425</v>
+        <v>7244444</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8604,58 +8604,58 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G90" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>93</v>
       </c>
       <c r="K90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L90">
         <v>3.1</v>
       </c>
       <c r="M90">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O90">
         <v>3.1</v>
       </c>
       <c r="P90">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8664,13 +8664,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>1</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8871,7 +8871,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>51</v>
@@ -8960,7 +8960,7 @@
         <v>45206.5</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G94" t="s">
         <v>41</v>
@@ -9393,7 +9393,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7304511</v>
+        <v>7305039</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9405,76 +9405,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9482,7 +9482,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7305039</v>
+        <v>7304518</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9494,13 +9494,13 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9509,40 +9509,40 @@
         <v>93</v>
       </c>
       <c r="K100">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N100">
         <v>1.95</v>
       </c>
       <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100">
         <v>3.5</v>
       </c>
-      <c r="P100">
-        <v>3.2</v>
-      </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
         <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
       </c>
       <c r="W100">
         <v>0.95</v>
@@ -9554,7 +9554,7 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
@@ -9563,7 +9563,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9571,7 +9571,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7304518</v>
+        <v>7304517</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9583,76 +9583,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9660,7 +9660,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7304517</v>
+        <v>7304511</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9672,61 +9672,61 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>95</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
@@ -9735,13 +9735,13 @@
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9764,7 +9764,7 @@
         <v>46</v>
       </c>
       <c r="G103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9853,7 +9853,7 @@
         <v>75</v>
       </c>
       <c r="G104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -10028,7 +10028,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>85</v>
@@ -10117,7 +10117,7 @@
         <v>45219.625</v>
       </c>
       <c r="F107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G107" t="s">
         <v>54</v>
@@ -10295,7 +10295,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>62</v>
@@ -10639,7 +10639,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7362873</v>
+        <v>7363348</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10651,10 +10651,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10666,61 +10666,61 @@
         <v>95</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N113">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q113">
+        <v>0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.775</v>
+      </c>
+      <c r="S113">
+        <v>2.025</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
+        <v>1.85</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>2.2</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0.3875</v>
+      </c>
+      <c r="AA113">
         <v>-0.5</v>
       </c>
-      <c r="R113">
-        <v>1.85</v>
-      </c>
-      <c r="S113">
-        <v>1.95</v>
-      </c>
-      <c r="T113">
-        <v>2.25</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.5</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
-      <c r="AA113">
-        <v>0.95</v>
-      </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10728,7 +10728,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7363348</v>
+        <v>7362873</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10740,10 +10740,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10755,61 +10755,61 @@
         <v>95</v>
       </c>
       <c r="K114">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
+        <v>3.75</v>
+      </c>
+      <c r="N114">
+        <v>1.8</v>
+      </c>
+      <c r="O114">
+        <v>3.5</v>
+      </c>
+      <c r="P114">
+        <v>3.75</v>
+      </c>
+      <c r="Q114">
+        <v>-0.5</v>
+      </c>
+      <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
+        <v>1.95</v>
+      </c>
+      <c r="T114">
         <v>2.25</v>
       </c>
-      <c r="N114">
-        <v>2.8</v>
-      </c>
-      <c r="O114">
-        <v>3.2</v>
-      </c>
-      <c r="P114">
-        <v>2.25</v>
-      </c>
-      <c r="Q114">
-        <v>0.25</v>
-      </c>
-      <c r="R114">
-        <v>1.775</v>
-      </c>
-      <c r="S114">
-        <v>2.025</v>
-      </c>
-      <c r="T114">
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
         <v>2.5</v>
       </c>
-      <c r="U114">
-        <v>1.95</v>
-      </c>
-      <c r="V114">
-        <v>1.85</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>2.2</v>
-      </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
+        <v>0.95</v>
+      </c>
+      <c r="AB114">
         <v>-0.5</v>
       </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10829,7 +10829,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>75</v>
@@ -10906,7 +10906,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7363042</v>
+        <v>7363154</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10918,73 +10918,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K116">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N116">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T116">
         <v>2.25</v>
       </c>
       <c r="U116">
+        <v>1.925</v>
+      </c>
+      <c r="V116">
+        <v>1.875</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
         <v>1.8</v>
       </c>
-      <c r="V116">
-        <v>2</v>
-      </c>
-      <c r="W116">
-        <v>1.1</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10995,7 +10995,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7363154</v>
+        <v>7363042</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11007,73 +11007,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
         <v>1</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
       <c r="J117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11099,7 +11099,7 @@
         <v>61</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>57</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11796,7 +11796,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7427015</v>
+        <v>7427013</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11808,76 +11808,76 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>94</v>
+      </c>
+      <c r="K126">
+        <v>1.181</v>
+      </c>
+      <c r="L126">
+        <v>5.5</v>
+      </c>
+      <c r="M126">
+        <v>12</v>
+      </c>
+      <c r="N126">
+        <v>1.181</v>
+      </c>
+      <c r="O126">
+        <v>5.5</v>
+      </c>
+      <c r="P126">
+        <v>12</v>
+      </c>
+      <c r="Q126">
+        <v>-2</v>
+      </c>
+      <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
         <v>3</v>
       </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>93</v>
-      </c>
-      <c r="K126">
-        <v>2.4</v>
-      </c>
-      <c r="L126">
-        <v>3.25</v>
-      </c>
-      <c r="M126">
-        <v>2.6</v>
-      </c>
-      <c r="N126">
-        <v>2.875</v>
-      </c>
-      <c r="O126">
-        <v>3.1</v>
-      </c>
-      <c r="P126">
-        <v>2.3</v>
-      </c>
-      <c r="Q126">
-        <v>0.25</v>
-      </c>
-      <c r="R126">
-        <v>1.75</v>
-      </c>
-      <c r="S126">
-        <v>2.05</v>
-      </c>
-      <c r="T126">
-        <v>2</v>
-      </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W126">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z126">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11885,7 +11885,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7427013</v>
+        <v>7427024</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11897,76 +11897,76 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K127">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="L127">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>12</v>
+        <v>2.75</v>
       </c>
       <c r="N127">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="O127">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P127">
-        <v>12</v>
+        <v>2.75</v>
       </c>
       <c r="Q127">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y127">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11974,7 +11974,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7427024</v>
+        <v>7427025</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11986,76 +11986,76 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G128" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K128">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="N128">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O128">
         <v>3.3</v>
       </c>
       <c r="P128">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12063,7 +12063,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7427025</v>
+        <v>7427015</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -12075,73 +12075,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G129" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
         <v>0</v>
       </c>
-      <c r="I129">
-        <v>3</v>
-      </c>
       <c r="J129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K129">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N129">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="O129">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
         <v>1.75</v>
       </c>
       <c r="S129">
+        <v>2.05</v>
+      </c>
+      <c r="T129">
+        <v>2</v>
+      </c>
+      <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
         <v>1.95</v>
       </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.9</v>
-      </c>
-      <c r="V129">
-        <v>1.9</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
         <v>0.75</v>
       </c>
-      <c r="Z129">
-        <v>-1</v>
-      </c>
       <c r="AA129">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12164,10 +12164,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12342,7 +12342,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -12431,10 +12431,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12698,7 +12698,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12965,7 +12965,7 @@
         <v>45240.66666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G139" t="s">
         <v>65</v>
@@ -13042,7 +13042,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7458010</v>
+        <v>7458116</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13054,73 +13054,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>2</v>
-      </c>
       <c r="J140" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N140">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
+        <v>1.775</v>
+      </c>
+      <c r="S140">
         <v>2.025</v>
       </c>
-      <c r="S140">
-        <v>1.775</v>
-      </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA140">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13131,7 +13131,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7458116</v>
+        <v>7458117</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13143,40 +13143,40 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>95</v>
+      </c>
+      <c r="K141">
+        <v>2.2</v>
+      </c>
+      <c r="L141">
+        <v>3.1</v>
+      </c>
+      <c r="M141">
         <v>3</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141" t="s">
-        <v>93</v>
-      </c>
-      <c r="K141">
-        <v>2.375</v>
-      </c>
-      <c r="L141">
-        <v>3.2</v>
-      </c>
-      <c r="M141">
-        <v>2.625</v>
-      </c>
       <c r="N141">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
         <v>1.775</v>
@@ -13185,7 +13185,7 @@
         <v>2.025</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
         <v>1.9</v>
@@ -13194,25 +13194,25 @@
         <v>1.9</v>
       </c>
       <c r="W141">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13220,7 +13220,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7458117</v>
+        <v>7458191</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13232,16 +13232,16 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>95</v>
@@ -13256,31 +13256,31 @@
         <v>3</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
         <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13295,13 +13295,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.5125</v>
+        <v>0.375</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13309,7 +13309,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7458118</v>
+        <v>7461270</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13321,76 +13321,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2.875</v>
+        <v>2.35</v>
       </c>
       <c r="N143">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AA143">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13398,7 +13398,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7458191</v>
+        <v>7458009</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13410,76 +13410,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
         <v>3.1</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O144">
         <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
+        <v>1.775</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
         <v>1.75</v>
       </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
-      <c r="U144">
-        <v>1.85</v>
-      </c>
-      <c r="V144">
-        <v>1.95</v>
-      </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA144">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13487,7 +13487,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7461270</v>
+        <v>7458008</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13499,13 +13499,13 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="G145" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13514,43 +13514,43 @@
         <v>93</v>
       </c>
       <c r="K145">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="N145">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R145">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>1.75</v>
+        <v>0.615</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13559,16 +13559,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13576,7 +13576,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7458009</v>
+        <v>7458118</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13588,19 +13588,19 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H146">
         <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K146">
         <v>2.25</v>
@@ -13630,34 +13630,34 @@
         <v>1.775</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="V146">
-        <v>1.75</v>
-      </c>
       <c r="W146">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13665,7 +13665,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7458007</v>
+        <v>7457945</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13677,76 +13677,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G147" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L147">
         <v>3.2</v>
       </c>
       <c r="M147">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N147">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X147">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13754,7 +13754,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7458008</v>
+        <v>7458007</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13766,76 +13766,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G148" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K148">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L148">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O148">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
         <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13843,7 +13843,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7457944</v>
+        <v>7458010</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13855,76 +13855,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K149">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M149">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N149">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O149">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P149">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
+        <v>2.025</v>
+      </c>
+      <c r="S149">
+        <v>1.775</v>
+      </c>
+      <c r="T149">
+        <v>2.25</v>
+      </c>
+      <c r="U149">
         <v>1.825</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.975</v>
       </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
-      <c r="U149">
-        <v>1.95</v>
-      </c>
-      <c r="V149">
-        <v>1.75</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13932,7 +13932,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7458192</v>
+        <v>7457944</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13944,40 +13944,40 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>95</v>
       </c>
       <c r="K150">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="L150">
         <v>3.25</v>
       </c>
       <c r="M150">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="N150">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="O150">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P150">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
         <v>1.825</v>
@@ -13998,16 +13998,16 @@
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB150">
         <v>-1</v>
@@ -14021,7 +14021,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7460132</v>
+        <v>7458192</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -14033,76 +14033,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G151" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>95</v>
       </c>
       <c r="K151">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="L151">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M151">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="N151">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R151">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
         <v>2.5</v>
       </c>
       <c r="U151">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA151">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14110,7 +14110,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7457899</v>
+        <v>7460132</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14122,55 +14122,55 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>95</v>
       </c>
       <c r="K152">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="L152">
         <v>3</v>
       </c>
       <c r="M152">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N152">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O152">
         <v>3</v>
       </c>
       <c r="P152">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q152">
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S152">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14188,10 +14188,10 @@
         <v>-0</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14199,7 +14199,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7457945</v>
+        <v>7457899</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14211,76 +14211,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>95</v>
+      </c>
+      <c r="K153">
+        <v>2.55</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>2.55</v>
+      </c>
+      <c r="N153">
+        <v>2.375</v>
+      </c>
+      <c r="O153">
+        <v>3</v>
+      </c>
+      <c r="P153">
+        <v>2.75</v>
+      </c>
+      <c r="Q153">
         <v>0</v>
       </c>
-      <c r="J153" t="s">
-        <v>93</v>
-      </c>
-      <c r="K153">
-        <v>2</v>
-      </c>
-      <c r="L153">
-        <v>3.2</v>
-      </c>
-      <c r="M153">
-        <v>3.3</v>
-      </c>
-      <c r="N153">
-        <v>2</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
-      <c r="P153">
-        <v>3.3</v>
-      </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14303,7 +14303,7 @@
         <v>61</v>
       </c>
       <c r="G154" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14567,10 +14567,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14745,7 +14745,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G159" t="s">
         <v>55</v>
@@ -15012,7 +15012,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>76</v>
@@ -15190,7 +15190,7 @@
         <v>45255.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
         <v>84</v>
@@ -15279,7 +15279,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G165" t="s">
         <v>60</v>
@@ -15368,7 +15368,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G166" t="s">
         <v>57</v>
@@ -15546,10 +15546,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15635,10 +15635,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15727,7 +15727,7 @@
         <v>56</v>
       </c>
       <c r="G170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15979,7 +15979,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7590832</v>
+        <v>7590841</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15991,55 +15991,55 @@
         <v>45275.625</v>
       </c>
       <c r="F173" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>95</v>
       </c>
       <c r="K173">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="L173">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N173">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O173">
         <v>3.25</v>
       </c>
       <c r="P173">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
+        <v>1.725</v>
+      </c>
+      <c r="S173">
+        <v>1.975</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>1.875</v>
+      </c>
+      <c r="V173">
         <v>1.925</v>
-      </c>
-      <c r="S173">
-        <v>1.875</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.85</v>
-      </c>
-      <c r="V173">
-        <v>1.95</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -16051,16 +16051,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA173">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16068,7 +16068,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7590841</v>
+        <v>7590832</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16080,55 +16080,55 @@
         <v>45275.625</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G174" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>95</v>
       </c>
       <c r="K174">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M174">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N174">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="O174">
         <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q174">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -16140,16 +16140,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16169,7 +16169,7 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G175" t="s">
         <v>55</v>
@@ -16246,7 +16246,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7594560</v>
+        <v>7594506</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16258,76 +16258,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G176" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K176">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L176">
+        <v>3.1</v>
+      </c>
+      <c r="M176">
+        <v>3.1</v>
+      </c>
+      <c r="N176">
+        <v>1.85</v>
+      </c>
+      <c r="O176">
         <v>3.2</v>
       </c>
-      <c r="M176">
-        <v>3.6</v>
-      </c>
-      <c r="N176">
-        <v>2.2</v>
-      </c>
-      <c r="O176">
+      <c r="P176">
+        <v>4</v>
+      </c>
+      <c r="Q176">
+        <v>-0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
+        <v>1.85</v>
+      </c>
+      <c r="T176">
+        <v>2.25</v>
+      </c>
+      <c r="U176">
+        <v>2</v>
+      </c>
+      <c r="V176">
+        <v>1.8</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
         <v>3</v>
       </c>
-      <c r="P176">
-        <v>3.1</v>
-      </c>
-      <c r="Q176">
-        <v>-0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.975</v>
-      </c>
-      <c r="S176">
-        <v>1.825</v>
-      </c>
-      <c r="T176">
-        <v>2</v>
-      </c>
-      <c r="U176">
-        <v>1.975</v>
-      </c>
-      <c r="V176">
-        <v>1.825</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>2</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
       <c r="Z176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16347,7 +16347,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G177" t="s">
         <v>59</v>
@@ -16436,7 +16436,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
         <v>54</v>
@@ -16528,7 +16528,7 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16614,7 +16614,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
         <v>40</v>
@@ -16691,7 +16691,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7594506</v>
+        <v>7594560</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16703,76 +16703,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K181">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L181">
+        <v>3.2</v>
+      </c>
+      <c r="M181">
+        <v>3.6</v>
+      </c>
+      <c r="N181">
+        <v>2.2</v>
+      </c>
+      <c r="O181">
+        <v>3</v>
+      </c>
+      <c r="P181">
         <v>3.1</v>
       </c>
-      <c r="M181">
-        <v>3.1</v>
-      </c>
-      <c r="N181">
-        <v>1.85</v>
-      </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>4</v>
-      </c>
       <c r="Q181">
+        <v>-0.25</v>
+      </c>
+      <c r="R181">
+        <v>1.975</v>
+      </c>
+      <c r="S181">
+        <v>1.825</v>
+      </c>
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>1.975</v>
+      </c>
+      <c r="V181">
+        <v>1.825</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>2</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
         <v>-0.5</v>
       </c>
-      <c r="R181">
-        <v>1.95</v>
-      </c>
-      <c r="S181">
-        <v>1.85</v>
-      </c>
-      <c r="T181">
-        <v>2.25</v>
-      </c>
-      <c r="U181">
-        <v>2</v>
-      </c>
-      <c r="V181">
-        <v>1.8</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>3</v>
-      </c>
-      <c r="Z181">
-        <v>-1</v>
-      </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16795,7 +16795,7 @@
         <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -17062,7 +17062,7 @@
         <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17240,7 +17240,7 @@
         <v>55</v>
       </c>
       <c r="G187" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17326,10 +17326,10 @@
         <v>45303.66666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17418,7 +17418,7 @@
         <v>65</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17504,10 +17504,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17581,7 +17581,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7690468</v>
+        <v>7690590</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17593,40 +17593,40 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G191" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>2</v>
       </c>
       <c r="J191" t="s">
         <v>94</v>
       </c>
       <c r="K191">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M191">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N191">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P191">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
         <v>1.775</v>
@@ -17635,13 +17635,13 @@
         <v>2.025</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17650,7 +17650,7 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.7</v>
+        <v>3.333</v>
       </c>
       <c r="Z191">
         <v>-1</v>
@@ -17659,10 +17659,10 @@
         <v>1.025</v>
       </c>
       <c r="AB191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17670,7 +17670,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7690467</v>
+        <v>7690468</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17682,76 +17682,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G192" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K192">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M192">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N192">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P192">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z192">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB192">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC192">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17759,7 +17759,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7690466</v>
+        <v>7690467</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17771,76 +17771,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G193" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K193">
+        <v>3.2</v>
+      </c>
+      <c r="L193">
+        <v>3.6</v>
+      </c>
+      <c r="M193">
+        <v>1.909</v>
+      </c>
+      <c r="N193">
+        <v>3.2</v>
+      </c>
+      <c r="O193">
+        <v>3.6</v>
+      </c>
+      <c r="P193">
+        <v>1.909</v>
+      </c>
+      <c r="Q193">
+        <v>0.5</v>
+      </c>
+      <c r="R193">
+        <v>1.825</v>
+      </c>
+      <c r="S193">
+        <v>1.975</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
+        <v>1.85</v>
+      </c>
+      <c r="V193">
+        <v>1.95</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
         <v>2.6</v>
       </c>
-      <c r="L193">
-        <v>3</v>
-      </c>
-      <c r="M193">
-        <v>2.5</v>
-      </c>
-      <c r="N193">
-        <v>2.6</v>
-      </c>
-      <c r="O193">
-        <v>3</v>
-      </c>
-      <c r="P193">
-        <v>2.5</v>
-      </c>
-      <c r="Q193">
-        <v>0</v>
-      </c>
-      <c r="R193">
-        <v>1.95</v>
-      </c>
-      <c r="S193">
-        <v>1.85</v>
-      </c>
-      <c r="T193">
-        <v>2.5</v>
-      </c>
-      <c r="U193">
-        <v>2</v>
-      </c>
-      <c r="V193">
-        <v>1.8</v>
-      </c>
-      <c r="W193">
-        <v>1.6</v>
-      </c>
-      <c r="X193">
-        <v>-1</v>
-      </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC193">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17848,7 +17848,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7690590</v>
+        <v>7690466</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17860,76 +17860,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
         <v>0</v>
       </c>
-      <c r="I194">
-        <v>1</v>
-      </c>
       <c r="J194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K194">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="L194">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M194">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N194">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="O194">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P194">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R194">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T194">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17952,7 +17952,7 @@
         <v>56</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -18216,7 +18216,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
         <v>62</v>
@@ -18308,7 +18308,7 @@
         <v>57</v>
       </c>
       <c r="G199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18394,7 +18394,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G200" t="s">
         <v>74</v>
@@ -18471,7 +18471,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7718738</v>
+        <v>7725351</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18483,76 +18483,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>95</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L201">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N201">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O201">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="P201">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18560,7 +18560,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7725351</v>
+        <v>7718738</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18572,76 +18572,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>95</v>
       </c>
       <c r="K202">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L202">
+        <v>3.2</v>
+      </c>
+      <c r="M202">
+        <v>4.5</v>
+      </c>
+      <c r="N202">
+        <v>1.45</v>
+      </c>
+      <c r="O202">
+        <v>3.75</v>
+      </c>
+      <c r="P202">
+        <v>6</v>
+      </c>
+      <c r="Q202">
+        <v>-1</v>
+      </c>
+      <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.975</v>
+      </c>
+      <c r="V202">
+        <v>1.825</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
         <v>2.75</v>
       </c>
-      <c r="M202">
-        <v>3.1</v>
-      </c>
-      <c r="N202">
-        <v>2.3</v>
-      </c>
-      <c r="O202">
-        <v>2.75</v>
-      </c>
-      <c r="P202">
-        <v>3.1</v>
-      </c>
-      <c r="Q202">
-        <v>-0.25</v>
-      </c>
-      <c r="R202">
-        <v>2.025</v>
-      </c>
-      <c r="S202">
-        <v>1.775</v>
-      </c>
-      <c r="T202">
-        <v>2.25</v>
-      </c>
-      <c r="U202">
-        <v>1.9</v>
-      </c>
-      <c r="V202">
-        <v>1.9</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>1.75</v>
-      </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18928,7 +18928,7 @@
         <v>45317.625</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G206" t="s">
         <v>67</v>
@@ -19020,7 +19020,7 @@
         <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -19198,7 +19198,7 @@
         <v>51</v>
       </c>
       <c r="G209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19284,10 +19284,10 @@
         <v>45318.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19376,7 +19376,7 @@
         <v>53</v>
       </c>
       <c r="G211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -19640,7 +19640,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G214" t="s">
         <v>75</v>
@@ -19729,7 +19729,7 @@
         <v>45325.5</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G215" t="s">
         <v>45</v>
@@ -19910,7 +19910,7 @@
         <v>56</v>
       </c>
       <c r="G217" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -19999,7 +19999,7 @@
         <v>67</v>
       </c>
       <c r="G218" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -20177,7 +20177,7 @@
         <v>57</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20263,7 +20263,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
         <v>44</v>
@@ -20352,7 +20352,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G222" t="s">
         <v>76</v>
@@ -20530,10 +20530,10 @@
         <v>45332.5</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20708,10 +20708,10 @@
         <v>45338.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -21242,10 +21242,10 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G232" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21423,7 +21423,7 @@
         <v>62</v>
       </c>
       <c r="G234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21598,7 +21598,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G236" t="s">
         <v>67</v>
@@ -21687,7 +21687,7 @@
         <v>45345.66666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
         <v>61</v>
@@ -21865,10 +21865,10 @@
         <v>45346.5</v>
       </c>
       <c r="F239" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H239">
         <v>2</v>
@@ -21954,7 +21954,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G240" t="s">
         <v>56</v>
@@ -22043,7 +22043,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
         <v>46</v>
@@ -22577,10 +22577,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G247" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22755,7 +22755,7 @@
         <v>45352.625</v>
       </c>
       <c r="F249" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G249" t="s">
         <v>59</v>
@@ -23111,7 +23111,7 @@
         <v>45359.66666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G253" t="s">
         <v>46</v>
@@ -23200,10 +23200,10 @@
         <v>45360.5</v>
       </c>
       <c r="F254" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23381,7 +23381,7 @@
         <v>41</v>
       </c>
       <c r="G256" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -23470,7 +23470,7 @@
         <v>42</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23645,7 +23645,7 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
         <v>45</v>
@@ -23826,7 +23826,7 @@
         <v>55</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -24182,7 +24182,7 @@
         <v>54</v>
       </c>
       <c r="G265" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -24268,7 +24268,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G266" t="s">
         <v>77</v>
@@ -24449,7 +24449,7 @@
         <v>62</v>
       </c>
       <c r="G268" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24624,10 +24624,10 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G270" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -24716,7 +24716,7 @@
         <v>57</v>
       </c>
       <c r="G271" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -24802,10 +24802,10 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G272" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -25069,10 +25069,10 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F275" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G275" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -25250,7 +25250,7 @@
         <v>42</v>
       </c>
       <c r="G277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H277">
         <v>2</v>
@@ -25336,7 +25336,7 @@
         <v>45374.5</v>
       </c>
       <c r="F278" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G278" t="s">
         <v>57</v>
@@ -25692,7 +25692,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G282" t="s">
         <v>51</v>
@@ -25781,7 +25781,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G283" t="s">
         <v>59</v>
@@ -26226,7 +26226,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G288" t="s">
         <v>58</v>
@@ -26404,10 +26404,10 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G290" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26493,10 +26493,10 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G291" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H291">
         <v>0</v>

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -14822,7 +14822,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7515829</v>
+        <v>7515882</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14834,55 +14834,55 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>94</v>
       </c>
       <c r="K160">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M160">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N160">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O160">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P160">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14891,16 +14891,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB160">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -15000,7 +15000,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7515882</v>
+        <v>7515829</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15012,55 +15012,55 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
         <v>94</v>
       </c>
       <c r="K162">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L162">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M162">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N162">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O162">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -15069,16 +15069,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15445,7 +15445,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7535817</v>
+        <v>7543633</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15457,10 +15457,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G167" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15472,61 +15472,61 @@
         <v>94</v>
       </c>
       <c r="K167">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="L167">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N167">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="O167">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q167">
+        <v>0.75</v>
+      </c>
+      <c r="R167">
+        <v>1.825</v>
+      </c>
+      <c r="S167">
+        <v>1.975</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>1.925</v>
+      </c>
+      <c r="V167">
+        <v>1.875</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z167">
         <v>-0.5</v>
       </c>
-      <c r="R167">
-        <v>1.875</v>
-      </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
-      <c r="T167">
-        <v>2.25</v>
-      </c>
-      <c r="U167">
-        <v>2.025</v>
-      </c>
-      <c r="V167">
-        <v>1.775</v>
-      </c>
-      <c r="W167">
-        <v>-1</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>3</v>
-      </c>
-      <c r="Z167">
-        <v>-1</v>
-      </c>
       <c r="AA167">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15623,7 +15623,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7543633</v>
+        <v>7535817</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15635,10 +15635,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G169" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15650,40 +15650,40 @@
         <v>94</v>
       </c>
       <c r="K169">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="L169">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M169">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="N169">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q169">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15692,19 +15692,19 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.7270000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16246,7 +16246,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7594613</v>
+        <v>7594616</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16258,76 +16258,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K176">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M176">
+        <v>2.5</v>
+      </c>
+      <c r="N176">
+        <v>2.5</v>
+      </c>
+      <c r="O176">
         <v>2.9</v>
       </c>
-      <c r="N176">
-        <v>2.625</v>
-      </c>
-      <c r="O176">
-        <v>3.2</v>
-      </c>
       <c r="P176">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q176">
         <v>0</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16335,7 +16335,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7594505</v>
+        <v>7594613</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16347,76 +16347,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K177">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="L177">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N177">
+        <v>2.625</v>
+      </c>
+      <c r="O177">
+        <v>3.2</v>
+      </c>
+      <c r="P177">
         <v>2.375</v>
       </c>
-      <c r="O177">
-        <v>2.8</v>
-      </c>
-      <c r="P177">
-        <v>3</v>
-      </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.7</v>
+        <v>1.775</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
+        <v>1.925</v>
+      </c>
+      <c r="V177">
         <v>1.875</v>
       </c>
-      <c r="V177">
-        <v>1.925</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X177">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
+        <v>1.025</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
         <v>-0.5</v>
       </c>
-      <c r="AA177">
-        <v>0.35</v>
-      </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
       <c r="AC177">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16424,7 +16424,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7594616</v>
+        <v>7594505</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16436,76 +16436,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K178">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="L178">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M178">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N178">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P178">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y178">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>0.9750000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16513,7 +16513,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7594615</v>
+        <v>7594553</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16525,76 +16525,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K179">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M179">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N179">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O179">
+        <v>3.1</v>
+      </c>
+      <c r="P179">
         <v>3.2</v>
       </c>
-      <c r="P179">
-        <v>2.5</v>
-      </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
         <v>1.775</v>
       </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
       <c r="W179">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB179">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16602,7 +16602,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7594506</v>
+        <v>7594615</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16614,76 +16614,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K180">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="L180">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M180">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N180">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O180">
         <v>3.2</v>
       </c>
       <c r="P180">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
         <v>2.25</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16691,7 +16691,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7594560</v>
+        <v>7594506</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16703,76 +16703,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G181" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K181">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L181">
+        <v>3.1</v>
+      </c>
+      <c r="M181">
+        <v>3.1</v>
+      </c>
+      <c r="N181">
+        <v>1.85</v>
+      </c>
+      <c r="O181">
         <v>3.2</v>
       </c>
-      <c r="M181">
-        <v>3.6</v>
-      </c>
-      <c r="N181">
-        <v>2.2</v>
-      </c>
-      <c r="O181">
+      <c r="P181">
+        <v>4</v>
+      </c>
+      <c r="Q181">
+        <v>-0.5</v>
+      </c>
+      <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.85</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
+        <v>1.8</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
         <v>3</v>
       </c>
-      <c r="P181">
-        <v>3.1</v>
-      </c>
-      <c r="Q181">
-        <v>-0.25</v>
-      </c>
-      <c r="R181">
-        <v>1.975</v>
-      </c>
-      <c r="S181">
-        <v>1.825</v>
-      </c>
-      <c r="T181">
-        <v>2</v>
-      </c>
-      <c r="U181">
-        <v>1.975</v>
-      </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>2</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
       <c r="Z181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16780,7 +16780,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7594553</v>
+        <v>7594560</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16792,61 +16792,61 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
         <v>95</v>
       </c>
       <c r="K182">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L182">
+        <v>3.2</v>
+      </c>
+      <c r="M182">
+        <v>3.6</v>
+      </c>
+      <c r="N182">
+        <v>2.2</v>
+      </c>
+      <c r="O182">
+        <v>3</v>
+      </c>
+      <c r="P182">
         <v>3.1</v>
-      </c>
-      <c r="M182">
-        <v>3.2</v>
-      </c>
-      <c r="N182">
-        <v>2.1</v>
-      </c>
-      <c r="O182">
-        <v>3.1</v>
-      </c>
-      <c r="P182">
-        <v>3.2</v>
       </c>
       <c r="Q182">
         <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U182">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y182">
         <v>-1</v>
@@ -16855,13 +16855,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA182">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC182">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -18827,7 +18827,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7743545</v>
+        <v>7743546</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18839,76 +18839,76 @@
         <v>45317.625</v>
       </c>
       <c r="F205" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G205" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K205">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L205">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M205">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N205">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O205">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P205">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q205">
+        <v>-0.25</v>
+      </c>
+      <c r="R205">
+        <v>2.025</v>
+      </c>
+      <c r="S205">
+        <v>1.775</v>
+      </c>
+      <c r="T205">
+        <v>2</v>
+      </c>
+      <c r="U205">
+        <v>1.725</v>
+      </c>
+      <c r="V205">
+        <v>1.975</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>1.8</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>-0.5</v>
+      </c>
+      <c r="AA205">
+        <v>0.3875</v>
+      </c>
+      <c r="AB205">
         <v>0</v>
       </c>
-      <c r="R205">
-        <v>1.95</v>
-      </c>
-      <c r="S205">
-        <v>1.85</v>
-      </c>
-      <c r="T205">
-        <v>2.25</v>
-      </c>
-      <c r="U205">
-        <v>1.975</v>
-      </c>
-      <c r="V205">
-        <v>1.825</v>
-      </c>
-      <c r="W205">
-        <v>1.55</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
-      <c r="Y205">
-        <v>-1</v>
-      </c>
-      <c r="Z205">
-        <v>0.95</v>
-      </c>
-      <c r="AA205">
-        <v>-1</v>
-      </c>
-      <c r="AB205">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18916,7 +18916,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7743546</v>
+        <v>7743545</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18928,76 +18928,76 @@
         <v>45317.625</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G206" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K206">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L206">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O206">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P206">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X206">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA206">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -20963,7 +20963,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7842642</v>
+        <v>7842582</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20975,49 +20975,49 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G229" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H229">
         <v>1</v>
       </c>
       <c r="I229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K229">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M229">
-        <v>6.5</v>
+        <v>2.35</v>
       </c>
       <c r="N229">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O229">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P229">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q229">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S229">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
         <v>1.95</v>
@@ -21029,22 +21029,22 @@
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y229">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21052,7 +21052,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7842582</v>
+        <v>7842642</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21064,49 +21064,49 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G230" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J230" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K230">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L230">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M230">
-        <v>2.35</v>
+        <v>6.5</v>
       </c>
       <c r="N230">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O230">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P230">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
         <v>1.95</v>
@@ -21118,22 +21118,22 @@
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21141,7 +21141,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7843096</v>
+        <v>7843094</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21153,13 +21153,13 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G231" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -21168,43 +21168,43 @@
         <v>93</v>
       </c>
       <c r="K231">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M231">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N231">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O231">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P231">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q231">
         <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W231">
-        <v>0.7270000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21213,16 +21213,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA231">
+        <v>-1</v>
+      </c>
+      <c r="AB231">
         <v>-0.5</v>
       </c>
-      <c r="AB231">
-        <v>-1</v>
-      </c>
       <c r="AC231">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21230,7 +21230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7843094</v>
+        <v>7843096</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21242,13 +21242,13 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -21257,43 +21257,43 @@
         <v>93</v>
       </c>
       <c r="K232">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L232">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M232">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N232">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O232">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P232">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q232">
         <v>-0.75</v>
       </c>
       <c r="R232">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
+        <v>2</v>
+      </c>
+      <c r="V232">
         <v>1.8</v>
       </c>
-      <c r="V232">
-        <v>2</v>
-      </c>
       <c r="W232">
-        <v>0.6659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21302,16 +21302,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21319,7 +21319,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7842587</v>
+        <v>7842640</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21331,46 +21331,46 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G233" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K233">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L233">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M233">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N233">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O233">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P233">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q233">
         <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
         <v>2.25</v>
@@ -21385,22 +21385,22 @@
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z233">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21408,7 +21408,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7842641</v>
+        <v>7842584</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21420,76 +21420,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G234" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K234">
+        <v>3.4</v>
+      </c>
+      <c r="L234">
+        <v>2.75</v>
+      </c>
+      <c r="M234">
         <v>2.2</v>
       </c>
-      <c r="L234">
-        <v>2.8</v>
-      </c>
-      <c r="M234">
-        <v>3.25</v>
-      </c>
       <c r="N234">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O234">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="P234">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R234">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S234">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21497,7 +21497,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7842640</v>
+        <v>7842587</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21509,46 +21509,46 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>95</v>
+      </c>
+      <c r="K235">
+        <v>3.1</v>
+      </c>
+      <c r="L235">
+        <v>2.8</v>
+      </c>
+      <c r="M235">
+        <v>2.3</v>
+      </c>
+      <c r="N235">
         <v>3</v>
       </c>
-      <c r="J235" t="s">
-        <v>94</v>
-      </c>
-      <c r="K235">
-        <v>3.4</v>
-      </c>
-      <c r="L235">
-        <v>2.7</v>
-      </c>
-      <c r="M235">
-        <v>2.2</v>
-      </c>
-      <c r="N235">
-        <v>3.3</v>
-      </c>
       <c r="O235">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P235">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q235">
         <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T235">
         <v>2.25</v>
@@ -21563,22 +21563,22 @@
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y235">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21586,7 +21586,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7842584</v>
+        <v>7842641</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21598,76 +21598,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G236" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K236">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L236">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M236">
+        <v>3.25</v>
+      </c>
+      <c r="N236">
         <v>2.2</v>
       </c>
-      <c r="N236">
-        <v>3</v>
-      </c>
       <c r="O236">
+        <v>2.875</v>
+      </c>
+      <c r="P236">
+        <v>3.2</v>
+      </c>
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
+        <v>1.95</v>
+      </c>
+      <c r="S236">
+        <v>1.85</v>
+      </c>
+      <c r="T236">
         <v>2.5</v>
       </c>
-      <c r="P236">
-        <v>2.6</v>
-      </c>
-      <c r="Q236">
-        <v>0</v>
-      </c>
-      <c r="R236">
-        <v>2.025</v>
-      </c>
-      <c r="S236">
-        <v>1.775</v>
-      </c>
-      <c r="T236">
-        <v>1.75</v>
-      </c>
       <c r="U236">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X236">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -22298,7 +22298,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7873413</v>
+        <v>7873410</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22310,76 +22310,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G244" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K244">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L244">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N244">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O244">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S244">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X244">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC244">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22387,7 +22387,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7873430</v>
+        <v>7873413</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22399,49 +22399,49 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G245" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K245">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M245">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N245">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="O245">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P245">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R245">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S245">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U245">
         <v>1.925</v>
@@ -22450,25 +22450,25 @@
         <v>1.875</v>
       </c>
       <c r="W245">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22476,7 +22476,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7873464</v>
+        <v>7873430</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22488,76 +22488,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G246" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I246">
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K246">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M246">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N246">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O246">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S246">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T246">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X246">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA246">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC246">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22565,7 +22565,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7873410</v>
+        <v>7873464</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22577,76 +22577,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G247" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K247">
+        <v>3</v>
+      </c>
+      <c r="L247">
+        <v>3</v>
+      </c>
+      <c r="M247">
+        <v>2.25</v>
+      </c>
+      <c r="N247">
+        <v>2.75</v>
+      </c>
+      <c r="O247">
+        <v>2.9</v>
+      </c>
+      <c r="P247">
+        <v>2.45</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>2</v>
+      </c>
+      <c r="S247">
         <v>1.8</v>
       </c>
-      <c r="L247">
-        <v>3.4</v>
-      </c>
-      <c r="M247">
-        <v>3.8</v>
-      </c>
-      <c r="N247">
-        <v>1.8</v>
-      </c>
-      <c r="O247">
-        <v>3.4</v>
-      </c>
-      <c r="P247">
-        <v>3.75</v>
-      </c>
-      <c r="Q247">
-        <v>-0.5</v>
-      </c>
-      <c r="R247">
-        <v>1.85</v>
-      </c>
-      <c r="S247">
-        <v>1.95</v>
-      </c>
       <c r="T247">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U247">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V247">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W247">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -23544,7 +23544,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7933095</v>
+        <v>7933068</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23556,76 +23556,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G258" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258">
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K258">
+        <v>4.5</v>
+      </c>
+      <c r="L258">
+        <v>3.2</v>
+      </c>
+      <c r="M258">
+        <v>1.727</v>
+      </c>
+      <c r="N258">
+        <v>3.8</v>
+      </c>
+      <c r="O258">
+        <v>3</v>
+      </c>
+      <c r="P258">
+        <v>1.95</v>
+      </c>
+      <c r="Q258">
+        <v>0.5</v>
+      </c>
+      <c r="R258">
         <v>1.8</v>
       </c>
-      <c r="L258">
-        <v>3.75</v>
-      </c>
-      <c r="M258">
-        <v>3.4</v>
-      </c>
-      <c r="N258">
-        <v>2.5</v>
-      </c>
-      <c r="O258">
-        <v>3.5</v>
-      </c>
-      <c r="P258">
-        <v>2.3</v>
-      </c>
-      <c r="Q258">
-        <v>0</v>
-      </c>
-      <c r="R258">
-        <v>2</v>
-      </c>
       <c r="S258">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T258">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U258">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X258">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA258">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC258">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23633,7 +23633,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7933139</v>
+        <v>7933095</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23645,76 +23645,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G259" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K259">
+        <v>1.8</v>
+      </c>
+      <c r="L259">
+        <v>3.75</v>
+      </c>
+      <c r="M259">
+        <v>3.4</v>
+      </c>
+      <c r="N259">
+        <v>2.5</v>
+      </c>
+      <c r="O259">
+        <v>3.5</v>
+      </c>
+      <c r="P259">
         <v>2.3</v>
       </c>
-      <c r="L259">
-        <v>3.1</v>
-      </c>
-      <c r="M259">
-        <v>2.8</v>
-      </c>
-      <c r="N259">
-        <v>2</v>
-      </c>
-      <c r="O259">
-        <v>3.2</v>
-      </c>
-      <c r="P259">
-        <v>3.3</v>
-      </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R259">
+        <v>2</v>
+      </c>
+      <c r="S259">
         <v>1.8</v>
-      </c>
-      <c r="S259">
-        <v>2</v>
       </c>
       <c r="T259">
         <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y259">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA259">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC259">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23722,7 +23722,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7933068</v>
+        <v>7933139</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23734,40 +23734,40 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G260" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260">
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K260">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="L260">
+        <v>3.1</v>
+      </c>
+      <c r="M260">
+        <v>2.8</v>
+      </c>
+      <c r="N260">
+        <v>2</v>
+      </c>
+      <c r="O260">
         <v>3.2</v>
       </c>
-      <c r="M260">
-        <v>1.727</v>
-      </c>
-      <c r="N260">
-        <v>3.8</v>
-      </c>
-      <c r="O260">
-        <v>3</v>
-      </c>
       <c r="P260">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="Q260">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
         <v>1.8</v>
@@ -23776,34 +23776,34 @@
         <v>2</v>
       </c>
       <c r="T260">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V260">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W260">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z260">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB260">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -24434,7 +24434,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7965146</v>
+        <v>7965147</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24446,76 +24446,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G268" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K268">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L268">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M268">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N268">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O268">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P268">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q268">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R268">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S268">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T268">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U268">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V268">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB268">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24523,7 +24523,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7965147</v>
+        <v>7965146</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24535,76 +24535,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G269" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K269">
+        <v>2.375</v>
+      </c>
+      <c r="L269">
+        <v>2.875</v>
+      </c>
+      <c r="M269">
+        <v>2.9</v>
+      </c>
+      <c r="N269">
+        <v>2.15</v>
+      </c>
+      <c r="O269">
         <v>3</v>
       </c>
-      <c r="L269">
-        <v>3.25</v>
-      </c>
-      <c r="M269">
-        <v>2.1</v>
-      </c>
-      <c r="N269">
-        <v>2.6</v>
-      </c>
-      <c r="O269">
-        <v>3.2</v>
-      </c>
       <c r="P269">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S269">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T269">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y269">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA269">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC269">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25591,7 +25591,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7995241</v>
+        <v>7995196</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25603,76 +25603,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G281" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H281">
         <v>2</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J281" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K281">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L281">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M281">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N281">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P281">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q281">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R281">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S281">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T281">
         <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V281">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W281">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z281">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB281">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC281">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25680,7 +25680,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7995196</v>
+        <v>7995242</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25692,55 +25692,55 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G282" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
         <v>94</v>
       </c>
       <c r="K282">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L282">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M282">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N282">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="O282">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P282">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q282">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R282">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S282">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T282">
         <v>2.25</v>
       </c>
       <c r="U282">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V282">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25749,19 +25749,19 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>1.15</v>
+        <v>3</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB282">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25769,7 +25769,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7995242</v>
+        <v>7995294</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25781,76 +25781,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G283" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
         <v>0</v>
       </c>
-      <c r="I283">
-        <v>1</v>
-      </c>
       <c r="J283" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K283">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L283">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M283">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N283">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O283">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P283">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q283">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S283">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T283">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V283">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA283">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
         <v>-1</v>
       </c>
       <c r="AC283">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25858,7 +25858,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7995294</v>
+        <v>7995296</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25870,76 +25870,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G284" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K284">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L284">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M284">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N284">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O284">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P284">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q284">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R284">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S284">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T284">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U284">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V284">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W284">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z284">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC284">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25947,7 +25947,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7995296</v>
+        <v>7995189</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25959,55 +25959,55 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G285" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J285" t="s">
         <v>94</v>
       </c>
       <c r="K285">
+        <v>4.2</v>
+      </c>
+      <c r="L285">
+        <v>3.4</v>
+      </c>
+      <c r="M285">
         <v>1.727</v>
       </c>
-      <c r="L285">
-        <v>3.5</v>
-      </c>
-      <c r="M285">
-        <v>4</v>
-      </c>
       <c r="N285">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="O285">
         <v>3.5</v>
       </c>
       <c r="P285">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q285">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R285">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S285">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T285">
         <v>2.5</v>
       </c>
       <c r="U285">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V285">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W285">
         <v>-1</v>
@@ -26016,16 +26016,16 @@
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>3.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB285">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC285">
         <v>-1</v>
@@ -26036,7 +26036,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7995189</v>
+        <v>7995297</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -26048,76 +26048,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G286" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K286">
+        <v>1.5</v>
+      </c>
+      <c r="L286">
+        <v>3.8</v>
+      </c>
+      <c r="M286">
+        <v>5.5</v>
+      </c>
+      <c r="N286">
+        <v>1.65</v>
+      </c>
+      <c r="O286">
+        <v>3.6</v>
+      </c>
+      <c r="P286">
         <v>4.2</v>
       </c>
-      <c r="L286">
-        <v>3.4</v>
-      </c>
-      <c r="M286">
-        <v>1.727</v>
-      </c>
-      <c r="N286">
-        <v>4.75</v>
-      </c>
-      <c r="O286">
-        <v>3.5</v>
-      </c>
-      <c r="P286">
-        <v>1.65</v>
-      </c>
       <c r="Q286">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R286">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S286">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T286">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U286">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V286">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X286">
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA286">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26125,7 +26125,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7995297</v>
+        <v>7995188</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26137,49 +26137,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G287" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K287">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L287">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="M287">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N287">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O287">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P287">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q287">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R287">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S287">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T287">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U287">
         <v>1.9</v>
@@ -26188,25 +26188,25 @@
         <v>1.9</v>
       </c>
       <c r="W287">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z287">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC287">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26214,7 +26214,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7995188</v>
+        <v>7995241</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26226,49 +26226,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="G288" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K288">
+        <v>1.8</v>
+      </c>
+      <c r="L288">
+        <v>3.4</v>
+      </c>
+      <c r="M288">
+        <v>3.8</v>
+      </c>
+      <c r="N288">
+        <v>1.8</v>
+      </c>
+      <c r="O288">
+        <v>3.4</v>
+      </c>
+      <c r="P288">
+        <v>3.75</v>
+      </c>
+      <c r="Q288">
+        <v>-0.5</v>
+      </c>
+      <c r="R288">
+        <v>1.85</v>
+      </c>
+      <c r="S288">
+        <v>1.95</v>
+      </c>
+      <c r="T288">
         <v>2.25</v>
-      </c>
-      <c r="L288">
-        <v>2.8</v>
-      </c>
-      <c r="M288">
-        <v>3.2</v>
-      </c>
-      <c r="N288">
-        <v>2.25</v>
-      </c>
-      <c r="O288">
-        <v>2.75</v>
-      </c>
-      <c r="P288">
-        <v>3.2</v>
-      </c>
-      <c r="Q288">
-        <v>-0.25</v>
-      </c>
-      <c r="R288">
-        <v>1.975</v>
-      </c>
-      <c r="S288">
-        <v>1.825</v>
-      </c>
-      <c r="T288">
-        <v>2</v>
       </c>
       <c r="U288">
         <v>1.9</v>
@@ -26277,25 +26277,25 @@
         <v>1.9</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA288">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26303,7 +26303,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7995190</v>
+        <v>7995298</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26315,49 +26315,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G289" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K289">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L289">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M289">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N289">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O289">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P289">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q289">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R289">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S289">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T289">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U289">
         <v>1.975</v>
@@ -26366,25 +26366,25 @@
         <v>1.825</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X289">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA289">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC289">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26392,7 +26392,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7995298</v>
+        <v>7995190</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26404,49 +26404,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F290" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G290" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H290">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K290">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M290">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N290">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O290">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P290">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q290">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S290">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T290">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U290">
         <v>1.975</v>
@@ -26455,25 +26455,25 @@
         <v>1.825</v>
       </c>
       <c r="W290">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X290">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA290">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB290">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC290">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="291" spans="1:29">

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -14822,7 +14822,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7515882</v>
+        <v>7515829</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14834,55 +14834,55 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>94</v>
       </c>
       <c r="K160">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N160">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O160">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P160">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14891,16 +14891,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB160">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -15000,7 +15000,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7515829</v>
+        <v>7515882</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15012,55 +15012,55 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>94</v>
       </c>
       <c r="K162">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L162">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M162">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N162">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O162">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P162">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -15069,16 +15069,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB162">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15445,7 +15445,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7543633</v>
+        <v>7535817</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15457,10 +15457,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15472,40 +15472,40 @@
         <v>94</v>
       </c>
       <c r="K167">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M167">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="N167">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P167">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q167">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15514,19 +15514,19 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.7270000000000001</v>
+        <v>3</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15623,7 +15623,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7535817</v>
+        <v>7543633</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15635,10 +15635,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G169" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15650,61 +15650,61 @@
         <v>94</v>
       </c>
       <c r="K169">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="L169">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="N169">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q169">
+        <v>0.75</v>
+      </c>
+      <c r="R169">
+        <v>1.825</v>
+      </c>
+      <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
+        <v>1.925</v>
+      </c>
+      <c r="V169">
+        <v>1.875</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z169">
         <v>-0.5</v>
       </c>
-      <c r="R169">
-        <v>1.875</v>
-      </c>
-      <c r="S169">
-        <v>1.925</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>2.025</v>
-      </c>
-      <c r="V169">
-        <v>1.775</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>3</v>
-      </c>
-      <c r="Z169">
-        <v>-1</v>
-      </c>
       <c r="AA169">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16246,7 +16246,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7594616</v>
+        <v>7594613</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16258,76 +16258,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
         <v>0</v>
       </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
       <c r="J176" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K176">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L176">
+        <v>3.2</v>
+      </c>
+      <c r="M176">
         <v>2.9</v>
       </c>
-      <c r="M176">
-        <v>2.5</v>
-      </c>
       <c r="N176">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P176">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q176">
         <v>0</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16335,7 +16335,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7594613</v>
+        <v>7594505</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16347,76 +16347,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K177">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M177">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P177">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U177">
+        <v>1.875</v>
+      </c>
+      <c r="V177">
         <v>1.925</v>
       </c>
-      <c r="V177">
-        <v>1.875</v>
-      </c>
       <c r="W177">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AB177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16424,7 +16424,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7594505</v>
+        <v>7594616</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16436,76 +16436,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>94</v>
+      </c>
+      <c r="K178">
+        <v>2.7</v>
+      </c>
+      <c r="L178">
+        <v>2.9</v>
+      </c>
+      <c r="M178">
+        <v>2.5</v>
+      </c>
+      <c r="N178">
+        <v>2.5</v>
+      </c>
+      <c r="O178">
+        <v>2.9</v>
+      </c>
+      <c r="P178">
+        <v>2.7</v>
+      </c>
+      <c r="Q178">
         <v>0</v>
       </c>
-      <c r="J178" t="s">
-        <v>95</v>
-      </c>
-      <c r="K178">
-        <v>2.35</v>
-      </c>
-      <c r="L178">
-        <v>2.8</v>
-      </c>
-      <c r="M178">
-        <v>3</v>
-      </c>
-      <c r="N178">
-        <v>2.375</v>
-      </c>
-      <c r="O178">
-        <v>2.8</v>
-      </c>
-      <c r="P178">
-        <v>3</v>
-      </c>
-      <c r="Q178">
-        <v>-0.25</v>
-      </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.9</v>
+      </c>
+      <c r="V178">
+        <v>1.9</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
         <v>1.7</v>
       </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.875</v>
-      </c>
-      <c r="V178">
-        <v>1.925</v>
-      </c>
-      <c r="W178">
-        <v>-1</v>
-      </c>
-      <c r="X178">
-        <v>1.8</v>
-      </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.35</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16513,7 +16513,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7594553</v>
+        <v>7594615</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16525,76 +16525,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L179">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
+        <v>1.909</v>
+      </c>
+      <c r="N179">
+        <v>2.45</v>
+      </c>
+      <c r="O179">
         <v>3.2</v>
       </c>
-      <c r="N179">
-        <v>2.1</v>
-      </c>
-      <c r="O179">
-        <v>3.1</v>
-      </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
+        <v>1.775</v>
+      </c>
+      <c r="V179">
         <v>2.025</v>
       </c>
-      <c r="V179">
-        <v>1.775</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X179">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA179">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16602,7 +16602,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7594615</v>
+        <v>7594506</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16614,76 +16614,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G180" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K180">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L180">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O180">
         <v>3.2</v>
       </c>
       <c r="P180">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
         <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16691,7 +16691,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7594506</v>
+        <v>7594560</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16703,76 +16703,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K181">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L181">
+        <v>3.2</v>
+      </c>
+      <c r="M181">
+        <v>3.6</v>
+      </c>
+      <c r="N181">
+        <v>2.2</v>
+      </c>
+      <c r="O181">
+        <v>3</v>
+      </c>
+      <c r="P181">
         <v>3.1</v>
       </c>
-      <c r="M181">
-        <v>3.1</v>
-      </c>
-      <c r="N181">
-        <v>1.85</v>
-      </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>4</v>
-      </c>
       <c r="Q181">
+        <v>-0.25</v>
+      </c>
+      <c r="R181">
+        <v>1.975</v>
+      </c>
+      <c r="S181">
+        <v>1.825</v>
+      </c>
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
+        <v>1.975</v>
+      </c>
+      <c r="V181">
+        <v>1.825</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>2</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
         <v>-0.5</v>
       </c>
-      <c r="R181">
-        <v>1.95</v>
-      </c>
-      <c r="S181">
-        <v>1.85</v>
-      </c>
-      <c r="T181">
-        <v>2.25</v>
-      </c>
-      <c r="U181">
-        <v>2</v>
-      </c>
-      <c r="V181">
-        <v>1.8</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>3</v>
-      </c>
-      <c r="Z181">
-        <v>-1</v>
-      </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16780,7 +16780,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7594560</v>
+        <v>7594553</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16792,61 +16792,61 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G182" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>95</v>
       </c>
       <c r="K182">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L182">
+        <v>3.1</v>
+      </c>
+      <c r="M182">
         <v>3.2</v>
       </c>
-      <c r="M182">
-        <v>3.6</v>
-      </c>
       <c r="N182">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O182">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P182">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q182">
         <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V182">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
@@ -16855,13 +16855,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA182">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
       <c r="AB182">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -18827,7 +18827,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7743546</v>
+        <v>7743545</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18839,76 +18839,76 @@
         <v>45317.625</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G205" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K205">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O205">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P205">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X205">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC205">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18916,7 +18916,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7743545</v>
+        <v>7743546</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18928,76 +18928,76 @@
         <v>45317.625</v>
       </c>
       <c r="F206" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G206" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K206">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L206">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N206">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O206">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P206">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
+        <v>2.025</v>
+      </c>
+      <c r="S206">
+        <v>1.775</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.725</v>
+      </c>
+      <c r="V206">
+        <v>1.975</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>1.8</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>-0.5</v>
+      </c>
+      <c r="AA206">
+        <v>0.3875</v>
+      </c>
+      <c r="AB206">
         <v>0</v>
       </c>
-      <c r="R206">
-        <v>1.95</v>
-      </c>
-      <c r="S206">
-        <v>1.85</v>
-      </c>
-      <c r="T206">
-        <v>2.25</v>
-      </c>
-      <c r="U206">
-        <v>1.975</v>
-      </c>
-      <c r="V206">
-        <v>1.825</v>
-      </c>
-      <c r="W206">
-        <v>1.55</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
-      <c r="Y206">
-        <v>-1</v>
-      </c>
-      <c r="Z206">
-        <v>0.95</v>
-      </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
-      <c r="AB206">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -20963,7 +20963,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7842582</v>
+        <v>7842642</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20975,49 +20975,49 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G229" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H229">
         <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J229" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K229">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L229">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>2.35</v>
+        <v>6.5</v>
       </c>
       <c r="N229">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O229">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R229">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S229">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
         <v>1.95</v>
@@ -21029,22 +21029,22 @@
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB229">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC229">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21052,7 +21052,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7842642</v>
+        <v>7842582</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21064,49 +21064,49 @@
         <v>45339.54166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G230" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K230">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M230">
-        <v>6.5</v>
+        <v>2.35</v>
       </c>
       <c r="N230">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O230">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P230">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
         <v>1.95</v>
@@ -21118,22 +21118,22 @@
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y230">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21141,7 +21141,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7843094</v>
+        <v>7843096</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21153,13 +21153,13 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G231" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -21168,43 +21168,43 @@
         <v>93</v>
       </c>
       <c r="K231">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L231">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M231">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N231">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O231">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q231">
         <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
+        <v>2</v>
+      </c>
+      <c r="V231">
         <v>1.8</v>
       </c>
-      <c r="V231">
-        <v>2</v>
-      </c>
       <c r="W231">
-        <v>0.6659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21213,16 +21213,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21230,7 +21230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7843096</v>
+        <v>7843094</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21242,13 +21242,13 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G232" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -21257,43 +21257,43 @@
         <v>93</v>
       </c>
       <c r="K232">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L232">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M232">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N232">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O232">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q232">
         <v>-0.75</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W232">
-        <v>0.7270000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21302,16 +21302,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA232">
+        <v>-1</v>
+      </c>
+      <c r="AB232">
         <v>-0.5</v>
       </c>
-      <c r="AB232">
-        <v>-1</v>
-      </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21319,7 +21319,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7842640</v>
+        <v>7842587</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21331,46 +21331,46 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>95</v>
+      </c>
+      <c r="K233">
+        <v>3.1</v>
+      </c>
+      <c r="L233">
+        <v>2.8</v>
+      </c>
+      <c r="M233">
+        <v>2.3</v>
+      </c>
+      <c r="N233">
         <v>3</v>
       </c>
-      <c r="J233" t="s">
-        <v>94</v>
-      </c>
-      <c r="K233">
-        <v>3.4</v>
-      </c>
-      <c r="L233">
-        <v>2.7</v>
-      </c>
-      <c r="M233">
-        <v>2.2</v>
-      </c>
-      <c r="N233">
-        <v>3.3</v>
-      </c>
       <c r="O233">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P233">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q233">
         <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T233">
         <v>2.25</v>
@@ -21385,22 +21385,22 @@
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y233">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21408,7 +21408,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7842584</v>
+        <v>7842641</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21420,76 +21420,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G234" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K234">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L234">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M234">
+        <v>3.25</v>
+      </c>
+      <c r="N234">
         <v>2.2</v>
       </c>
-      <c r="N234">
-        <v>3</v>
-      </c>
       <c r="O234">
+        <v>2.875</v>
+      </c>
+      <c r="P234">
+        <v>3.2</v>
+      </c>
+      <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>1.95</v>
+      </c>
+      <c r="S234">
+        <v>1.85</v>
+      </c>
+      <c r="T234">
         <v>2.5</v>
       </c>
-      <c r="P234">
-        <v>2.6</v>
-      </c>
-      <c r="Q234">
-        <v>0</v>
-      </c>
-      <c r="R234">
-        <v>2.025</v>
-      </c>
-      <c r="S234">
-        <v>1.775</v>
-      </c>
-      <c r="T234">
-        <v>1.75</v>
-      </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X234">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA234">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC234">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21497,7 +21497,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7842587</v>
+        <v>7842640</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21509,46 +21509,46 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G235" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K235">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L235">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M235">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O235">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P235">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q235">
         <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
         <v>2.25</v>
@@ -21563,22 +21563,22 @@
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z235">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21586,7 +21586,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7842641</v>
+        <v>7842584</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21598,76 +21598,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K236">
+        <v>3.4</v>
+      </c>
+      <c r="L236">
+        <v>2.75</v>
+      </c>
+      <c r="M236">
         <v>2.2</v>
       </c>
-      <c r="L236">
-        <v>2.8</v>
-      </c>
-      <c r="M236">
-        <v>3.25</v>
-      </c>
       <c r="N236">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O236">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="P236">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S236">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T236">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -22298,7 +22298,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7873410</v>
+        <v>7873413</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22310,76 +22310,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G244" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K244">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M244">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N244">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O244">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P244">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W244">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22387,7 +22387,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7873413</v>
+        <v>7873430</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22399,49 +22399,49 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G245" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K245">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L245">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M245">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N245">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O245">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P245">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S245">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T245">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
         <v>1.925</v>
@@ -22450,25 +22450,25 @@
         <v>1.875</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X245">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22476,7 +22476,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7873430</v>
+        <v>7873464</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22488,76 +22488,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F246" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I246">
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K246">
+        <v>3</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>2.25</v>
+      </c>
+      <c r="N246">
+        <v>2.75</v>
+      </c>
+      <c r="O246">
+        <v>2.9</v>
+      </c>
+      <c r="P246">
+        <v>2.45</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>2</v>
+      </c>
+      <c r="S246">
         <v>1.8</v>
       </c>
-      <c r="L246">
-        <v>3.4</v>
-      </c>
-      <c r="M246">
-        <v>3.8</v>
-      </c>
-      <c r="N246">
-        <v>1.571</v>
-      </c>
-      <c r="O246">
-        <v>3.6</v>
-      </c>
-      <c r="P246">
-        <v>5</v>
-      </c>
-      <c r="Q246">
-        <v>-0.75</v>
-      </c>
-      <c r="R246">
-        <v>1.75</v>
-      </c>
-      <c r="S246">
-        <v>2.05</v>
-      </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W246">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y246">
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA246">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB246">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22565,7 +22565,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7873464</v>
+        <v>7873410</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22577,76 +22577,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G247" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K247">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M247">
+        <v>3.8</v>
+      </c>
+      <c r="N247">
+        <v>1.8</v>
+      </c>
+      <c r="O247">
+        <v>3.4</v>
+      </c>
+      <c r="P247">
+        <v>3.75</v>
+      </c>
+      <c r="Q247">
+        <v>-0.5</v>
+      </c>
+      <c r="R247">
+        <v>1.85</v>
+      </c>
+      <c r="S247">
+        <v>1.95</v>
+      </c>
+      <c r="T247">
         <v>2.25</v>
       </c>
-      <c r="N247">
-        <v>2.75</v>
-      </c>
-      <c r="O247">
-        <v>2.9</v>
-      </c>
-      <c r="P247">
-        <v>2.45</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>2</v>
-      </c>
-      <c r="S247">
+      <c r="U247">
+        <v>2</v>
+      </c>
+      <c r="V247">
         <v>1.8</v>
       </c>
-      <c r="T247">
-        <v>2</v>
-      </c>
-      <c r="U247">
-        <v>1.825</v>
-      </c>
-      <c r="V247">
-        <v>1.975</v>
-      </c>
       <c r="W247">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X247">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA247">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC247">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -23544,7 +23544,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7933068</v>
+        <v>7933095</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23556,76 +23556,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F258" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G258" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258">
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K258">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L258">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M258">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="N258">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="O258">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P258">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q258">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R258">
+        <v>2</v>
+      </c>
+      <c r="S258">
         <v>1.8</v>
       </c>
-      <c r="S258">
-        <v>2</v>
-      </c>
       <c r="T258">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W258">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB258">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23633,7 +23633,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7933095</v>
+        <v>7933139</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23645,76 +23645,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259">
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K259">
+        <v>2.3</v>
+      </c>
+      <c r="L259">
+        <v>3.1</v>
+      </c>
+      <c r="M259">
+        <v>2.8</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259">
+        <v>3.2</v>
+      </c>
+      <c r="P259">
+        <v>3.3</v>
+      </c>
+      <c r="Q259">
+        <v>-0.25</v>
+      </c>
+      <c r="R259">
         <v>1.8</v>
       </c>
-      <c r="L259">
-        <v>3.75</v>
-      </c>
-      <c r="M259">
-        <v>3.4</v>
-      </c>
-      <c r="N259">
-        <v>2.5</v>
-      </c>
-      <c r="O259">
-        <v>3.5</v>
-      </c>
-      <c r="P259">
-        <v>2.3</v>
-      </c>
-      <c r="Q259">
-        <v>0</v>
-      </c>
-      <c r="R259">
-        <v>2</v>
-      </c>
       <c r="S259">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T259">
         <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V259">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB259">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC259">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23722,7 +23722,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7933139</v>
+        <v>7933068</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23734,40 +23734,40 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G260" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260">
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K260">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="L260">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M260">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N260">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O260">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P260">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R260">
         <v>1.8</v>
@@ -23776,34 +23776,34 @@
         <v>2</v>
       </c>
       <c r="T260">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U260">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V260">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA260">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC260">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -24434,7 +24434,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7965147</v>
+        <v>7965146</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24446,76 +24446,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G268" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K268">
+        <v>2.375</v>
+      </c>
+      <c r="L268">
+        <v>2.875</v>
+      </c>
+      <c r="M268">
+        <v>2.9</v>
+      </c>
+      <c r="N268">
+        <v>2.15</v>
+      </c>
+      <c r="O268">
         <v>3</v>
       </c>
-      <c r="L268">
-        <v>3.25</v>
-      </c>
-      <c r="M268">
-        <v>2.1</v>
-      </c>
-      <c r="N268">
-        <v>2.6</v>
-      </c>
-      <c r="O268">
-        <v>3.2</v>
-      </c>
       <c r="P268">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S268">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T268">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y268">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA268">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC268">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24523,7 +24523,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7965146</v>
+        <v>7965147</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24535,76 +24535,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G269" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K269">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L269">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M269">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N269">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O269">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R269">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S269">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T269">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U269">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V269">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB269">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25591,7 +25591,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7995196</v>
+        <v>7995241</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25603,76 +25603,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G281" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H281">
         <v>2</v>
       </c>
       <c r="I281">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K281">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L281">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M281">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N281">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O281">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P281">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q281">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S281">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T281">
         <v>2.25</v>
       </c>
       <c r="U281">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V281">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA281">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25680,7 +25680,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7995242</v>
+        <v>7995196</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25692,55 +25692,55 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G282" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J282" t="s">
         <v>94</v>
       </c>
       <c r="K282">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L282">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="M282">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N282">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="O282">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P282">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q282">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R282">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S282">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T282">
         <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V282">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25749,19 +25749,19 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>3</v>
+        <v>1.15</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC282">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25769,7 +25769,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7995294</v>
+        <v>7995242</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25781,76 +25781,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G283" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
         <v>1</v>
       </c>
-      <c r="I283">
-        <v>0</v>
-      </c>
       <c r="J283" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K283">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L283">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M283">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N283">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O283">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P283">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R283">
+        <v>1.75</v>
+      </c>
+      <c r="S283">
         <v>1.95</v>
       </c>
-      <c r="S283">
+      <c r="T283">
+        <v>2.25</v>
+      </c>
+      <c r="U283">
         <v>1.85</v>
       </c>
-      <c r="T283">
-        <v>2</v>
-      </c>
-      <c r="U283">
-        <v>1.775</v>
-      </c>
       <c r="V283">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W283">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z283">
+        <v>-1</v>
+      </c>
+      <c r="AA283">
         <v>0.95</v>
       </c>
-      <c r="AA283">
-        <v>-1</v>
-      </c>
       <c r="AB283">
         <v>-1</v>
       </c>
       <c r="AC283">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25858,7 +25858,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7995296</v>
+        <v>7995294</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25870,76 +25870,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G284" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K284">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L284">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M284">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N284">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O284">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P284">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q284">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S284">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T284">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U284">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V284">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA284">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25947,7 +25947,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7995189</v>
+        <v>7995296</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25959,55 +25959,55 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G285" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J285" t="s">
         <v>94</v>
       </c>
       <c r="K285">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="L285">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M285">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="N285">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="O285">
         <v>3.5</v>
       </c>
       <c r="P285">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="Q285">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R285">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S285">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T285">
         <v>2.5</v>
       </c>
       <c r="U285">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V285">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W285">
         <v>-1</v>
@@ -26016,16 +26016,16 @@
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0.6499999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB285">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC285">
         <v>-1</v>
@@ -26036,7 +26036,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7995297</v>
+        <v>7995189</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -26048,76 +26048,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G286" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J286" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K286">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="L286">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M286">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N286">
+        <v>4.75</v>
+      </c>
+      <c r="O286">
+        <v>3.5</v>
+      </c>
+      <c r="P286">
         <v>1.65</v>
       </c>
-      <c r="O286">
-        <v>3.6</v>
-      </c>
-      <c r="P286">
-        <v>4.2</v>
-      </c>
       <c r="Q286">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R286">
+        <v>1.925</v>
+      </c>
+      <c r="S286">
+        <v>1.875</v>
+      </c>
+      <c r="T286">
+        <v>2.5</v>
+      </c>
+      <c r="U286">
+        <v>1.95</v>
+      </c>
+      <c r="V286">
         <v>1.85</v>
       </c>
-      <c r="S286">
-        <v>1.95</v>
-      </c>
-      <c r="T286">
-        <v>2.75</v>
-      </c>
-      <c r="U286">
-        <v>1.9</v>
-      </c>
-      <c r="V286">
-        <v>1.9</v>
-      </c>
       <c r="W286">
+        <v>-1</v>
+      </c>
+      <c r="X286">
+        <v>-1</v>
+      </c>
+      <c r="Y286">
         <v>0.6499999999999999</v>
       </c>
-      <c r="X286">
-        <v>-1</v>
-      </c>
-      <c r="Y286">
-        <v>-1</v>
-      </c>
       <c r="Z286">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC286">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26125,7 +26125,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7995188</v>
+        <v>7995297</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26137,49 +26137,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G287" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K287">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L287">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="M287">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N287">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O287">
+        <v>3.6</v>
+      </c>
+      <c r="P287">
+        <v>4.2</v>
+      </c>
+      <c r="Q287">
+        <v>-0.75</v>
+      </c>
+      <c r="R287">
+        <v>1.85</v>
+      </c>
+      <c r="S287">
+        <v>1.95</v>
+      </c>
+      <c r="T287">
         <v>2.75</v>
-      </c>
-      <c r="P287">
-        <v>3.2</v>
-      </c>
-      <c r="Q287">
-        <v>-0.25</v>
-      </c>
-      <c r="R287">
-        <v>1.975</v>
-      </c>
-      <c r="S287">
-        <v>1.825</v>
-      </c>
-      <c r="T287">
-        <v>2</v>
       </c>
       <c r="U287">
         <v>1.9</v>
@@ -26188,25 +26188,25 @@
         <v>1.9</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA287">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
+        <v>-1</v>
+      </c>
+      <c r="AC287">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC287">
-        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26214,7 +26214,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7995241</v>
+        <v>7995188</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26226,49 +26226,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G288" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K288">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L288">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M288">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N288">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O288">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P288">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q288">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S288">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U288">
         <v>1.9</v>
@@ -26277,25 +26277,25 @@
         <v>1.9</v>
       </c>
       <c r="W288">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z288">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB288">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC288">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26303,7 +26303,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7995298</v>
+        <v>7995190</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26315,49 +26315,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F289" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G289" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H289">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K289">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M289">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N289">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O289">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P289">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q289">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S289">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T289">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U289">
         <v>1.975</v>
@@ -26366,25 +26366,25 @@
         <v>1.825</v>
       </c>
       <c r="W289">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB289">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26392,7 +26392,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7995190</v>
+        <v>7995298</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26404,49 +26404,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G290" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K290">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L290">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M290">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N290">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O290">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P290">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R290">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S290">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T290">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U290">
         <v>1.975</v>
@@ -26455,25 +26455,25 @@
         <v>1.825</v>
       </c>
       <c r="W290">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X290">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA290">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC290">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:29">

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -17008,7 +17008,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7690591</v>
+        <v>7690466</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -17017,40 +17017,40 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G191">
         <v>2</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J191">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="K191">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L191">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M191">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N191">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O191">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="P191">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -17059,19 +17059,19 @@
         <v>1.85</v>
       </c>
       <c r="S191">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W191">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17083,10 +17083,10 @@
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17094,7 +17094,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7690466</v>
+        <v>7690467</v>
       </c>
       <c r="C192" t="s">
         <v>27</v>
@@ -17103,76 +17103,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E192" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J192">
+        <v>3.2</v>
+      </c>
+      <c r="K192">
+        <v>3.6</v>
+      </c>
+      <c r="L192">
+        <v>1.909</v>
+      </c>
+      <c r="M192">
+        <v>3.2</v>
+      </c>
+      <c r="N192">
+        <v>3.6</v>
+      </c>
+      <c r="O192">
+        <v>1.909</v>
+      </c>
+      <c r="P192">
+        <v>0.5</v>
+      </c>
+      <c r="Q192">
+        <v>1.825</v>
+      </c>
+      <c r="R192">
+        <v>1.975</v>
+      </c>
+      <c r="S192">
+        <v>2.25</v>
+      </c>
+      <c r="T192">
+        <v>1.85</v>
+      </c>
+      <c r="U192">
+        <v>1.95</v>
+      </c>
+      <c r="V192">
+        <v>-1</v>
+      </c>
+      <c r="W192">
         <v>2.6</v>
       </c>
-      <c r="K192">
-        <v>3</v>
-      </c>
-      <c r="L192">
-        <v>2.5</v>
-      </c>
-      <c r="M192">
-        <v>2.6</v>
-      </c>
-      <c r="N192">
-        <v>3</v>
-      </c>
-      <c r="O192">
-        <v>2.5</v>
-      </c>
-      <c r="P192">
-        <v>0</v>
-      </c>
-      <c r="Q192">
-        <v>1.95</v>
-      </c>
-      <c r="R192">
-        <v>1.85</v>
-      </c>
-      <c r="S192">
-        <v>2.5</v>
-      </c>
-      <c r="T192">
-        <v>2</v>
-      </c>
-      <c r="U192">
-        <v>1.8</v>
-      </c>
-      <c r="V192">
-        <v>1.6</v>
-      </c>
-      <c r="W192">
-        <v>-1</v>
-      </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB192">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -17180,7 +17180,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7690467</v>
+        <v>7690616</v>
       </c>
       <c r="C193" t="s">
         <v>27</v>
@@ -17189,10 +17189,10 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F193" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17204,61 +17204,61 @@
         <v>94</v>
       </c>
       <c r="J193">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="K193">
         <v>3.6</v>
       </c>
       <c r="L193">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="N193">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O193">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="P193">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q193">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T193">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V193">
         <v>-1</v>
       </c>
       <c r="W193">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17266,7 +17266,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7690616</v>
+        <v>7690615</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17275,76 +17275,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F194" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="s">
         <v>94</v>
       </c>
       <c r="J194">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="K194">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L194">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M194">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="N194">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O194">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P194">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q194">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T194">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
         <v>-1</v>
       </c>
       <c r="W194">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z194">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17352,7 +17352,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7690615</v>
+        <v>7690594</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17361,10 +17361,10 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F195" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -17376,19 +17376,19 @@
         <v>94</v>
       </c>
       <c r="J195">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K195">
+        <v>3.4</v>
+      </c>
+      <c r="L195">
         <v>3.1</v>
       </c>
-      <c r="L195">
-        <v>3</v>
-      </c>
       <c r="M195">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N195">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O195">
         <v>3.2</v>
@@ -17397,25 +17397,25 @@
         <v>-0.25</v>
       </c>
       <c r="Q195">
+        <v>1.8</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>2.5</v>
+      </c>
+      <c r="T195">
+        <v>1.95</v>
+      </c>
+      <c r="U195">
         <v>1.85</v>
       </c>
-      <c r="R195">
-        <v>1.95</v>
-      </c>
-      <c r="S195">
-        <v>2.25</v>
-      </c>
-      <c r="T195">
-        <v>1.925</v>
-      </c>
-      <c r="U195">
-        <v>1.875</v>
-      </c>
       <c r="V195">
         <v>-1</v>
       </c>
       <c r="W195">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17424,13 +17424,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z195">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17438,7 +17438,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7690594</v>
+        <v>7690590</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17447,76 +17447,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F196" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J196">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K196">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L196">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M196">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N196">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O196">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P196">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q196">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S196">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T196">
+        <v>1.85</v>
+      </c>
+      <c r="U196">
         <v>1.95</v>
       </c>
-      <c r="U196">
-        <v>1.85</v>
-      </c>
       <c r="V196">
         <v>-1</v>
       </c>
       <c r="W196">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17524,7 +17524,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7690590</v>
+        <v>7690591</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
@@ -17533,76 +17533,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J197">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="K197">
         <v>3.25</v>
       </c>
       <c r="L197">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="M197">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="N197">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O197">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="P197">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q197">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R197">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T197">
+        <v>1.95</v>
+      </c>
+      <c r="U197">
         <v>1.85</v>
       </c>
-      <c r="U197">
-        <v>1.95</v>
-      </c>
       <c r="V197">
         <v>-1</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X197">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17782,7 +17782,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7718738</v>
+        <v>7718669</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17791,76 +17791,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E200" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F200" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G200">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J200">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="K200">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L200">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M200">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="N200">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P200">
         <v>-1</v>
       </c>
       <c r="Q200">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R200">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S200">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T200">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
         <v>-1</v>
       </c>
       <c r="W200">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB200">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17868,7 +17868,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7718669</v>
+        <v>7718580</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17877,55 +17877,55 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F201" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I201" t="s">
         <v>92</v>
       </c>
       <c r="J201">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="K201">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L201">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M201">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="N201">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O201">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q201">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R201">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S201">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
         <v>-1</v>
@@ -17934,19 +17934,19 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA201">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB201">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17954,7 +17954,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7718580</v>
+        <v>7718534</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17963,76 +17963,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J202">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="K202">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L202">
+        <v>4.75</v>
+      </c>
+      <c r="M202">
+        <v>1.833</v>
+      </c>
+      <c r="N202">
         <v>3.1</v>
       </c>
-      <c r="M202">
-        <v>2.375</v>
-      </c>
-      <c r="N202">
-        <v>2.8</v>
-      </c>
       <c r="O202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P202">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q202">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R202">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T202">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U202">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="V202">
         <v>-1</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X202">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA202">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -18040,7 +18040,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7718534</v>
+        <v>7718738</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -18049,61 +18049,61 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F203" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="s">
         <v>94</v>
       </c>
       <c r="J203">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="K203">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L203">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M203">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="N203">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q203">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T203">
         <v>1.975</v>
       </c>
       <c r="U203">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
         <v>-1</v>
       </c>
       <c r="W203">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18112,13 +18112,13 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18814,7 +18814,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7773904</v>
+        <v>7773905</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18823,10 +18823,10 @@
         <v>45324.625</v>
       </c>
       <c r="E212" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18838,44 +18838,44 @@
         <v>93</v>
       </c>
       <c r="J212">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K212">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="L212">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="M212">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N212">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O212">
+        <v>1.833</v>
+      </c>
+      <c r="P212">
+        <v>0.5</v>
+      </c>
+      <c r="Q212">
+        <v>1.95</v>
+      </c>
+      <c r="R212">
+        <v>1.85</v>
+      </c>
+      <c r="S212">
+        <v>2.25</v>
+      </c>
+      <c r="T212">
+        <v>1.925</v>
+      </c>
+      <c r="U212">
+        <v>1.875</v>
+      </c>
+      <c r="V212">
         <v>3</v>
       </c>
-      <c r="P212">
-        <v>-0.25</v>
-      </c>
-      <c r="Q212">
-        <v>2.05</v>
-      </c>
-      <c r="R212">
-        <v>1.75</v>
-      </c>
-      <c r="S212">
-        <v>2</v>
-      </c>
-      <c r="T212">
-        <v>1.75</v>
-      </c>
-      <c r="U212">
-        <v>2.05</v>
-      </c>
-      <c r="V212">
-        <v>1.375</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
@@ -18883,16 +18883,16 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18900,7 +18900,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7773905</v>
+        <v>7773904</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18909,10 +18909,10 @@
         <v>45324.625</v>
       </c>
       <c r="E213" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F213" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18924,43 +18924,43 @@
         <v>93</v>
       </c>
       <c r="J213">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K213">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="L213">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N213">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O213">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="P213">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q213">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R213">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T213">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V213">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -18969,16 +18969,16 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB213">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -19072,7 +19072,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7778158</v>
+        <v>7778150</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -19081,76 +19081,76 @@
         <v>45325.5</v>
       </c>
       <c r="E215" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F215" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G215">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J215">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="K215">
         <v>3</v>
       </c>
       <c r="L215">
+        <v>2.6</v>
+      </c>
+      <c r="M215">
         <v>2.8</v>
       </c>
-      <c r="M215">
-        <v>1.8</v>
-      </c>
       <c r="N215">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O215">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P215">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q215">
+        <v>1.75</v>
+      </c>
+      <c r="R215">
+        <v>2.05</v>
+      </c>
+      <c r="S215">
+        <v>2.25</v>
+      </c>
+      <c r="T215">
+        <v>1.975</v>
+      </c>
+      <c r="U215">
         <v>1.825</v>
       </c>
-      <c r="R215">
-        <v>1.975</v>
-      </c>
-      <c r="S215">
-        <v>2.75</v>
-      </c>
-      <c r="T215">
-        <v>2</v>
-      </c>
-      <c r="U215">
-        <v>1.8</v>
-      </c>
       <c r="V215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19158,7 +19158,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7778150</v>
+        <v>7778158</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19167,76 +19167,76 @@
         <v>45325.5</v>
       </c>
       <c r="E216" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F216" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G216">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J216">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="K216">
         <v>3</v>
       </c>
       <c r="L216">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M216">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N216">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O216">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q216">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R216">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z216">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19330,7 +19330,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7778132</v>
+        <v>7778135</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19339,76 +19339,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J218">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K218">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L218">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="M218">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N218">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O218">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="P218">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q218">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R218">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="S218">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U218">
+        <v>1.9</v>
+      </c>
+      <c r="V218">
+        <v>-1</v>
+      </c>
+      <c r="W218">
         <v>1.8</v>
       </c>
-      <c r="V218">
-        <v>-1</v>
-      </c>
-      <c r="W218">
-        <v>-1</v>
-      </c>
       <c r="X218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z218">
-        <v>0.925</v>
+        <v>0.35</v>
       </c>
       <c r="AA218">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19416,7 +19416,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7778135</v>
+        <v>7778132</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19425,76 +19425,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F219" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J219">
+        <v>6</v>
+      </c>
+      <c r="K219">
+        <v>3.6</v>
+      </c>
+      <c r="L219">
+        <v>1.5</v>
+      </c>
+      <c r="M219">
+        <v>3.8</v>
+      </c>
+      <c r="N219">
+        <v>3.3</v>
+      </c>
+      <c r="O219">
+        <v>1.85</v>
+      </c>
+      <c r="P219">
+        <v>0.5</v>
+      </c>
+      <c r="Q219">
+        <v>1.875</v>
+      </c>
+      <c r="R219">
+        <v>1.925</v>
+      </c>
+      <c r="S219">
         <v>2.5</v>
       </c>
-      <c r="K219">
-        <v>2.8</v>
-      </c>
-      <c r="L219">
-        <v>2.8</v>
-      </c>
-      <c r="M219">
-        <v>2.375</v>
-      </c>
-      <c r="N219">
-        <v>2.8</v>
-      </c>
-      <c r="O219">
-        <v>2.9</v>
-      </c>
-      <c r="P219">
-        <v>-0.25</v>
-      </c>
-      <c r="Q219">
-        <v>2</v>
-      </c>
-      <c r="R219">
-        <v>1.7</v>
-      </c>
-      <c r="S219">
-        <v>2</v>
-      </c>
       <c r="T219">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V219">
         <v>-1</v>
       </c>
       <c r="W219">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.35</v>
+        <v>0.925</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19588,7 +19588,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7779589</v>
+        <v>7779590</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -19597,76 +19597,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E221" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I221" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J221">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="K221">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L221">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M221">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="N221">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q221">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R221">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T221">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V221">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB221">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19674,7 +19674,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7779590</v>
+        <v>7779589</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -19683,76 +19683,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E222" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F222" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J222">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="K222">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L222">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M222">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="N222">
+        <v>3.1</v>
+      </c>
+      <c r="O222">
         <v>3.6</v>
       </c>
-      <c r="O222">
-        <v>5.25</v>
-      </c>
       <c r="P222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q222">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T222">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U222">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z222">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -22856,7 +22856,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7933095</v>
+        <v>7933096</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22865,76 +22865,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E259" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F259" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G259">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J259">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K259">
         <v>3.75</v>
       </c>
       <c r="L259">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="M259">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N259">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O259">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P259">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q259">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R259">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S259">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T259">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V259">
         <v>-1</v>
       </c>
       <c r="W259">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA259">
+        <v>0.4375</v>
+      </c>
+      <c r="AB259">
         <v>-0.5</v>
-      </c>
-      <c r="AB259">
-        <v>0.45</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -22942,7 +22942,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7933096</v>
+        <v>7933095</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22951,76 +22951,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E260" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F260" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J260">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="K260">
         <v>3.75</v>
       </c>
       <c r="L260">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="M260">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N260">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O260">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P260">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q260">
+        <v>2</v>
+      </c>
+      <c r="R260">
         <v>1.8</v>
       </c>
-      <c r="R260">
-        <v>2</v>
-      </c>
       <c r="S260">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T260">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U260">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V260">
         <v>-1</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X260">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA260">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AB260">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -30940,7 +30940,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>8144346</v>
+        <v>8144345</v>
       </c>
       <c r="C353" t="s">
         <v>27</v>
@@ -30949,40 +30949,40 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E353" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F353" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H353">
         <v>0</v>
       </c>
       <c r="I353" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J353">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="K353">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L353">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="M353">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N353">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O353">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P353">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q353">
         <v>1.825</v>
@@ -30991,34 +30991,34 @@
         <v>1.975</v>
       </c>
       <c r="S353">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T353">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U353">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V353">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA353">
         <v>-1</v>
       </c>
       <c r="AB353">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -31026,7 +31026,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>8144345</v>
+        <v>8144346</v>
       </c>
       <c r="C354" t="s">
         <v>27</v>
@@ -31035,40 +31035,40 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E354" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F354" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H354">
         <v>0</v>
       </c>
       <c r="I354" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J354">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K354">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L354">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="M354">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N354">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O354">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P354">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q354">
         <v>1.825</v>
@@ -31077,34 +31077,34 @@
         <v>1.975</v>
       </c>
       <c r="S354">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T354">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U354">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V354">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W354">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X354">
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z354">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
         <v>-1</v>
       </c>
       <c r="AB354">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:28">

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -17008,7 +17008,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7690466</v>
+        <v>7690591</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -17017,40 +17017,40 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F191" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G191">
         <v>2</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J191">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="K191">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L191">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M191">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O191">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="P191">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q191">
         <v>1.95</v>
@@ -17059,19 +17059,19 @@
         <v>1.85</v>
       </c>
       <c r="S191">
+        <v>2.75</v>
+      </c>
+      <c r="T191">
+        <v>1.95</v>
+      </c>
+      <c r="U191">
+        <v>1.85</v>
+      </c>
+      <c r="V191">
+        <v>-1</v>
+      </c>
+      <c r="W191">
         <v>2.5</v>
-      </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.8</v>
-      </c>
-      <c r="V191">
-        <v>1.6</v>
-      </c>
-      <c r="W191">
-        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17083,10 +17083,10 @@
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17094,7 +17094,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7690467</v>
+        <v>7690466</v>
       </c>
       <c r="C192" t="s">
         <v>27</v>
@@ -17103,76 +17103,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E192" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F192" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J192">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="K192">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L192">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M192">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N192">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O192">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="P192">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q192">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R192">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -17180,7 +17180,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7690616</v>
+        <v>7690467</v>
       </c>
       <c r="C193" t="s">
         <v>27</v>
@@ -17189,10 +17189,10 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F193" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17204,61 +17204,61 @@
         <v>94</v>
       </c>
       <c r="J193">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="K193">
         <v>3.6</v>
       </c>
       <c r="L193">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="M193">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O193">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="P193">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S193">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T193">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
         <v>-1</v>
       </c>
       <c r="W193">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z193">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB193">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17266,7 +17266,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7690615</v>
+        <v>7690616</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17275,76 +17275,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F194" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="s">
         <v>94</v>
       </c>
       <c r="J194">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="K194">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M194">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="N194">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O194">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P194">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q194">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T194">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V194">
         <v>-1</v>
       </c>
       <c r="W194">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17352,7 +17352,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7690594</v>
+        <v>7690615</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17361,10 +17361,10 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -17376,19 +17376,19 @@
         <v>94</v>
       </c>
       <c r="J195">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K195">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L195">
+        <v>3</v>
+      </c>
+      <c r="M195">
+        <v>2.1</v>
+      </c>
+      <c r="N195">
         <v>3.1</v>
-      </c>
-      <c r="M195">
-        <v>2</v>
-      </c>
-      <c r="N195">
-        <v>3.3</v>
       </c>
       <c r="O195">
         <v>3.2</v>
@@ -17397,25 +17397,25 @@
         <v>-0.25</v>
       </c>
       <c r="Q195">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T195">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V195">
         <v>-1</v>
       </c>
       <c r="W195">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17424,13 +17424,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z195">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17438,7 +17438,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7690590</v>
+        <v>7690594</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17447,76 +17447,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J196">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K196">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L196">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M196">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N196">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O196">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P196">
+        <v>-0.25</v>
+      </c>
+      <c r="Q196">
+        <v>1.8</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
+        <v>2.5</v>
+      </c>
+      <c r="T196">
+        <v>1.95</v>
+      </c>
+      <c r="U196">
+        <v>1.85</v>
+      </c>
+      <c r="V196">
+        <v>-1</v>
+      </c>
+      <c r="W196">
+        <v>2.3</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
         <v>-0.5</v>
       </c>
-      <c r="Q196">
-        <v>1.775</v>
-      </c>
-      <c r="R196">
-        <v>2.025</v>
-      </c>
-      <c r="S196">
-        <v>2.25</v>
-      </c>
-      <c r="T196">
-        <v>1.85</v>
-      </c>
-      <c r="U196">
-        <v>1.95</v>
-      </c>
-      <c r="V196">
-        <v>-1</v>
-      </c>
-      <c r="W196">
-        <v>-1</v>
-      </c>
-      <c r="X196">
-        <v>3.333</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
       <c r="Z196">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17524,7 +17524,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7690591</v>
+        <v>7690590</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
@@ -17533,76 +17533,76 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J197">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="K197">
         <v>3.25</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="M197">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="N197">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O197">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="P197">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q197">
+        <v>1.775</v>
+      </c>
+      <c r="R197">
+        <v>2.025</v>
+      </c>
+      <c r="S197">
+        <v>2.25</v>
+      </c>
+      <c r="T197">
+        <v>1.85</v>
+      </c>
+      <c r="U197">
         <v>1.95</v>
       </c>
-      <c r="R197">
-        <v>1.85</v>
-      </c>
-      <c r="S197">
-        <v>2.75</v>
-      </c>
-      <c r="T197">
-        <v>1.95</v>
-      </c>
-      <c r="U197">
-        <v>1.85</v>
-      </c>
       <c r="V197">
         <v>-1</v>
       </c>
       <c r="W197">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>1.025</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
         <v>0.95</v>
-      </c>
-      <c r="Z197">
-        <v>-1</v>
-      </c>
-      <c r="AA197">
-        <v>0.95</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17782,7 +17782,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7718669</v>
+        <v>7718738</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17791,76 +17791,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E200" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F200" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G200">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J200">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="K200">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L200">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M200">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="N200">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P200">
         <v>-1</v>
       </c>
       <c r="Q200">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S200">
+        <v>2.5</v>
+      </c>
+      <c r="T200">
+        <v>1.975</v>
+      </c>
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
+        <v>-1</v>
+      </c>
+      <c r="W200">
         <v>2.75</v>
       </c>
-      <c r="T200">
-        <v>1.95</v>
-      </c>
-      <c r="U200">
-        <v>1.85</v>
-      </c>
-      <c r="V200">
-        <v>-1</v>
-      </c>
-      <c r="W200">
-        <v>-1</v>
-      </c>
       <c r="X200">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA200">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17868,7 +17868,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7718580</v>
+        <v>7718669</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17877,55 +17877,55 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="s">
         <v>92</v>
       </c>
       <c r="J201">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="K201">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L201">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M201">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="N201">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P201">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q201">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R201">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T201">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U201">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
         <v>-1</v>
@@ -17934,19 +17934,19 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA201">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17954,7 +17954,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7718534</v>
+        <v>7718580</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17963,76 +17963,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F202" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J202">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="K202">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L202">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M202">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N202">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P202">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q202">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R202">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S202">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U202">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
         <v>-1</v>
       </c>
       <c r="W202">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB202">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -18040,7 +18040,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7718738</v>
+        <v>7718534</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -18049,61 +18049,61 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="s">
         <v>94</v>
       </c>
       <c r="J203">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="K203">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L203">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M203">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="N203">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O203">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q203">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T203">
         <v>1.975</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V203">
         <v>-1</v>
       </c>
       <c r="W203">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18112,13 +18112,13 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18814,7 +18814,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7773905</v>
+        <v>7773904</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18823,10 +18823,10 @@
         <v>45324.625</v>
       </c>
       <c r="E212" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F212" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18838,43 +18838,43 @@
         <v>93</v>
       </c>
       <c r="J212">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K212">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="L212">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="M212">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N212">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O212">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q212">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T212">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U212">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V212">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="W212">
         <v>-1</v>
@@ -18883,16 +18883,16 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB212">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18900,7 +18900,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7773904</v>
+        <v>7773905</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18909,10 +18909,10 @@
         <v>45324.625</v>
       </c>
       <c r="E213" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18924,44 +18924,44 @@
         <v>93</v>
       </c>
       <c r="J213">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K213">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="L213">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="M213">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N213">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O213">
+        <v>1.833</v>
+      </c>
+      <c r="P213">
+        <v>0.5</v>
+      </c>
+      <c r="Q213">
+        <v>1.95</v>
+      </c>
+      <c r="R213">
+        <v>1.85</v>
+      </c>
+      <c r="S213">
+        <v>2.25</v>
+      </c>
+      <c r="T213">
+        <v>1.925</v>
+      </c>
+      <c r="U213">
+        <v>1.875</v>
+      </c>
+      <c r="V213">
         <v>3</v>
       </c>
-      <c r="P213">
-        <v>-0.25</v>
-      </c>
-      <c r="Q213">
-        <v>2.05</v>
-      </c>
-      <c r="R213">
-        <v>1.75</v>
-      </c>
-      <c r="S213">
-        <v>2</v>
-      </c>
-      <c r="T213">
-        <v>1.75</v>
-      </c>
-      <c r="U213">
-        <v>2.05</v>
-      </c>
-      <c r="V213">
-        <v>1.375</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
@@ -18969,16 +18969,16 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -19072,7 +19072,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7778150</v>
+        <v>7778158</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -19081,76 +19081,76 @@
         <v>45325.5</v>
       </c>
       <c r="E215" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G215">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J215">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="K215">
         <v>3</v>
       </c>
       <c r="L215">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M215">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N215">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O215">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q215">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R215">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z215">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19158,7 +19158,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7778158</v>
+        <v>7778150</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19167,76 +19167,76 @@
         <v>45325.5</v>
       </c>
       <c r="E216" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F216" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G216">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I216" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J216">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="K216">
         <v>3</v>
       </c>
       <c r="L216">
+        <v>2.6</v>
+      </c>
+      <c r="M216">
         <v>2.8</v>
       </c>
-      <c r="M216">
-        <v>1.8</v>
-      </c>
       <c r="N216">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P216">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q216">
+        <v>1.75</v>
+      </c>
+      <c r="R216">
+        <v>2.05</v>
+      </c>
+      <c r="S216">
+        <v>2.25</v>
+      </c>
+      <c r="T216">
+        <v>1.975</v>
+      </c>
+      <c r="U216">
         <v>1.825</v>
       </c>
-      <c r="R216">
-        <v>1.975</v>
-      </c>
-      <c r="S216">
-        <v>2.75</v>
-      </c>
-      <c r="T216">
-        <v>2</v>
-      </c>
-      <c r="U216">
-        <v>1.8</v>
-      </c>
       <c r="V216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y216">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19330,7 +19330,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7778135</v>
+        <v>7778132</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19339,76 +19339,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F218" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J218">
+        <v>6</v>
+      </c>
+      <c r="K218">
+        <v>3.6</v>
+      </c>
+      <c r="L218">
+        <v>1.5</v>
+      </c>
+      <c r="M218">
+        <v>3.8</v>
+      </c>
+      <c r="N218">
+        <v>3.3</v>
+      </c>
+      <c r="O218">
+        <v>1.85</v>
+      </c>
+      <c r="P218">
+        <v>0.5</v>
+      </c>
+      <c r="Q218">
+        <v>1.875</v>
+      </c>
+      <c r="R218">
+        <v>1.925</v>
+      </c>
+      <c r="S218">
         <v>2.5</v>
       </c>
-      <c r="K218">
-        <v>2.8</v>
-      </c>
-      <c r="L218">
-        <v>2.8</v>
-      </c>
-      <c r="M218">
-        <v>2.375</v>
-      </c>
-      <c r="N218">
-        <v>2.8</v>
-      </c>
-      <c r="O218">
-        <v>2.9</v>
-      </c>
-      <c r="P218">
-        <v>-0.25</v>
-      </c>
-      <c r="Q218">
-        <v>2</v>
-      </c>
-      <c r="R218">
-        <v>1.7</v>
-      </c>
-      <c r="S218">
-        <v>2</v>
-      </c>
       <c r="T218">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V218">
         <v>-1</v>
       </c>
       <c r="W218">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.35</v>
+        <v>0.925</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19416,7 +19416,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7778132</v>
+        <v>7778135</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19425,76 +19425,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J219">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K219">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L219">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="M219">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N219">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O219">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="P219">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q219">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="S219">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U219">
+        <v>1.9</v>
+      </c>
+      <c r="V219">
+        <v>-1</v>
+      </c>
+      <c r="W219">
         <v>1.8</v>
       </c>
-      <c r="V219">
-        <v>-1</v>
-      </c>
-      <c r="W219">
-        <v>-1</v>
-      </c>
       <c r="X219">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z219">
-        <v>0.925</v>
+        <v>0.35</v>
       </c>
       <c r="AA219">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19588,7 +19588,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7779590</v>
+        <v>7779589</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -19597,76 +19597,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E221" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F221" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J221">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="K221">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L221">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M221">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="N221">
+        <v>3.1</v>
+      </c>
+      <c r="O221">
         <v>3.6</v>
       </c>
-      <c r="O221">
-        <v>5.25</v>
-      </c>
       <c r="P221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q221">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U221">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z221">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19674,7 +19674,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7779589</v>
+        <v>7779590</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -19683,76 +19683,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E222" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I222" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J222">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="K222">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L222">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M222">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="N222">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q222">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S222">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T222">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U222">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V222">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y222">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -22856,7 +22856,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7933096</v>
+        <v>7933095</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22865,76 +22865,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E259" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G259">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J259">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="K259">
         <v>3.75</v>
       </c>
       <c r="L259">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="M259">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N259">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O259">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P259">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q259">
+        <v>2</v>
+      </c>
+      <c r="R259">
         <v>1.8</v>
       </c>
-      <c r="R259">
-        <v>2</v>
-      </c>
       <c r="S259">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T259">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U259">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
         <v>-1</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X259">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA259">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AB259">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -22942,7 +22942,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7933095</v>
+        <v>7933096</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22951,76 +22951,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E260" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F260" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J260">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K260">
         <v>3.75</v>
       </c>
       <c r="L260">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="M260">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="N260">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O260">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P260">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q260">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R260">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S260">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T260">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V260">
         <v>-1</v>
       </c>
       <c r="W260">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA260">
+        <v>0.4375</v>
+      </c>
+      <c r="AB260">
         <v>-0.5</v>
-      </c>
-      <c r="AB260">
-        <v>0.45</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -25694,7 +25694,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>8023378</v>
+        <v>8023376</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -25703,76 +25703,76 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E292" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F292" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G292">
         <v>0</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J292">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="K292">
         <v>3</v>
       </c>
       <c r="L292">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M292">
         <v>2.375</v>
       </c>
       <c r="N292">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O292">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P292">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q292">
+        <v>2.05</v>
+      </c>
+      <c r="R292">
         <v>1.75</v>
       </c>
-      <c r="R292">
-        <v>2.05</v>
-      </c>
       <c r="S292">
         <v>2</v>
       </c>
       <c r="T292">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U292">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V292">
         <v>-1</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X292">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z292">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AA292">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="293" spans="1:28">
@@ -25780,7 +25780,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8023376</v>
+        <v>8023378</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -25789,76 +25789,76 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F293" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G293">
         <v>0</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I293" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J293">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="K293">
         <v>3</v>
       </c>
       <c r="L293">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M293">
         <v>2.375</v>
       </c>
       <c r="N293">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O293">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P293">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q293">
+        <v>1.75</v>
+      </c>
+      <c r="R293">
         <v>2.05</v>
       </c>
-      <c r="R293">
+      <c r="S293">
+        <v>2</v>
+      </c>
+      <c r="T293">
+        <v>1.775</v>
+      </c>
+      <c r="U293">
+        <v>2.025</v>
+      </c>
+      <c r="V293">
+        <v>-1</v>
+      </c>
+      <c r="W293">
+        <v>-1</v>
+      </c>
+      <c r="X293">
         <v>1.75</v>
       </c>
-      <c r="S293">
-        <v>2</v>
-      </c>
-      <c r="T293">
-        <v>1.95</v>
-      </c>
-      <c r="U293">
-        <v>1.85</v>
-      </c>
-      <c r="V293">
-        <v>-1</v>
-      </c>
-      <c r="W293">
-        <v>1.875</v>
-      </c>
-      <c r="X293">
-        <v>-1</v>
-      </c>
       <c r="Y293">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB293">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -26554,7 +26554,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>8055000</v>
+        <v>8055094</v>
       </c>
       <c r="C302" t="s">
         <v>27</v>
@@ -26563,76 +26563,76 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E302" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F302" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J302">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="K302">
         <v>2.9</v>
       </c>
       <c r="L302">
+        <v>2.9</v>
+      </c>
+      <c r="M302">
+        <v>1.65</v>
+      </c>
+      <c r="N302">
         <v>3.4</v>
       </c>
-      <c r="M302">
-        <v>2.05</v>
-      </c>
-      <c r="N302">
-        <v>2.8</v>
-      </c>
       <c r="O302">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P302">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q302">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R302">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S302">
+        <v>2.25</v>
+      </c>
+      <c r="T302">
         <v>1.75</v>
       </c>
-      <c r="T302">
-        <v>1.8</v>
-      </c>
       <c r="U302">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V302">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z302">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA302">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="303" spans="1:28">
@@ -26640,7 +26640,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>8055019</v>
+        <v>8055000</v>
       </c>
       <c r="C303" t="s">
         <v>27</v>
@@ -26649,49 +26649,49 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E303" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F303" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H303">
         <v>2</v>
       </c>
       <c r="I303" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J303">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="K303">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L303">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="M303">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N303">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O303">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="P303">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q303">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R303">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T303">
         <v>1.8</v>
@@ -26703,22 +26703,22 @@
         <v>-1</v>
       </c>
       <c r="W303">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y303">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
+        <v>1.025</v>
+      </c>
+      <c r="AA303">
+        <v>0.4</v>
+      </c>
+      <c r="AB303">
         <v>-0.5</v>
-      </c>
-      <c r="AA303">
-        <v>0.8</v>
-      </c>
-      <c r="AB303">
-        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:28">
@@ -26726,7 +26726,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8055053</v>
+        <v>8055019</v>
       </c>
       <c r="C304" t="s">
         <v>27</v>
@@ -26735,46 +26735,46 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F304" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G304">
         <v>2</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J304">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="K304">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L304">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="M304">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N304">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O304">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="P304">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q304">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R304">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S304">
         <v>2.25</v>
@@ -26786,19 +26786,19 @@
         <v>2</v>
       </c>
       <c r="V304">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA304">
         <v>0.8</v>
@@ -26812,7 +26812,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8055094</v>
+        <v>8055053</v>
       </c>
       <c r="C305" t="s">
         <v>27</v>
@@ -26821,58 +26821,58 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E305" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F305" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G305">
+        <v>2</v>
+      </c>
+      <c r="H305">
         <v>1</v>
-      </c>
-      <c r="H305">
-        <v>0</v>
       </c>
       <c r="I305" t="s">
         <v>93</v>
       </c>
       <c r="J305">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="K305">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L305">
         <v>2.9</v>
       </c>
       <c r="M305">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="N305">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O305">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P305">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q305">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R305">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S305">
         <v>2.25</v>
       </c>
       <c r="T305">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="W305">
         <v>-1</v>
@@ -26881,16 +26881,16 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="Z305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB305">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:28">
@@ -28188,7 +28188,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>8086918</v>
+        <v>8086917</v>
       </c>
       <c r="C321" t="s">
         <v>27</v>
@@ -28197,28 +28197,28 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E321" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F321" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G321">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J321">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="K321">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L321">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M321">
         <v>1.8</v>
@@ -28233,40 +28233,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q321">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R321">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S321">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T321">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U321">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V321">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W321">
         <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y321">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA321">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="322" spans="1:28">
@@ -28274,7 +28274,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>8086917</v>
+        <v>8086918</v>
       </c>
       <c r="C322" t="s">
         <v>27</v>
@@ -28283,28 +28283,28 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E322" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F322" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G322">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J322">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="K322">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L322">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M322">
         <v>1.8</v>
@@ -28319,40 +28319,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q322">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R322">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S322">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T322">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U322">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V322">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W322">
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z322">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB322">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:28">

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -109,9 +109,6 @@
     <t>Furiani Agliani</t>
   </si>
   <si>
-    <t>Lyon II</t>
-  </si>
-  <si>
     <t>Wasquehal</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>Olympique dAles</t>
+  </si>
+  <si>
+    <t>Lyon II</t>
   </si>
   <si>
     <t>Grasse</t>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6730008</v>
+        <v>6730005</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -870,58 +870,58 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>95</v>
       </c>
       <c r="L3">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M3">
+        <v>3.2</v>
+      </c>
+      <c r="N3">
+        <v>2.625</v>
+      </c>
+      <c r="O3">
+        <v>2.05</v>
+      </c>
+      <c r="P3">
+        <v>3.25</v>
+      </c>
+      <c r="Q3">
         <v>3.1</v>
       </c>
-      <c r="N3">
-        <v>2.55</v>
-      </c>
-      <c r="O3">
-        <v>2.9</v>
-      </c>
-      <c r="P3">
-        <v>3.2</v>
-      </c>
-      <c r="Q3">
-        <v>2.2</v>
-      </c>
       <c r="R3">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U3">
         <v>2.5</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -930,16 +930,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD3">
         <v>-1</v>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6730005</v>
+        <v>6730006</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -962,76 +962,76 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N4">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="O4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P4">
+        <v>3.3</v>
+      </c>
+      <c r="Q4">
         <v>3.25</v>
-      </c>
-      <c r="Q4">
-        <v>3.1</v>
       </c>
       <c r="R4">
         <v>-0.25</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U4">
         <v>2.5</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W4">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AD4">
         <v>-1</v>
@@ -1042,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6730006</v>
+        <v>6730007</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1054,61 +1054,61 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
         <v>94</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N5">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S5">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V5">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -1117,13 +1117,13 @@
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AD5">
         <v>-1</v>
@@ -1134,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6730007</v>
+        <v>6730008</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1146,76 +1146,76 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O6">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="R6">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X6">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>-1</v>
@@ -2422,7 +2422,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7120892</v>
+        <v>7120889</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2431,16 +2431,16 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2449,61 +2449,61 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O20">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
         <v>3.2</v>
       </c>
       <c r="Q20">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="R20">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V20">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X20">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD20">
         <v>-1</v>
@@ -2514,7 +2514,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7121662</v>
+        <v>7120892</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2523,19 +2523,19 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2544,43 +2544,43 @@
         <v>94</v>
       </c>
       <c r="L21">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O21">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.775</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>2.025</v>
       </c>
-      <c r="U21">
-        <v>2.25</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>1.925</v>
-      </c>
       <c r="X21">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2589,16 +2589,16 @@
         <v>-1</v>
       </c>
       <c r="AA21">
+        <v>0.8</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
-      <c r="AC21">
-        <v>-0.5</v>
-      </c>
       <c r="AD21">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2606,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7121837</v>
+        <v>7121662</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2615,16 +2615,16 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2636,43 +2636,43 @@
         <v>94</v>
       </c>
       <c r="L22">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M22">
         <v>3</v>
       </c>
       <c r="N22">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O22">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P22">
         <v>3</v>
       </c>
       <c r="Q22">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T22">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X22">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Y22">
         <v>-1</v>
@@ -2681,16 +2681,16 @@
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD22">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2698,7 +2698,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7121838</v>
+        <v>7121837</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2707,10 +2707,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2722,49 +2722,49 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>94</v>
       </c>
       <c r="L23">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
         <v>3.1</v>
       </c>
-      <c r="N23">
-        <v>4</v>
-      </c>
       <c r="O23">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
         <v>3.1</v>
       </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
       <c r="R23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U23">
         <v>2</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X23">
-        <v>0.833</v>
+        <v>1.2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
@@ -2773,13 +2773,13 @@
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD23">
         <v>-1</v>
@@ -2790,7 +2790,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7121839</v>
+        <v>7121838</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2799,13 +2799,13 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2817,64 +2817,64 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L24">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N24">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB24">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD24">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2882,7 +2882,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7122068</v>
+        <v>7121839</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2891,82 +2891,82 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L25">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M25">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="O25">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC25">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD25">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2974,7 +2974,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7120889</v>
+        <v>7122068</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2983,10 +2983,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2995,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3004,40 +3004,40 @@
         <v>95</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N26">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P26">
         <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U26">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -3046,16 +3046,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD26">
         <v>-1</v>
@@ -3722,7 +3722,7 @@
         <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -4182,7 +4182,7 @@
         <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -4274,7 +4274,7 @@
         <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -5099,7 +5099,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
         <v>59</v>
@@ -5835,7 +5835,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
@@ -6758,7 +6758,7 @@
         <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>8</v>
@@ -7034,7 +7034,7 @@
         <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -8687,7 +8687,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
         <v>45</v>
@@ -9518,7 +9518,7 @@
         <v>67</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -10619,7 +10619,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
         <v>63</v>
@@ -10987,7 +10987,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
         <v>75</v>
@@ -12462,7 +12462,7 @@
         <v>48</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12922,7 +12922,7 @@
         <v>49</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -13554,7 +13554,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7458009</v>
+        <v>7458007</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13563,82 +13563,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F141" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L141">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N141">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="O141">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q141">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="R141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V141">
         <v>1.95</v>
       </c>
       <c r="W141">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="X141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
       </c>
       <c r="AD141">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13646,7 +13646,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7458007</v>
+        <v>7457899</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13655,10 +13655,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -13667,43 +13667,43 @@
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="s">
         <v>96</v>
       </c>
       <c r="L142">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O142">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q142">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="R142">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U142">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V142">
         <v>1.95</v>
@@ -13715,22 +13715,22 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD142">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13738,7 +13738,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7457899</v>
+        <v>7458010</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13747,82 +13747,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F143" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L143">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O143">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="R143">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="U143">
         <v>2.25</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD143">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13830,7 +13830,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7458010</v>
+        <v>7458116</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13839,79 +13839,79 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F144" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L144">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="O144">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q144">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="R144">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S144">
+        <v>1.775</v>
+      </c>
+      <c r="T144">
         <v>2.025</v>
       </c>
-      <c r="T144">
-        <v>1.775</v>
-      </c>
       <c r="U144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD144">
         <v>-1</v>
@@ -13922,7 +13922,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7458116</v>
+        <v>7458009</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13931,19 +13931,19 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -13952,43 +13952,43 @@
         <v>94</v>
       </c>
       <c r="L145">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O145">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S145">
+        <v>2.025</v>
+      </c>
+      <c r="T145">
         <v>1.775</v>
-      </c>
-      <c r="T145">
-        <v>2.025</v>
       </c>
       <c r="U145">
         <v>2.5</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="X145">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13997,16 +13997,16 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD145">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14106,7 +14106,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7461270</v>
+        <v>7458192</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -14115,73 +14115,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L147">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="M147">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N147">
-        <v>2.35</v>
+        <v>1.727</v>
       </c>
       <c r="O147">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
         <v>3.2</v>
       </c>
       <c r="Q147">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="R147">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S147">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="U147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="X147">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -14190,7 +14190,7 @@
         <v>-1</v>
       </c>
       <c r="AD147">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14198,7 +14198,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7458192</v>
+        <v>7461270</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14207,73 +14207,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L148">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="M148">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N148">
-        <v>1.727</v>
+        <v>2.35</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="P148">
         <v>3.2</v>
       </c>
       <c r="Q148">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="R148">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T148">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="U148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
+        <v>1.9</v>
+      </c>
+      <c r="X148">
         <v>1.75</v>
       </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
       <c r="Y148">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -14282,7 +14282,7 @@
         <v>-1</v>
       </c>
       <c r="AD148">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14382,7 +14382,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7458191</v>
+        <v>7458118</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14391,52 +14391,52 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K150" t="s">
         <v>96</v>
       </c>
       <c r="L150">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M150">
         <v>3.1</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O150">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P150">
         <v>3.1</v>
       </c>
       <c r="Q150">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="R150">
         <v>-0.25</v>
       </c>
       <c r="S150">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U150">
         <v>2.25</v>
@@ -14460,13 +14460,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0.375</v>
+        <v>0.3875</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD150">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14474,7 +14474,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7458118</v>
+        <v>7458008</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -14483,79 +14483,79 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F151" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K151" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L151">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M151">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N151">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="O151">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="P151">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q151">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="R151">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S151">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T151">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U151">
         <v>2.25</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y151">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB151">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD151">
         <v>-1</v>
@@ -14566,7 +14566,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7458008</v>
+        <v>7457945</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14575,19 +14575,19 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -14596,43 +14596,43 @@
         <v>94</v>
       </c>
       <c r="L152">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N152">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="O152">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="P152">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q152">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="R152">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T152">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U152">
         <v>2.25</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W152">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X152">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
@@ -14641,16 +14641,16 @@
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD152">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14658,7 +14658,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7457945</v>
+        <v>7458191</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14667,82 +14667,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E153" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L153">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M153">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N153">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q153">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="R153">
         <v>-0.25</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T153">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U153">
         <v>2.25</v>
       </c>
       <c r="V153">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD153">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -15311,7 +15311,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
         <v>38</v>
@@ -15403,7 +15403,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
         <v>77</v>
@@ -16507,7 +16507,7 @@
         <v>45275.625</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F173" t="s">
         <v>72</v>
@@ -16967,10 +16967,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -18718,7 +18718,7 @@
         <v>60</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -19359,7 +19359,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F204" t="s">
         <v>35</v>
@@ -19442,7 +19442,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7743546</v>
+        <v>7743545</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
@@ -19451,82 +19451,82 @@
         <v>45317.625</v>
       </c>
       <c r="E205" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F205" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205">
         <v>1</v>
       </c>
       <c r="K205" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L205">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N205">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O205">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="P205">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q205">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S205">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V205">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="W205">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y205">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB205">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD205">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19534,7 +19534,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7743545</v>
+        <v>7743546</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
@@ -19543,82 +19543,82 @@
         <v>45317.625</v>
       </c>
       <c r="E206" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F206" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>1</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206">
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M206">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O206">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="P206">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q206">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="R206">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T206">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U206">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V206">
+        <v>1.725</v>
+      </c>
+      <c r="W206">
         <v>1.975</v>
       </c>
-      <c r="W206">
-        <v>1.825</v>
-      </c>
       <c r="X206">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC206">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD206">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -20006,7 +20006,7 @@
         <v>56</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -20742,7 +20742,7 @@
         <v>57</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -20822,7 +20822,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7779589</v>
+        <v>7779590</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20831,82 +20831,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K220" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L220">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="M220">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N220">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O220">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="P220">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="R220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W220">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="AA220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD220">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20914,7 +20914,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7779590</v>
+        <v>7779589</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -20923,82 +20923,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F221" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L221">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="M221">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N221">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O221">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="P221">
+        <v>3.1</v>
+      </c>
+      <c r="Q221">
         <v>3.6</v>
       </c>
-      <c r="Q221">
-        <v>5.25</v>
-      </c>
       <c r="R221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U221">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W221">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB221">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -21202,7 +21202,7 @@
         <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -21558,7 +21558,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7843095</v>
+        <v>7842642</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21567,55 +21567,55 @@
         <v>45339.54166666666</v>
       </c>
       <c r="E228" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F228" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K228" t="s">
         <v>95</v>
       </c>
       <c r="L228">
-        <v>2.35</v>
+        <v>1.4</v>
       </c>
       <c r="M228">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N228">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="O228">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="P228">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q228">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="R228">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S228">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V228">
         <v>1.95</v>
@@ -21630,13 +21630,13 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>0.95</v>
@@ -21650,7 +21650,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7842642</v>
+        <v>7843095</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -21659,55 +21659,55 @@
         <v>45339.54166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F229" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K229" t="s">
         <v>95</v>
       </c>
       <c r="L229">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N229">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="O229">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="P229">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q229">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="R229">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S229">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V229">
         <v>1.95</v>
@@ -21722,13 +21722,13 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC229">
         <v>0.95</v>
@@ -22110,7 +22110,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7843096</v>
+        <v>7842587</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -22119,13 +22119,13 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -22137,37 +22137,37 @@
         <v>0</v>
       </c>
       <c r="K234" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L234">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="M234">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N234">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="O234">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="P234">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q234">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="R234">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T234">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V234">
         <v>2</v>
@@ -22176,16 +22176,16 @@
         <v>1.8</v>
       </c>
       <c r="X234">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.4875</v>
+        <v>0.3875</v>
       </c>
       <c r="AB234">
         <v>-0.5</v>
@@ -22202,7 +22202,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7842640</v>
+        <v>7843096</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -22211,55 +22211,55 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E235" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F235" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="G235">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K235" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="M235">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N235">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O235">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="P235">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q235">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="R235">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U235">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V235">
         <v>2</v>
@@ -22268,25 +22268,25 @@
         <v>1.8</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -22294,7 +22294,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7842587</v>
+        <v>7842640</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22303,52 +22303,52 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E236" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F236" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K236" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L236">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N236">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q236">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R236">
         <v>0.25</v>
       </c>
       <c r="S236">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T236">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U236">
         <v>2.25</v>
@@ -22363,22 +22363,22 @@
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA236">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22490,7 +22490,7 @@
         <v>59</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G238">
         <v>3</v>
@@ -22582,7 +22582,7 @@
         <v>45</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -22846,7 +22846,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7873409</v>
+        <v>7873464</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22855,16 +22855,16 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E242" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F242" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G242">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -22873,64 +22873,64 @@
         <v>0</v>
       </c>
       <c r="K242" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L242">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="M242">
         <v>3</v>
       </c>
       <c r="N242">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O242">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P242">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q242">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="R242">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S242">
+        <v>2</v>
+      </c>
+      <c r="T242">
+        <v>1.8</v>
+      </c>
+      <c r="U242">
+        <v>2</v>
+      </c>
+      <c r="V242">
         <v>1.825</v>
       </c>
-      <c r="T242">
+      <c r="W242">
         <v>1.975</v>
       </c>
-      <c r="U242">
-        <v>2.25</v>
-      </c>
-      <c r="V242">
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
         <v>1.9</v>
       </c>
-      <c r="W242">
-        <v>1.9</v>
-      </c>
-      <c r="X242">
-        <v>1.1</v>
-      </c>
-      <c r="Y242">
-        <v>-1</v>
-      </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD242">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22938,7 +22938,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7873410</v>
+        <v>7873409</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22947,64 +22947,64 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F243" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="G243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K243" t="s">
         <v>94</v>
       </c>
       <c r="L243">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="M243">
+        <v>3</v>
+      </c>
+      <c r="N243">
+        <v>2.8</v>
+      </c>
+      <c r="O243">
+        <v>2.1</v>
+      </c>
+      <c r="P243">
+        <v>3</v>
+      </c>
+      <c r="Q243">
         <v>3.4</v>
       </c>
-      <c r="N243">
-        <v>3.8</v>
-      </c>
-      <c r="O243">
-        <v>1.8</v>
-      </c>
-      <c r="P243">
-        <v>3.4</v>
-      </c>
-      <c r="Q243">
-        <v>3.75</v>
-      </c>
       <c r="R243">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S243">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U243">
         <v>2.25</v>
       </c>
       <c r="V243">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X243">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
@@ -23013,16 +23013,16 @@
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB243">
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD243">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -23030,7 +23030,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7873413</v>
+        <v>7873410</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -23039,13 +23039,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F244" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -23057,64 +23057,64 @@
         <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L244">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M244">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N244">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O244">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="P244">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q244">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="R244">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S244">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T244">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W244">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y244">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD244">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23122,7 +23122,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7873430</v>
+        <v>7873413</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23131,55 +23131,55 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F245" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245" t="s">
+        <v>96</v>
+      </c>
+      <c r="L245">
+        <v>2.2</v>
+      </c>
+      <c r="M245">
+        <v>3.1</v>
+      </c>
+      <c r="N245">
         <v>3</v>
       </c>
-      <c r="H245">
-        <v>1</v>
-      </c>
-      <c r="I245">
-        <v>3</v>
-      </c>
-      <c r="J245">
-        <v>0</v>
-      </c>
-      <c r="K245" t="s">
-        <v>94</v>
-      </c>
-      <c r="L245">
-        <v>1.8</v>
-      </c>
-      <c r="M245">
-        <v>3.4</v>
-      </c>
-      <c r="N245">
-        <v>3.8</v>
-      </c>
       <c r="O245">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="P245">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q245">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="R245">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S245">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T245">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U245">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V245">
         <v>1.925</v>
@@ -23188,25 +23188,25 @@
         <v>1.875</v>
       </c>
       <c r="X245">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC245">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD245">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -23214,7 +23214,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7878104</v>
+        <v>7873430</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
@@ -23223,82 +23223,82 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E246" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F246" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H246">
         <v>1</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J246">
         <v>0</v>
       </c>
       <c r="K246" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="M246">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N246">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="O246">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="P246">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q246">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="R246">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S246">
+        <v>1.75</v>
+      </c>
+      <c r="T246">
         <v>2.05</v>
       </c>
-      <c r="T246">
-        <v>1.75</v>
-      </c>
       <c r="U246">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V246">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y246">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD246">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:30">
@@ -23306,7 +23306,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7873464</v>
+        <v>7878104</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23315,10 +23315,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F247" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -23336,61 +23336,61 @@
         <v>96</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N247">
+        <v>1.727</v>
+      </c>
+      <c r="O247">
+        <v>4</v>
+      </c>
+      <c r="P247">
+        <v>3.5</v>
+      </c>
+      <c r="Q247">
+        <v>1.7</v>
+      </c>
+      <c r="R247">
+        <v>0.5</v>
+      </c>
+      <c r="S247">
+        <v>2.05</v>
+      </c>
+      <c r="T247">
+        <v>1.75</v>
+      </c>
+      <c r="U247">
         <v>2.25</v>
       </c>
-      <c r="O247">
-        <v>2.75</v>
-      </c>
-      <c r="P247">
-        <v>2.9</v>
-      </c>
-      <c r="Q247">
-        <v>2.45</v>
-      </c>
-      <c r="R247">
-        <v>0</v>
-      </c>
-      <c r="S247">
-        <v>2</v>
-      </c>
-      <c r="T247">
-        <v>1.8</v>
-      </c>
-      <c r="U247">
-        <v>2</v>
-      </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W247">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X247">
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD247">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23499,7 +23499,7 @@
         <v>45352.625</v>
       </c>
       <c r="E249" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F249" t="s">
         <v>58</v>
@@ -24235,7 +24235,7 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E257" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F257" t="s">
         <v>43</v>
@@ -24882,7 +24882,7 @@
         <v>54</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G264">
         <v>3</v>
@@ -25802,7 +25802,7 @@
         <v>63</v>
       </c>
       <c r="F274" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G274">
         <v>2</v>
@@ -26618,7 +26618,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7995293</v>
+        <v>7995300</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -26627,82 +26627,82 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E283" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F283" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283" t="s">
+        <v>95</v>
+      </c>
+      <c r="L283">
+        <v>2.375</v>
+      </c>
+      <c r="M283">
+        <v>2.8</v>
+      </c>
+      <c r="N283">
         <v>3</v>
       </c>
-      <c r="H283">
-        <v>0</v>
-      </c>
-      <c r="I283">
-        <v>0</v>
-      </c>
-      <c r="J283">
-        <v>0</v>
-      </c>
-      <c r="K283" t="s">
-        <v>94</v>
-      </c>
-      <c r="L283">
-        <v>2.3</v>
-      </c>
-      <c r="M283">
-        <v>2.75</v>
-      </c>
-      <c r="N283">
-        <v>3.2</v>
-      </c>
       <c r="O283">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="P283">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q283">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R283">
         <v>-0.25</v>
       </c>
       <c r="S283">
+        <v>2.05</v>
+      </c>
+      <c r="T283">
+        <v>1.75</v>
+      </c>
+      <c r="U283">
+        <v>2.25</v>
+      </c>
+      <c r="V283">
         <v>2.025</v>
       </c>
-      <c r="T283">
+      <c r="W283">
         <v>1.775</v>
       </c>
-      <c r="U283">
-        <v>1.75</v>
-      </c>
-      <c r="V283">
-        <v>1.8</v>
-      </c>
-      <c r="W283">
-        <v>2</v>
-      </c>
       <c r="X283">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA283">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC283">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD283">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:30">
@@ -26710,7 +26710,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7995242</v>
+        <v>7995293</v>
       </c>
       <c r="C284" t="s">
         <v>29</v>
@@ -26719,16 +26719,16 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E284" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F284" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -26737,64 +26737,64 @@
         <v>0</v>
       </c>
       <c r="K284" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L284">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M284">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N284">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O284">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="P284">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q284">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R284">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S284">
+        <v>2.025</v>
+      </c>
+      <c r="T284">
+        <v>1.775</v>
+      </c>
+      <c r="U284">
         <v>1.75</v>
       </c>
-      <c r="T284">
-        <v>1.95</v>
-      </c>
-      <c r="U284">
-        <v>2.25</v>
-      </c>
       <c r="V284">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W284">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB284">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD284">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:30">
@@ -26802,7 +26802,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7995300</v>
+        <v>7995242</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
@@ -26811,10 +26811,10 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E285" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F285" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -26832,40 +26832,40 @@
         <v>95</v>
       </c>
       <c r="L285">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M285">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N285">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O285">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="P285">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="Q285">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R285">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S285">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T285">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U285">
         <v>2.25</v>
       </c>
       <c r="V285">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W285">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="X285">
         <v>-1</v>
@@ -26874,19 +26874,19 @@
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA285">
         <v>-1</v>
       </c>
       <c r="AB285">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC285">
         <v>-1</v>
       </c>
       <c r="AD285">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="286" spans="1:30">
@@ -27455,7 +27455,7 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E292" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F292" t="s">
         <v>48</v>
@@ -27538,7 +27538,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8023375</v>
+        <v>8023376</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27547,13 +27547,13 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F293" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -27565,22 +27565,22 @@
         <v>0</v>
       </c>
       <c r="K293" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L293">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="M293">
         <v>3</v>
       </c>
       <c r="N293">
+        <v>2.1</v>
+      </c>
+      <c r="O293">
+        <v>2.375</v>
+      </c>
+      <c r="P293">
         <v>2.875</v>
-      </c>
-      <c r="O293">
-        <v>2.3</v>
-      </c>
-      <c r="P293">
-        <v>3</v>
       </c>
       <c r="Q293">
         <v>2.9</v>
@@ -27589,40 +27589,40 @@
         <v>-0.25</v>
       </c>
       <c r="S293">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T293">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U293">
         <v>2</v>
       </c>
       <c r="V293">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W293">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X293">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z293">
         <v>-1</v>
       </c>
       <c r="AA293">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC293">
         <v>-1</v>
       </c>
       <c r="AD293">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27630,7 +27630,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8023376</v>
+        <v>8023375</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27639,13 +27639,13 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E294" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F294" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -27657,22 +27657,22 @@
         <v>0</v>
       </c>
       <c r="K294" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L294">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="M294">
         <v>3</v>
       </c>
       <c r="N294">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O294">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="P294">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q294">
         <v>2.9</v>
@@ -27681,40 +27681,40 @@
         <v>-0.25</v>
       </c>
       <c r="S294">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T294">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U294">
         <v>2</v>
       </c>
       <c r="V294">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W294">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y294">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB294">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
         <v>-1</v>
       </c>
       <c r="AD294">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -28366,7 +28366,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>8056020</v>
+        <v>8055000</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -28375,82 +28375,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E302" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F302" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302">
         <v>0</v>
       </c>
       <c r="J302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K302" t="s">
         <v>95</v>
       </c>
       <c r="L302">
+        <v>2.1</v>
+      </c>
+      <c r="M302">
+        <v>2.9</v>
+      </c>
+      <c r="N302">
+        <v>3.4</v>
+      </c>
+      <c r="O302">
+        <v>2.05</v>
+      </c>
+      <c r="P302">
+        <v>2.8</v>
+      </c>
+      <c r="Q302">
+        <v>3.75</v>
+      </c>
+      <c r="R302">
+        <v>-0.25</v>
+      </c>
+      <c r="S302">
+        <v>1.775</v>
+      </c>
+      <c r="T302">
+        <v>2.025</v>
+      </c>
+      <c r="U302">
+        <v>1.75</v>
+      </c>
+      <c r="V302">
+        <v>1.8</v>
+      </c>
+      <c r="W302">
+        <v>2</v>
+      </c>
+      <c r="X302">
+        <v>-1</v>
+      </c>
+      <c r="Y302">
+        <v>-1</v>
+      </c>
+      <c r="Z302">
         <v>2.75</v>
       </c>
-      <c r="M302">
-        <v>3.25</v>
-      </c>
-      <c r="N302">
-        <v>2.25</v>
-      </c>
-      <c r="O302">
-        <v>3.6</v>
-      </c>
-      <c r="P302">
-        <v>3.25</v>
-      </c>
-      <c r="Q302">
-        <v>1.85</v>
-      </c>
-      <c r="R302">
-        <v>0.5</v>
-      </c>
-      <c r="S302">
-        <v>1.85</v>
-      </c>
-      <c r="T302">
-        <v>1.95</v>
-      </c>
-      <c r="U302">
-        <v>2.5</v>
-      </c>
-      <c r="V302">
-        <v>1.975</v>
-      </c>
-      <c r="W302">
-        <v>1.825</v>
-      </c>
-      <c r="X302">
-        <v>-1</v>
-      </c>
-      <c r="Y302">
-        <v>-1</v>
-      </c>
-      <c r="Z302">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA302">
         <v>-1</v>
       </c>
       <c r="AB302">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC302">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AD302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="303" spans="1:30">
@@ -28458,7 +28458,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>8055000</v>
+        <v>8054998</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28467,82 +28467,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E303" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F303" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303">
         <v>0</v>
       </c>
       <c r="J303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K303" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L303">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M303">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N303">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O303">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="P303">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q303">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="R303">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S303">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T303">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U303">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V303">
+        <v>2</v>
+      </c>
+      <c r="W303">
         <v>1.8</v>
       </c>
-      <c r="W303">
-        <v>2</v>
-      </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z303">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
         <v>-1</v>
       </c>
       <c r="AB303">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC303">
+        <v>-0.5</v>
+      </c>
+      <c r="AD303">
         <v>0.4</v>
-      </c>
-      <c r="AD303">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28550,7 +28550,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8054998</v>
+        <v>8056020</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28559,16 +28559,16 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F304" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G304">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I304">
         <v>0</v>
@@ -28577,64 +28577,64 @@
         <v>1</v>
       </c>
       <c r="K304" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L304">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M304">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N304">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O304">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q304">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="R304">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S304">
+        <v>1.85</v>
+      </c>
+      <c r="T304">
+        <v>1.95</v>
+      </c>
+      <c r="U304">
+        <v>2.5</v>
+      </c>
+      <c r="V304">
         <v>1.975</v>
       </c>
-      <c r="T304">
+      <c r="W304">
         <v>1.825</v>
       </c>
-      <c r="U304">
-        <v>2.25</v>
-      </c>
-      <c r="V304">
-        <v>2</v>
-      </c>
-      <c r="W304">
-        <v>1.8</v>
-      </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA304">
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC304">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD304">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28734,7 +28734,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8055094</v>
+        <v>8055116</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28743,19 +28743,19 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E306" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F306" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G306">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H306">
         <v>0</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J306">
         <v>0</v>
@@ -28764,43 +28764,43 @@
         <v>94</v>
       </c>
       <c r="L306">
-        <v>2.35</v>
+        <v>1.909</v>
       </c>
       <c r="M306">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N306">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O306">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="P306">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q306">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="R306">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S306">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T306">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U306">
         <v>2.25</v>
       </c>
       <c r="V306">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W306">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X306">
-        <v>0.6499999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="Y306">
         <v>-1</v>
@@ -28809,16 +28809,16 @@
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD306">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -28826,7 +28826,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>8055116</v>
+        <v>8055094</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
@@ -28835,19 +28835,19 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E307" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F307" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H307">
         <v>0</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307">
         <v>0</v>
@@ -28856,43 +28856,43 @@
         <v>94</v>
       </c>
       <c r="L307">
-        <v>1.909</v>
+        <v>2.35</v>
       </c>
       <c r="M307">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N307">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O307">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="P307">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q307">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="R307">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S307">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T307">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U307">
         <v>2.25</v>
       </c>
       <c r="V307">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W307">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X307">
-        <v>0.909</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y307">
         <v>-1</v>
@@ -28901,16 +28901,16 @@
         <v>-1</v>
       </c>
       <c r="AA307">
+        <v>0.4375</v>
+      </c>
+      <c r="AB307">
+        <v>-0.5</v>
+      </c>
+      <c r="AC307">
+        <v>-1</v>
+      </c>
+      <c r="AD307">
         <v>0.95</v>
-      </c>
-      <c r="AB307">
-        <v>-1</v>
-      </c>
-      <c r="AC307">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD307">
-        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:30">
@@ -29562,7 +29562,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>8085929</v>
+        <v>8086918</v>
       </c>
       <c r="C315" t="s">
         <v>29</v>
@@ -29571,79 +29571,79 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E315" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F315" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H315">
         <v>2</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315">
         <v>1</v>
       </c>
       <c r="K315" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L315">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M315">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N315">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O315">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="P315">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q315">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="R315">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S315">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T315">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U315">
         <v>2.25</v>
       </c>
       <c r="V315">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W315">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB315">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD315">
         <v>-1</v>
@@ -29654,7 +29654,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8086918</v>
+        <v>8086912</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -29663,52 +29663,52 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E316" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F316" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G316">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H316">
         <v>2</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J316">
         <v>1</v>
       </c>
       <c r="K316" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L316">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="M316">
+        <v>2.9</v>
+      </c>
+      <c r="N316">
+        <v>2.25</v>
+      </c>
+      <c r="O316">
         <v>3</v>
       </c>
-      <c r="N316">
-        <v>3.6</v>
-      </c>
-      <c r="O316">
+      <c r="P316">
+        <v>2.9</v>
+      </c>
+      <c r="Q316">
+        <v>2.25</v>
+      </c>
+      <c r="R316">
+        <v>0.25</v>
+      </c>
+      <c r="S316">
         <v>1.8</v>
       </c>
-      <c r="P316">
-        <v>3.1</v>
-      </c>
-      <c r="Q316">
-        <v>4.2</v>
-      </c>
-      <c r="R316">
-        <v>-0.5</v>
-      </c>
-      <c r="S316">
-        <v>1.85</v>
-      </c>
       <c r="T316">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U316">
         <v>2.25</v>
@@ -29720,25 +29720,25 @@
         <v>1.85</v>
       </c>
       <c r="X316">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA316">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC316">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD316">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="317" spans="1:30">
@@ -29746,7 +29746,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8086912</v>
+        <v>8086917</v>
       </c>
       <c r="C317" t="s">
         <v>29</v>
@@ -29755,46 +29755,46 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E317" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F317" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G317">
         <v>0</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
         <v>0</v>
       </c>
       <c r="J317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K317" t="s">
         <v>95</v>
       </c>
       <c r="L317">
+        <v>1.615</v>
+      </c>
+      <c r="M317">
+        <v>3.2</v>
+      </c>
+      <c r="N317">
+        <v>5.5</v>
+      </c>
+      <c r="O317">
+        <v>1.8</v>
+      </c>
+      <c r="P317">
         <v>3.1</v>
       </c>
-      <c r="M317">
-        <v>2.9</v>
-      </c>
-      <c r="N317">
-        <v>2.25</v>
-      </c>
-      <c r="O317">
-        <v>3</v>
-      </c>
-      <c r="P317">
-        <v>2.9</v>
-      </c>
       <c r="Q317">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="R317">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S317">
         <v>1.8</v>
@@ -29803,13 +29803,13 @@
         <v>2</v>
       </c>
       <c r="U317">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V317">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W317">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X317">
         <v>-1</v>
@@ -29818,7 +29818,7 @@
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="AA317">
         <v>-1</v>
@@ -29827,10 +29827,10 @@
         <v>1</v>
       </c>
       <c r="AC317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD317">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="318" spans="1:30">
@@ -29838,7 +29838,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>8086917</v>
+        <v>8086915</v>
       </c>
       <c r="C318" t="s">
         <v>29</v>
@@ -29847,82 +29847,82 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E318" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F318" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H318">
         <v>1</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318">
         <v>0</v>
       </c>
       <c r="K318" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L318">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M318">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N318">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="O318">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="P318">
         <v>3.1</v>
       </c>
       <c r="Q318">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="R318">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S318">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T318">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U318">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V318">
+        <v>1.725</v>
+      </c>
+      <c r="W318">
         <v>1.975</v>
       </c>
-      <c r="W318">
-        <v>1.825</v>
-      </c>
       <c r="X318">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB318">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AD318">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:30">
@@ -29930,7 +29930,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>8086916</v>
+        <v>8086914</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -29939,64 +29939,64 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E319" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F319" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="G319">
         <v>3</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K319" t="s">
         <v>94</v>
       </c>
       <c r="L319">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M319">
+        <v>3.1</v>
+      </c>
+      <c r="N319">
         <v>3.2</v>
       </c>
-      <c r="N319">
-        <v>3.6</v>
-      </c>
       <c r="O319">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="P319">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q319">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R319">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S319">
+        <v>1.85</v>
+      </c>
+      <c r="T319">
+        <v>1.95</v>
+      </c>
+      <c r="U319">
+        <v>2.75</v>
+      </c>
+      <c r="V319">
         <v>1.975</v>
       </c>
-      <c r="T319">
+      <c r="W319">
         <v>1.825</v>
       </c>
-      <c r="U319">
-        <v>2.25</v>
-      </c>
-      <c r="V319">
-        <v>1.85</v>
-      </c>
-      <c r="W319">
-        <v>1.95</v>
-      </c>
       <c r="X319">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="Y319">
         <v>-1</v>
@@ -30005,13 +30005,13 @@
         <v>-1</v>
       </c>
       <c r="AA319">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB319">
+        <v>-1</v>
+      </c>
+      <c r="AC319">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB319">
-        <v>-1</v>
-      </c>
-      <c r="AC319">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AD319">
         <v>-1</v>
@@ -30022,7 +30022,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8086914</v>
+        <v>8086913</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -30031,82 +30031,82 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E320" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F320" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320">
+        <v>1</v>
+      </c>
+      <c r="K320" t="s">
+        <v>96</v>
+      </c>
+      <c r="L320">
+        <v>1.8</v>
+      </c>
+      <c r="M320">
         <v>3</v>
       </c>
-      <c r="H320">
-        <v>2</v>
-      </c>
-      <c r="I320">
-        <v>1</v>
-      </c>
-      <c r="J320">
-        <v>1</v>
-      </c>
-      <c r="K320" t="s">
-        <v>94</v>
-      </c>
-      <c r="L320">
-        <v>2.1</v>
-      </c>
-      <c r="M320">
-        <v>3.1</v>
-      </c>
       <c r="N320">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O320">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P320">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q320">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="R320">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S320">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T320">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U320">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V320">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W320">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X320">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z320">
         <v>-1</v>
       </c>
       <c r="AA320">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC320">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD320">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="321" spans="1:30">
@@ -30114,7 +30114,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>8086913</v>
+        <v>8086910</v>
       </c>
       <c r="C321" t="s">
         <v>29</v>
@@ -30123,82 +30123,82 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E321" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F321" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G321">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K321" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L321">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="M321">
+        <v>2.75</v>
+      </c>
+      <c r="N321">
         <v>3</v>
       </c>
-      <c r="N321">
-        <v>4.5</v>
-      </c>
       <c r="O321">
+        <v>2.4</v>
+      </c>
+      <c r="P321">
+        <v>2.75</v>
+      </c>
+      <c r="Q321">
+        <v>3</v>
+      </c>
+      <c r="R321">
+        <v>-0.25</v>
+      </c>
+      <c r="S321">
+        <v>2</v>
+      </c>
+      <c r="T321">
+        <v>1.7</v>
+      </c>
+      <c r="U321">
+        <v>2</v>
+      </c>
+      <c r="V321">
         <v>1.95</v>
       </c>
-      <c r="P321">
-        <v>2.9</v>
-      </c>
-      <c r="Q321">
-        <v>3.75</v>
-      </c>
-      <c r="R321">
-        <v>-0.5</v>
-      </c>
-      <c r="S321">
-        <v>2</v>
-      </c>
-      <c r="T321">
-        <v>1.8</v>
-      </c>
-      <c r="U321">
-        <v>2.25</v>
-      </c>
-      <c r="V321">
-        <v>1.9</v>
-      </c>
       <c r="W321">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y321">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB321">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD321">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="322" spans="1:30">
@@ -30206,7 +30206,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>8086910</v>
+        <v>8086909</v>
       </c>
       <c r="C322" t="s">
         <v>29</v>
@@ -30215,16 +30215,16 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E322" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F322" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -30236,43 +30236,43 @@
         <v>94</v>
       </c>
       <c r="L322">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M322">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N322">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O322">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="P322">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q322">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R322">
         <v>-0.25</v>
       </c>
       <c r="S322">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T322">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="U322">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V322">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W322">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="X322">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Y322">
         <v>-1</v>
@@ -30281,16 +30281,16 @@
         <v>-1</v>
       </c>
       <c r="AA322">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD322">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:30">
@@ -30298,7 +30298,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>8086909</v>
+        <v>8086908</v>
       </c>
       <c r="C323" t="s">
         <v>29</v>
@@ -30307,79 +30307,79 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E323" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F323" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="G323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I323">
         <v>1</v>
       </c>
       <c r="J323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K323" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L323">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M323">
         <v>3</v>
       </c>
       <c r="N323">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O323">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P323">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q323">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R323">
         <v>-0.25</v>
       </c>
       <c r="S323">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T323">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U323">
         <v>2.25</v>
       </c>
       <c r="V323">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W323">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="X323">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA323">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC323">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD323">
         <v>-1</v>
@@ -30390,7 +30390,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>8086908</v>
+        <v>8085929</v>
       </c>
       <c r="C324" t="s">
         <v>29</v>
@@ -30399,19 +30399,19 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E324" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F324" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G324">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324">
         <v>1</v>
@@ -30420,40 +30420,40 @@
         <v>95</v>
       </c>
       <c r="L324">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M324">
+        <v>2.875</v>
+      </c>
+      <c r="N324">
+        <v>2.875</v>
+      </c>
+      <c r="O324">
+        <v>2.3</v>
+      </c>
+      <c r="P324">
+        <v>2.9</v>
+      </c>
+      <c r="Q324">
         <v>3</v>
-      </c>
-      <c r="N324">
-        <v>3.3</v>
-      </c>
-      <c r="O324">
-        <v>2.1</v>
-      </c>
-      <c r="P324">
-        <v>3</v>
-      </c>
-      <c r="Q324">
-        <v>3.25</v>
       </c>
       <c r="R324">
         <v>-0.25</v>
       </c>
       <c r="S324">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T324">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U324">
         <v>2.25</v>
       </c>
       <c r="V324">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W324">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X324">
         <v>-1</v>
@@ -30462,16 +30462,16 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AA324">
         <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC324">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD324">
         <v>-1</v>
@@ -30482,7 +30482,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>8086915</v>
+        <v>8086916</v>
       </c>
       <c r="C325" t="s">
         <v>29</v>
@@ -30491,19 +30491,19 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E325" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F325" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H325">
         <v>1</v>
       </c>
       <c r="I325">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J325">
         <v>0</v>
@@ -30512,43 +30512,43 @@
         <v>94</v>
       </c>
       <c r="L325">
+        <v>1.909</v>
+      </c>
+      <c r="M325">
+        <v>3.2</v>
+      </c>
+      <c r="N325">
+        <v>3.6</v>
+      </c>
+      <c r="O325">
+        <v>1.909</v>
+      </c>
+      <c r="P325">
+        <v>3.2</v>
+      </c>
+      <c r="Q325">
+        <v>3.6</v>
+      </c>
+      <c r="R325">
+        <v>-0.5</v>
+      </c>
+      <c r="S325">
+        <v>1.975</v>
+      </c>
+      <c r="T325">
+        <v>1.825</v>
+      </c>
+      <c r="U325">
         <v>2.25</v>
       </c>
-      <c r="M325">
-        <v>3.1</v>
-      </c>
-      <c r="N325">
-        <v>2.9</v>
-      </c>
-      <c r="O325">
-        <v>2.25</v>
-      </c>
-      <c r="P325">
-        <v>3.1</v>
-      </c>
-      <c r="Q325">
-        <v>2.9</v>
-      </c>
-      <c r="R325">
-        <v>-0.25</v>
-      </c>
-      <c r="S325">
-        <v>2.05</v>
-      </c>
-      <c r="T325">
-        <v>1.75</v>
-      </c>
-      <c r="U325">
-        <v>2</v>
-      </c>
       <c r="V325">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W325">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X325">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="Y325">
         <v>-1</v>
@@ -30557,13 +30557,13 @@
         <v>-1</v>
       </c>
       <c r="AA325">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB325">
         <v>-1</v>
       </c>
       <c r="AC325">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD325">
         <v>-1</v>
@@ -30583,7 +30583,7 @@
         <v>45395.58333333334</v>
       </c>
       <c r="E326" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F326" t="s">
         <v>49</v>
@@ -30859,7 +30859,7 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E329" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F329" t="s">
         <v>30</v>
@@ -31310,7 +31310,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>8117518</v>
+        <v>8117497</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31319,82 +31319,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E334" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F334" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G334">
         <v>2</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K334" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L334">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M334">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N334">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O334">
+        <v>2</v>
+      </c>
+      <c r="P334">
+        <v>3.1</v>
+      </c>
+      <c r="Q334">
+        <v>3.4</v>
+      </c>
+      <c r="R334">
+        <v>-0.25</v>
+      </c>
+      <c r="S334">
+        <v>1.775</v>
+      </c>
+      <c r="T334">
+        <v>2.025</v>
+      </c>
+      <c r="U334">
+        <v>2</v>
+      </c>
+      <c r="V334">
+        <v>1.95</v>
+      </c>
+      <c r="W334">
         <v>1.85</v>
       </c>
-      <c r="P334">
-        <v>3.2</v>
-      </c>
-      <c r="Q334">
-        <v>3.75</v>
-      </c>
-      <c r="R334">
+      <c r="X334">
+        <v>-1</v>
+      </c>
+      <c r="Y334">
+        <v>2.1</v>
+      </c>
+      <c r="Z334">
+        <v>-1</v>
+      </c>
+      <c r="AA334">
         <v>-0.5</v>
       </c>
-      <c r="S334">
-        <v>1.925</v>
-      </c>
-      <c r="T334">
-        <v>1.875</v>
-      </c>
-      <c r="U334">
-        <v>2.25</v>
-      </c>
-      <c r="V334">
-        <v>2</v>
-      </c>
-      <c r="W334">
-        <v>1.8</v>
-      </c>
-      <c r="X334">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y334">
-        <v>-1</v>
-      </c>
-      <c r="Z334">
-        <v>-1</v>
-      </c>
-      <c r="AA334">
-        <v>0.925</v>
-      </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC334">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD334">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:30">
@@ -31402,7 +31402,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>8117497</v>
+        <v>8117518</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -31411,82 +31411,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E335" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F335" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G335">
         <v>2</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K335" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L335">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M335">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N335">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O335">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P335">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q335">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R335">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S335">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T335">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U335">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V335">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W335">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X335">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y335">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
+        <v>0.925</v>
+      </c>
+      <c r="AB335">
+        <v>-1</v>
+      </c>
+      <c r="AC335">
         <v>-0.5</v>
       </c>
-      <c r="AB335">
-        <v>0.5125</v>
-      </c>
-      <c r="AC335">
-        <v>0.95</v>
-      </c>
       <c r="AD335">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="336" spans="1:30">
@@ -31586,7 +31586,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>8117517</v>
+        <v>8117515</v>
       </c>
       <c r="C337" t="s">
         <v>29</v>
@@ -31595,82 +31595,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E337" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F337" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J337">
         <v>0</v>
       </c>
       <c r="K337" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L337">
+        <v>2.25</v>
+      </c>
+      <c r="M337">
+        <v>2.9</v>
+      </c>
+      <c r="N337">
+        <v>3.1</v>
+      </c>
+      <c r="O337">
+        <v>2.375</v>
+      </c>
+      <c r="P337">
+        <v>2.8</v>
+      </c>
+      <c r="Q337">
         <v>3</v>
       </c>
-      <c r="M337">
-        <v>2.8</v>
-      </c>
-      <c r="N337">
-        <v>2.375</v>
-      </c>
-      <c r="O337">
-        <v>3.8</v>
-      </c>
-      <c r="P337">
-        <v>3.1</v>
-      </c>
-      <c r="Q337">
-        <v>1.909</v>
-      </c>
       <c r="R337">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S337">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T337">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U337">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V337">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W337">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X337">
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA337">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC337">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD337">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="338" spans="1:30">
@@ -31678,7 +31678,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>8117515</v>
+        <v>8117517</v>
       </c>
       <c r="C338" t="s">
         <v>29</v>
@@ -31687,82 +31687,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E338" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F338" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J338">
         <v>0</v>
       </c>
       <c r="K338" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L338">
+        <v>3</v>
+      </c>
+      <c r="M338">
+        <v>2.8</v>
+      </c>
+      <c r="N338">
+        <v>2.375</v>
+      </c>
+      <c r="O338">
+        <v>3.8</v>
+      </c>
+      <c r="P338">
+        <v>3.1</v>
+      </c>
+      <c r="Q338">
+        <v>1.909</v>
+      </c>
+      <c r="R338">
+        <v>0.5</v>
+      </c>
+      <c r="S338">
+        <v>1.775</v>
+      </c>
+      <c r="T338">
+        <v>2.025</v>
+      </c>
+      <c r="U338">
         <v>2.25</v>
       </c>
-      <c r="M338">
-        <v>2.9</v>
-      </c>
-      <c r="N338">
-        <v>3.1</v>
-      </c>
-      <c r="O338">
-        <v>2.375</v>
-      </c>
-      <c r="P338">
-        <v>2.8</v>
-      </c>
-      <c r="Q338">
-        <v>3</v>
-      </c>
-      <c r="R338">
-        <v>-0.25</v>
-      </c>
-      <c r="S338">
-        <v>2.05</v>
-      </c>
-      <c r="T338">
-        <v>1.75</v>
-      </c>
-      <c r="U338">
-        <v>2</v>
-      </c>
       <c r="V338">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W338">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X338">
         <v>-1</v>
       </c>
       <c r="Y338">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z338">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB338">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD338">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:30">
@@ -33527,7 +33527,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E358" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F358" t="s">
         <v>41</v>
@@ -33990,7 +33990,7 @@
         <v>50</v>
       </c>
       <c r="F363" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G363">
         <v>4</v>
@@ -35278,7 +35278,7 @@
         <v>36</v>
       </c>
       <c r="F377" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G377">
         <v>1</v>

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -6654,7 +6654,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7215497</v>
+        <v>7215498</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6663,82 +6663,82 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E66" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L66">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="M66">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N66">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O66">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q66">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R66">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U66">
         <v>2.25</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X66">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD66">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6746,7 +6746,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7215498</v>
+        <v>7215499</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6755,82 +6755,82 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="s">
         <v>96</v>
       </c>
       <c r="L67">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M67">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N67">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="P67">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q67">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R67">
+        <v>-0.25</v>
+      </c>
+      <c r="S67">
+        <v>1.925</v>
+      </c>
+      <c r="T67">
+        <v>1.875</v>
+      </c>
+      <c r="U67">
+        <v>2.5</v>
+      </c>
+      <c r="V67">
+        <v>1.9</v>
+      </c>
+      <c r="W67">
+        <v>1.9</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>2.1</v>
+      </c>
+      <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
         <v>-0.5</v>
       </c>
-      <c r="S67">
-        <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>1.825</v>
-      </c>
-      <c r="U67">
-        <v>2.25</v>
-      </c>
-      <c r="V67">
-        <v>2</v>
-      </c>
-      <c r="W67">
-        <v>1.8</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>2.2</v>
-      </c>
-      <c r="Z67">
-        <v>-1</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6838,7 +6838,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7215469</v>
+        <v>7216247</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6847,16 +6847,16 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6865,64 +6865,64 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L68">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M68">
         <v>3.25</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="O68">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q68">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="R68">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S68">
+        <v>1.775</v>
+      </c>
+      <c r="T68">
+        <v>2.025</v>
+      </c>
+      <c r="U68">
+        <v>2.5</v>
+      </c>
+      <c r="V68">
+        <v>2</v>
+      </c>
+      <c r="W68">
         <v>1.8</v>
       </c>
-      <c r="T68">
-        <v>2</v>
-      </c>
-      <c r="U68">
-        <v>2.25</v>
-      </c>
-      <c r="V68">
-        <v>1.8</v>
-      </c>
-      <c r="W68">
-        <v>2</v>
-      </c>
       <c r="X68">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA68">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC68">
         <v>-1</v>
       </c>
       <c r="AD68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6930,7 +6930,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7215499</v>
+        <v>7215518</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6939,52 +6939,52 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L69">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="M69">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O69">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="P69">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="R69">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U69">
         <v>2.5</v>
@@ -6996,19 +6996,19 @@
         <v>1.9</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB69">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -7022,7 +7022,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7216247</v>
+        <v>7215469</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -7031,16 +7031,16 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -7049,64 +7049,64 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L70">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="M70">
         <v>3.25</v>
       </c>
       <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70">
+        <v>1.6</v>
+      </c>
+      <c r="P70">
+        <v>3.5</v>
+      </c>
+      <c r="Q70">
+        <v>5</v>
+      </c>
+      <c r="R70">
+        <v>-0.75</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+      <c r="U70">
         <v>2.25</v>
       </c>
-      <c r="O70">
-        <v>2.75</v>
-      </c>
-      <c r="P70">
-        <v>3.25</v>
-      </c>
-      <c r="Q70">
-        <v>2.25</v>
-      </c>
-      <c r="R70">
-        <v>0.25</v>
-      </c>
-      <c r="S70">
-        <v>1.775</v>
-      </c>
-      <c r="T70">
-        <v>2.025</v>
-      </c>
-      <c r="U70">
-        <v>2.5</v>
-      </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB70">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
         <v>-1</v>
       </c>
       <c r="AD70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -7114,7 +7114,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7215518</v>
+        <v>7215497</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -7123,19 +7123,19 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -7144,43 +7144,43 @@
         <v>95</v>
       </c>
       <c r="L71">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="M71">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N71">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O71">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="P71">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q71">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="R71">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T71">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X71">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -7189,16 +7189,16 @@
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD71">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7206,7 +7206,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7215516</v>
+        <v>7215467</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7215,46 +7215,46 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72">
+        <v>8</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
         <v>3</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="s">
         <v>95</v>
       </c>
       <c r="L72">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M72">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O72">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="P72">
         <v>3.4</v>
       </c>
       <c r="Q72">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="R72">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S72">
         <v>1.975</v>
@@ -7272,7 +7272,7 @@
         <v>1.925</v>
       </c>
       <c r="X72">
-        <v>0.571</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y72">
         <v>-1</v>
@@ -7298,7 +7298,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7215466</v>
+        <v>7215516</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7307,16 +7307,16 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -7328,43 +7328,43 @@
         <v>95</v>
       </c>
       <c r="L73">
+        <v>1.909</v>
+      </c>
+      <c r="M73">
         <v>3.1</v>
       </c>
-      <c r="M73">
-        <v>3</v>
-      </c>
       <c r="N73">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O73">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q73">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="R73">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U73">
         <v>2.25</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X73">
-        <v>3.2</v>
+        <v>0.571</v>
       </c>
       <c r="Y73">
         <v>-1</v>
@@ -7373,13 +7373,13 @@
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AD73">
         <v>-1</v>
@@ -7390,7 +7390,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7215467</v>
+        <v>7215496</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7399,64 +7399,64 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="s">
         <v>95</v>
       </c>
       <c r="L74">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N74">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="P74">
         <v>3.4</v>
       </c>
       <c r="Q74">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="R74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U74">
         <v>2.25</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X74">
-        <v>0.7270000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Y74">
         <v>-1</v>
@@ -7465,16 +7465,16 @@
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7482,7 +7482,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7215496</v>
+        <v>7215466</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7491,19 +7491,19 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -7512,43 +7512,43 @@
         <v>95</v>
       </c>
       <c r="L75">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q75">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="R75">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U75">
         <v>2.25</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X75">
-        <v>0.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7557,16 +7557,16 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -8034,7 +8034,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7244422</v>
+        <v>7244444</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -8043,13 +8043,13 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8061,64 +8061,64 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O81">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q81">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="R81">
         <v>-0.25</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="U81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V81">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -8126,7 +8126,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7244444</v>
+        <v>7244422</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -8135,82 +8135,82 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>94</v>
+      </c>
+      <c r="L82">
+        <v>2.25</v>
+      </c>
+      <c r="M82">
         <v>3</v>
       </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82" t="s">
-        <v>95</v>
-      </c>
-      <c r="L82">
-        <v>2</v>
-      </c>
-      <c r="M82">
-        <v>3.1</v>
-      </c>
       <c r="N82">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="P82">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="R82">
         <v>-0.25</v>
       </c>
       <c r="S82">
+        <v>2</v>
+      </c>
+      <c r="T82">
+        <v>1.7</v>
+      </c>
+      <c r="U82">
+        <v>2.5</v>
+      </c>
+      <c r="V82">
         <v>1.775</v>
       </c>
-      <c r="T82">
-        <v>2.025</v>
-      </c>
-      <c r="U82">
-        <v>2.25</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -13278,7 +13278,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7452745</v>
+        <v>7457302</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13287,79 +13287,79 @@
         <v>45240.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F138" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K138" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L138">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
         <v>3.2</v>
       </c>
       <c r="N138">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="O138">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="P138">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q138">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="R138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X138">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD138">
         <v>-1</v>
@@ -13370,7 +13370,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7457302</v>
+        <v>7452745</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13379,79 +13379,79 @@
         <v>45240.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
         <v>3</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
       <c r="J139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="M139">
         <v>3.2</v>
       </c>
       <c r="N139">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O139">
+        <v>1.55</v>
+      </c>
+      <c r="P139">
+        <v>3.3</v>
+      </c>
+      <c r="Q139">
+        <v>6</v>
+      </c>
+      <c r="R139">
+        <v>-1</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>1.9</v>
+      </c>
+      <c r="U139">
         <v>2.5</v>
       </c>
-      <c r="P139">
-        <v>3.1</v>
-      </c>
-      <c r="Q139">
-        <v>2.6</v>
-      </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-      <c r="S139">
+      <c r="V139">
+        <v>1.95</v>
+      </c>
+      <c r="W139">
         <v>1.85</v>
       </c>
-      <c r="T139">
-        <v>1.95</v>
-      </c>
-      <c r="U139">
-        <v>2.25</v>
-      </c>
-      <c r="V139">
-        <v>1.825</v>
-      </c>
-      <c r="W139">
-        <v>1.975</v>
-      </c>
       <c r="X139">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>0.825</v>
       </c>
       <c r="AD139">
         <v>-1</v>
@@ -13554,7 +13554,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7458008</v>
+        <v>7461270</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13563,19 +13563,19 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -13584,43 +13584,43 @@
         <v>95</v>
       </c>
       <c r="L141">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="M141">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N141">
-        <v>5.25</v>
+        <v>2.35</v>
       </c>
       <c r="O141">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="P141">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q141">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="R141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T141">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="U141">
         <v>2.25</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X141">
-        <v>0.615</v>
+        <v>1.75</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13629,16 +13629,16 @@
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13646,7 +13646,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7458009</v>
+        <v>7457944</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13655,52 +13655,52 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F142" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L142">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N142">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="O142">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q142">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="R142">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U142">
         <v>2.5</v>
@@ -13712,19 +13712,19 @@
         <v>1.75</v>
       </c>
       <c r="X142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13738,7 +13738,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7458010</v>
+        <v>7458008</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13747,52 +13747,52 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F143" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L143">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N143">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="O143">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q143">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="R143">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U143">
         <v>2.25</v>
@@ -13804,19 +13804,19 @@
         <v>1.975</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB143">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
         <v>0.825</v>
@@ -13830,7 +13830,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7458116</v>
+        <v>7458010</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13839,79 +13839,79 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L144">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O144">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="R144">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
         <v>1.775</v>
       </c>
-      <c r="T144">
-        <v>2.025</v>
-      </c>
       <c r="U144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X144">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AB144">
-        <v>-1</v>
-      </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD144">
         <v>-1</v>
@@ -13922,7 +13922,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7458007</v>
+        <v>7458116</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13931,82 +13931,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F145" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L145">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="M145">
         <v>3.2</v>
       </c>
       <c r="N145">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="P145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="R145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T145">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U145">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14014,7 +14014,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7458117</v>
+        <v>7458007</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -14023,82 +14023,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F146" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" t="s">
         <v>96</v>
       </c>
       <c r="L146">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M146">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O146">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="P146">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q146">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="R146">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S146">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T146">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U146">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
         <v>-1</v>
       </c>
       <c r="AD146">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14106,7 +14106,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7458118</v>
+        <v>7458117</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -14115,61 +14115,61 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K147" t="s">
         <v>96</v>
       </c>
       <c r="L147">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M147">
         <v>3.1</v>
       </c>
       <c r="N147">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P147">
         <v>3.1</v>
       </c>
       <c r="Q147">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="R147">
         <v>-0.25</v>
       </c>
       <c r="S147">
+        <v>1.775</v>
+      </c>
+      <c r="T147">
         <v>2.025</v>
-      </c>
-      <c r="T147">
-        <v>1.775</v>
       </c>
       <c r="U147">
         <v>2.25</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -14184,13 +14184,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.3875</v>
+        <v>0.5125</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14198,7 +14198,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7457944</v>
+        <v>7458118</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14207,82 +14207,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K148" t="s">
         <v>96</v>
       </c>
       <c r="L148">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M148">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N148">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="O148">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="P148">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q148">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="R148">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V148">
+        <v>1.85</v>
+      </c>
+      <c r="W148">
         <v>1.95</v>
       </c>
-      <c r="W148">
-        <v>1.75</v>
-      </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD148">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14290,7 +14290,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7457945</v>
+        <v>7458009</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14299,19 +14299,19 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -14320,43 +14320,43 @@
         <v>95</v>
       </c>
       <c r="L149">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M149">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N149">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O149">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q149">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="R149">
         <v>-0.25</v>
       </c>
       <c r="S149">
+        <v>2.025</v>
+      </c>
+      <c r="T149">
         <v>1.775</v>
       </c>
-      <c r="T149">
-        <v>2.025</v>
-      </c>
       <c r="U149">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="X149">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -14365,7 +14365,7 @@
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -14374,7 +14374,7 @@
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14382,7 +14382,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7458191</v>
+        <v>7457945</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14391,82 +14391,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F150" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L150">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M150">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O150">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P150">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q150">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="R150">
         <v>-0.25</v>
       </c>
       <c r="S150">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U150">
         <v>2.25</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W150">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y150">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB150">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD150">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14474,7 +14474,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7458192</v>
+        <v>7458191</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -14483,10 +14483,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -14495,70 +14495,70 @@
         <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" t="s">
         <v>96</v>
       </c>
       <c r="L151">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="M151">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N151">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="P151">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q151">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="R151">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S151">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T151">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V151">
+        <v>1.85</v>
+      </c>
+      <c r="W151">
         <v>1.95</v>
       </c>
-      <c r="W151">
-        <v>1.75</v>
-      </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD151">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -14566,7 +14566,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7460132</v>
+        <v>7458192</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14575,82 +14575,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F152" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" t="s">
         <v>96</v>
       </c>
       <c r="L152">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N152">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="O152">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q152">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="R152">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S152">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U152">
         <v>2.5</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
         <v>-1</v>
       </c>
       <c r="AD152">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14658,7 +14658,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7461270</v>
+        <v>7460132</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14667,13 +14667,13 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E153" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14685,64 +14685,64 @@
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L153">
+        <v>2.375</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>2.75</v>
+      </c>
+      <c r="O153">
+        <v>2.4</v>
+      </c>
+      <c r="P153">
+        <v>3</v>
+      </c>
+      <c r="Q153">
         <v>2.7</v>
       </c>
-      <c r="M153">
-        <v>3.2</v>
-      </c>
-      <c r="N153">
-        <v>2.35</v>
-      </c>
-      <c r="O153">
-        <v>2.75</v>
-      </c>
-      <c r="P153">
-        <v>3.2</v>
-      </c>
-      <c r="Q153">
-        <v>2.3</v>
-      </c>
       <c r="R153">
         <v>0</v>
       </c>
       <c r="S153">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T153">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="U153">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W153">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X153">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC153">
         <v>-1</v>
       </c>
       <c r="AD153">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14842,7 +14842,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7515883</v>
+        <v>7515900</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14851,13 +14851,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E155" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14869,61 +14869,61 @@
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L155">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N155">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O155">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="P155">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q155">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R155">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S155">
         <v>1.75</v>
       </c>
       <c r="T155">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V155">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W155">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z155">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB155">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AC155">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD155">
         <v>-1</v>
@@ -14934,7 +14934,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7515900</v>
+        <v>7515883</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14943,13 +14943,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F156" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14961,61 +14961,61 @@
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L156">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N156">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O156">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="P156">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q156">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R156">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S156">
         <v>1.75</v>
       </c>
       <c r="T156">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U156">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W156">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AC156">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD156">
         <v>-1</v>
@@ -17142,7 +17142,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7594553</v>
+        <v>7594506</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -17151,13 +17151,13 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E180" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -17166,67 +17166,67 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L180">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M180">
         <v>3.1</v>
       </c>
       <c r="N180">
+        <v>3.1</v>
+      </c>
+      <c r="O180">
+        <v>1.85</v>
+      </c>
+      <c r="P180">
         <v>3.2</v>
       </c>
-      <c r="O180">
-        <v>2.1</v>
-      </c>
-      <c r="P180">
-        <v>3.1</v>
-      </c>
       <c r="Q180">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="R180">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S180">
+        <v>1.95</v>
+      </c>
+      <c r="T180">
         <v>1.85</v>
-      </c>
-      <c r="T180">
-        <v>1.95</v>
       </c>
       <c r="U180">
         <v>2.25</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W180">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD180">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17234,7 +17234,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7594506</v>
+        <v>7594505</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17243,16 +17243,16 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -17261,64 +17261,64 @@
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L181">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O181">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="P181">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R181">
+        <v>-0.25</v>
+      </c>
+      <c r="S181">
+        <v>2</v>
+      </c>
+      <c r="T181">
+        <v>1.7</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
+        <v>1.875</v>
+      </c>
+      <c r="W181">
+        <v>1.925</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>1.8</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
         <v>-0.5</v>
       </c>
-      <c r="S181">
-        <v>1.95</v>
-      </c>
-      <c r="T181">
-        <v>1.85</v>
-      </c>
-      <c r="U181">
-        <v>2.25</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
-      <c r="W181">
-        <v>1.8</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>3</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
       <c r="AB181">
-        <v>0.8500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="AC181">
         <v>-1</v>
       </c>
       <c r="AD181">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17326,7 +17326,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7594505</v>
+        <v>7594553</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17335,67 +17335,67 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" t="s">
         <v>96</v>
       </c>
       <c r="L182">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="M182">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N182">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O182">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P182">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q182">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R182">
         <v>-0.25</v>
       </c>
       <c r="S182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
@@ -17404,13 +17404,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB182">
-        <v>0.35</v>
+        <v>0.475</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD182">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -18154,7 +18154,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7690468</v>
+        <v>7690594</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18163,82 +18163,82 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F191" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L191">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M191">
+        <v>3.4</v>
+      </c>
+      <c r="N191">
         <v>3.1</v>
       </c>
-      <c r="N191">
-        <v>3</v>
-      </c>
       <c r="O191">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P191">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q191">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="R191">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S191">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U191">
         <v>2.5</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z191">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AC191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18246,7 +18246,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7690467</v>
+        <v>7690615</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18255,16 +18255,16 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E192" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -18276,61 +18276,61 @@
         <v>96</v>
       </c>
       <c r="L192">
+        <v>2.2</v>
+      </c>
+      <c r="M192">
+        <v>3.1</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192">
+        <v>2.1</v>
+      </c>
+      <c r="P192">
+        <v>3.1</v>
+      </c>
+      <c r="Q192">
         <v>3.2</v>
       </c>
-      <c r="M192">
-        <v>3.6</v>
-      </c>
-      <c r="N192">
-        <v>1.909</v>
-      </c>
-      <c r="O192">
-        <v>3.2</v>
-      </c>
-      <c r="P192">
-        <v>3.6</v>
-      </c>
-      <c r="Q192">
-        <v>1.909</v>
-      </c>
       <c r="R192">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S192">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U192">
         <v>2.25</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W192">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD192">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18338,7 +18338,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7690466</v>
+        <v>7690590</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18347,82 +18347,82 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F193" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L193">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="M193">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N193">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="O193">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="P193">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q193">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="R193">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S193">
+        <v>1.775</v>
+      </c>
+      <c r="T193">
+        <v>2.025</v>
+      </c>
+      <c r="U193">
+        <v>2.25</v>
+      </c>
+      <c r="V193">
+        <v>1.85</v>
+      </c>
+      <c r="W193">
         <v>1.95</v>
       </c>
-      <c r="T193">
-        <v>1.85</v>
-      </c>
-      <c r="U193">
-        <v>2.5</v>
-      </c>
-      <c r="V193">
-        <v>2</v>
-      </c>
-      <c r="W193">
-        <v>1.8</v>
-      </c>
       <c r="X193">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
+        <v>1.025</v>
+      </c>
+      <c r="AC193">
+        <v>-1</v>
+      </c>
+      <c r="AD193">
         <v>0.95</v>
-      </c>
-      <c r="AB193">
-        <v>-1</v>
-      </c>
-      <c r="AC193">
-        <v>-1</v>
-      </c>
-      <c r="AD193">
-        <v>0.8</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18430,7 +18430,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7690590</v>
+        <v>7690467</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18439,13 +18439,13 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -18454,37 +18454,37 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L194">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="M194">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N194">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="O194">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="P194">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="R194">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S194">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U194">
         <v>2.25</v>
@@ -18499,22 +18499,22 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z194">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD194">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18522,7 +18522,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7690591</v>
+        <v>7690468</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18531,79 +18531,79 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L195">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="M195">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O195">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="P195">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q195">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="R195">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T195">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U195">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC195">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD195">
         <v>-1</v>
@@ -18614,7 +18614,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7690615</v>
+        <v>7690466</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18623,82 +18623,82 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F196" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L196">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="M196">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N196">
+        <v>2.5</v>
+      </c>
+      <c r="O196">
+        <v>2.6</v>
+      </c>
+      <c r="P196">
         <v>3</v>
       </c>
-      <c r="O196">
-        <v>2.1</v>
-      </c>
-      <c r="P196">
-        <v>3.1</v>
-      </c>
       <c r="Q196">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R196">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S196">
+        <v>1.95</v>
+      </c>
+      <c r="T196">
         <v>1.85</v>
       </c>
-      <c r="T196">
-        <v>1.95</v>
-      </c>
       <c r="U196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y196">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
         <v>-1</v>
       </c>
       <c r="AD196">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18706,7 +18706,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7690594</v>
+        <v>7690591</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18715,19 +18715,19 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -18736,34 +18736,34 @@
         <v>96</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M197">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N197">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O197">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="R197">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U197">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V197">
         <v>1.95</v>
@@ -18775,22 +18775,22 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB197">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -27446,7 +27446,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>8023378</v>
+        <v>8023376</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -27455,82 +27455,82 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E292" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F292" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G292">
         <v>0</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292">
         <v>0</v>
       </c>
       <c r="J292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K292" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L292">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="M292">
         <v>3</v>
       </c>
       <c r="N292">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O292">
         <v>2.375</v>
       </c>
       <c r="P292">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q292">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R292">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S292">
+        <v>2.05</v>
+      </c>
+      <c r="T292">
         <v>1.75</v>
       </c>
-      <c r="T292">
-        <v>2.05</v>
-      </c>
       <c r="U292">
         <v>2</v>
       </c>
       <c r="V292">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W292">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z292">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB292">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AC292">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD292">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="293" spans="1:30">
@@ -27538,7 +27538,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8023375</v>
+        <v>8023378</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27547,52 +27547,52 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F293" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I293">
         <v>0</v>
       </c>
       <c r="J293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K293" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L293">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="M293">
         <v>3</v>
       </c>
       <c r="N293">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O293">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="P293">
         <v>3</v>
       </c>
       <c r="Q293">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="R293">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S293">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T293">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U293">
         <v>2</v>
@@ -27604,25 +27604,25 @@
         <v>2.025</v>
       </c>
       <c r="X293">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA293">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC293">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD293">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27630,7 +27630,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8023376</v>
+        <v>8023375</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27639,13 +27639,13 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E294" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F294" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -27657,22 +27657,22 @@
         <v>0</v>
       </c>
       <c r="K294" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L294">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="M294">
         <v>3</v>
       </c>
       <c r="N294">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O294">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="P294">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q294">
         <v>2.9</v>
@@ -27681,40 +27681,40 @@
         <v>-0.25</v>
       </c>
       <c r="S294">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T294">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U294">
         <v>2</v>
       </c>
       <c r="V294">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W294">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X294">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y294">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB294">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC294">
         <v>-1</v>
       </c>
       <c r="AD294">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -28090,7 +28090,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>8054998</v>
+        <v>8055115</v>
       </c>
       <c r="C299" t="s">
         <v>29</v>
@@ -28099,10 +28099,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E299" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -28111,7 +28111,7 @@
         <v>1</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299">
         <v>1</v>
@@ -28120,25 +28120,25 @@
         <v>96</v>
       </c>
       <c r="L299">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="M299">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N299">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O299">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="P299">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q299">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="R299">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S299">
         <v>1.975</v>
@@ -28147,34 +28147,34 @@
         <v>1.825</v>
       </c>
       <c r="U299">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V299">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W299">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Z299">
         <v>-1</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB299">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC299">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD299">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:30">
@@ -28274,7 +28274,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>8055115</v>
+        <v>8054998</v>
       </c>
       <c r="C301" t="s">
         <v>29</v>
@@ -28283,10 +28283,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E301" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F301" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -28295,7 +28295,7 @@
         <v>1</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301">
         <v>1</v>
@@ -28304,25 +28304,25 @@
         <v>96</v>
       </c>
       <c r="L301">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="M301">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N301">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O301">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="P301">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q301">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="R301">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S301">
         <v>1.975</v>
@@ -28331,34 +28331,34 @@
         <v>1.825</v>
       </c>
       <c r="U301">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V301">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W301">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z301">
         <v>-1</v>
       </c>
       <c r="AA301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC301">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD301">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="302" spans="1:30">
@@ -28366,7 +28366,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>8055094</v>
+        <v>8055019</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -28375,82 +28375,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E302" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F302" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K302" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L302">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="M302">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N302">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O302">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="P302">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q302">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="R302">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S302">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T302">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U302">
         <v>2.25</v>
       </c>
       <c r="V302">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W302">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X302">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z302">
         <v>-1</v>
       </c>
       <c r="AA302">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="AB302">
         <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD302">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:30">
@@ -28458,7 +28458,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>8055000</v>
+        <v>8055057</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28467,16 +28467,16 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E303" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G303">
         <v>0</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303">
         <v>0</v>
@@ -28485,37 +28485,37 @@
         <v>0</v>
       </c>
       <c r="K303" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L303">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="M303">
+        <v>3.1</v>
+      </c>
+      <c r="N303">
+        <v>2.25</v>
+      </c>
+      <c r="O303">
         <v>2.9</v>
       </c>
-      <c r="N303">
-        <v>3.4</v>
-      </c>
-      <c r="O303">
-        <v>2.05</v>
-      </c>
       <c r="P303">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q303">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="R303">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S303">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U303">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V303">
         <v>1.8</v>
@@ -28527,22 +28527,22 @@
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z303">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB303">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC303">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD303">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28550,7 +28550,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8055057</v>
+        <v>8056020</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28559,82 +28559,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F304" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I304">
         <v>0</v>
       </c>
       <c r="J304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L304">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M304">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N304">
         <v>2.25</v>
       </c>
       <c r="O304">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q304">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="R304">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S304">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T304">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U304">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V304">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W304">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA304">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD304">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28642,7 +28642,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8055019</v>
+        <v>8055000</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28651,55 +28651,55 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E305" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F305" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="G305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H305">
         <v>2</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K305" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L305">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="M305">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N305">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="O305">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="P305">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q305">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="R305">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S305">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T305">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U305">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V305">
         <v>1.8</v>
@@ -28711,22 +28711,22 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AA305">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
+        <v>1.025</v>
+      </c>
+      <c r="AC305">
+        <v>0.4</v>
+      </c>
+      <c r="AD305">
         <v>-0.5</v>
-      </c>
-      <c r="AC305">
-        <v>0.8</v>
-      </c>
-      <c r="AD305">
-        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28734,7 +28734,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8056020</v>
+        <v>8056008</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28743,16 +28743,16 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E306" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F306" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G306">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306">
         <v>0</v>
@@ -28764,40 +28764,40 @@
         <v>94</v>
       </c>
       <c r="L306">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="M306">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N306">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O306">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P306">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q306">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="R306">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S306">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U306">
         <v>2.5</v>
       </c>
       <c r="V306">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W306">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -28806,16 +28806,16 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.8500000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC306">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD306">
         <v>-1</v>
@@ -28826,7 +28826,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>8056008</v>
+        <v>8055094</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
@@ -28835,82 +28835,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E307" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F307" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G307">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>0</v>
       </c>
       <c r="J307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K307" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L307">
-        <v>4.75</v>
+        <v>2.35</v>
       </c>
       <c r="M307">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N307">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O307">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="P307">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q307">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="R307">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S307">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T307">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U307">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V307">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W307">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
+        <v>0.4375</v>
+      </c>
+      <c r="AB307">
         <v>-0.5</v>
       </c>
-      <c r="AB307">
-        <v>0.4125</v>
-      </c>
       <c r="AC307">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD307">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="308" spans="1:30">
@@ -29930,7 +29930,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>8086913</v>
+        <v>8086914</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -29939,16 +29939,16 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E319" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F319" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G319">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319">
         <v>1</v>
@@ -29957,64 +29957,64 @@
         <v>1</v>
       </c>
       <c r="K319" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L319">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M319">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N319">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O319">
+        <v>2.05</v>
+      </c>
+      <c r="P319">
+        <v>3.3</v>
+      </c>
+      <c r="Q319">
+        <v>3.1</v>
+      </c>
+      <c r="R319">
+        <v>-0.25</v>
+      </c>
+      <c r="S319">
+        <v>1.85</v>
+      </c>
+      <c r="T319">
         <v>1.95</v>
       </c>
-      <c r="P319">
-        <v>2.9</v>
-      </c>
-      <c r="Q319">
-        <v>3.75</v>
-      </c>
-      <c r="R319">
-        <v>-0.5</v>
-      </c>
-      <c r="S319">
-        <v>2</v>
-      </c>
-      <c r="T319">
-        <v>1.8</v>
-      </c>
       <c r="U319">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V319">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W319">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y319">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB319">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD319">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:30">
@@ -30022,7 +30022,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8086912</v>
+        <v>8086913</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -30031,82 +30031,82 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E320" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320">
         <v>1</v>
       </c>
       <c r="K320" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L320">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M320">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N320">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="O320">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P320">
         <v>2.9</v>
       </c>
       <c r="Q320">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="R320">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S320">
+        <v>2</v>
+      </c>
+      <c r="T320">
         <v>1.8</v>
-      </c>
-      <c r="T320">
-        <v>2</v>
       </c>
       <c r="U320">
         <v>2.25</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W320">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z320">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
         <v>-1</v>
       </c>
       <c r="AB320">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC320">
         <v>-0.5</v>
       </c>
       <c r="AD320">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="321" spans="1:30">
@@ -30114,7 +30114,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>8086910</v>
+        <v>8086912</v>
       </c>
       <c r="C321" t="s">
         <v>29</v>
@@ -30123,55 +30123,55 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E321" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F321" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K321" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L321">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="M321">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N321">
+        <v>2.25</v>
+      </c>
+      <c r="O321">
         <v>3</v>
       </c>
-      <c r="O321">
-        <v>2.4</v>
-      </c>
       <c r="P321">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q321">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R321">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S321">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="U321">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V321">
         <v>1.95</v>
@@ -30180,25 +30180,25 @@
         <v>1.85</v>
       </c>
       <c r="X321">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA321">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD321">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="322" spans="1:30">
@@ -30206,7 +30206,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>8086909</v>
+        <v>8086910</v>
       </c>
       <c r="C322" t="s">
         <v>29</v>
@@ -30215,16 +30215,16 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E322" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F322" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -30236,43 +30236,43 @@
         <v>95</v>
       </c>
       <c r="L322">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M322">
+        <v>2.75</v>
+      </c>
+      <c r="N322">
         <v>3</v>
       </c>
-      <c r="N322">
-        <v>3.6</v>
-      </c>
       <c r="O322">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="P322">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q322">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R322">
         <v>-0.25</v>
       </c>
       <c r="S322">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T322">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="U322">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V322">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W322">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="X322">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Y322">
         <v>-1</v>
@@ -30281,16 +30281,16 @@
         <v>-1</v>
       </c>
       <c r="AA322">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD322">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="323" spans="1:30">
@@ -30298,7 +30298,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>8086908</v>
+        <v>8086909</v>
       </c>
       <c r="C323" t="s">
         <v>29</v>
@@ -30307,79 +30307,79 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E323" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F323" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I323">
         <v>1</v>
       </c>
       <c r="J323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K323" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L323">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M323">
         <v>3</v>
       </c>
       <c r="N323">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O323">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P323">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q323">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R323">
         <v>-0.25</v>
       </c>
       <c r="S323">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T323">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U323">
         <v>2.25</v>
       </c>
       <c r="V323">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W323">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB323">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD323">
         <v>-1</v>
@@ -30390,7 +30390,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>8086914</v>
+        <v>8086908</v>
       </c>
       <c r="C324" t="s">
         <v>29</v>
@@ -30399,17 +30399,17 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E324" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F324" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324">
         <v>3</v>
       </c>
-      <c r="H324">
-        <v>2</v>
-      </c>
       <c r="I324">
         <v>1</v>
       </c>
@@ -30417,61 +30417,61 @@
         <v>1</v>
       </c>
       <c r="K324" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L324">
         <v>2.1</v>
       </c>
       <c r="M324">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N324">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O324">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P324">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q324">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R324">
         <v>-0.25</v>
       </c>
       <c r="S324">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T324">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U324">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W324">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X324">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA324">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC324">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD324">
         <v>-1</v>
@@ -33058,7 +33058,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>8144342</v>
+        <v>8147025</v>
       </c>
       <c r="C353" t="s">
         <v>29</v>
@@ -33067,16 +33067,16 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E353" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F353" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G353">
         <v>2</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353">
         <v>1</v>
@@ -33085,37 +33085,37 @@
         <v>0</v>
       </c>
       <c r="K353" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L353">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M353">
         <v>3</v>
       </c>
       <c r="N353">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O353">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="P353">
         <v>3.1</v>
       </c>
       <c r="Q353">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="R353">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S353">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T353">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U353">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V353">
         <v>2</v>
@@ -33124,25 +33124,25 @@
         <v>1.8</v>
       </c>
       <c r="X353">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y353">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB353">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD353">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:30">
@@ -33150,7 +33150,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>8147025</v>
+        <v>8144342</v>
       </c>
       <c r="C354" t="s">
         <v>29</v>
@@ -33159,16 +33159,16 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E354" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F354" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G354">
         <v>2</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354">
         <v>1</v>
@@ -33177,37 +33177,37 @@
         <v>0</v>
       </c>
       <c r="K354" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L354">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M354">
         <v>3</v>
       </c>
       <c r="N354">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O354">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="P354">
         <v>3.1</v>
       </c>
       <c r="Q354">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="R354">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S354">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T354">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U354">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V354">
         <v>2</v>
@@ -33216,25 +33216,25 @@
         <v>1.8</v>
       </c>
       <c r="X354">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z354">
         <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB354">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD354">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:30">
@@ -33610,7 +33610,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>8206116</v>
+        <v>8198817</v>
       </c>
       <c r="C359" t="s">
         <v>29</v>
@@ -33619,64 +33619,64 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E359" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F359" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="G359">
         <v>2</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359">
         <v>0</v>
       </c>
       <c r="J359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K359" t="s">
         <v>95</v>
       </c>
       <c r="L359">
+        <v>2.5</v>
+      </c>
+      <c r="M359">
+        <v>2.8</v>
+      </c>
+      <c r="N359">
+        <v>2.8</v>
+      </c>
+      <c r="O359">
+        <v>2.4</v>
+      </c>
+      <c r="P359">
+        <v>3</v>
+      </c>
+      <c r="Q359">
         <v>2.75</v>
       </c>
-      <c r="M359">
-        <v>3.3</v>
-      </c>
-      <c r="N359">
-        <v>2.2</v>
-      </c>
-      <c r="O359">
-        <v>3.2</v>
-      </c>
-      <c r="P359">
-        <v>3.6</v>
-      </c>
-      <c r="Q359">
-        <v>1.909</v>
-      </c>
       <c r="R359">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S359">
+        <v>1.775</v>
+      </c>
+      <c r="T359">
+        <v>2.025</v>
+      </c>
+      <c r="U359">
+        <v>2.5</v>
+      </c>
+      <c r="V359">
         <v>1.825</v>
       </c>
-      <c r="T359">
+      <c r="W359">
         <v>1.975</v>
       </c>
-      <c r="U359">
-        <v>2.75</v>
-      </c>
-      <c r="V359">
-        <v>1.95</v>
-      </c>
-      <c r="W359">
-        <v>1.85</v>
-      </c>
       <c r="X359">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Y359">
         <v>-1</v>
@@ -33685,16 +33685,16 @@
         <v>-1</v>
       </c>
       <c r="AA359">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB359">
+        <v>-1</v>
+      </c>
+      <c r="AC359">
         <v>0.825</v>
       </c>
-      <c r="AB359">
-        <v>-1</v>
-      </c>
-      <c r="AC359">
-        <v>-1</v>
-      </c>
       <c r="AD359">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:30">
@@ -33794,7 +33794,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>8198817</v>
+        <v>8206116</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -33803,64 +33803,64 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E361" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F361" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="G361">
         <v>2</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361">
         <v>0</v>
       </c>
       <c r="J361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K361" t="s">
         <v>95</v>
       </c>
       <c r="L361">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M361">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N361">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O361">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="P361">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q361">
+        <v>1.909</v>
+      </c>
+      <c r="R361">
+        <v>0.5</v>
+      </c>
+      <c r="S361">
+        <v>1.825</v>
+      </c>
+      <c r="T361">
+        <v>1.975</v>
+      </c>
+      <c r="U361">
         <v>2.75</v>
       </c>
-      <c r="R361">
-        <v>0</v>
-      </c>
-      <c r="S361">
-        <v>1.775</v>
-      </c>
-      <c r="T361">
-        <v>2.025</v>
-      </c>
-      <c r="U361">
-        <v>2.5</v>
-      </c>
       <c r="V361">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W361">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X361">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y361">
         <v>-1</v>
@@ -33869,16 +33869,16 @@
         <v>-1</v>
       </c>
       <c r="AA361">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB361">
         <v>-1</v>
       </c>
       <c r="AC361">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD361">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:30">
@@ -34530,7 +34530,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>8206117</v>
+        <v>8198813</v>
       </c>
       <c r="C369" t="s">
         <v>29</v>
@@ -34539,82 +34539,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E369" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F369" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="G369">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H369">
         <v>1</v>
       </c>
       <c r="I369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K369" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L369">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="M369">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N369">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O369">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P369">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q369">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="R369">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S369">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T369">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U369">
         <v>2.25</v>
       </c>
       <c r="V369">
+        <v>2.025</v>
+      </c>
+      <c r="W369">
+        <v>1.775</v>
+      </c>
+      <c r="X369">
         <v>1.8</v>
       </c>
-      <c r="W369">
-        <v>2</v>
-      </c>
-      <c r="X369">
-        <v>-1</v>
-      </c>
       <c r="Y369">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z369">
         <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB369">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC369">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD369">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:30">
@@ -34622,7 +34622,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>8198813</v>
+        <v>8206117</v>
       </c>
       <c r="C370" t="s">
         <v>29</v>
@@ -34631,82 +34631,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E370" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F370" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="G370">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H370">
         <v>1</v>
       </c>
       <c r="I370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K370" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L370">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="M370">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N370">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O370">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="P370">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q370">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="R370">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S370">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T370">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U370">
         <v>2.25</v>
       </c>
       <c r="V370">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W370">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X370">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y370">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z370">
         <v>-1</v>
       </c>
       <c r="AA370">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB370">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC370">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AD370">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="371" spans="1:30">
@@ -34714,7 +34714,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>8225498</v>
+        <v>8225497</v>
       </c>
       <c r="C371" t="s">
         <v>29</v>
@@ -34723,79 +34723,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E371" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F371" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G371">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H371">
+        <v>2</v>
+      </c>
+      <c r="I371">
+        <v>2</v>
+      </c>
+      <c r="J371">
+        <v>1</v>
+      </c>
+      <c r="K371" t="s">
+        <v>95</v>
+      </c>
+      <c r="L371">
+        <v>1.571</v>
+      </c>
+      <c r="M371">
+        <v>3.25</v>
+      </c>
+      <c r="N371">
+        <v>6</v>
+      </c>
+      <c r="O371">
+        <v>1.571</v>
+      </c>
+      <c r="P371">
+        <v>3.5</v>
+      </c>
+      <c r="Q371">
         <v>5</v>
       </c>
-      <c r="I371">
-        <v>0</v>
-      </c>
-      <c r="J371">
-        <v>3</v>
-      </c>
-      <c r="K371" t="s">
-        <v>94</v>
-      </c>
-      <c r="L371">
-        <v>2.3</v>
-      </c>
-      <c r="M371">
-        <v>3.6</v>
-      </c>
-      <c r="N371">
-        <v>2.5</v>
-      </c>
-      <c r="O371">
-        <v>2.1</v>
-      </c>
-      <c r="P371">
-        <v>3.7</v>
-      </c>
-      <c r="Q371">
-        <v>2.8</v>
-      </c>
       <c r="R371">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S371">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T371">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U371">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V371">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W371">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB371">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC371">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AD371">
         <v>-1</v>
@@ -34806,7 +34806,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>8225497</v>
+        <v>8225625</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -34815,79 +34815,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E372" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F372" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G372">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K372" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L372">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="M372">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N372">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="O372">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="P372">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q372">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="R372">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S372">
+        <v>1.85</v>
+      </c>
+      <c r="T372">
+        <v>1.95</v>
+      </c>
+      <c r="U372">
+        <v>2.75</v>
+      </c>
+      <c r="V372">
+        <v>1.825</v>
+      </c>
+      <c r="W372">
         <v>1.975</v>
       </c>
-      <c r="T372">
-        <v>1.825</v>
-      </c>
-      <c r="U372">
-        <v>3.25</v>
-      </c>
-      <c r="V372">
-        <v>2</v>
-      </c>
-      <c r="W372">
-        <v>1.8</v>
-      </c>
       <c r="X372">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA372">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC372">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AD372">
         <v>-1</v>
@@ -34898,7 +34898,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>8225625</v>
+        <v>8225604</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -34907,82 +34907,82 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E373" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F373" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G373">
         <v>1</v>
       </c>
       <c r="H373">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J373">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K373" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L373">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="M373">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N373">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O373">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="P373">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="Q373">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="R373">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S373">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T373">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U373">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V373">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W373">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X373">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB373">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD373">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="374" spans="1:30">
@@ -34990,7 +34990,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>8225604</v>
+        <v>8225603</v>
       </c>
       <c r="C374" t="s">
         <v>29</v>
@@ -34999,82 +34999,82 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E374" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F374" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I374">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J374">
         <v>0</v>
       </c>
       <c r="K374" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L374">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M374">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N374">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O374">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="P374">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="Q374">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="R374">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S374">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T374">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U374">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V374">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W374">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="X374">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA374">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD374">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:30">
@@ -35082,7 +35082,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>8225603</v>
+        <v>8225498</v>
       </c>
       <c r="C375" t="s">
         <v>29</v>
@@ -35091,61 +35091,61 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E375" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F375" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G375">
         <v>2</v>
       </c>
       <c r="H375">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I375">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J375">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K375" t="s">
         <v>94</v>
       </c>
       <c r="L375">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="M375">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N375">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O375">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="P375">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="Q375">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R375">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S375">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T375">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U375">
         <v>3</v>
       </c>
       <c r="V375">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W375">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X375">
         <v>-1</v>
@@ -35154,16 +35154,16 @@
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AA375">
         <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC375">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AD375">
         <v>-1</v>
@@ -35450,7 +35450,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>8225290</v>
+        <v>8225426</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -35459,16 +35459,16 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F379" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379">
         <v>1</v>
@@ -35477,61 +35477,61 @@
         <v>1</v>
       </c>
       <c r="K379" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L379">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="M379">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N379">
-        <v>4.4</v>
+        <v>1.533</v>
       </c>
       <c r="O379">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="P379">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q379">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="R379">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="S379">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T379">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U379">
         <v>2.75</v>
       </c>
       <c r="V379">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W379">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X379">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA379">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AB379">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC379">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
       <c r="AD379">
         <v>-0.5</v>
@@ -35542,7 +35542,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>8225426</v>
+        <v>8225428</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -35551,46 +35551,46 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F380" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G380">
         <v>1</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K380" t="s">
         <v>94</v>
       </c>
       <c r="L380">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M380">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N380">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O380">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P380">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q380">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="R380">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S380">
         <v>1.925</v>
@@ -35599,13 +35599,13 @@
         <v>1.875</v>
       </c>
       <c r="U380">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V380">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W380">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -35614,19 +35614,19 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.5329999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC380">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AD380">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:30">
@@ -35634,7 +35634,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>8225428</v>
+        <v>8225494</v>
       </c>
       <c r="C381" t="s">
         <v>29</v>
@@ -35643,62 +35643,62 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E381" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F381" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H381">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K381" t="s">
         <v>94</v>
       </c>
       <c r="L381">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M381">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N381">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O381">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P381">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q381">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="R381">
         <v>0.75</v>
       </c>
       <c r="S381">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U381">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V381">
+        <v>1.85</v>
+      </c>
+      <c r="W381">
         <v>1.95</v>
       </c>
-      <c r="W381">
-        <v>1.85</v>
-      </c>
       <c r="X381">
         <v>-1</v>
       </c>
@@ -35706,16 +35706,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="AA381">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB381">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC381">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD381">
         <v>-1</v>
@@ -35726,7 +35726,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>8225494</v>
+        <v>8225290</v>
       </c>
       <c r="C382" t="s">
         <v>29</v>
@@ -35735,16 +35735,16 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E382" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F382" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G382">
         <v>2</v>
       </c>
       <c r="H382">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I382">
         <v>1</v>
@@ -35753,64 +35753,64 @@
         <v>1</v>
       </c>
       <c r="K382" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L382">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="M382">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="N382">
+        <v>4.4</v>
+      </c>
+      <c r="O382">
         <v>1.615</v>
       </c>
-      <c r="O382">
-        <v>3.9</v>
-      </c>
       <c r="P382">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q382">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="R382">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S382">
+        <v>1.825</v>
+      </c>
+      <c r="T382">
         <v>1.975</v>
-      </c>
-      <c r="T382">
-        <v>1.825</v>
       </c>
       <c r="U382">
         <v>2.75</v>
       </c>
       <c r="V382">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W382">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X382">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y382">
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA382">
+        <v>0.4125</v>
+      </c>
+      <c r="AB382">
         <v>-0.5</v>
       </c>
-      <c r="AB382">
+      <c r="AC382">
         <v>0.4125</v>
       </c>
-      <c r="AC382">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AD382">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="383" spans="1:30">

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -130,10 +130,10 @@
     <t>Beauvais</t>
   </si>
   <si>
-    <t>Creteil</t>
+    <t>FC Chartres</t>
   </si>
   <si>
-    <t>FC Chartres</t>
+    <t>Creteil</t>
   </si>
   <si>
     <t>Racing Paris</t>
@@ -289,10 +289,10 @@
     <t>Trelissac FC</t>
   </si>
   <si>
-    <t>Les Herbiers</t>
+    <t>Bergerac Perigord</t>
   </si>
   <si>
-    <t>Bergerac Perigord</t>
+    <t>Les Herbiers</t>
   </si>
   <si>
     <t>Bourges Foot 18</t>
@@ -1502,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6730002</v>
+        <v>6730012</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1514,79 +1514,79 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L10">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O10">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="P10">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q10">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>1.925</v>
+      </c>
+      <c r="U10">
+        <v>2.75</v>
+      </c>
+      <c r="V10">
         <v>1.975</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>1.825</v>
       </c>
-      <c r="U10">
-        <v>2.5</v>
-      </c>
-      <c r="V10">
-        <v>1.875</v>
-      </c>
-      <c r="W10">
-        <v>1.925</v>
-      </c>
       <c r="X10">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1594,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6730012</v>
+        <v>6730002</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1606,79 +1606,79 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N11">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O11">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q11">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S11">
+        <v>1.975</v>
+      </c>
+      <c r="T11">
+        <v>1.825</v>
+      </c>
+      <c r="U11">
+        <v>2.5</v>
+      </c>
+      <c r="V11">
         <v>1.875</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>1.925</v>
       </c>
-      <c r="U11">
-        <v>2.75</v>
-      </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
-      <c r="W11">
-        <v>1.825</v>
-      </c>
       <c r="X11">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -2802,7 +2802,7 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -3434,7 +3434,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7152458</v>
+        <v>7152454</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3443,82 +3443,82 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L31">
+        <v>2.2</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3.1</v>
+      </c>
+      <c r="O31">
+        <v>1.8</v>
+      </c>
+      <c r="P31">
+        <v>3.2</v>
+      </c>
+      <c r="Q31">
+        <v>4.2</v>
+      </c>
+      <c r="R31">
+        <v>-0.5</v>
+      </c>
+      <c r="S31">
+        <v>1.85</v>
+      </c>
+      <c r="T31">
         <v>1.95</v>
       </c>
-      <c r="M31">
-        <v>3.25</v>
-      </c>
-      <c r="N31">
-        <v>3.4</v>
-      </c>
-      <c r="O31">
-        <v>2.05</v>
-      </c>
-      <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="Q31">
-        <v>3.3</v>
-      </c>
-      <c r="R31">
-        <v>-0.25</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>1.975</v>
-      </c>
       <c r="U31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V31">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
       </c>
-      <c r="AB31">
-        <v>0.4875</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
-      </c>
       <c r="AD31">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3526,7 +3526,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7152399</v>
+        <v>7152458</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3535,16 +3535,16 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3553,64 +3553,64 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L32">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="M32">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="P32">
         <v>3</v>
       </c>
       <c r="Q32">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="R32">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U32">
         <v>2</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="W32">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z32">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC32">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3618,7 +3618,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7153731</v>
+        <v>7152399</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3627,79 +3627,79 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L33">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="M33">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N33">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O33">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="R33">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W33">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD33">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7156406</v>
+        <v>7153731</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3719,10 +3719,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3734,64 +3734,64 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>96</v>
       </c>
       <c r="L34">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="M34">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N34">
+        <v>3.75</v>
+      </c>
+      <c r="O34">
+        <v>1.833</v>
+      </c>
+      <c r="P34">
+        <v>3.4</v>
+      </c>
+      <c r="Q34">
+        <v>3.75</v>
+      </c>
+      <c r="R34">
+        <v>-0.5</v>
+      </c>
+      <c r="S34">
+        <v>1.9</v>
+      </c>
+      <c r="T34">
+        <v>1.9</v>
+      </c>
+      <c r="U34">
+        <v>2.5</v>
+      </c>
+      <c r="V34">
+        <v>1.95</v>
+      </c>
+      <c r="W34">
+        <v>1.85</v>
+      </c>
+      <c r="X34">
+        <v>-1</v>
+      </c>
+      <c r="Y34">
         <v>2.4</v>
       </c>
-      <c r="O34">
-        <v>3.4</v>
-      </c>
-      <c r="P34">
-        <v>2.9</v>
-      </c>
-      <c r="Q34">
-        <v>2.15</v>
-      </c>
-      <c r="R34">
-        <v>0.25</v>
-      </c>
-      <c r="S34">
-        <v>1.925</v>
-      </c>
-      <c r="T34">
-        <v>1.875</v>
-      </c>
-      <c r="U34">
-        <v>2</v>
-      </c>
-      <c r="V34">
-        <v>1.9</v>
-      </c>
-      <c r="W34">
-        <v>1.9</v>
-      </c>
-      <c r="X34">
-        <v>-1</v>
-      </c>
-      <c r="Y34">
-        <v>1.9</v>
-      </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD34">
         <v>-1</v>
@@ -3802,7 +3802,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7152398</v>
+        <v>7156406</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3811,82 +3811,82 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L35">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N35">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O35">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q35">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U35">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X35">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3894,7 +3894,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7152407</v>
+        <v>7152398</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3903,13 +3903,13 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3921,28 +3921,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L36">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M36">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N36">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="O36">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="P36">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S36">
         <v>1.8</v>
@@ -3951,34 +3951,34 @@
         <v>2</v>
       </c>
       <c r="U36">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD36">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3986,7 +3986,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7152457</v>
+        <v>7152407</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3995,43 +3995,43 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L37">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M37">
         <v>3.2</v>
       </c>
       <c r="N37">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O37">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="P37">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q37">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -4043,34 +4043,34 @@
         <v>2</v>
       </c>
       <c r="U37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z37">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -4078,7 +4078,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7152454</v>
+        <v>7152457</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -4087,82 +4087,82 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L38">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N38">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O38">
+        <v>2.375</v>
+      </c>
+      <c r="P38">
+        <v>3.25</v>
+      </c>
+      <c r="Q38">
+        <v>2.6</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>1.8</v>
       </c>
-      <c r="P38">
-        <v>3.2</v>
-      </c>
-      <c r="Q38">
-        <v>4.2</v>
-      </c>
-      <c r="R38">
-        <v>-0.5</v>
-      </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
       <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2.5</v>
+      </c>
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="U38">
-        <v>2.25</v>
-      </c>
-      <c r="V38">
-        <v>2.025</v>
-      </c>
       <c r="W38">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="X38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD38">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -7491,7 +7491,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
         <v>30</v>
@@ -8046,7 +8046,7 @@
         <v>72</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -9322,7 +9322,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7304508</v>
+        <v>7304514</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9331,46 +9331,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F95" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L95">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="M95">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q95">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="R95">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S95">
         <v>1.85</v>
@@ -9379,34 +9379,34 @@
         <v>1.95</v>
       </c>
       <c r="U95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD95">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9426,7 +9426,7 @@
         <v>51</v>
       </c>
       <c r="F96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -9690,7 +9690,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7304514</v>
+        <v>7305039</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9699,13 +9699,13 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F99" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9720,43 +9720,43 @@
         <v>94</v>
       </c>
       <c r="L99">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="M99">
+        <v>3.75</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99">
+        <v>1.95</v>
+      </c>
+      <c r="P99">
+        <v>3.5</v>
+      </c>
+      <c r="Q99">
         <v>3.2</v>
       </c>
-      <c r="N99">
-        <v>2.7</v>
-      </c>
-      <c r="O99">
-        <v>2.55</v>
-      </c>
-      <c r="P99">
-        <v>2.9</v>
-      </c>
-      <c r="Q99">
-        <v>2.625</v>
-      </c>
       <c r="R99">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T99">
         <v>1.95</v>
       </c>
       <c r="U99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X99">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="Y99">
         <v>-1</v>
@@ -9765,7 +9765,7 @@
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9774,7 +9774,7 @@
         <v>-1</v>
       </c>
       <c r="AD99">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9782,7 +9782,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7305039</v>
+        <v>7304518</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9791,19 +9791,19 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E100" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -9812,40 +9812,40 @@
         <v>94</v>
       </c>
       <c r="L100">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O100">
         <v>1.95</v>
       </c>
       <c r="P100">
+        <v>3.2</v>
+      </c>
+      <c r="Q100">
         <v>3.5</v>
       </c>
-      <c r="Q100">
-        <v>3.2</v>
-      </c>
       <c r="R100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S100">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T100">
+        <v>1.8</v>
+      </c>
+      <c r="U100">
+        <v>2.25</v>
+      </c>
+      <c r="V100">
+        <v>1.85</v>
+      </c>
+      <c r="W100">
         <v>1.95</v>
-      </c>
-      <c r="U100">
-        <v>2.5</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
-      <c r="W100">
-        <v>1.9</v>
       </c>
       <c r="X100">
         <v>0.95</v>
@@ -9857,7 +9857,7 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
@@ -9866,7 +9866,7 @@
         <v>-1</v>
       </c>
       <c r="AD100">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9874,7 +9874,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7304518</v>
+        <v>7304517</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9883,82 +9883,82 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M101">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O101">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="P101">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U101">
         <v>2.25</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD101">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9966,7 +9966,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7304517</v>
+        <v>7304515</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9975,82 +9975,82 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
         <v>96</v>
       </c>
       <c r="L102">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M102">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N102">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="P102">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q102">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="R102">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T102">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U102">
         <v>2.25</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
         <v>0.875</v>
       </c>
-      <c r="AC102">
-        <v>-0.5</v>
-      </c>
       <c r="AD102">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10058,7 +10058,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7304515</v>
+        <v>7304512</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -10067,82 +10067,82 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L103">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="M103">
+        <v>3.1</v>
+      </c>
+      <c r="N103">
         <v>3.2</v>
       </c>
-      <c r="N103">
-        <v>2.3</v>
-      </c>
       <c r="O103">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P103">
         <v>3.2</v>
       </c>
       <c r="Q103">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="R103">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10150,7 +10150,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7304512</v>
+        <v>7304508</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10159,52 +10159,52 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E104" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F104" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="s">
         <v>95</v>
       </c>
       <c r="L104">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N104">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q104">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="R104">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U104">
         <v>2.5</v>
@@ -10222,19 +10222,19 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -11634,7 +11634,7 @@
         <v>74</v>
       </c>
       <c r="F120" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7427030</v>
+        <v>7427015</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -12091,82 +12091,82 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L125">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N125">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O125">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="P125">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="R125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S125">
+        <v>1.75</v>
+      </c>
+      <c r="T125">
+        <v>2.05</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>1.85</v>
+      </c>
+      <c r="W125">
         <v>1.95</v>
       </c>
-      <c r="T125">
-        <v>1.85</v>
-      </c>
-      <c r="U125">
-        <v>2.75</v>
-      </c>
-      <c r="V125">
-        <v>1.975</v>
-      </c>
-      <c r="W125">
-        <v>1.825</v>
-      </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y125">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AC125">
-        <v>-1</v>
-      </c>
       <c r="AD125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12174,7 +12174,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7427015</v>
+        <v>7427030</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12183,82 +12183,82 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E126" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L126">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="M126">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N126">
+        <v>6</v>
+      </c>
+      <c r="O126">
+        <v>1.6</v>
+      </c>
+      <c r="P126">
+        <v>3.6</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>-1</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
+        <v>1.85</v>
+      </c>
+      <c r="U126">
+        <v>2.75</v>
+      </c>
+      <c r="V126">
+        <v>1.975</v>
+      </c>
+      <c r="W126">
+        <v>1.825</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
         <v>2.6</v>
       </c>
-      <c r="O126">
-        <v>2.875</v>
-      </c>
-      <c r="P126">
-        <v>3.1</v>
-      </c>
-      <c r="Q126">
-        <v>2.3</v>
-      </c>
-      <c r="R126">
-        <v>0.25</v>
-      </c>
-      <c r="S126">
-        <v>1.75</v>
-      </c>
-      <c r="T126">
-        <v>2.05</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
-      <c r="W126">
-        <v>1.95</v>
-      </c>
-      <c r="X126">
-        <v>1.875</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12278,7 +12278,7 @@
         <v>64</v>
       </c>
       <c r="F127" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -12450,7 +12450,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7427024</v>
+        <v>7427026</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12459,82 +12459,82 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L129">
+        <v>1.55</v>
+      </c>
+      <c r="M129">
+        <v>3.5</v>
+      </c>
+      <c r="N129">
+        <v>5.5</v>
+      </c>
+      <c r="O129">
+        <v>1.833</v>
+      </c>
+      <c r="P129">
+        <v>3.25</v>
+      </c>
+      <c r="Q129">
+        <v>4.2</v>
+      </c>
+      <c r="R129">
+        <v>-0.5</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
+        <v>1.925</v>
+      </c>
+      <c r="U129">
         <v>2.25</v>
       </c>
-      <c r="M129">
-        <v>3.3</v>
-      </c>
-      <c r="N129">
-        <v>2.75</v>
-      </c>
-      <c r="O129">
-        <v>2.25</v>
-      </c>
-      <c r="P129">
-        <v>3.3</v>
-      </c>
-      <c r="Q129">
-        <v>2.75</v>
-      </c>
-      <c r="R129">
-        <v>-0.25</v>
-      </c>
-      <c r="S129">
-        <v>2.025</v>
-      </c>
-      <c r="T129">
-        <v>1.775</v>
-      </c>
-      <c r="U129">
-        <v>2.5</v>
-      </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12542,7 +12542,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7427029</v>
+        <v>7427024</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12551,82 +12551,82 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="M130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N130">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q130">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="R130">
         <v>-0.25</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U130">
         <v>2.5</v>
       </c>
       <c r="V130">
+        <v>2</v>
+      </c>
+      <c r="W130">
         <v>1.8</v>
       </c>
-      <c r="W130">
-        <v>2</v>
-      </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z130">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC130">
+        <v>-1</v>
+      </c>
+      <c r="AD130">
         <v>0.8</v>
-      </c>
-      <c r="AD130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -12726,7 +12726,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7427026</v>
+        <v>7427014</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12735,82 +12735,82 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L132">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="M132">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N132">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="O132">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="P132">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="R132">
         <v>-0.5</v>
       </c>
       <c r="S132">
+        <v>1.9</v>
+      </c>
+      <c r="T132">
+        <v>1.9</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>1.925</v>
+      </c>
+      <c r="W132">
         <v>1.875</v>
       </c>
-      <c r="T132">
-        <v>1.925</v>
-      </c>
-      <c r="U132">
-        <v>2.25</v>
-      </c>
-      <c r="V132">
-        <v>1.875</v>
-      </c>
-      <c r="W132">
-        <v>1.925</v>
-      </c>
       <c r="X132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD132">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -12818,7 +12818,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7427014</v>
+        <v>7427029</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12827,16 +12827,16 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -12845,64 +12845,64 @@
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>3.5</v>
+      </c>
+      <c r="N133">
+        <v>3.1</v>
+      </c>
+      <c r="O133">
+        <v>2</v>
+      </c>
+      <c r="P133">
+        <v>3.5</v>
+      </c>
+      <c r="Q133">
+        <v>3.1</v>
+      </c>
+      <c r="R133">
+        <v>-0.25</v>
+      </c>
+      <c r="S133">
+        <v>1.8</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
         <v>2.5</v>
       </c>
-      <c r="M133">
-        <v>3.75</v>
-      </c>
-      <c r="N133">
-        <v>2.25</v>
-      </c>
-      <c r="O133">
-        <v>1.85</v>
-      </c>
-      <c r="P133">
-        <v>4</v>
-      </c>
-      <c r="Q133">
-        <v>3.2</v>
-      </c>
-      <c r="R133">
-        <v>-0.5</v>
-      </c>
-      <c r="S133">
-        <v>1.9</v>
-      </c>
-      <c r="T133">
-        <v>1.9</v>
-      </c>
-      <c r="U133">
-        <v>3</v>
-      </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC133">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -13554,7 +13554,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7457944</v>
+        <v>7458117</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13563,10 +13563,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -13584,61 +13584,61 @@
         <v>96</v>
       </c>
       <c r="L141">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="M141">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N141">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="P141">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="R141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T141">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC141">
         <v>-1</v>
       </c>
       <c r="AD141">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13830,7 +13830,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7458116</v>
+        <v>7458010</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13839,79 +13839,79 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L144">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O144">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="R144">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
         <v>1.775</v>
       </c>
-      <c r="T144">
-        <v>2.025</v>
-      </c>
       <c r="U144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X144">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AB144">
-        <v>-1</v>
-      </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD144">
         <v>-1</v>
@@ -13922,7 +13922,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7458007</v>
+        <v>7458116</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13931,82 +13931,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F145" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L145">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="M145">
         <v>3.2</v>
       </c>
       <c r="N145">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="P145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="R145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T145">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U145">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14014,7 +14014,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7458117</v>
+        <v>7458007</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -14023,82 +14023,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F146" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" t="s">
         <v>96</v>
       </c>
       <c r="L146">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M146">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O146">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="P146">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q146">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="R146">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S146">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T146">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U146">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
         <v>-1</v>
       </c>
       <c r="AD146">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14198,7 +14198,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7458010</v>
+        <v>7457944</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14207,82 +14207,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L148">
+        <v>1.615</v>
+      </c>
+      <c r="M148">
+        <v>3.25</v>
+      </c>
+      <c r="N148">
+        <v>5.25</v>
+      </c>
+      <c r="O148">
+        <v>1.615</v>
+      </c>
+      <c r="P148">
+        <v>3.25</v>
+      </c>
+      <c r="Q148">
+        <v>5.25</v>
+      </c>
+      <c r="R148">
+        <v>-0.75</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>1.975</v>
+      </c>
+      <c r="U148">
+        <v>2.5</v>
+      </c>
+      <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
+        <v>1.75</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
         <v>2.25</v>
       </c>
-      <c r="M148">
-        <v>3.1</v>
-      </c>
-      <c r="N148">
-        <v>2.875</v>
-      </c>
-      <c r="O148">
-        <v>2.25</v>
-      </c>
-      <c r="P148">
-        <v>3.1</v>
-      </c>
-      <c r="Q148">
-        <v>2.875</v>
-      </c>
-      <c r="R148">
-        <v>-0.25</v>
-      </c>
-      <c r="S148">
-        <v>2.025</v>
-      </c>
-      <c r="T148">
-        <v>1.775</v>
-      </c>
-      <c r="U148">
-        <v>2.25</v>
-      </c>
-      <c r="V148">
-        <v>1.825</v>
-      </c>
-      <c r="W148">
-        <v>1.975</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
       <c r="Z148">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD148">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14290,7 +14290,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7457945</v>
+        <v>7458191</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14299,82 +14299,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L149">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M149">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N149">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O149">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q149">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="R149">
         <v>-0.25</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T149">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U149">
         <v>2.25</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD149">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14382,7 +14382,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7461270</v>
+        <v>7457945</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14391,10 +14391,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E150" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -14412,43 +14412,43 @@
         <v>94</v>
       </c>
       <c r="L150">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="M150">
         <v>3.2</v>
       </c>
       <c r="N150">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="O150">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P150">
         <v>3.2</v>
       </c>
       <c r="Q150">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="R150">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S150">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="U150">
         <v>2.25</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W150">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X150">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -14457,7 +14457,7 @@
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB150">
         <v>-1</v>
@@ -14466,7 +14466,7 @@
         <v>-1</v>
       </c>
       <c r="AD150">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14474,7 +14474,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7460132</v>
+        <v>7458192</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -14483,82 +14483,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F151" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" t="s">
         <v>96</v>
       </c>
       <c r="L151">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="M151">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N151">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="O151">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q151">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="R151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T151">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U151">
         <v>2.5</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
         <v>-1</v>
       </c>
       <c r="AD151">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -14566,7 +14566,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7458192</v>
+        <v>7460132</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14575,82 +14575,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="s">
         <v>96</v>
       </c>
       <c r="L152">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N152">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="P152">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q152">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="R152">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T152">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U152">
         <v>2.5</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W152">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
         <v>-1</v>
       </c>
       <c r="AD152">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14658,7 +14658,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7458191</v>
+        <v>7461270</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14667,82 +14667,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L153">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="M153">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="O153">
+        <v>2.75</v>
+      </c>
+      <c r="P153">
+        <v>3.2</v>
+      </c>
+      <c r="Q153">
         <v>2.3</v>
       </c>
-      <c r="P153">
-        <v>3.1</v>
-      </c>
-      <c r="Q153">
-        <v>2.8</v>
-      </c>
       <c r="R153">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S153">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T153">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="U153">
         <v>2.25</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y153">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB153">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD153">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14934,7 +14934,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7515888</v>
+        <v>7515883</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14943,82 +14943,82 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F156" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L156">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M156">
         <v>3</v>
       </c>
       <c r="N156">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O156">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q156">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="R156">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T156">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W156">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC156">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD156">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -15026,7 +15026,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7515829</v>
+        <v>7515888</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -15035,82 +15035,82 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="M157">
         <v>3</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O157">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="P157">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q157">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="R157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U157">
         <v>2.25</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z157">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC157">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD157">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -15118,7 +15118,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7515883</v>
+        <v>7515829</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -15127,13 +15127,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -15142,64 +15142,64 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K158" t="s">
         <v>95</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
         <v>3</v>
       </c>
       <c r="N158">
+        <v>2.2</v>
+      </c>
+      <c r="O158">
+        <v>2.3</v>
+      </c>
+      <c r="P158">
+        <v>3.2</v>
+      </c>
+      <c r="Q158">
+        <v>2.75</v>
+      </c>
+      <c r="R158">
+        <v>-0.25</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
+        <v>1.825</v>
+      </c>
+      <c r="U158">
         <v>2.25</v>
       </c>
-      <c r="O158">
-        <v>2.625</v>
-      </c>
-      <c r="P158">
-        <v>2.875</v>
-      </c>
-      <c r="Q158">
-        <v>2.6</v>
-      </c>
-      <c r="R158">
-        <v>0.25</v>
-      </c>
-      <c r="S158">
+      <c r="V158">
+        <v>1.85</v>
+      </c>
+      <c r="W158">
+        <v>1.95</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
         <v>1.75</v>
       </c>
-      <c r="T158">
-        <v>2.05</v>
-      </c>
-      <c r="U158">
-        <v>2</v>
-      </c>
-      <c r="V158">
-        <v>1.775</v>
-      </c>
-      <c r="W158">
-        <v>2.025</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>1.6</v>
-      </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD158">
         <v>-1</v>
@@ -15590,7 +15590,7 @@
         <v>53</v>
       </c>
       <c r="F163" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -16139,7 +16139,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
         <v>45</v>
@@ -18154,7 +18154,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7690466</v>
+        <v>7690615</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18163,82 +18163,82 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F191" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L191">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="M191">
+        <v>3.1</v>
+      </c>
+      <c r="N191">
         <v>3</v>
       </c>
-      <c r="N191">
-        <v>2.5</v>
-      </c>
       <c r="O191">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="P191">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q191">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R191">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S191">
+        <v>1.85</v>
+      </c>
+      <c r="T191">
         <v>1.95</v>
       </c>
-      <c r="T191">
-        <v>1.85</v>
-      </c>
       <c r="U191">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X191">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC191">
         <v>-1</v>
       </c>
       <c r="AD191">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18246,7 +18246,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7690468</v>
+        <v>7690591</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18255,79 +18255,79 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E192" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F192" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192">
         <v>2</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L192">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="M192">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O192">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q192">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="R192">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S192">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U192">
+        <v>2.75</v>
+      </c>
+      <c r="V192">
+        <v>1.95</v>
+      </c>
+      <c r="W192">
+        <v>1.85</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
         <v>2.5</v>
       </c>
-      <c r="V192">
-        <v>1.9</v>
-      </c>
-      <c r="W192">
-        <v>1.9</v>
-      </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
       <c r="Z192">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB192">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD192">
         <v>-1</v>
@@ -18430,7 +18430,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7690590</v>
+        <v>7690468</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18439,16 +18439,16 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -18460,25 +18460,25 @@
         <v>95</v>
       </c>
       <c r="L194">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="M194">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N194">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O194">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="P194">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q194">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="R194">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S194">
         <v>1.775</v>
@@ -18487,13 +18487,13 @@
         <v>2.025</v>
       </c>
       <c r="U194">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -18502,7 +18502,7 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>3.333</v>
+        <v>1.7</v>
       </c>
       <c r="AA194">
         <v>-1</v>
@@ -18511,10 +18511,10 @@
         <v>1.025</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18522,7 +18522,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7690591</v>
+        <v>7690466</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18531,16 +18531,16 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G195">
         <v>2</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -18549,28 +18549,28 @@
         <v>0</v>
       </c>
       <c r="K195" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L195">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="M195">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N195">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O195">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="P195">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q195">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="R195">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S195">
         <v>1.95</v>
@@ -18579,19 +18579,19 @@
         <v>1.85</v>
       </c>
       <c r="U195">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y195">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
         <v>-1</v>
@@ -18603,10 +18603,10 @@
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18614,7 +18614,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7690615</v>
+        <v>7690590</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18623,82 +18623,82 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F196" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L196">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M196">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N196">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O196">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="P196">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q196">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="R196">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U196">
         <v>2.25</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
       <c r="AC196">
         <v>-1</v>
       </c>
       <c r="AD196">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -19718,7 +19718,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7748091</v>
+        <v>7748092</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19727,82 +19727,82 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E208" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F208" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L208">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="M208">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N208">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O208">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="P208">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q208">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="R208">
+        <v>0.25</v>
+      </c>
+      <c r="S208">
+        <v>1.9</v>
+      </c>
+      <c r="T208">
+        <v>1.9</v>
+      </c>
+      <c r="U208">
+        <v>2.5</v>
+      </c>
+      <c r="V208">
+        <v>1.875</v>
+      </c>
+      <c r="W208">
+        <v>1.925</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>2.3</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.45</v>
+      </c>
+      <c r="AB208">
         <v>-0.5</v>
       </c>
-      <c r="S208">
-        <v>1.95</v>
-      </c>
-      <c r="T208">
-        <v>1.85</v>
-      </c>
-      <c r="U208">
-        <v>2.25</v>
-      </c>
-      <c r="V208">
-        <v>1.825</v>
-      </c>
-      <c r="W208">
-        <v>1.975</v>
-      </c>
-      <c r="X208">
-        <v>0.909</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
-      <c r="Z208">
-        <v>-1</v>
-      </c>
-      <c r="AA208">
-        <v>0.95</v>
-      </c>
-      <c r="AB208">
-        <v>-1</v>
-      </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD208">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -19810,7 +19810,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7748092</v>
+        <v>7748091</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19819,82 +19819,82 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L209">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="M209">
+        <v>3.5</v>
+      </c>
+      <c r="N209">
         <v>3.25</v>
       </c>
-      <c r="N209">
-        <v>2.15</v>
-      </c>
       <c r="O209">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="P209">
+        <v>3.6</v>
+      </c>
+      <c r="Q209">
         <v>3.3</v>
       </c>
-      <c r="Q209">
-        <v>2.1</v>
-      </c>
       <c r="R209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y209">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -20086,7 +20086,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7773904</v>
+        <v>7773905</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -20095,10 +20095,10 @@
         <v>45324.625</v>
       </c>
       <c r="E212" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -20107,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -20116,44 +20116,44 @@
         <v>94</v>
       </c>
       <c r="L212">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N212">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O212">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="P212">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q212">
+        <v>1.833</v>
+      </c>
+      <c r="R212">
+        <v>0.5</v>
+      </c>
+      <c r="S212">
+        <v>1.95</v>
+      </c>
+      <c r="T212">
+        <v>1.85</v>
+      </c>
+      <c r="U212">
+        <v>2.25</v>
+      </c>
+      <c r="V212">
+        <v>1.925</v>
+      </c>
+      <c r="W212">
+        <v>1.875</v>
+      </c>
+      <c r="X212">
         <v>3</v>
       </c>
-      <c r="R212">
-        <v>-0.25</v>
-      </c>
-      <c r="S212">
-        <v>2.05</v>
-      </c>
-      <c r="T212">
-        <v>1.75</v>
-      </c>
-      <c r="U212">
-        <v>2</v>
-      </c>
-      <c r="V212">
-        <v>1.75</v>
-      </c>
-      <c r="W212">
-        <v>2.05</v>
-      </c>
-      <c r="X212">
-        <v>1.375</v>
-      </c>
       <c r="Y212">
         <v>-1</v>
       </c>
@@ -20161,16 +20161,16 @@
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD212">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20178,7 +20178,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7773905</v>
+        <v>7773904</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20187,10 +20187,10 @@
         <v>45324.625</v>
       </c>
       <c r="E213" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F213" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -20208,43 +20208,43 @@
         <v>94</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N213">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="P213">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q213">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="R213">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S213">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W213">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="X213">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -20253,16 +20253,16 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD213">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20831,7 +20831,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E220" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F220" t="s">
         <v>77</v>
@@ -22754,7 +22754,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7878104</v>
+        <v>7873410</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22763,13 +22763,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F241" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22778,67 +22778,67 @@
         <v>1</v>
       </c>
       <c r="J241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="M241">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="O241">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="P241">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q241">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="R241">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S241">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T241">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U241">
         <v>2.25</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W241">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y241">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD241">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22846,7 +22846,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7873464</v>
+        <v>7878104</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22855,10 +22855,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E242" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F242" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -22876,61 +22876,61 @@
         <v>96</v>
       </c>
       <c r="L242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M242">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N242">
+        <v>1.727</v>
+      </c>
+      <c r="O242">
+        <v>4</v>
+      </c>
+      <c r="P242">
+        <v>3.5</v>
+      </c>
+      <c r="Q242">
+        <v>1.7</v>
+      </c>
+      <c r="R242">
+        <v>0.5</v>
+      </c>
+      <c r="S242">
+        <v>2.05</v>
+      </c>
+      <c r="T242">
+        <v>1.75</v>
+      </c>
+      <c r="U242">
         <v>2.25</v>
       </c>
-      <c r="O242">
-        <v>2.75</v>
-      </c>
-      <c r="P242">
-        <v>2.9</v>
-      </c>
-      <c r="Q242">
-        <v>2.45</v>
-      </c>
-      <c r="R242">
-        <v>0</v>
-      </c>
-      <c r="S242">
-        <v>2</v>
-      </c>
-      <c r="T242">
-        <v>1.8</v>
-      </c>
-      <c r="U242">
-        <v>2</v>
-      </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD242">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22938,7 +22938,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7873430</v>
+        <v>7873464</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22947,82 +22947,82 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F243" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243" t="s">
+        <v>96</v>
+      </c>
+      <c r="L243">
         <v>3</v>
       </c>
-      <c r="H243">
-        <v>1</v>
-      </c>
-      <c r="I243">
+      <c r="M243">
         <v>3</v>
       </c>
-      <c r="J243">
-        <v>0</v>
-      </c>
-      <c r="K243" t="s">
-        <v>94</v>
-      </c>
-      <c r="L243">
+      <c r="N243">
+        <v>2.25</v>
+      </c>
+      <c r="O243">
+        <v>2.75</v>
+      </c>
+      <c r="P243">
+        <v>2.9</v>
+      </c>
+      <c r="Q243">
+        <v>2.45</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>2</v>
+      </c>
+      <c r="T243">
         <v>1.8</v>
       </c>
-      <c r="M243">
-        <v>3.4</v>
-      </c>
-      <c r="N243">
-        <v>3.8</v>
-      </c>
-      <c r="O243">
-        <v>1.571</v>
-      </c>
-      <c r="P243">
-        <v>3.6</v>
-      </c>
-      <c r="Q243">
-        <v>5</v>
-      </c>
-      <c r="R243">
-        <v>-0.75</v>
-      </c>
-      <c r="S243">
-        <v>1.75</v>
-      </c>
-      <c r="T243">
-        <v>2.05</v>
-      </c>
       <c r="U243">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V243">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X243">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD243">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -23030,7 +23030,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7873413</v>
+        <v>7873430</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -23039,55 +23039,55 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F244" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L244">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M244">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N244">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O244">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="P244">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q244">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="R244">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S244">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T244">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V244">
         <v>1.925</v>
@@ -23096,25 +23096,25 @@
         <v>1.875</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y244">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD244">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23122,7 +23122,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7873410</v>
+        <v>7873413</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23131,13 +23131,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F245" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="G245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -23149,64 +23149,64 @@
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L245">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="M245">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N245">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O245">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="P245">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q245">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="R245">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S245">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T245">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U245">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W245">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X245">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD245">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -24054,7 +24054,7 @@
         <v>35</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -25710,7 +25710,7 @@
         <v>51</v>
       </c>
       <c r="F273" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -25891,7 +25891,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E275" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
         <v>73</v>
@@ -26443,7 +26443,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E281" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F281" t="s">
         <v>56</v>
@@ -27446,7 +27446,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>8023376</v>
+        <v>8023378</v>
       </c>
       <c r="C292" t="s">
         <v>29</v>
@@ -27455,82 +27455,82 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E292" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F292" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G292">
         <v>0</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I292">
         <v>0</v>
       </c>
       <c r="J292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K292" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L292">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="M292">
         <v>3</v>
       </c>
       <c r="N292">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O292">
         <v>2.375</v>
       </c>
       <c r="P292">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q292">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="R292">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S292">
+        <v>1.75</v>
+      </c>
+      <c r="T292">
         <v>2.05</v>
       </c>
-      <c r="T292">
+      <c r="U292">
+        <v>2</v>
+      </c>
+      <c r="V292">
+        <v>1.775</v>
+      </c>
+      <c r="W292">
+        <v>2.025</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
+        <v>-1</v>
+      </c>
+      <c r="Z292">
         <v>1.75</v>
       </c>
-      <c r="U292">
-        <v>2</v>
-      </c>
-      <c r="V292">
-        <v>1.95</v>
-      </c>
-      <c r="W292">
-        <v>1.85</v>
-      </c>
-      <c r="X292">
-        <v>-1</v>
-      </c>
-      <c r="Y292">
-        <v>1.875</v>
-      </c>
-      <c r="Z292">
-        <v>-1</v>
-      </c>
       <c r="AA292">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD292">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:30">
@@ -27538,7 +27538,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8023378</v>
+        <v>8023375</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -27547,52 +27547,52 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E293" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F293" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293">
         <v>0</v>
       </c>
       <c r="J293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K293" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L293">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="M293">
         <v>3</v>
       </c>
       <c r="N293">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O293">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="P293">
         <v>3</v>
       </c>
       <c r="Q293">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R293">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S293">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T293">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="U293">
         <v>2</v>
@@ -27604,25 +27604,25 @@
         <v>2.025</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB293">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC293">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD293">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -27630,7 +27630,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8023375</v>
+        <v>8023376</v>
       </c>
       <c r="C294" t="s">
         <v>29</v>
@@ -27639,13 +27639,13 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E294" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F294" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -27657,22 +27657,22 @@
         <v>0</v>
       </c>
       <c r="K294" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L294">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="M294">
         <v>3</v>
       </c>
       <c r="N294">
+        <v>2.1</v>
+      </c>
+      <c r="O294">
+        <v>2.375</v>
+      </c>
+      <c r="P294">
         <v>2.875</v>
-      </c>
-      <c r="O294">
-        <v>2.3</v>
-      </c>
-      <c r="P294">
-        <v>3</v>
       </c>
       <c r="Q294">
         <v>2.9</v>
@@ -27681,40 +27681,40 @@
         <v>-0.25</v>
       </c>
       <c r="S294">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T294">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U294">
         <v>2</v>
       </c>
       <c r="V294">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W294">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X294">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z294">
         <v>-1</v>
       </c>
       <c r="AA294">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC294">
         <v>-1</v>
       </c>
       <c r="AD294">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:30">
@@ -28102,7 +28102,7 @@
         <v>58</v>
       </c>
       <c r="F299" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G299">
         <v>3</v>
@@ -28378,7 +28378,7 @@
         <v>64</v>
       </c>
       <c r="F302" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G302">
         <v>2</v>
@@ -28550,7 +28550,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8056020</v>
+        <v>8055000</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28559,82 +28559,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F304" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304">
         <v>0</v>
       </c>
       <c r="J304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K304" t="s">
         <v>95</v>
       </c>
       <c r="L304">
+        <v>2.1</v>
+      </c>
+      <c r="M304">
+        <v>2.9</v>
+      </c>
+      <c r="N304">
+        <v>3.4</v>
+      </c>
+      <c r="O304">
+        <v>2.05</v>
+      </c>
+      <c r="P304">
+        <v>2.8</v>
+      </c>
+      <c r="Q304">
+        <v>3.75</v>
+      </c>
+      <c r="R304">
+        <v>-0.25</v>
+      </c>
+      <c r="S304">
+        <v>1.775</v>
+      </c>
+      <c r="T304">
+        <v>2.025</v>
+      </c>
+      <c r="U304">
+        <v>1.75</v>
+      </c>
+      <c r="V304">
+        <v>1.8</v>
+      </c>
+      <c r="W304">
+        <v>2</v>
+      </c>
+      <c r="X304">
+        <v>-1</v>
+      </c>
+      <c r="Y304">
+        <v>-1</v>
+      </c>
+      <c r="Z304">
         <v>2.75</v>
       </c>
-      <c r="M304">
-        <v>3.25</v>
-      </c>
-      <c r="N304">
-        <v>2.25</v>
-      </c>
-      <c r="O304">
-        <v>3.6</v>
-      </c>
-      <c r="P304">
-        <v>3.25</v>
-      </c>
-      <c r="Q304">
-        <v>1.85</v>
-      </c>
-      <c r="R304">
-        <v>0.5</v>
-      </c>
-      <c r="S304">
-        <v>1.85</v>
-      </c>
-      <c r="T304">
-        <v>1.95</v>
-      </c>
-      <c r="U304">
-        <v>2.5</v>
-      </c>
-      <c r="V304">
-        <v>1.975</v>
-      </c>
-      <c r="W304">
-        <v>1.825</v>
-      </c>
-      <c r="X304">
-        <v>-1</v>
-      </c>
-      <c r="Y304">
-        <v>-1</v>
-      </c>
-      <c r="Z304">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA304">
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC304">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AD304">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28642,7 +28642,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8055000</v>
+        <v>8056008</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28651,13 +28651,13 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E305" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F305" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305">
         <v>2</v>
@@ -28666,46 +28666,46 @@
         <v>0</v>
       </c>
       <c r="J305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305" t="s">
         <v>95</v>
       </c>
       <c r="L305">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="M305">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N305">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="O305">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="P305">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q305">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="R305">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S305">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T305">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U305">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V305">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -28714,19 +28714,19 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>2.75</v>
+        <v>0.615</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB305">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC305">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28734,7 +28734,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8056008</v>
+        <v>8055094</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28743,82 +28743,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E306" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F306" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G306">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306">
         <v>0</v>
       </c>
       <c r="J306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K306" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L306">
-        <v>4.75</v>
+        <v>2.35</v>
       </c>
       <c r="M306">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N306">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O306">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="P306">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q306">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="R306">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S306">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T306">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U306">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V306">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W306">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
+        <v>0.4375</v>
+      </c>
+      <c r="AB306">
         <v>-0.5</v>
       </c>
-      <c r="AB306">
-        <v>0.4125</v>
-      </c>
       <c r="AC306">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD306">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -28826,7 +28826,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>8055094</v>
+        <v>8056020</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
@@ -28835,82 +28835,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E307" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G307">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I307">
         <v>0</v>
       </c>
       <c r="J307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K307" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L307">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="M307">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N307">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O307">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="P307">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q307">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="R307">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S307">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T307">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U307">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V307">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W307">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X307">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA307">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD307">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:30">
@@ -29114,7 +29114,7 @@
         <v>53</v>
       </c>
       <c r="F310" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -30307,7 +30307,7 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E323" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F323" t="s">
         <v>87</v>
@@ -31138,7 +31138,7 @@
         <v>45</v>
       </c>
       <c r="F332" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -32242,7 +32242,7 @@
         <v>65</v>
       </c>
       <c r="F344" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G344">
         <v>2</v>
@@ -32699,7 +32699,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E349" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F349" t="s">
         <v>46</v>
@@ -32978,7 +32978,7 @@
         <v>71</v>
       </c>
       <c r="F352" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -33518,7 +33518,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>8206116</v>
+        <v>8206147</v>
       </c>
       <c r="C358" t="s">
         <v>29</v>
@@ -33527,13 +33527,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E358" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F358" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H358">
         <v>0</v>
@@ -33548,25 +33548,25 @@
         <v>94</v>
       </c>
       <c r="L358">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="M358">
+        <v>3.2</v>
+      </c>
+      <c r="N358">
+        <v>4.5</v>
+      </c>
+      <c r="O358">
+        <v>1.8</v>
+      </c>
+      <c r="P358">
         <v>3.3</v>
       </c>
-      <c r="N358">
-        <v>2.2</v>
-      </c>
-      <c r="O358">
-        <v>3.2</v>
-      </c>
-      <c r="P358">
-        <v>3.6</v>
-      </c>
       <c r="Q358">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="R358">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S358">
         <v>1.825</v>
@@ -33575,16 +33575,16 @@
         <v>1.975</v>
       </c>
       <c r="U358">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V358">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W358">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X358">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y358">
         <v>-1</v>
@@ -33599,10 +33599,10 @@
         <v>-1</v>
       </c>
       <c r="AC358">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD358">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:30">
@@ -33610,7 +33610,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>8206147</v>
+        <v>8206116</v>
       </c>
       <c r="C359" t="s">
         <v>29</v>
@@ -33619,13 +33619,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E359" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F359" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G359">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -33640,25 +33640,25 @@
         <v>94</v>
       </c>
       <c r="L359">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M359">
+        <v>3.3</v>
+      </c>
+      <c r="N359">
+        <v>2.2</v>
+      </c>
+      <c r="O359">
         <v>3.2</v>
       </c>
-      <c r="N359">
-        <v>4.5</v>
-      </c>
-      <c r="O359">
-        <v>1.8</v>
-      </c>
       <c r="P359">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q359">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="R359">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S359">
         <v>1.825</v>
@@ -33667,16 +33667,16 @@
         <v>1.975</v>
       </c>
       <c r="U359">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V359">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W359">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X359">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y359">
         <v>-1</v>
@@ -33691,10 +33691,10 @@
         <v>-1</v>
       </c>
       <c r="AC359">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD359">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="360" spans="1:30">
@@ -33794,7 +33794,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>8198817</v>
+        <v>8198813</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -33803,13 +33803,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E361" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F361" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="G361">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H361">
         <v>1</v>
@@ -33827,40 +33827,40 @@
         <v>2.5</v>
       </c>
       <c r="M361">
+        <v>2.6</v>
+      </c>
+      <c r="N361">
+        <v>3</v>
+      </c>
+      <c r="O361">
         <v>2.8</v>
       </c>
-      <c r="N361">
-        <v>2.8</v>
-      </c>
-      <c r="O361">
-        <v>2.4</v>
-      </c>
       <c r="P361">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q361">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="R361">
         <v>0</v>
       </c>
       <c r="S361">
+        <v>2.025</v>
+      </c>
+      <c r="T361">
         <v>1.775</v>
       </c>
-      <c r="T361">
+      <c r="U361">
+        <v>2.25</v>
+      </c>
+      <c r="V361">
         <v>2.025</v>
       </c>
-      <c r="U361">
-        <v>2.5</v>
-      </c>
-      <c r="V361">
-        <v>1.825</v>
-      </c>
       <c r="W361">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X361">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Y361">
         <v>-1</v>
@@ -33869,13 +33869,13 @@
         <v>-1</v>
       </c>
       <c r="AA361">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB361">
         <v>-1</v>
       </c>
       <c r="AC361">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AD361">
         <v>-1</v>
@@ -33886,7 +33886,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>8198816</v>
+        <v>8198817</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -33895,46 +33895,46 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E362" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F362" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I362">
         <v>0</v>
       </c>
       <c r="J362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K362" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L362">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M362">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N362">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O362">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P362">
         <v>3</v>
       </c>
       <c r="Q362">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R362">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S362">
         <v>1.775</v>
@@ -33943,34 +33943,34 @@
         <v>2.025</v>
       </c>
       <c r="U362">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V362">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W362">
         <v>1.975</v>
       </c>
       <c r="X362">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y362">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB362">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD362">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363" spans="1:30">
@@ -33978,7 +33978,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>8198814</v>
+        <v>8198816</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -33987,16 +33987,16 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E363" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F363" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363">
         <v>0</v>
@@ -34008,46 +34008,46 @@
         <v>96</v>
       </c>
       <c r="L363">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="M363">
+        <v>3.2</v>
+      </c>
+      <c r="N363">
+        <v>4</v>
+      </c>
+      <c r="O363">
+        <v>2</v>
+      </c>
+      <c r="P363">
         <v>3</v>
       </c>
-      <c r="N363">
-        <v>2.4</v>
-      </c>
-      <c r="O363">
-        <v>2.2</v>
-      </c>
-      <c r="P363">
-        <v>3.3</v>
-      </c>
       <c r="Q363">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="R363">
         <v>-0.25</v>
       </c>
       <c r="S363">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T363">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U363">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V363">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="W363">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Z363">
         <v>-1</v>
@@ -34056,13 +34056,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB363">
-        <v>0.4</v>
+        <v>0.5125</v>
       </c>
       <c r="AC363">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD363">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="364" spans="1:30">
@@ -34070,7 +34070,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>8198815</v>
+        <v>8198814</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -34079,16 +34079,16 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E364" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F364" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G364">
         <v>2</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364">
         <v>0</v>
@@ -34097,49 +34097,49 @@
         <v>0</v>
       </c>
       <c r="K364" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L364">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="M364">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N364">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="O364">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="P364">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q364">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="R364">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S364">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T364">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U364">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V364">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W364">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X364">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z364">
         <v>-1</v>
@@ -34148,10 +34148,10 @@
         <v>-0.5</v>
       </c>
       <c r="AB364">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AC364">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AD364">
         <v>-1</v>
@@ -34162,7 +34162,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>8198818</v>
+        <v>8198815</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -34171,13 +34171,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E365" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F365" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -34186,31 +34186,31 @@
         <v>0</v>
       </c>
       <c r="J365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K365" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L365">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="M365">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N365">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="O365">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="P365">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q365">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R365">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S365">
         <v>1.95</v>
@@ -34219,19 +34219,19 @@
         <v>1.85</v>
       </c>
       <c r="U365">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V365">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W365">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X365">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y365">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z365">
         <v>-1</v>
@@ -34243,10 +34243,10 @@
         <v>0.425</v>
       </c>
       <c r="AC365">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD365">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34254,7 +34254,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>8204386</v>
+        <v>8198818</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
@@ -34263,82 +34263,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E366" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F366" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K366" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L366">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M366">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N366">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O366">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="P366">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q366">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R366">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S366">
+        <v>1.95</v>
+      </c>
+      <c r="T366">
+        <v>1.85</v>
+      </c>
+      <c r="U366">
+        <v>2.25</v>
+      </c>
+      <c r="V366">
+        <v>1.825</v>
+      </c>
+      <c r="W366">
         <v>1.975</v>
       </c>
-      <c r="T366">
-        <v>1.825</v>
-      </c>
-      <c r="U366">
-        <v>2.75</v>
-      </c>
-      <c r="V366">
-        <v>1.85</v>
-      </c>
-      <c r="W366">
-        <v>1.95</v>
-      </c>
       <c r="X366">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y366">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z366">
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB366">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD366">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="367" spans="1:30">
@@ -34346,7 +34346,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>8204387</v>
+        <v>8204386</v>
       </c>
       <c r="C367" t="s">
         <v>29</v>
@@ -34355,19 +34355,19 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E367" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F367" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G367">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H367">
         <v>0</v>
       </c>
       <c r="I367">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J367">
         <v>0</v>
@@ -34376,34 +34376,34 @@
         <v>94</v>
       </c>
       <c r="L367">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M367">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N367">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O367">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="P367">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q367">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="R367">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S367">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T367">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U367">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V367">
         <v>1.85</v>
@@ -34412,7 +34412,7 @@
         <v>1.95</v>
       </c>
       <c r="X367">
-        <v>1.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y367">
         <v>-1</v>
@@ -34421,16 +34421,16 @@
         <v>-1</v>
       </c>
       <c r="AA367">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD367">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="368" spans="1:30">
@@ -34438,7 +34438,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>8204820</v>
+        <v>8204387</v>
       </c>
       <c r="C368" t="s">
         <v>29</v>
@@ -34447,64 +34447,64 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E368" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F368" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G368">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K368" t="s">
         <v>94</v>
       </c>
       <c r="L368">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="M368">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N368">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O368">
+        <v>2.25</v>
+      </c>
+      <c r="P368">
+        <v>3.25</v>
+      </c>
+      <c r="Q368">
+        <v>2.8</v>
+      </c>
+      <c r="R368">
+        <v>-0.25</v>
+      </c>
+      <c r="S368">
+        <v>2</v>
+      </c>
+      <c r="T368">
         <v>1.8</v>
       </c>
-      <c r="P368">
-        <v>2.8</v>
-      </c>
-      <c r="Q368">
-        <v>5</v>
-      </c>
-      <c r="R368">
-        <v>-0.5</v>
-      </c>
-      <c r="S368">
-        <v>1.875</v>
-      </c>
-      <c r="T368">
-        <v>1.925</v>
-      </c>
       <c r="U368">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V368">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W368">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X368">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="Y368">
         <v>-1</v>
@@ -34513,13 +34513,13 @@
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB368">
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD368">
         <v>-1</v>
@@ -34530,7 +34530,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>8198813</v>
+        <v>8204820</v>
       </c>
       <c r="C369" t="s">
         <v>29</v>
@@ -34539,13 +34539,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E369" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F369" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="G369">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H369">
         <v>1</v>
@@ -34560,43 +34560,43 @@
         <v>94</v>
       </c>
       <c r="L369">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="M369">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N369">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O369">
+        <v>1.8</v>
+      </c>
+      <c r="P369">
         <v>2.8</v>
       </c>
-      <c r="P369">
-        <v>2.875</v>
-      </c>
       <c r="Q369">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="R369">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S369">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T369">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U369">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V369">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W369">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X369">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Y369">
         <v>-1</v>
@@ -34605,13 +34605,13 @@
         <v>-1</v>
       </c>
       <c r="AA369">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB369">
         <v>-1</v>
       </c>
       <c r="AC369">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AD369">
         <v>-1</v>
@@ -34815,7 +34815,7 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E372" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F372" t="s">
         <v>31</v>
@@ -35450,7 +35450,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>8225426</v>
+        <v>8225290</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -35459,16 +35459,16 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F379" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="G379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
         <v>1</v>
@@ -35477,61 +35477,61 @@
         <v>1</v>
       </c>
       <c r="K379" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L379">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="M379">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N379">
-        <v>1.533</v>
+        <v>4.4</v>
       </c>
       <c r="O379">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="P379">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q379">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="R379">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="S379">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T379">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U379">
         <v>2.75</v>
       </c>
       <c r="V379">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W379">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X379">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB379">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC379">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
       <c r="AD379">
         <v>-0.5</v>
@@ -35542,7 +35542,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>8225428</v>
+        <v>8225426</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -35551,46 +35551,46 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F380" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G380">
         <v>1</v>
       </c>
       <c r="H380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K380" t="s">
         <v>95</v>
       </c>
       <c r="L380">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M380">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N380">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O380">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P380">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q380">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="R380">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S380">
         <v>1.925</v>
@@ -35599,13 +35599,13 @@
         <v>1.875</v>
       </c>
       <c r="U380">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V380">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W380">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -35614,19 +35614,19 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.6499999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB380">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC380">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AD380">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="381" spans="1:30">
@@ -35634,7 +35634,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>8225494</v>
+        <v>8225428</v>
       </c>
       <c r="C381" t="s">
         <v>29</v>
@@ -35643,62 +35643,62 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E381" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F381" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H381">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K381" t="s">
         <v>95</v>
       </c>
       <c r="L381">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M381">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N381">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O381">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="P381">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q381">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="R381">
         <v>0.75</v>
       </c>
       <c r="S381">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T381">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U381">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V381">
+        <v>1.95</v>
+      </c>
+      <c r="W381">
         <v>1.85</v>
       </c>
-      <c r="W381">
-        <v>1.95</v>
-      </c>
       <c r="X381">
         <v>-1</v>
       </c>
@@ -35706,16 +35706,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA381">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC381">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD381">
         <v>-1</v>
@@ -35726,7 +35726,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>8225290</v>
+        <v>8225494</v>
       </c>
       <c r="C382" t="s">
         <v>29</v>
@@ -35735,16 +35735,16 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E382" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F382" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G382">
         <v>2</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I382">
         <v>1</v>
@@ -35753,64 +35753,64 @@
         <v>1</v>
       </c>
       <c r="K382" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L382">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="M382">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N382">
-        <v>4.4</v>
+        <v>1.615</v>
       </c>
       <c r="O382">
+        <v>3.9</v>
+      </c>
+      <c r="P382">
+        <v>4.1</v>
+      </c>
+      <c r="Q382">
         <v>1.615</v>
       </c>
-      <c r="P382">
-        <v>3.6</v>
-      </c>
-      <c r="Q382">
-        <v>4.5</v>
-      </c>
       <c r="R382">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S382">
+        <v>1.975</v>
+      </c>
+      <c r="T382">
         <v>1.825</v>
-      </c>
-      <c r="T382">
-        <v>1.975</v>
       </c>
       <c r="U382">
         <v>2.75</v>
       </c>
       <c r="V382">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W382">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X382">
+        <v>-1</v>
+      </c>
+      <c r="Y382">
+        <v>-1</v>
+      </c>
+      <c r="Z382">
         <v>0.615</v>
       </c>
-      <c r="Y382">
-        <v>-1</v>
-      </c>
-      <c r="Z382">
-        <v>-1</v>
-      </c>
       <c r="AA382">
+        <v>-0.5</v>
+      </c>
+      <c r="AB382">
         <v>0.4125</v>
       </c>
-      <c r="AB382">
-        <v>-0.5</v>
-      </c>
       <c r="AC382">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD382">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:30">

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -121,10 +121,10 @@
     <t>Lyon II</t>
   </si>
   <si>
-    <t>Colmar</t>
+    <t>Grasse</t>
   </si>
   <si>
-    <t>Grasse</t>
+    <t>Colmar</t>
   </si>
   <si>
     <t>Beauvais</t>
@@ -187,16 +187,16 @@
     <t>Racing Besancon</t>
   </si>
   <si>
-    <t>Bourgoin Jallieu</t>
+    <t>Toulouse II</t>
   </si>
   <si>
-    <t>FC 93 Bobigny</t>
+    <t>Bourgoin Jallieu</t>
   </si>
   <si>
     <t>Aubagne</t>
   </si>
   <si>
-    <t>Toulouse II</t>
+    <t>FC 93 Bobigny</t>
   </si>
   <si>
     <t>FC BastiaBorgo</t>
@@ -289,10 +289,10 @@
     <t>Trelissac FC</t>
   </si>
   <si>
-    <t>Bergerac Perigord</t>
+    <t>Les Herbiers</t>
   </si>
   <si>
-    <t>Les Herbiers</t>
+    <t>Bergerac Perigord</t>
   </si>
   <si>
     <t>Bourges Foot 18</t>
@@ -1226,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6730011</v>
+        <v>6730010</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1238,79 +1238,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="O7">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U7">
         <v>2.75</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X7">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AD7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1318,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6730010</v>
+        <v>6730011</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1330,79 +1330,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O8">
+        <v>2.7</v>
+      </c>
+      <c r="P8">
+        <v>3.4</v>
+      </c>
+      <c r="Q8">
+        <v>2.3</v>
+      </c>
+      <c r="R8">
+        <v>0.25</v>
+      </c>
+      <c r="S8">
+        <v>1.75</v>
+      </c>
+      <c r="T8">
         <v>2.05</v>
-      </c>
-      <c r="P8">
-        <v>3.3</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>-0.25</v>
-      </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>1.95</v>
       </c>
       <c r="U8">
         <v>2.75</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1882,7 +1882,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2250,7 +2250,7 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3434,7 +3434,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7152454</v>
+        <v>7152458</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3443,82 +3443,82 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L31">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="M31">
+        <v>3.25</v>
+      </c>
+      <c r="N31">
+        <v>3.4</v>
+      </c>
+      <c r="O31">
+        <v>2.05</v>
+      </c>
+      <c r="P31">
         <v>3</v>
       </c>
-      <c r="N31">
-        <v>3.1</v>
-      </c>
-      <c r="O31">
-        <v>1.8</v>
-      </c>
-      <c r="P31">
-        <v>3.2</v>
-      </c>
       <c r="Q31">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="R31">
+        <v>-0.25</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>1.975</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>1.725</v>
+      </c>
+      <c r="W31">
+        <v>1.975</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>-0.5</v>
       </c>
-      <c r="S31">
-        <v>1.85</v>
-      </c>
-      <c r="T31">
-        <v>1.95</v>
-      </c>
-      <c r="U31">
-        <v>2.25</v>
-      </c>
-      <c r="V31">
-        <v>2.025</v>
-      </c>
-      <c r="W31">
-        <v>1.775</v>
-      </c>
-      <c r="X31">
-        <v>0.8</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD31">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3526,7 +3526,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7152458</v>
+        <v>7152399</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3535,16 +3535,16 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3553,64 +3553,64 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L32">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="M32">
+        <v>3.1</v>
+      </c>
+      <c r="N32">
+        <v>2.3</v>
+      </c>
+      <c r="O32">
         <v>3.25</v>
-      </c>
-      <c r="N32">
-        <v>3.4</v>
-      </c>
-      <c r="O32">
-        <v>2.05</v>
       </c>
       <c r="P32">
         <v>3</v>
       </c>
       <c r="Q32">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="R32">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U32">
         <v>2</v>
       </c>
       <c r="V32">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3618,7 +3618,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7152399</v>
+        <v>7153731</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3627,79 +3627,79 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M33">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q33">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="R33">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z33">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD33">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7153731</v>
+        <v>7152457</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3719,52 +3719,52 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L34">
+        <v>2.45</v>
+      </c>
+      <c r="M34">
+        <v>3.2</v>
+      </c>
+      <c r="N34">
+        <v>2.55</v>
+      </c>
+      <c r="O34">
+        <v>2.375</v>
+      </c>
+      <c r="P34">
+        <v>3.25</v>
+      </c>
+      <c r="Q34">
+        <v>2.6</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>1.8</v>
       </c>
-      <c r="M34">
-        <v>3.4</v>
-      </c>
-      <c r="N34">
-        <v>3.75</v>
-      </c>
-      <c r="O34">
-        <v>1.833</v>
-      </c>
-      <c r="P34">
-        <v>3.4</v>
-      </c>
-      <c r="Q34">
-        <v>3.75</v>
-      </c>
-      <c r="R34">
-        <v>-0.5</v>
-      </c>
-      <c r="S34">
-        <v>1.9</v>
-      </c>
       <c r="T34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>2.5</v>
@@ -3773,22 +3773,22 @@
         <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC34">
         <v>0.95</v>
@@ -3811,7 +3811,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -3894,7 +3894,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7152398</v>
+        <v>7152407</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3903,13 +3903,13 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3921,28 +3921,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L36">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="M36">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N36">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="O36">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <v>1.8</v>
@@ -3951,34 +3951,34 @@
         <v>2</v>
       </c>
       <c r="U36">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X36">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD36">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3986,7 +3986,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7152407</v>
+        <v>7152398</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3995,13 +3995,13 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4013,28 +4013,28 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L37">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M37">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N37">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="O37">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="P37">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q37">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S37">
         <v>1.8</v>
@@ -4043,34 +4043,34 @@
         <v>2</v>
       </c>
       <c r="U37">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AD37">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -4078,7 +4078,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7152457</v>
+        <v>7152456</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -4087,46 +4087,46 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38">
+        <v>1.75</v>
+      </c>
+      <c r="M38">
+        <v>3.5</v>
+      </c>
+      <c r="N38">
         <v>4</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38">
-        <v>2.45</v>
-      </c>
-      <c r="M38">
-        <v>3.2</v>
-      </c>
-      <c r="N38">
-        <v>2.55</v>
-      </c>
       <c r="O38">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="P38">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S38">
         <v>1.8</v>
@@ -4138,28 +4138,28 @@
         <v>2.5</v>
       </c>
       <c r="V38">
+        <v>1.85</v>
+      </c>
+      <c r="W38">
         <v>1.95</v>
       </c>
-      <c r="W38">
-        <v>1.75</v>
-      </c>
       <c r="X38">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD38">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7152455</v>
+        <v>7152454</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4179,64 +4179,64 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
         <v>94</v>
       </c>
       <c r="L39">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M39">
         <v>3</v>
       </c>
       <c r="N39">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O39">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q39">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="R39">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U39">
         <v>2.25</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="X39">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -4245,16 +4245,16 @@
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD39">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4262,7 +4262,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7152456</v>
+        <v>7152455</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4271,64 +4271,64 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
         <v>94</v>
       </c>
       <c r="L40">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="M40">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O40">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R40">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V40">
+        <v>1.95</v>
+      </c>
+      <c r="W40">
         <v>1.85</v>
       </c>
-      <c r="W40">
-        <v>1.95</v>
-      </c>
       <c r="X40">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="Y40">
         <v>-1</v>
@@ -4337,13 +4337,13 @@
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD40">
         <v>-1</v>
@@ -4642,7 +4642,7 @@
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -5194,7 +5194,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -6295,10 +6295,10 @@
         <v>45184.625</v>
       </c>
       <c r="E62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" t="s">
         <v>57</v>
-      </c>
-      <c r="F62" t="s">
-        <v>60</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -7123,7 +7123,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F71" t="s">
         <v>42</v>
@@ -7583,7 +7583,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
         <v>32</v>
@@ -7675,10 +7675,10 @@
         <v>45191.5</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8874,7 +8874,7 @@
         <v>73</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -9414,7 +9414,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7304509</v>
+        <v>7304508</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9423,79 +9423,79 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F96" t="s">
         <v>91</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L96">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="M96">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N96">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O96">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="P96">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="R96">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S96">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="U96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X96">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA96">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC96">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD96">
         <v>-1</v>
@@ -9506,7 +9506,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7304510</v>
+        <v>7304509</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9515,19 +9515,19 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E97" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>3</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>2</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -9536,43 +9536,43 @@
         <v>94</v>
       </c>
       <c r="L97">
+        <v>2.375</v>
+      </c>
+      <c r="M97">
+        <v>2.875</v>
+      </c>
+      <c r="N97">
+        <v>2.875</v>
+      </c>
+      <c r="O97">
+        <v>2.375</v>
+      </c>
+      <c r="P97">
+        <v>2.9</v>
+      </c>
+      <c r="Q97">
+        <v>2.875</v>
+      </c>
+      <c r="R97">
+        <v>-0.25</v>
+      </c>
+      <c r="S97">
+        <v>2.075</v>
+      </c>
+      <c r="T97">
+        <v>1.725</v>
+      </c>
+      <c r="U97">
+        <v>2.25</v>
+      </c>
+      <c r="V97">
+        <v>2</v>
+      </c>
+      <c r="W97">
         <v>1.8</v>
       </c>
-      <c r="M97">
-        <v>3.5</v>
-      </c>
-      <c r="N97">
-        <v>3.6</v>
-      </c>
-      <c r="O97">
-        <v>1.8</v>
-      </c>
-      <c r="P97">
-        <v>3.5</v>
-      </c>
-      <c r="Q97">
-        <v>3.6</v>
-      </c>
-      <c r="R97">
-        <v>-0.5</v>
-      </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
-      <c r="T97">
-        <v>1.95</v>
-      </c>
-      <c r="U97">
-        <v>2.5</v>
-      </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
-      <c r="W97">
-        <v>1.85</v>
-      </c>
       <c r="X97">
-        <v>0.8</v>
+        <v>1.375</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9581,13 +9581,13 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD97">
         <v>-1</v>
@@ -9598,7 +9598,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7304511</v>
+        <v>7304510</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9607,52 +9607,52 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F98" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L98">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="M98">
+        <v>3.5</v>
+      </c>
+      <c r="N98">
         <v>3.6</v>
       </c>
-      <c r="N98">
-        <v>5</v>
-      </c>
       <c r="O98">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q98">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="R98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U98">
         <v>2.5</v>
@@ -9664,25 +9664,25 @@
         <v>1.85</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9690,7 +9690,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7305039</v>
+        <v>7304511</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9699,82 +9699,82 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L99">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="M99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99">
+        <v>1.444</v>
+      </c>
+      <c r="P99">
         <v>4</v>
       </c>
-      <c r="O99">
-        <v>1.95</v>
-      </c>
-      <c r="P99">
-        <v>3.5</v>
-      </c>
       <c r="Q99">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="R99">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S99">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U99">
         <v>2.5</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC99">
         <v>-1</v>
       </c>
       <c r="AD99">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9782,7 +9782,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7304518</v>
+        <v>7305039</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9791,19 +9791,19 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -9812,40 +9812,40 @@
         <v>94</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="M100">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O100">
         <v>1.95</v>
       </c>
       <c r="P100">
+        <v>3.5</v>
+      </c>
+      <c r="Q100">
         <v>3.2</v>
       </c>
-      <c r="Q100">
-        <v>3.5</v>
-      </c>
       <c r="R100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U100">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X100">
         <v>0.95</v>
@@ -9857,7 +9857,7 @@
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB100">
         <v>-1</v>
@@ -9866,7 +9866,7 @@
         <v>-1</v>
       </c>
       <c r="AD100">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9874,7 +9874,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7304517</v>
+        <v>7304518</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9883,82 +9883,82 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E101" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L101">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N101">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O101">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="P101">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q101">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T101">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U101">
         <v>2.25</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W101">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y101">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD101">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9966,7 +9966,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7304515</v>
+        <v>7304517</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9975,82 +9975,82 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="s">
         <v>96</v>
       </c>
       <c r="L102">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="M102">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O102">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="P102">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q102">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="R102">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S102">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U102">
         <v>2.25</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD102">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10058,7 +10058,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7304512</v>
+        <v>7304515</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -10067,82 +10067,82 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E103" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L103">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N103">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P103">
         <v>3.2</v>
       </c>
       <c r="Q103">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="R103">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z103">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10150,7 +10150,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7304508</v>
+        <v>7304512</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10159,52 +10159,52 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E104" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F104" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
         <v>95</v>
       </c>
       <c r="L104">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="M104">
+        <v>3.1</v>
+      </c>
+      <c r="N104">
+        <v>3.2</v>
+      </c>
+      <c r="O104">
+        <v>2</v>
+      </c>
+      <c r="P104">
+        <v>3.2</v>
+      </c>
+      <c r="Q104">
         <v>3.3</v>
       </c>
-      <c r="N104">
-        <v>2.2</v>
-      </c>
-      <c r="O104">
-        <v>4.2</v>
-      </c>
-      <c r="P104">
-        <v>3.75</v>
-      </c>
-      <c r="Q104">
-        <v>1.7</v>
-      </c>
       <c r="R104">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U104">
         <v>2.5</v>
@@ -10222,19 +10222,19 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10251,7 +10251,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F105" t="s">
         <v>59</v>
@@ -10527,7 +10527,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F108" t="s">
         <v>69</v>
@@ -10803,7 +10803,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
         <v>56</v>
@@ -10990,7 +10990,7 @@
         <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -11542,7 +11542,7 @@
         <v>54</v>
       </c>
       <c r="F119" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -11634,7 +11634,7 @@
         <v>74</v>
       </c>
       <c r="F120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -11723,10 +11723,10 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -12094,7 +12094,7 @@
         <v>59</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -12278,7 +12278,7 @@
         <v>64</v>
       </c>
       <c r="F127" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -12646,7 +12646,7 @@
         <v>69</v>
       </c>
       <c r="F131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -13379,7 +13379,7 @@
         <v>45240.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F139" t="s">
         <v>54</v>
@@ -13554,7 +13554,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7458117</v>
+        <v>7457944</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13563,10 +13563,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -13584,61 +13584,61 @@
         <v>96</v>
       </c>
       <c r="L141">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N141">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="O141">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q141">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="R141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U141">
+        <v>2.5</v>
+      </c>
+      <c r="V141">
+        <v>1.95</v>
+      </c>
+      <c r="W141">
+        <v>1.75</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
         <v>2.25</v>
       </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
-      <c r="W141">
-        <v>1.9</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>2.1</v>
-      </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
       </c>
       <c r="AD141">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13738,7 +13738,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7458009</v>
+        <v>7458010</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13747,16 +13747,16 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F143" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -13765,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L143">
         <v>2.25</v>
@@ -13795,34 +13795,34 @@
         <v>1.775</v>
       </c>
       <c r="U143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="X143">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD143">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13830,7 +13830,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7458010</v>
+        <v>7458116</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13839,79 +13839,79 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F144" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L144">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="O144">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q144">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="R144">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S144">
+        <v>1.775</v>
+      </c>
+      <c r="T144">
         <v>2.025</v>
       </c>
-      <c r="T144">
-        <v>1.775</v>
-      </c>
       <c r="U144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD144">
         <v>-1</v>
@@ -13922,7 +13922,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7458116</v>
+        <v>7458007</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13931,82 +13931,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L145">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M145">
         <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="O145">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q145">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S145">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T145">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U145">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X145">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14014,7 +14014,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7458007</v>
+        <v>7458117</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -14023,82 +14023,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" t="s">
         <v>96</v>
       </c>
       <c r="L146">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="M146">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N146">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O146">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="P146">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q146">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="R146">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T146">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U146">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
       <c r="AC146">
         <v>-1</v>
       </c>
       <c r="AD146">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14115,7 +14115,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
         <v>69</v>
@@ -14198,7 +14198,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7457944</v>
+        <v>7458009</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14207,52 +14207,52 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L148">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="M148">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N148">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="O148">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="P148">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q148">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="R148">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U148">
         <v>2.5</v>
@@ -14264,19 +14264,19 @@
         <v>1.75</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y148">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -14290,7 +14290,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7458191</v>
+        <v>7457945</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14299,82 +14299,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F149" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L149">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M149">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N149">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O149">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P149">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q149">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="R149">
         <v>-0.25</v>
       </c>
       <c r="S149">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U149">
         <v>2.25</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W149">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y149">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB149">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD149">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14382,7 +14382,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7457945</v>
+        <v>7458191</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14391,82 +14391,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E150" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L150">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M150">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N150">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O150">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P150">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q150">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="R150">
         <v>-0.25</v>
       </c>
       <c r="S150">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T150">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U150">
         <v>2.25</v>
       </c>
       <c r="V150">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD150">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14483,7 +14483,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F151" t="s">
         <v>49</v>
@@ -14578,7 +14578,7 @@
         <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -15403,7 +15403,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F161" t="s">
         <v>56</v>
@@ -15498,7 +15498,7 @@
         <v>49</v>
       </c>
       <c r="F162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G162">
         <v>4</v>
@@ -15590,7 +15590,7 @@
         <v>53</v>
       </c>
       <c r="F163" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -15955,7 +15955,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F167" t="s">
         <v>50</v>
@@ -16050,7 +16050,7 @@
         <v>73</v>
       </c>
       <c r="F168" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -16231,7 +16231,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
         <v>49</v>
@@ -16694,7 +16694,7 @@
         <v>50</v>
       </c>
       <c r="F175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -17142,7 +17142,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7594506</v>
+        <v>7594553</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -17151,13 +17151,13 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E180" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F180" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -17166,67 +17166,67 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L180">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M180">
         <v>3.1</v>
       </c>
       <c r="N180">
+        <v>3.2</v>
+      </c>
+      <c r="O180">
+        <v>2.1</v>
+      </c>
+      <c r="P180">
         <v>3.1</v>
       </c>
-      <c r="O180">
+      <c r="Q180">
+        <v>3.2</v>
+      </c>
+      <c r="R180">
+        <v>-0.25</v>
+      </c>
+      <c r="S180">
         <v>1.85</v>
       </c>
-      <c r="P180">
-        <v>3.2</v>
-      </c>
-      <c r="Q180">
-        <v>4</v>
-      </c>
-      <c r="R180">
-        <v>-0.5</v>
-      </c>
-      <c r="S180">
+      <c r="T180">
         <v>1.95</v>
-      </c>
-      <c r="T180">
-        <v>1.85</v>
       </c>
       <c r="U180">
         <v>2.25</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z180">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD180">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17234,7 +17234,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7594505</v>
+        <v>7594506</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17243,16 +17243,16 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -17261,64 +17261,64 @@
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L181">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="M181">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
+        <v>3.1</v>
+      </c>
+      <c r="O181">
+        <v>1.85</v>
+      </c>
+      <c r="P181">
+        <v>3.2</v>
+      </c>
+      <c r="Q181">
+        <v>4</v>
+      </c>
+      <c r="R181">
+        <v>-0.5</v>
+      </c>
+      <c r="S181">
+        <v>1.95</v>
+      </c>
+      <c r="T181">
+        <v>1.85</v>
+      </c>
+      <c r="U181">
+        <v>2.25</v>
+      </c>
+      <c r="V181">
+        <v>2</v>
+      </c>
+      <c r="W181">
+        <v>1.8</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
         <v>3</v>
       </c>
-      <c r="O181">
-        <v>2.375</v>
-      </c>
-      <c r="P181">
-        <v>2.8</v>
-      </c>
-      <c r="Q181">
-        <v>3</v>
-      </c>
-      <c r="R181">
-        <v>-0.25</v>
-      </c>
-      <c r="S181">
-        <v>2</v>
-      </c>
-      <c r="T181">
-        <v>1.7</v>
-      </c>
-      <c r="U181">
-        <v>2</v>
-      </c>
-      <c r="V181">
-        <v>1.875</v>
-      </c>
-      <c r="W181">
-        <v>1.925</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>1.8</v>
-      </c>
-      <c r="Z181">
-        <v>-1</v>
-      </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC181">
         <v>-1</v>
       </c>
       <c r="AD181">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17326,7 +17326,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7594553</v>
+        <v>7594505</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17335,67 +17335,67 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" t="s">
         <v>96</v>
       </c>
       <c r="L182">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="M182">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N182">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O182">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P182">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q182">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R182">
         <v>-0.25</v>
       </c>
       <c r="S182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T182">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="U182">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z182">
         <v>-1</v>
@@ -17404,13 +17404,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB182">
-        <v>0.475</v>
+        <v>0.35</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD182">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -17703,7 +17703,7 @@
         <v>45297.5</v>
       </c>
       <c r="E186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F186" t="s">
         <v>76</v>
@@ -17795,7 +17795,7 @@
         <v>45303.625</v>
       </c>
       <c r="E187" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F187" t="s">
         <v>84</v>
@@ -18071,7 +18071,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
         <v>50</v>
@@ -18154,7 +18154,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7690615</v>
+        <v>7690594</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18163,10 +18163,10 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F191" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -18184,19 +18184,19 @@
         <v>96</v>
       </c>
       <c r="L191">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M191">
+        <v>3.4</v>
+      </c>
+      <c r="N191">
         <v>3.1</v>
       </c>
-      <c r="N191">
-        <v>3</v>
-      </c>
       <c r="O191">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P191">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -18205,25 +18205,25 @@
         <v>-0.25</v>
       </c>
       <c r="S191">
+        <v>1.8</v>
+      </c>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>2.5</v>
+      </c>
+      <c r="V191">
+        <v>1.95</v>
+      </c>
+      <c r="W191">
         <v>1.85</v>
       </c>
-      <c r="T191">
-        <v>1.95</v>
-      </c>
-      <c r="U191">
-        <v>2.25</v>
-      </c>
-      <c r="V191">
-        <v>1.925</v>
-      </c>
-      <c r="W191">
-        <v>1.875</v>
-      </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Z191">
         <v>-1</v>
@@ -18232,13 +18232,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="AC191">
         <v>-1</v>
       </c>
       <c r="AD191">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18246,7 +18246,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7690591</v>
+        <v>7690615</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18255,19 +18255,19 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E192" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -18276,61 +18276,61 @@
         <v>96</v>
       </c>
       <c r="L192">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="M192">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="P192">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q192">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="R192">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S192">
+        <v>1.85</v>
+      </c>
+      <c r="T192">
         <v>1.95</v>
       </c>
-      <c r="T192">
-        <v>1.85</v>
-      </c>
       <c r="U192">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W192">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD192">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18338,7 +18338,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7690467</v>
+        <v>7690590</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18347,13 +18347,13 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E193" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F193" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -18362,37 +18362,37 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L193">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="M193">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O193">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="P193">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q193">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="R193">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T193">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U193">
         <v>2.25</v>
@@ -18407,22 +18407,22 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD193">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18430,7 +18430,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7690468</v>
+        <v>7690467</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18439,82 +18439,82 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E194" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F194" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G194">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L194">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M194">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N194">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O194">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="P194">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="R194">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S194">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U194">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z194">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD194">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18522,7 +18522,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7690466</v>
+        <v>7690468</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18531,82 +18531,82 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F195" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L195">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="M195">
+        <v>3.1</v>
+      </c>
+      <c r="N195">
         <v>3</v>
       </c>
-      <c r="N195">
-        <v>2.5</v>
-      </c>
       <c r="O195">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P195">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q195">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R195">
         <v>0</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T195">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U195">
         <v>2.5</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X195">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18614,7 +18614,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7690590</v>
+        <v>7690466</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18623,82 +18623,82 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L196">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="M196">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N196">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O196">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="P196">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q196">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="R196">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S196">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U196">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
         <v>-1</v>
       </c>
       <c r="AD196">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18706,7 +18706,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7690594</v>
+        <v>7690591</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18715,19 +18715,19 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -18736,34 +18736,34 @@
         <v>96</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="M197">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N197">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O197">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="R197">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U197">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V197">
         <v>1.95</v>
@@ -18775,22 +18775,22 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB197">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -18807,7 +18807,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F198" t="s">
         <v>45</v>
@@ -19086,7 +19086,7 @@
         <v>33</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -19178,7 +19178,7 @@
         <v>44</v>
       </c>
       <c r="F202" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -19258,7 +19258,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7718669</v>
+        <v>7718580</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -19267,19 +19267,19 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F203" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203">
         <v>2</v>
@@ -19288,40 +19288,40 @@
         <v>95</v>
       </c>
       <c r="L203">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="M203">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N203">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O203">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="P203">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q203">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R203">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T203">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U203">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W203">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -19330,19 +19330,19 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC203">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -19350,7 +19350,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7718580</v>
+        <v>7718669</v>
       </c>
       <c r="C204" t="s">
         <v>29</v>
@@ -19359,19 +19359,19 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204">
         <v>2</v>
@@ -19380,40 +19380,40 @@
         <v>95</v>
       </c>
       <c r="L204">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="M204">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N204">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O204">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="P204">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q204">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R204">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S204">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U204">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V204">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W204">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -19422,19 +19422,19 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC204">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AD204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -19718,7 +19718,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7748092</v>
+        <v>7748091</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19727,82 +19727,82 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E208" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208">
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L208">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="M208">
+        <v>3.5</v>
+      </c>
+      <c r="N208">
         <v>3.25</v>
       </c>
-      <c r="N208">
-        <v>2.15</v>
-      </c>
       <c r="O208">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="P208">
+        <v>3.6</v>
+      </c>
+      <c r="Q208">
         <v>3.3</v>
       </c>
-      <c r="Q208">
-        <v>2.1</v>
-      </c>
       <c r="R208">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U208">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y208">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD208">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -19810,7 +19810,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7748091</v>
+        <v>7748092</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19819,82 +19819,82 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F209" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L209">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="M209">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N209">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O209">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="P209">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="R209">
+        <v>0.25</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>1.9</v>
+      </c>
+      <c r="U209">
+        <v>2.5</v>
+      </c>
+      <c r="V209">
+        <v>1.875</v>
+      </c>
+      <c r="W209">
+        <v>1.925</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>2.3</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.45</v>
+      </c>
+      <c r="AB209">
         <v>-0.5</v>
       </c>
-      <c r="S209">
-        <v>1.95</v>
-      </c>
-      <c r="T209">
-        <v>1.85</v>
-      </c>
-      <c r="U209">
-        <v>2.25</v>
-      </c>
-      <c r="V209">
-        <v>1.825</v>
-      </c>
-      <c r="W209">
-        <v>1.975</v>
-      </c>
-      <c r="X209">
-        <v>0.909</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
-      <c r="Z209">
-        <v>-1</v>
-      </c>
-      <c r="AA209">
-        <v>0.95</v>
-      </c>
-      <c r="AB209">
-        <v>-1</v>
-      </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -20086,7 +20086,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7773905</v>
+        <v>7773904</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -20095,10 +20095,10 @@
         <v>45324.625</v>
       </c>
       <c r="E212" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F212" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -20107,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -20116,43 +20116,43 @@
         <v>94</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M212">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N212">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O212">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="P212">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q212">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="R212">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S212">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T212">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W212">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="X212">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -20161,16 +20161,16 @@
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD212">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20178,7 +20178,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7773904</v>
+        <v>7773905</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20187,10 +20187,10 @@
         <v>45324.625</v>
       </c>
       <c r="E213" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -20208,44 +20208,44 @@
         <v>94</v>
       </c>
       <c r="L213">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O213">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q213">
+        <v>1.833</v>
+      </c>
+      <c r="R213">
+        <v>0.5</v>
+      </c>
+      <c r="S213">
+        <v>1.95</v>
+      </c>
+      <c r="T213">
+        <v>1.85</v>
+      </c>
+      <c r="U213">
+        <v>2.25</v>
+      </c>
+      <c r="V213">
+        <v>1.925</v>
+      </c>
+      <c r="W213">
+        <v>1.875</v>
+      </c>
+      <c r="X213">
         <v>3</v>
       </c>
-      <c r="R213">
-        <v>-0.25</v>
-      </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>1.75</v>
-      </c>
-      <c r="U213">
-        <v>2</v>
-      </c>
-      <c r="V213">
-        <v>1.75</v>
-      </c>
-      <c r="W213">
-        <v>2.05</v>
-      </c>
-      <c r="X213">
-        <v>1.375</v>
-      </c>
       <c r="Y213">
         <v>-1</v>
       </c>
@@ -20253,16 +20253,16 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD213">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20555,7 +20555,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F217" t="s">
         <v>41</v>
@@ -20638,7 +20638,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7778135</v>
+        <v>7778133</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20647,82 +20647,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F218" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L218">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M218">
         <v>2.8</v>
       </c>
       <c r="N218">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O218">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="P218">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q218">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="R218">
         <v>-0.25</v>
       </c>
       <c r="S218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="U218">
         <v>2</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y218">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB218">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -20730,7 +20730,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7778133</v>
+        <v>7779590</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20739,79 +20739,79 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F219" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G219">
         <v>2</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I219">
         <v>1</v>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K219" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L219">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="M219">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N219">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O219">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="P219">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q219">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="R219">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T219">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W219">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X219">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="AA219">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC219">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD219">
         <v>-1</v>
@@ -20822,7 +20822,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7779590</v>
+        <v>7778135</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20831,82 +20831,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E220" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F220" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L220">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="M220">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N220">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="O220">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q220">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="R220">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T220">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="U220">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z220">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB220">
-        <v>0.7749999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="AC220">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20923,7 +20923,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F221" t="s">
         <v>44</v>
@@ -21015,7 +21015,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E222" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F222" t="s">
         <v>31</v>
@@ -21199,7 +21199,7 @@
         <v>45332.5</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F224" t="s">
         <v>31</v>
@@ -21558,7 +21558,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7842642</v>
+        <v>7842582</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21567,55 +21567,55 @@
         <v>45339.54166666666</v>
       </c>
       <c r="E228" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F228" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G228">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I228">
         <v>1</v>
       </c>
       <c r="J228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K228" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L228">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N228">
-        <v>6.5</v>
+        <v>2.35</v>
       </c>
       <c r="O228">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="P228">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q228">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="R228">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T228">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="U228">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V228">
         <v>1.95</v>
@@ -21627,22 +21627,22 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z228">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC228">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD228">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -21650,7 +21650,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7842582</v>
+        <v>7842642</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -21659,55 +21659,55 @@
         <v>45339.54166666666</v>
       </c>
       <c r="E229" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F229" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G229">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I229">
         <v>1</v>
       </c>
       <c r="J229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K229" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L229">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="M229">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>2.35</v>
+        <v>6.5</v>
       </c>
       <c r="O229">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="P229">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q229">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="R229">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S229">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T229">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V229">
         <v>1.95</v>
@@ -21719,22 +21719,22 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC229">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD229">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -21754,7 +21754,7 @@
         <v>42</v>
       </c>
       <c r="F230" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -21938,7 +21938,7 @@
         <v>72</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -22671,10 +22671,10 @@
         <v>45346.54166666666</v>
       </c>
       <c r="E240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F240" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -22754,7 +22754,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7873410</v>
+        <v>7878104</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22763,13 +22763,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F241" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -22778,67 +22778,67 @@
         <v>1</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L241">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N241">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O241">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="P241">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q241">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="R241">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T241">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U241">
         <v>2.25</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X241">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD241">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22846,7 +22846,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7878104</v>
+        <v>7873464</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22855,10 +22855,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E242" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F242" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -22876,61 +22876,61 @@
         <v>96</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M242">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N242">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O242">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P242">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q242">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="R242">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S242">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T242">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U242">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V242">
+        <v>1.825</v>
+      </c>
+      <c r="W242">
+        <v>1.975</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
         <v>1.9</v>
       </c>
-      <c r="W242">
-        <v>1.9</v>
-      </c>
-      <c r="X242">
-        <v>-1</v>
-      </c>
-      <c r="Y242">
-        <v>2.5</v>
-      </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC242">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD242">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22938,7 +22938,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7873464</v>
+        <v>7873430</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22947,82 +22947,82 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F243" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J243">
         <v>0</v>
       </c>
       <c r="K243" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L243">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M243">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N243">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="O243">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="P243">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q243">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="R243">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T243">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V243">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W243">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y243">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD243">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -23030,7 +23030,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7873430</v>
+        <v>7873413</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -23039,55 +23039,55 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F244" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244" t="s">
+        <v>96</v>
+      </c>
+      <c r="L244">
+        <v>2.2</v>
+      </c>
+      <c r="M244">
+        <v>3.1</v>
+      </c>
+      <c r="N244">
         <v>3</v>
       </c>
-      <c r="H244">
-        <v>1</v>
-      </c>
-      <c r="I244">
-        <v>3</v>
-      </c>
-      <c r="J244">
-        <v>0</v>
-      </c>
-      <c r="K244" t="s">
-        <v>94</v>
-      </c>
-      <c r="L244">
-        <v>1.8</v>
-      </c>
-      <c r="M244">
-        <v>3.4</v>
-      </c>
-      <c r="N244">
-        <v>3.8</v>
-      </c>
       <c r="O244">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="P244">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q244">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="R244">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S244">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T244">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U244">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V244">
         <v>1.925</v>
@@ -23096,25 +23096,25 @@
         <v>1.875</v>
       </c>
       <c r="X244">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD244">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23122,7 +23122,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7873413</v>
+        <v>7873410</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23131,13 +23131,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F245" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -23149,64 +23149,64 @@
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L245">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M245">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N245">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O245">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="P245">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q245">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="R245">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S245">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T245">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W245">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y245">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD245">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -23959,7 +23959,7 @@
         <v>45360.5</v>
       </c>
       <c r="E254" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F254" t="s">
         <v>59</v>
@@ -24051,7 +24051,7 @@
         <v>45360.5</v>
       </c>
       <c r="E255" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F255" t="s">
         <v>39</v>
@@ -24226,7 +24226,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7933068</v>
+        <v>7933140</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24235,79 +24235,79 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E257" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F257" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="G257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K257" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L257">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M257">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N257">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O257">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P257">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q257">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R257">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S257">
+        <v>2</v>
+      </c>
+      <c r="T257">
         <v>1.8</v>
       </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
       <c r="U257">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W257">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X257">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA257">
+        <v>-1</v>
+      </c>
+      <c r="AB257">
         <v>0.8</v>
       </c>
-      <c r="AB257">
-        <v>-1</v>
-      </c>
       <c r="AC257">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD257">
         <v>-1</v>
@@ -24318,7 +24318,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7933096</v>
+        <v>7933139</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24327,16 +24327,16 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E258" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F258" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -24348,25 +24348,25 @@
         <v>95</v>
       </c>
       <c r="L258">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="M258">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N258">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O258">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="P258">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q258">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="R258">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S258">
         <v>1.8</v>
@@ -24375,7 +24375,7 @@
         <v>2</v>
       </c>
       <c r="U258">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V258">
         <v>1.875</v>
@@ -24390,7 +24390,7 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>1.15</v>
+        <v>2.3</v>
       </c>
       <c r="AA258">
         <v>-1</v>
@@ -24399,10 +24399,10 @@
         <v>1</v>
       </c>
       <c r="AC258">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD258">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24410,7 +24410,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7933139</v>
+        <v>7933096</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24419,16 +24419,16 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -24440,25 +24440,25 @@
         <v>95</v>
       </c>
       <c r="L259">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="M259">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N259">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O259">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="P259">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q259">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="R259">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S259">
         <v>1.8</v>
@@ -24467,7 +24467,7 @@
         <v>2</v>
       </c>
       <c r="U259">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V259">
         <v>1.875</v>
@@ -24482,7 +24482,7 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
       <c r="AA259">
         <v>-1</v>
@@ -24491,10 +24491,10 @@
         <v>1</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD259">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24502,7 +24502,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7933140</v>
+        <v>7933095</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24511,46 +24511,46 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E260" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F260" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K260" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L260">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="M260">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N260">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O260">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="P260">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q260">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R260">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S260">
         <v>2</v>
@@ -24559,34 +24559,34 @@
         <v>1.8</v>
       </c>
       <c r="U260">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V260">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W260">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z260">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB260">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC260">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD260">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="261" spans="1:30">
@@ -24594,7 +24594,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7933095</v>
+        <v>7933068</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24603,13 +24603,13 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E261" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -24618,67 +24618,67 @@
         <v>1</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K261" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L261">
+        <v>4.5</v>
+      </c>
+      <c r="M261">
+        <v>3.2</v>
+      </c>
+      <c r="N261">
+        <v>1.727</v>
+      </c>
+      <c r="O261">
+        <v>3.8</v>
+      </c>
+      <c r="P261">
+        <v>3</v>
+      </c>
+      <c r="Q261">
+        <v>1.95</v>
+      </c>
+      <c r="R261">
+        <v>0.5</v>
+      </c>
+      <c r="S261">
         <v>1.8</v>
       </c>
-      <c r="M261">
-        <v>3.75</v>
-      </c>
-      <c r="N261">
-        <v>3.4</v>
-      </c>
-      <c r="O261">
-        <v>2.5</v>
-      </c>
-      <c r="P261">
-        <v>3.5</v>
-      </c>
-      <c r="Q261">
-        <v>2.3</v>
-      </c>
-      <c r="R261">
-        <v>0</v>
-      </c>
-      <c r="S261">
-        <v>2</v>
-      </c>
       <c r="T261">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U261">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V261">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W261">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y261">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD261">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -25431,7 +25431,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E270" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F270" t="s">
         <v>72</v>
@@ -25618,7 +25618,7 @@
         <v>69</v>
       </c>
       <c r="F272" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G272">
         <v>5</v>
@@ -25710,7 +25710,7 @@
         <v>51</v>
       </c>
       <c r="F273" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -25799,7 +25799,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F274" t="s">
         <v>41</v>
@@ -26167,10 +26167,10 @@
         <v>45374.5</v>
       </c>
       <c r="E278" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F278" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G278">
         <v>4</v>
@@ -26811,7 +26811,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E285" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F285" t="s">
         <v>54</v>
@@ -26903,7 +26903,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E286" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F286" t="s">
         <v>59</v>
@@ -27271,7 +27271,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F290" t="s">
         <v>69</v>
@@ -27918,7 +27918,7 @@
         <v>54</v>
       </c>
       <c r="F297" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -28099,7 +28099,7 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E299" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F299" t="s">
         <v>39</v>
@@ -28286,7 +28286,7 @@
         <v>69</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -28366,7 +28366,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>8055019</v>
+        <v>8055094</v>
       </c>
       <c r="C302" t="s">
         <v>29</v>
@@ -28375,82 +28375,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E302" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F302" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="G302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K302" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L302">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="M302">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N302">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O302">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="P302">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q302">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="R302">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S302">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T302">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U302">
         <v>2.25</v>
       </c>
       <c r="V302">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W302">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y302">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
         <v>-1</v>
       </c>
       <c r="AA302">
-        <v>0.45</v>
+        <v>0.4375</v>
       </c>
       <c r="AB302">
         <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD302">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="303" spans="1:30">
@@ -28550,7 +28550,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8055000</v>
+        <v>8055019</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28559,55 +28559,55 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F304" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H304">
         <v>2</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L304">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="M304">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N304">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="O304">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="P304">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q304">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="R304">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S304">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T304">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U304">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V304">
         <v>1.8</v>
@@ -28619,22 +28619,22 @@
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z304">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC304">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD304">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28642,7 +28642,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8056008</v>
+        <v>8055000</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28651,13 +28651,13 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E305" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F305" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H305">
         <v>2</v>
@@ -28666,46 +28666,46 @@
         <v>0</v>
       </c>
       <c r="J305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K305" t="s">
         <v>95</v>
       </c>
       <c r="L305">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="M305">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N305">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="O305">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="P305">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q305">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="R305">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T305">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U305">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="V305">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W305">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -28714,19 +28714,19 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.615</v>
+        <v>2.75</v>
       </c>
       <c r="AA305">
+        <v>-1</v>
+      </c>
+      <c r="AB305">
+        <v>1.025</v>
+      </c>
+      <c r="AC305">
+        <v>0.4</v>
+      </c>
+      <c r="AD305">
         <v>-0.5</v>
-      </c>
-      <c r="AB305">
-        <v>0.4125</v>
-      </c>
-      <c r="AC305">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD305">
-        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28734,7 +28734,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8055094</v>
+        <v>8056008</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28743,82 +28743,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E306" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F306" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="G306">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306">
         <v>0</v>
       </c>
       <c r="J306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L306">
-        <v>2.35</v>
+        <v>4.75</v>
       </c>
       <c r="M306">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N306">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="O306">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="P306">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q306">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="R306">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S306">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U306">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V306">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W306">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X306">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA306">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD306">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -29114,7 +29114,7 @@
         <v>53</v>
       </c>
       <c r="F310" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -29479,7 +29479,7 @@
         <v>45395.41666666666</v>
       </c>
       <c r="E314" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F314" t="s">
         <v>76</v>
@@ -29755,7 +29755,7 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E317" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F317" t="s">
         <v>54</v>
@@ -30031,7 +30031,7 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E320" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F320" t="s">
         <v>49</v>
@@ -30862,7 +30862,7 @@
         <v>76</v>
       </c>
       <c r="F329" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G329">
         <v>4</v>
@@ -30954,7 +30954,7 @@
         <v>50</v>
       </c>
       <c r="F330" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G330">
         <v>0</v>
@@ -31230,7 +31230,7 @@
         <v>46</v>
       </c>
       <c r="F333" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G333">
         <v>3</v>
@@ -31322,7 +31322,7 @@
         <v>49</v>
       </c>
       <c r="F334" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G334">
         <v>2</v>
@@ -31503,7 +31503,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E336" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F336" t="s">
         <v>73</v>
@@ -32242,7 +32242,7 @@
         <v>65</v>
       </c>
       <c r="F344" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G344">
         <v>2</v>
@@ -32331,7 +32331,7 @@
         <v>45408.625</v>
       </c>
       <c r="E345" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F345" t="s">
         <v>50</v>
@@ -32423,7 +32423,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E346" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F346" t="s">
         <v>63</v>
@@ -32791,7 +32791,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E350" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F350" t="s">
         <v>76</v>
@@ -32978,7 +32978,7 @@
         <v>71</v>
       </c>
       <c r="F352" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G352">
         <v>0</v>
@@ -33159,7 +33159,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E354" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F354" t="s">
         <v>87</v>
@@ -33518,7 +33518,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>8206147</v>
+        <v>8206116</v>
       </c>
       <c r="C358" t="s">
         <v>29</v>
@@ -33527,13 +33527,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E358" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F358" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G358">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H358">
         <v>0</v>
@@ -33548,25 +33548,25 @@
         <v>94</v>
       </c>
       <c r="L358">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M358">
+        <v>3.3</v>
+      </c>
+      <c r="N358">
+        <v>2.2</v>
+      </c>
+      <c r="O358">
         <v>3.2</v>
       </c>
-      <c r="N358">
-        <v>4.5</v>
-      </c>
-      <c r="O358">
-        <v>1.8</v>
-      </c>
       <c r="P358">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q358">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="R358">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S358">
         <v>1.825</v>
@@ -33575,16 +33575,16 @@
         <v>1.975</v>
       </c>
       <c r="U358">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V358">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W358">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X358">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y358">
         <v>-1</v>
@@ -33599,10 +33599,10 @@
         <v>-1</v>
       </c>
       <c r="AC358">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD358">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="359" spans="1:30">
@@ -33610,7 +33610,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>8206116</v>
+        <v>8206147</v>
       </c>
       <c r="C359" t="s">
         <v>29</v>
@@ -33619,13 +33619,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E359" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F359" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -33640,25 +33640,25 @@
         <v>94</v>
       </c>
       <c r="L359">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="M359">
+        <v>3.2</v>
+      </c>
+      <c r="N359">
+        <v>4.5</v>
+      </c>
+      <c r="O359">
+        <v>1.8</v>
+      </c>
+      <c r="P359">
         <v>3.3</v>
       </c>
-      <c r="N359">
-        <v>2.2</v>
-      </c>
-      <c r="O359">
-        <v>3.2</v>
-      </c>
-      <c r="P359">
-        <v>3.6</v>
-      </c>
       <c r="Q359">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="R359">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S359">
         <v>1.825</v>
@@ -33667,16 +33667,16 @@
         <v>1.975</v>
       </c>
       <c r="U359">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V359">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W359">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X359">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y359">
         <v>-1</v>
@@ -33691,10 +33691,10 @@
         <v>-1</v>
       </c>
       <c r="AC359">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD359">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:30">
@@ -33898,7 +33898,7 @@
         <v>31</v>
       </c>
       <c r="F362" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G362">
         <v>2</v>
@@ -34082,7 +34082,7 @@
         <v>45</v>
       </c>
       <c r="F364" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G364">
         <v>2</v>
@@ -34530,7 +34530,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>8204820</v>
+        <v>8206117</v>
       </c>
       <c r="C369" t="s">
         <v>29</v>
@@ -34539,55 +34539,55 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E369" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F369" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G369">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H369">
         <v>1</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K369" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L369">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="M369">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N369">
         <v>4</v>
       </c>
       <c r="O369">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P369">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q369">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="R369">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S369">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T369">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U369">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V369">
         <v>1.8</v>
@@ -34596,25 +34596,25 @@
         <v>2</v>
       </c>
       <c r="X369">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y369">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z369">
         <v>-1</v>
       </c>
       <c r="AA369">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB369">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC369">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD369">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="370" spans="1:30">
@@ -34622,7 +34622,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>8206117</v>
+        <v>8204820</v>
       </c>
       <c r="C370" t="s">
         <v>29</v>
@@ -34631,55 +34631,55 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E370" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F370" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G370">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H370">
         <v>1</v>
       </c>
       <c r="I370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K370" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L370">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="M370">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N370">
         <v>4</v>
       </c>
       <c r="O370">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P370">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q370">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="R370">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S370">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T370">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U370">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V370">
         <v>1.8</v>
@@ -34688,25 +34688,25 @@
         <v>2</v>
       </c>
       <c r="X370">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y370">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
         <v>-1</v>
       </c>
       <c r="AA370">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB370">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC370">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD370">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:30">
@@ -34907,7 +34907,7 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E373" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F373" t="s">
         <v>46</v>
@@ -35275,7 +35275,7 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E377" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F377" t="s">
         <v>84</v>
@@ -35450,7 +35450,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>8225290</v>
+        <v>8225426</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -35459,16 +35459,16 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F379" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379">
         <v>1</v>
@@ -35477,61 +35477,61 @@
         <v>1</v>
       </c>
       <c r="K379" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L379">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="M379">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N379">
-        <v>4.4</v>
+        <v>1.533</v>
       </c>
       <c r="O379">
-        <v>1.615</v>
+        <v>4.75</v>
       </c>
       <c r="P379">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q379">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="R379">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="S379">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T379">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U379">
         <v>2.75</v>
       </c>
       <c r="V379">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W379">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X379">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA379">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AB379">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC379">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
       <c r="AD379">
         <v>-0.5</v>
@@ -35542,7 +35542,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>8225426</v>
+        <v>8225428</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -35551,46 +35551,46 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F380" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G380">
         <v>1</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K380" t="s">
         <v>95</v>
       </c>
       <c r="L380">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M380">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N380">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O380">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P380">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q380">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="R380">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S380">
         <v>1.925</v>
@@ -35599,13 +35599,13 @@
         <v>1.875</v>
       </c>
       <c r="U380">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V380">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W380">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -35614,19 +35614,19 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.5329999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC380">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AD380">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:30">
@@ -35634,7 +35634,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>8225428</v>
+        <v>8225494</v>
       </c>
       <c r="C381" t="s">
         <v>29</v>
@@ -35643,62 +35643,62 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E381" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F381" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H381">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K381" t="s">
         <v>95</v>
       </c>
       <c r="L381">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M381">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="N381">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O381">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="P381">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q381">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="R381">
         <v>0.75</v>
       </c>
       <c r="S381">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U381">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V381">
+        <v>1.85</v>
+      </c>
+      <c r="W381">
         <v>1.95</v>
       </c>
-      <c r="W381">
-        <v>1.85</v>
-      </c>
       <c r="X381">
         <v>-1</v>
       </c>
@@ -35706,16 +35706,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.6499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="AA381">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB381">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC381">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD381">
         <v>-1</v>
@@ -35726,7 +35726,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>8225494</v>
+        <v>8225290</v>
       </c>
       <c r="C382" t="s">
         <v>29</v>
@@ -35735,16 +35735,16 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E382" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F382" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G382">
         <v>2</v>
       </c>
       <c r="H382">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I382">
         <v>1</v>
@@ -35753,64 +35753,64 @@
         <v>1</v>
       </c>
       <c r="K382" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L382">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="M382">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="N382">
+        <v>4.4</v>
+      </c>
+      <c r="O382">
         <v>1.615</v>
       </c>
-      <c r="O382">
-        <v>3.9</v>
-      </c>
       <c r="P382">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q382">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="R382">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S382">
+        <v>1.825</v>
+      </c>
+      <c r="T382">
         <v>1.975</v>
-      </c>
-      <c r="T382">
-        <v>1.825</v>
       </c>
       <c r="U382">
         <v>2.75</v>
       </c>
       <c r="V382">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W382">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X382">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y382">
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA382">
+        <v>0.4125</v>
+      </c>
+      <c r="AB382">
         <v>-0.5</v>
       </c>
-      <c r="AB382">
+      <c r="AC382">
         <v>0.4125</v>
       </c>
-      <c r="AC382">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AD382">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="383" spans="1:30">

--- a/France National 2/France National 2.xlsx
+++ b/France National 2/France National 2.xlsx
@@ -106,9 +106,6 @@
     <t>France National 2</t>
   </si>
   <si>
-    <t>Furiani Agliani</t>
-  </si>
-  <si>
     <t>Wasquehal</t>
   </si>
   <si>
@@ -127,16 +124,19 @@
     <t>Colmar</t>
   </si>
   <si>
-    <t>Beauvais</t>
+    <t>Furiani Agliani</t>
+  </si>
+  <si>
+    <t>Creteil</t>
   </si>
   <si>
     <t>FC Chartres</t>
   </si>
   <si>
-    <t>Creteil</t>
+    <t>Racing Paris</t>
   </si>
   <si>
-    <t>Racing Paris</t>
+    <t>Beauvais</t>
   </si>
   <si>
     <t>Sporting Club Toulon</t>
@@ -259,9 +259,6 @@
     <t>Voltigeurs de Chateaubriant</t>
   </si>
   <si>
-    <t>Sainte Genevieve Sports</t>
-  </si>
-  <si>
     <t>ASM Belfort</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
   </si>
   <si>
     <t>Jura Sud Foot</t>
+  </si>
+  <si>
+    <t>Sainte Genevieve Sports</t>
   </si>
   <si>
     <t>Rouen</t>
@@ -298,10 +298,10 @@
     <t>Bourges Foot 18</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6730004</v>
+        <v>6730005</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -781,76 +781,76 @@
         <v>81</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
         <v>94</v>
       </c>
       <c r="L2">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M2">
         <v>3.2</v>
       </c>
       <c r="N2">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O2">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="P2">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q2">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R2">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U2">
         <v>2.5</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X2">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6730005</v>
+        <v>6730006</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -870,76 +870,76 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>95</v>
       </c>
       <c r="L3">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N3">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="O3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P3">
+        <v>3.3</v>
+      </c>
+      <c r="Q3">
         <v>3.25</v>
-      </c>
-      <c r="Q3">
-        <v>3.1</v>
       </c>
       <c r="R3">
         <v>-0.25</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U3">
         <v>2.5</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W3">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AD3">
         <v>-1</v>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6730006</v>
+        <v>6730007</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -962,61 +962,61 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M4">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N4">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q4">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V4">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y4">
         <v>-1</v>
@@ -1025,13 +1025,13 @@
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AD4">
         <v>-1</v>
@@ -1042,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6730007</v>
+        <v>6730008</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1054,76 +1054,76 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>94</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="R5">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X5">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>-1</v>
@@ -1134,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6730008</v>
+        <v>6730010</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1146,58 +1146,58 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6">
+        <v>2.2</v>
+      </c>
+      <c r="M6">
+        <v>3.3</v>
+      </c>
+      <c r="N6">
+        <v>2.8</v>
+      </c>
+      <c r="O6">
+        <v>2.05</v>
+      </c>
+      <c r="P6">
+        <v>3.3</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6">
-        <v>2.5</v>
-      </c>
-      <c r="M6">
-        <v>3.1</v>
-      </c>
-      <c r="N6">
-        <v>2.55</v>
-      </c>
-      <c r="O6">
-        <v>2.9</v>
-      </c>
-      <c r="P6">
-        <v>3.2</v>
-      </c>
-      <c r="Q6">
-        <v>2.2</v>
-      </c>
       <c r="R6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U6">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1206,19 +1206,19 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AD6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1226,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6730010</v>
+        <v>6730011</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1238,16 +1238,16 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1256,61 +1256,61 @@
         <v>95</v>
       </c>
       <c r="L7">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N7">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O7">
+        <v>2.7</v>
+      </c>
+      <c r="P7">
+        <v>3.4</v>
+      </c>
+      <c r="Q7">
+        <v>2.3</v>
+      </c>
+      <c r="R7">
+        <v>0.25</v>
+      </c>
+      <c r="S7">
+        <v>1.75</v>
+      </c>
+      <c r="T7">
         <v>2.05</v>
-      </c>
-      <c r="P7">
-        <v>3.3</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>-0.25</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>1.95</v>
       </c>
       <c r="U7">
         <v>2.75</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1318,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6730011</v>
+        <v>6730004</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1330,61 +1330,61 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O8">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q8">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R8">
         <v>0.25</v>
       </c>
       <c r="S8">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y8">
         <v>-1</v>
@@ -1393,16 +1393,16 @@
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1410,7 +1410,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6730003</v>
+        <v>6730002</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1422,13 +1422,13 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1437,43 +1437,43 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="M9">
         <v>3.6</v>
       </c>
       <c r="N9">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="R9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1482,19 +1482,19 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>1.25</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10">
         <v>3.5</v>
@@ -1594,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6730002</v>
+        <v>6730013</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1606,79 +1606,79 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>95</v>
       </c>
       <c r="L11">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M11">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O11">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="P11">
         <v>3.8</v>
       </c>
       <c r="Q11">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S11">
+        <v>1.825</v>
+      </c>
+      <c r="T11">
         <v>1.975</v>
       </c>
-      <c r="T11">
-        <v>1.825</v>
-      </c>
       <c r="U11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
         <v>-1</v>
       </c>
       <c r="AD11">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1686,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6730013</v>
+        <v>6730003</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1698,79 +1698,79 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>94</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="M12">
+        <v>3.6</v>
+      </c>
+      <c r="N12">
+        <v>1.95</v>
+      </c>
+      <c r="O12">
+        <v>3.1</v>
+      </c>
+      <c r="P12">
         <v>3.75</v>
       </c>
-      <c r="N12">
-        <v>5.5</v>
-      </c>
-      <c r="O12">
-        <v>1.5</v>
-      </c>
-      <c r="P12">
-        <v>3.8</v>
-      </c>
       <c r="Q12">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S12">
+        <v>1.8</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
         <v>1.825</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>1.975</v>
       </c>
-      <c r="U12">
-        <v>2.75</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>1.8</v>
-      </c>
       <c r="X12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
         <v>0.825</v>
       </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>-1</v>
-      </c>
       <c r="AD12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -1882,7 +1882,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14">
         <v>2.2</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15">
         <v>1.5</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16">
         <v>1.833</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L20">
         <v>2.5</v>
@@ -2523,7 +2523,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L22">
         <v>2.4</v>
@@ -2710,7 +2710,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L23">
         <v>2.5</v>
@@ -2799,10 +2799,10 @@
         <v>45164.54166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L25">
         <v>2.2</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L26">
         <v>2.25</v>
@@ -3093,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L28">
         <v>2.2</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L29">
         <v>1.909</v>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L32">
         <v>2.8</v>
@@ -3630,7 +3630,7 @@
         <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3722,7 +3722,7 @@
         <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3737,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L34">
         <v>2.45</v>
@@ -3906,7 +3906,7 @@
         <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L37">
         <v>1.5</v>
@@ -4087,10 +4087,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L38">
         <v>1.75</v>
@@ -4179,7 +4179,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L39">
         <v>2.2</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L40">
         <v>2.4</v>
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L41">
         <v>1.8</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L42">
         <v>3.6</v>
@@ -4565,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L43">
         <v>2.1</v>
@@ -4639,10 +4639,10 @@
         <v>45178.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L46">
         <v>2.9</v>
@@ -4915,7 +4915,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
         <v>60</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L47">
         <v>3.6</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L48">
         <v>2.2</v>
@@ -5194,7 +5194,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L52">
         <v>1.8</v>
@@ -5470,7 +5470,7 @@
         <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5577,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L54">
         <v>2.25</v>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L55">
         <v>1.909</v>
@@ -5743,7 +5743,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
         <v>75</v>
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L56">
         <v>1.727</v>
@@ -5835,7 +5835,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
         <v>59</v>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L57">
         <v>2.2</v>
@@ -5945,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L58">
         <v>3.2</v>
@@ -6037,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="K59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L59">
         <v>1.666</v>
@@ -6206,7 +6206,7 @@
         <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6405,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="K63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L63">
         <v>1.8</v>
@@ -6497,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="K64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L64">
         <v>2.1</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L66">
         <v>2.8</v>
@@ -6755,7 +6755,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
         <v>52</v>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L68">
         <v>1.8</v>
@@ -6939,7 +6939,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
         <v>43</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L70">
         <v>2.75</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L71">
         <v>1.75</v>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L72">
         <v>3.1</v>
@@ -7310,7 +7310,7 @@
         <v>69</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>8</v>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L73">
         <v>1.727</v>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L74">
         <v>1.833</v>
@@ -7491,10 +7491,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L75">
         <v>2.25</v>
@@ -7583,10 +7583,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L76">
         <v>1.909</v>
@@ -7678,7 +7678,7 @@
         <v>57</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -7770,7 +7770,7 @@
         <v>62</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L78">
         <v>2.15</v>
@@ -7969,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L80">
         <v>2.1</v>
@@ -8046,7 +8046,7 @@
         <v>72</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -8135,7 +8135,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
         <v>45</v>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L82">
         <v>2.25</v>
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L83">
         <v>3</v>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L85">
         <v>3.1</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L87">
         <v>1.833</v>
@@ -8687,7 +8687,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
         <v>56</v>
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L88">
         <v>2.1</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L89">
         <v>2.25</v>
@@ -8874,7 +8874,7 @@
         <v>73</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L90">
         <v>2</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L91">
         <v>1.909</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L92">
         <v>2.4</v>
@@ -9147,7 +9147,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
         <v>52</v>
@@ -9165,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L93">
         <v>1.75</v>
@@ -9257,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L94">
         <v>2.15</v>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L95">
         <v>2.3</v>
@@ -9441,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L96">
         <v>2.8</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L97">
         <v>2.375</v>
@@ -9610,7 +9610,7 @@
         <v>69</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L98">
         <v>1.8</v>
@@ -9699,7 +9699,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
         <v>58</v>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L100">
         <v>1.666</v>
@@ -9883,10 +9883,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L101">
         <v>2</v>
@@ -9978,7 +9978,7 @@
         <v>60</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -10162,7 +10162,7 @@
         <v>76</v>
       </c>
       <c r="F104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L104">
         <v>2.1</v>
@@ -10269,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L105">
         <v>3.1</v>
@@ -10343,7 +10343,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
         <v>87</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L106">
         <v>3.1</v>
@@ -10453,7 +10453,7 @@
         <v>2</v>
       </c>
       <c r="K107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L107">
         <v>2.25</v>
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L108">
         <v>4</v>
@@ -10619,7 +10619,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
         <v>63</v>
@@ -10803,7 +10803,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
         <v>56</v>
@@ -10821,7 +10821,7 @@
         <v>2</v>
       </c>
       <c r="K111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L111">
         <v>2.25</v>
@@ -10990,7 +10990,7 @@
         <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L114">
         <v>2.1</v>
@@ -11171,7 +11171,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
         <v>76</v>
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L115">
         <v>2.5</v>
@@ -11450,7 +11450,7 @@
         <v>62</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L119">
         <v>1.727</v>
@@ -11649,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L120">
         <v>2.15</v>
@@ -11726,7 +11726,7 @@
         <v>60</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L124">
         <v>3.75</v>
@@ -12094,7 +12094,7 @@
         <v>59</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L125">
         <v>2.4</v>
@@ -12186,7 +12186,7 @@
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L127">
         <v>1.909</v>
@@ -12370,7 +12370,7 @@
         <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L128">
         <v>5</v>
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L129">
         <v>1.55</v>
@@ -12551,7 +12551,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
         <v>80</v>
@@ -12661,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L131">
         <v>1.181</v>
@@ -12738,7 +12738,7 @@
         <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -12753,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L132">
         <v>2.5</v>
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L133">
         <v>2</v>
@@ -12937,7 +12937,7 @@
         <v>2</v>
       </c>
       <c r="K134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L134">
         <v>5.25</v>
@@ -13029,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L135">
         <v>2.1</v>
@@ -13103,7 +13103,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
         <v>48</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L136">
         <v>1.85</v>
@@ -13213,7 +13213,7 @@
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L137">
         <v>1.8</v>
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L138">
         <v>1.615</v>
@@ -13397,7 +13397,7 @@
         <v>2</v>
       </c>
       <c r="K139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L139">
         <v>3.1</v>
@@ -13471,10 +13471,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -13563,7 +13563,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
         <v>46</v>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L142">
         <v>1.615</v>
@@ -13765,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L143">
         <v>2.25</v>
@@ -13842,7 +13842,7 @@
         <v>67</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L144">
         <v>2.375</v>
@@ -14115,7 +14115,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
         <v>69</v>
@@ -14207,7 +14207,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
         <v>87</v>
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L148">
         <v>2.25</v>
@@ -14317,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L149">
         <v>2</v>
@@ -14575,7 +14575,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
         <v>60</v>
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L153">
         <v>2.7</v>
@@ -14777,7 +14777,7 @@
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L154">
         <v>2.4</v>
@@ -14851,7 +14851,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F155" t="s">
         <v>77</v>
@@ -14961,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L156">
         <v>3</v>
@@ -15127,7 +15127,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
         <v>41</v>
@@ -15145,7 +15145,7 @@
         <v>3</v>
       </c>
       <c r="K158" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L158">
         <v>3.1</v>
@@ -15237,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L159">
         <v>1.8</v>
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L160">
         <v>1.909</v>
@@ -15513,7 +15513,7 @@
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L162">
         <v>1.5</v>
@@ -15679,7 +15679,7 @@
         <v>45255.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F164" t="s">
         <v>80</v>
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L165">
         <v>1.615</v>
@@ -15973,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L167">
         <v>5.5</v>
@@ -16065,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L168">
         <v>1.833</v>
@@ -16139,7 +16139,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
         <v>45</v>
@@ -16157,7 +16157,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L169">
         <v>1.909</v>
@@ -16231,7 +16231,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
         <v>49</v>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L170">
         <v>3.4</v>
@@ -16341,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L171">
         <v>2</v>
@@ -16433,7 +16433,7 @@
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L172">
         <v>1.8</v>
@@ -16599,7 +16599,7 @@
         <v>45275.625</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F174" t="s">
         <v>72</v>
@@ -16709,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="K175" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L175">
         <v>1.909</v>
@@ -16801,7 +16801,7 @@
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L176">
         <v>2.7</v>
@@ -16875,7 +16875,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
         <v>55</v>
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L177">
         <v>3.5</v>
@@ -16985,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L178">
         <v>2.2</v>
@@ -17151,10 +17151,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -17261,7 +17261,7 @@
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L181">
         <v>2.15</v>
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L184">
         <v>2.1</v>
@@ -17614,7 +17614,7 @@
         <v>42</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -17721,7 +17721,7 @@
         <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L186">
         <v>3</v>
@@ -17798,7 +17798,7 @@
         <v>58</v>
       </c>
       <c r="F187" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -17813,7 +17813,7 @@
         <v>2</v>
       </c>
       <c r="K187" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L187">
         <v>3.2</v>
@@ -17887,7 +17887,7 @@
         <v>45303.66666666666</v>
       </c>
       <c r="E188" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
         <v>43</v>
@@ -17905,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L188">
         <v>2.75</v>
@@ -17982,7 +17982,7 @@
         <v>66</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -17997,7 +17997,7 @@
         <v>2</v>
       </c>
       <c r="K189" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L189">
         <v>3.1</v>
@@ -18071,7 +18071,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F190" t="s">
         <v>50</v>
@@ -18089,7 +18089,7 @@
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L190">
         <v>2.2</v>
@@ -18255,7 +18255,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E192" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F192" t="s">
         <v>63</v>
@@ -18365,7 +18365,7 @@
         <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L193">
         <v>1.727</v>
@@ -18549,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L195">
         <v>2.2</v>
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L196">
         <v>2.6</v>
@@ -18718,7 +18718,7 @@
         <v>57</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -18917,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="K199" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L199">
         <v>1.833</v>
@@ -19083,10 +19083,10 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -19285,7 +19285,7 @@
         <v>2</v>
       </c>
       <c r="K203" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L203">
         <v>2.3</v>
@@ -19377,7 +19377,7 @@
         <v>2</v>
       </c>
       <c r="K204" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L204">
         <v>1.533</v>
@@ -19469,7 +19469,7 @@
         <v>1</v>
       </c>
       <c r="K205" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L205">
         <v>3.6</v>
@@ -19653,7 +19653,7 @@
         <v>2</v>
       </c>
       <c r="K207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L207">
         <v>4</v>
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L208">
         <v>1.909</v>
@@ -19911,11 +19911,11 @@
         <v>45318.66666666666</v>
       </c>
       <c r="E210" t="s">
+        <v>39</v>
+      </c>
+      <c r="F210" t="s">
         <v>40</v>
       </c>
-      <c r="F210" t="s">
-        <v>37</v>
-      </c>
       <c r="G210">
         <v>0</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>2</v>
       </c>
       <c r="K210" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L210">
         <v>1.8</v>
@@ -20021,7 +20021,7 @@
         <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L211">
         <v>2.1</v>
@@ -20098,7 +20098,7 @@
         <v>58</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -20113,7 +20113,7 @@
         <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L212">
         <v>2.5</v>
@@ -20205,7 +20205,7 @@
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L213">
         <v>4</v>
@@ -20297,7 +20297,7 @@
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L214">
         <v>1.833</v>
@@ -20389,7 +20389,7 @@
         <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L215">
         <v>2.5</v>
@@ -20481,7 +20481,7 @@
         <v>0</v>
       </c>
       <c r="K216" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L216">
         <v>2.375</v>
@@ -20573,7 +20573,7 @@
         <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L217">
         <v>6</v>
@@ -20650,7 +20650,7 @@
         <v>69</v>
       </c>
       <c r="F218" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -20665,7 +20665,7 @@
         <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L218">
         <v>2.2</v>
@@ -20739,7 +20739,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
         <v>77</v>
@@ -20757,7 +20757,7 @@
         <v>2</v>
       </c>
       <c r="K219" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L219">
         <v>1.666</v>
@@ -20923,7 +20923,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F221" t="s">
         <v>44</v>
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L221">
         <v>1.75</v>
@@ -21018,7 +21018,7 @@
         <v>60</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="K222" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L222">
         <v>2.1</v>
@@ -21199,10 +21199,10 @@
         <v>45332.5</v>
       </c>
       <c r="E224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -21217,7 +21217,7 @@
         <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L224">
         <v>2.2</v>
@@ -21309,7 +21309,7 @@
         <v>1</v>
       </c>
       <c r="K225" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L225">
         <v>1.8</v>
@@ -21386,7 +21386,7 @@
         <v>43</v>
       </c>
       <c r="F226" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L226">
         <v>2.25</v>
@@ -21493,7 +21493,7 @@
         <v>2</v>
       </c>
       <c r="K227" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L227">
         <v>1.4</v>
@@ -21677,7 +21677,7 @@
         <v>2</v>
       </c>
       <c r="K229" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L229">
         <v>1.4</v>
@@ -21769,7 +21769,7 @@
         <v>1</v>
       </c>
       <c r="K230" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L230">
         <v>2.35</v>
@@ -21861,7 +21861,7 @@
         <v>3</v>
       </c>
       <c r="K231" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L231">
         <v>3.4</v>
@@ -21938,7 +21938,7 @@
         <v>72</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -21953,7 +21953,7 @@
         <v>0</v>
       </c>
       <c r="K232" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L232">
         <v>1.727</v>
@@ -22045,7 +22045,7 @@
         <v>0</v>
       </c>
       <c r="K233" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L233">
         <v>1.666</v>
@@ -22119,7 +22119,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F234" t="s">
         <v>69</v>
@@ -22321,7 +22321,7 @@
         <v>1</v>
       </c>
       <c r="K236" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L236">
         <v>2.2</v>
@@ -22395,7 +22395,7 @@
         <v>45345.66666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F237" t="s">
         <v>62</v>
@@ -22413,7 +22413,7 @@
         <v>0</v>
       </c>
       <c r="K237" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L237">
         <v>2.1</v>
@@ -22490,7 +22490,7 @@
         <v>59</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G238">
         <v>3</v>
@@ -22505,7 +22505,7 @@
         <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L238">
         <v>1.727</v>
@@ -22582,7 +22582,7 @@
         <v>45</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -22597,7 +22597,7 @@
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L239">
         <v>3</v>
@@ -22671,7 +22671,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="E240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F240" t="s">
         <v>57</v>
@@ -22855,7 +22855,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E242" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
         <v>72</v>
@@ -22965,7 +22965,7 @@
         <v>0</v>
       </c>
       <c r="K243" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L243">
         <v>1.8</v>
@@ -23149,7 +23149,7 @@
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L245">
         <v>1.8</v>
@@ -23223,7 +23223,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E246" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F246" t="s">
         <v>47</v>
@@ -23241,7 +23241,7 @@
         <v>0</v>
       </c>
       <c r="K246" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L246">
         <v>2.375</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="K248" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L248">
         <v>3</v>
@@ -23499,7 +23499,7 @@
         <v>45352.625</v>
       </c>
       <c r="E249" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F249" t="s">
         <v>56</v>
@@ -23517,7 +23517,7 @@
         <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L249">
         <v>2.2</v>
@@ -23609,7 +23609,7 @@
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L250">
         <v>2</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="K251" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L251">
         <v>1.571</v>
@@ -23793,7 +23793,7 @@
         <v>0</v>
       </c>
       <c r="K252" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L252">
         <v>1.333</v>
@@ -23885,7 +23885,7 @@
         <v>0</v>
       </c>
       <c r="K253" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L253">
         <v>2</v>
@@ -24051,10 +24051,10 @@
         <v>45360.5</v>
       </c>
       <c r="E255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="K255" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L255">
         <v>2.9</v>
@@ -24161,7 +24161,7 @@
         <v>0</v>
       </c>
       <c r="K256" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L256">
         <v>1.727</v>
@@ -24253,7 +24253,7 @@
         <v>3</v>
       </c>
       <c r="K257" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L257">
         <v>3.3</v>
@@ -24327,7 +24327,7 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F258" t="s">
         <v>46</v>
@@ -24345,7 +24345,7 @@
         <v>1</v>
       </c>
       <c r="K258" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L258">
         <v>2.3</v>
@@ -24437,7 +24437,7 @@
         <v>1</v>
       </c>
       <c r="K259" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L259">
         <v>2.6</v>
@@ -24514,7 +24514,7 @@
         <v>48</v>
       </c>
       <c r="F260" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -24606,7 +24606,7 @@
         <v>58</v>
       </c>
       <c r="F261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G261">
         <v>2</v>
@@ -24621,7 +24621,7 @@
         <v>1</v>
       </c>
       <c r="K261" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L261">
         <v>4.5</v>
@@ -24713,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="K262" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L262">
         <v>2.4</v>
@@ -24882,7 +24882,7 @@
         <v>54</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G264">
         <v>3</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="K264" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L264">
         <v>1.909</v>
@@ -24989,7 +24989,7 @@
         <v>0</v>
       </c>
       <c r="K265" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L265">
         <v>2</v>
@@ -25063,7 +25063,7 @@
         <v>45366.66666666666</v>
       </c>
       <c r="E266" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F266" t="s">
         <v>78</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="K266" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L266">
         <v>2.55</v>
@@ -25173,7 +25173,7 @@
         <v>0</v>
       </c>
       <c r="K267" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L267">
         <v>2.1</v>
@@ -25250,7 +25250,7 @@
         <v>63</v>
       </c>
       <c r="F268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G268">
         <v>2</v>
@@ -25265,7 +25265,7 @@
         <v>0</v>
       </c>
       <c r="K268" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L268">
         <v>2.2</v>
@@ -25526,7 +25526,7 @@
         <v>50</v>
       </c>
       <c r="F271" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -25541,7 +25541,7 @@
         <v>1</v>
       </c>
       <c r="K271" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L271">
         <v>2.5</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="K272" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L272">
         <v>1.444</v>
@@ -25725,7 +25725,7 @@
         <v>1</v>
       </c>
       <c r="K273" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L273">
         <v>2.45</v>
@@ -25799,7 +25799,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F274" t="s">
         <v>41</v>
@@ -25817,7 +25817,7 @@
         <v>0</v>
       </c>
       <c r="K274" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L274">
         <v>2</v>
@@ -25891,7 +25891,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F275" t="s">
         <v>73</v>
@@ -25909,7 +25909,7 @@
         <v>1</v>
       </c>
       <c r="K275" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L275">
         <v>3</v>
@@ -26078,7 +26078,7 @@
         <v>48</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G277">
         <v>2</v>
@@ -26093,7 +26093,7 @@
         <v>1</v>
       </c>
       <c r="K277" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L277">
         <v>1.833</v>
@@ -26167,7 +26167,7 @@
         <v>45374.5</v>
       </c>
       <c r="E278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F278" t="s">
         <v>60</v>
@@ -26185,7 +26185,7 @@
         <v>1</v>
       </c>
       <c r="K278" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L278">
         <v>3.6</v>
@@ -26277,7 +26277,7 @@
         <v>0</v>
       </c>
       <c r="K279" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L279">
         <v>1.5</v>
@@ -26369,7 +26369,7 @@
         <v>1</v>
       </c>
       <c r="K280" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L280">
         <v>1.727</v>
@@ -26443,7 +26443,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E281" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F281" t="s">
         <v>56</v>
@@ -26461,7 +26461,7 @@
         <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L281">
         <v>2.2</v>
@@ -26553,7 +26553,7 @@
         <v>0</v>
       </c>
       <c r="K282" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L282">
         <v>2.3</v>
@@ -26645,7 +26645,7 @@
         <v>0</v>
       </c>
       <c r="K283" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L283">
         <v>1.727</v>
@@ -26737,7 +26737,7 @@
         <v>0</v>
       </c>
       <c r="K284" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L284">
         <v>1.8</v>
@@ -26829,7 +26829,7 @@
         <v>4</v>
       </c>
       <c r="K285" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L285">
         <v>4.2</v>
@@ -26903,7 +26903,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E286" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F286" t="s">
         <v>59</v>
@@ -27013,7 +27013,7 @@
         <v>0</v>
       </c>
       <c r="K287" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L287">
         <v>1.4</v>
@@ -27105,7 +27105,7 @@
         <v>0</v>
       </c>
       <c r="K288" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L288">
         <v>2.375</v>
@@ -27182,7 +27182,7 @@
         <v>41</v>
       </c>
       <c r="F289" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -27197,7 +27197,7 @@
         <v>0</v>
       </c>
       <c r="K289" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L289">
         <v>2.25</v>
@@ -27289,7 +27289,7 @@
         <v>2</v>
       </c>
       <c r="K290" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L290">
         <v>3</v>
@@ -27363,7 +27363,7 @@
         <v>45374.66666666666</v>
       </c>
       <c r="E291" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F291" t="s">
         <v>45</v>
@@ -27455,7 +27455,7 @@
         <v>45381.58333333334</v>
       </c>
       <c r="E292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F292" t="s">
         <v>49</v>
@@ -27473,7 +27473,7 @@
         <v>1</v>
       </c>
       <c r="K292" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L292">
         <v>2.375</v>
@@ -27565,7 +27565,7 @@
         <v>0</v>
       </c>
       <c r="K293" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L293">
         <v>2.3</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="K295" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L295">
         <v>2.2</v>
@@ -28025,7 +28025,7 @@
         <v>1</v>
       </c>
       <c r="K298" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L298">
         <v>1.571</v>
@@ -28102,7 +28102,7 @@
         <v>60</v>
       </c>
       <c r="F299" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G299">
         <v>3</v>
@@ -28117,7 +28117,7 @@
         <v>0</v>
       </c>
       <c r="K299" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L299">
         <v>1.909</v>
@@ -28194,7 +28194,7 @@
         <v>46</v>
       </c>
       <c r="F300" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -28286,7 +28286,7 @@
         <v>69</v>
       </c>
       <c r="F301" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="K302" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L302">
         <v>2.35</v>
@@ -28467,7 +28467,7 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E303" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F303" t="s">
         <v>78</v>
@@ -28669,7 +28669,7 @@
         <v>0</v>
       </c>
       <c r="K305" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L305">
         <v>2.1</v>
@@ -28761,7 +28761,7 @@
         <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L306">
         <v>4.75</v>
@@ -28853,7 +28853,7 @@
         <v>1</v>
       </c>
       <c r="K307" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L307">
         <v>2.75</v>
@@ -28945,7 +28945,7 @@
         <v>0</v>
       </c>
       <c r="K308" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L308">
         <v>2.25</v>
@@ -29037,7 +29037,7 @@
         <v>0</v>
       </c>
       <c r="K309" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L309">
         <v>1.666</v>
@@ -29221,7 +29221,7 @@
         <v>2</v>
       </c>
       <c r="K311" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L311">
         <v>2.25</v>
@@ -29298,7 +29298,7 @@
         <v>55</v>
       </c>
       <c r="F312" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G312">
         <v>1</v>
@@ -29497,7 +29497,7 @@
         <v>1</v>
       </c>
       <c r="K314" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L314">
         <v>4.75</v>
@@ -29574,7 +29574,7 @@
         <v>41</v>
       </c>
       <c r="F315" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -29589,7 +29589,7 @@
         <v>0</v>
       </c>
       <c r="K315" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L315">
         <v>1.615</v>
@@ -29681,7 +29681,7 @@
         <v>0</v>
       </c>
       <c r="K316" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L316">
         <v>1.909</v>
@@ -29755,7 +29755,7 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E317" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F317" t="s">
         <v>54</v>
@@ -29773,7 +29773,7 @@
         <v>1</v>
       </c>
       <c r="K317" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L317">
         <v>2.4</v>
@@ -29850,7 +29850,7 @@
         <v>80</v>
       </c>
       <c r="F318" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G318">
         <v>2</v>
@@ -29865,7 +29865,7 @@
         <v>0</v>
       </c>
       <c r="K318" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L318">
         <v>2.25</v>
@@ -30049,7 +30049,7 @@
         <v>1</v>
       </c>
       <c r="K320" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L320">
         <v>3.1</v>
@@ -30126,7 +30126,7 @@
         <v>44</v>
       </c>
       <c r="F321" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G321">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         <v>0</v>
       </c>
       <c r="K321" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L321">
         <v>2.4</v>
@@ -30233,7 +30233,7 @@
         <v>0</v>
       </c>
       <c r="K322" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L322">
         <v>2</v>
@@ -30307,7 +30307,7 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E323" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F323" t="s">
         <v>87</v>
@@ -30325,7 +30325,7 @@
         <v>1</v>
       </c>
       <c r="K323" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L323">
         <v>2.1</v>
@@ -30417,7 +30417,7 @@
         <v>1</v>
       </c>
       <c r="K324" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L324">
         <v>2.1</v>
@@ -30491,7 +30491,7 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E325" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F325" t="s">
         <v>63</v>
@@ -30509,7 +30509,7 @@
         <v>1</v>
       </c>
       <c r="K325" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L325">
         <v>2</v>
@@ -30583,7 +30583,7 @@
         <v>45395.58333333334</v>
       </c>
       <c r="E326" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F326" t="s">
         <v>50</v>
@@ -30601,7 +30601,7 @@
         <v>0</v>
       </c>
       <c r="K326" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L326">
         <v>2.2</v>
@@ -30693,7 +30693,7 @@
         <v>0</v>
       </c>
       <c r="K327" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L327">
         <v>3.1</v>
@@ -30767,10 +30767,10 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E328" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F328" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G328">
         <v>2</v>
@@ -30877,7 +30877,7 @@
         <v>1</v>
       </c>
       <c r="K329" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L329">
         <v>2.1</v>
@@ -31061,7 +31061,7 @@
         <v>0</v>
       </c>
       <c r="K331" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L331">
         <v>2.5</v>
@@ -31138,7 +31138,7 @@
         <v>45</v>
       </c>
       <c r="F332" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -31153,7 +31153,7 @@
         <v>2</v>
       </c>
       <c r="K332" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L332">
         <v>3.2</v>
@@ -31230,7 +31230,7 @@
         <v>46</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G333">
         <v>3</v>
@@ -31322,7 +31322,7 @@
         <v>49</v>
       </c>
       <c r="F334" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G334">
         <v>2</v>
@@ -31411,7 +31411,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E335" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F335" t="s">
         <v>67</v>
@@ -31429,7 +31429,7 @@
         <v>1</v>
       </c>
       <c r="K335" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L335">
         <v>2.25</v>
@@ -31521,7 +31521,7 @@
         <v>1</v>
       </c>
       <c r="K336" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L336">
         <v>2.375</v>
@@ -31613,7 +31613,7 @@
         <v>0</v>
       </c>
       <c r="K337" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L337">
         <v>1.909</v>
@@ -31705,7 +31705,7 @@
         <v>0</v>
       </c>
       <c r="K338" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L338">
         <v>2.25</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="K340" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L340">
         <v>2</v>
@@ -31963,7 +31963,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E341" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F341" t="s">
         <v>66</v>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="K341" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L341">
         <v>1.571</v>
@@ -32073,7 +32073,7 @@
         <v>1</v>
       </c>
       <c r="K342" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L342">
         <v>1.833</v>
@@ -32165,7 +32165,7 @@
         <v>3</v>
       </c>
       <c r="K343" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L343">
         <v>2.15</v>
@@ -32349,7 +32349,7 @@
         <v>1</v>
       </c>
       <c r="K345" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L345">
         <v>3.4</v>
@@ -32423,7 +32423,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E346" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F346" t="s">
         <v>63</v>
@@ -32441,7 +32441,7 @@
         <v>0</v>
       </c>
       <c r="K346" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L346">
         <v>2.5</v>
@@ -32607,7 +32607,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E348" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F348" t="s">
         <v>42</v>
@@ -32625,7 +32625,7 @@
         <v>0</v>
       </c>
       <c r="K348" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L348">
         <v>1.666</v>
@@ -32699,7 +32699,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E349" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F349" t="s">
         <v>46</v>
@@ -32791,7 +32791,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E350" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F350" t="s">
         <v>76</v>
@@ -32809,7 +32809,7 @@
         <v>0</v>
       </c>
       <c r="K350" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L350">
         <v>1.727</v>
@@ -32901,7 +32901,7 @@
         <v>0</v>
       </c>
       <c r="K351" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L351">
         <v>2.2</v>
@@ -32993,7 +32993,7 @@
         <v>2</v>
       </c>
       <c r="K352" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L352">
         <v>1.833</v>
@@ -33085,7 +33085,7 @@
         <v>0</v>
       </c>
       <c r="K353" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L353">
         <v>2.25</v>
@@ -33361,7 +33361,7 @@
         <v>0</v>
       </c>
       <c r="K356" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L356">
         <v>2</v>
@@ -33453,7 +33453,7 @@
         <v>0</v>
       </c>
       <c r="K357" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L357">
         <v>2.1</v>
@@ -33518,7 +33518,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>8206116</v>
+        <v>8206147</v>
       </c>
       <c r="C358" t="s">
         <v>29</v>
@@ -33527,13 +33527,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E358" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F358" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H358">
         <v>0</v>
@@ -33545,28 +33545,28 @@
         <v>0</v>
       </c>
       <c r="K358" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L358">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="M358">
+        <v>3.2</v>
+      </c>
+      <c r="N358">
+        <v>4.5</v>
+      </c>
+      <c r="O358">
+        <v>1.8</v>
+      </c>
+      <c r="P358">
         <v>3.3</v>
       </c>
-      <c r="N358">
-        <v>2.2</v>
-      </c>
-      <c r="O358">
-        <v>3.2</v>
-      </c>
-      <c r="P358">
-        <v>3.6</v>
-      </c>
       <c r="Q358">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="R358">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S358">
         <v>1.825</v>
@@ -33575,16 +33575,16 @@
         <v>1.975</v>
       </c>
       <c r="U358">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V358">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W358">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X358">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y358">
         <v>-1</v>
@@ -33599,10 +33599,10 @@
         <v>-1</v>
       </c>
       <c r="AC358">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD358">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:30">
@@ -33610,7 +33610,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>8206147</v>
+        <v>8206116</v>
       </c>
       <c r="C359" t="s">
         <v>29</v>
@@ -33619,13 +33619,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E359" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F359" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G359">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -33637,28 +33637,28 @@
         <v>0</v>
       </c>
       <c r="K359" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L359">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M359">
+        <v>3.3</v>
+      </c>
+      <c r="N359">
+        <v>2.2</v>
+      </c>
+      <c r="O359">
         <v>3.2</v>
       </c>
-      <c r="N359">
-        <v>4.5</v>
-      </c>
-      <c r="O359">
-        <v>1.8</v>
-      </c>
       <c r="P359">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q359">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="R359">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S359">
         <v>1.825</v>
@@ -33667,16 +33667,16 @@
         <v>1.975</v>
       </c>
       <c r="U359">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V359">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W359">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X359">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y359">
         <v>-1</v>
@@ -33691,10 +33691,10 @@
         <v>-1</v>
       </c>
       <c r="AC359">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD359">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="360" spans="1:30">
@@ -33702,7 +33702,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>8206220</v>
+        <v>8198817</v>
       </c>
       <c r="C360" t="s">
         <v>29</v>
@@ -33711,13 +33711,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E360" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F360" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="G360">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -33726,67 +33726,67 @@
         <v>0</v>
       </c>
       <c r="J360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K360" t="s">
         <v>95</v>
       </c>
       <c r="L360">
+        <v>2.5</v>
+      </c>
+      <c r="M360">
+        <v>2.8</v>
+      </c>
+      <c r="N360">
+        <v>2.8</v>
+      </c>
+      <c r="O360">
         <v>2.4</v>
       </c>
-      <c r="M360">
+      <c r="P360">
         <v>3</v>
       </c>
-      <c r="N360">
+      <c r="Q360">
         <v>2.75</v>
       </c>
-      <c r="O360">
-        <v>2.05</v>
-      </c>
-      <c r="P360">
-        <v>3.2</v>
-      </c>
-      <c r="Q360">
-        <v>3.2</v>
-      </c>
       <c r="R360">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S360">
+        <v>1.775</v>
+      </c>
+      <c r="T360">
+        <v>2.025</v>
+      </c>
+      <c r="U360">
+        <v>2.5</v>
+      </c>
+      <c r="V360">
         <v>1.825</v>
       </c>
-      <c r="T360">
+      <c r="W360">
         <v>1.975</v>
       </c>
-      <c r="U360">
-        <v>2.25</v>
-      </c>
-      <c r="V360">
-        <v>1.975</v>
-      </c>
-      <c r="W360">
-        <v>1.725</v>
-      </c>
       <c r="X360">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y360">
         <v>-1</v>
       </c>
       <c r="Z360">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB360">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD360">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:30">
@@ -33794,7 +33794,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>8198813</v>
+        <v>8206220</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -33803,13 +33803,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E361" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F361" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H361">
         <v>1</v>
@@ -33818,67 +33818,67 @@
         <v>0</v>
       </c>
       <c r="J361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K361" t="s">
         <v>94</v>
       </c>
       <c r="L361">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M361">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N361">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O361">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="P361">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q361">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="R361">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S361">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T361">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U361">
         <v>2.25</v>
       </c>
       <c r="V361">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W361">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="X361">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
         <v>-1</v>
       </c>
       <c r="Z361">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA361">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC361">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD361">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:30">
@@ -33886,7 +33886,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>8198817</v>
+        <v>8198816</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -33895,46 +33895,46 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E362" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F362" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362">
         <v>0</v>
       </c>
       <c r="J362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K362" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L362">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M362">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N362">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O362">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P362">
         <v>3</v>
       </c>
       <c r="Q362">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R362">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S362">
         <v>1.775</v>
@@ -33943,34 +33943,34 @@
         <v>2.025</v>
       </c>
       <c r="U362">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V362">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W362">
         <v>1.975</v>
       </c>
       <c r="X362">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC362">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD362">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="363" spans="1:30">
@@ -33978,7 +33978,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>8198816</v>
+        <v>8198814</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -33987,16 +33987,16 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E363" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F363" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363">
         <v>0</v>
@@ -34008,46 +34008,46 @@
         <v>96</v>
       </c>
       <c r="L363">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M363">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N363">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O363">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P363">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q363">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="R363">
         <v>-0.25</v>
       </c>
       <c r="S363">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T363">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U363">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V363">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="W363">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Z363">
         <v>-1</v>
@@ -34056,13 +34056,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB363">
-        <v>0.5125</v>
+        <v>0.4</v>
       </c>
       <c r="AC363">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD363">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364" spans="1:30">
@@ -34070,7 +34070,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>8198814</v>
+        <v>8198815</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -34079,16 +34079,16 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E364" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F364" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G364">
         <v>2</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364">
         <v>0</v>
@@ -34097,49 +34097,49 @@
         <v>0</v>
       </c>
       <c r="K364" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L364">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="M364">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N364">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O364">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="P364">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q364">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="R364">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S364">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T364">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U364">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V364">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W364">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y364">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z364">
         <v>-1</v>
@@ -34148,10 +34148,10 @@
         <v>-0.5</v>
       </c>
       <c r="AB364">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AC364">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AD364">
         <v>-1</v>
@@ -34162,7 +34162,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>8198815</v>
+        <v>8198818</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -34171,13 +34171,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E365" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F365" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H365">
         <v>1</v>
@@ -34186,31 +34186,31 @@
         <v>0</v>
       </c>
       <c r="J365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K365" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L365">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M365">
+        <v>3</v>
+      </c>
+      <c r="N365">
+        <v>2.75</v>
+      </c>
+      <c r="O365">
+        <v>2.2</v>
+      </c>
+      <c r="P365">
         <v>3.1</v>
       </c>
-      <c r="N365">
-        <v>6</v>
-      </c>
-      <c r="O365">
-        <v>1.444</v>
-      </c>
-      <c r="P365">
-        <v>3.75</v>
-      </c>
       <c r="Q365">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R365">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S365">
         <v>1.95</v>
@@ -34219,19 +34219,19 @@
         <v>1.85</v>
       </c>
       <c r="U365">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V365">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W365">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X365">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y365">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z365">
         <v>-1</v>
@@ -34243,10 +34243,10 @@
         <v>0.425</v>
       </c>
       <c r="AC365">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD365">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34254,7 +34254,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>8198818</v>
+        <v>8204386</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
@@ -34263,82 +34263,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E366" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F366" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K366" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L366">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M366">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N366">
+        <v>3.3</v>
+      </c>
+      <c r="O366">
+        <v>1.727</v>
+      </c>
+      <c r="P366">
+        <v>3.6</v>
+      </c>
+      <c r="Q366">
+        <v>4</v>
+      </c>
+      <c r="R366">
+        <v>-0.75</v>
+      </c>
+      <c r="S366">
+        <v>1.975</v>
+      </c>
+      <c r="T366">
+        <v>1.825</v>
+      </c>
+      <c r="U366">
         <v>2.75</v>
       </c>
-      <c r="O366">
-        <v>2.2</v>
-      </c>
-      <c r="P366">
-        <v>3.1</v>
-      </c>
-      <c r="Q366">
-        <v>3</v>
-      </c>
-      <c r="R366">
-        <v>-0.25</v>
-      </c>
-      <c r="S366">
+      <c r="V366">
+        <v>1.85</v>
+      </c>
+      <c r="W366">
         <v>1.95</v>
       </c>
-      <c r="T366">
-        <v>1.85</v>
-      </c>
-      <c r="U366">
-        <v>2.25</v>
-      </c>
-      <c r="V366">
-        <v>1.825</v>
-      </c>
-      <c r="W366">
-        <v>1.975</v>
-      </c>
       <c r="X366">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y366">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z366">
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB366">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC366">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD366">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="367" spans="1:30">
@@ -34346,7 +34346,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>8204386</v>
+        <v>8204387</v>
       </c>
       <c r="C367" t="s">
         <v>29</v>
@@ -34355,55 +34355,55 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E367" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F367" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G367">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H367">
         <v>0</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J367">
         <v>0</v>
       </c>
       <c r="K367" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L367">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M367">
+        <v>3.4</v>
+      </c>
+      <c r="N367">
+        <v>2.4</v>
+      </c>
+      <c r="O367">
+        <v>2.25</v>
+      </c>
+      <c r="P367">
         <v>3.25</v>
       </c>
-      <c r="N367">
-        <v>3.3</v>
-      </c>
-      <c r="O367">
-        <v>1.727</v>
-      </c>
-      <c r="P367">
-        <v>3.6</v>
-      </c>
       <c r="Q367">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="R367">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S367">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T367">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U367">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V367">
         <v>1.85</v>
@@ -34412,7 +34412,7 @@
         <v>1.95</v>
       </c>
       <c r="X367">
-        <v>0.7270000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="Y367">
         <v>-1</v>
@@ -34421,16 +34421,16 @@
         <v>-1</v>
       </c>
       <c r="AA367">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD367">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:30">
@@ -34438,7 +34438,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>8204387</v>
+        <v>8204820</v>
       </c>
       <c r="C368" t="s">
         <v>29</v>
@@ -34447,64 +34447,64 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E368" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F368" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K368" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L368">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="M368">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N368">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O368">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="P368">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q368">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="R368">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S368">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T368">
+        <v>1.925</v>
+      </c>
+      <c r="U368">
+        <v>2</v>
+      </c>
+      <c r="V368">
         <v>1.8</v>
       </c>
-      <c r="U368">
-        <v>2.25</v>
-      </c>
-      <c r="V368">
-        <v>1.85</v>
-      </c>
       <c r="W368">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X368">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="Y368">
         <v>-1</v>
@@ -34513,13 +34513,13 @@
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB368">
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD368">
         <v>-1</v>
@@ -34542,7 +34542,7 @@
         <v>43</v>
       </c>
       <c r="F369" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G369">
         <v>1</v>
@@ -34622,7 +34622,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>8204820</v>
+        <v>8198813</v>
       </c>
       <c r="C370" t="s">
         <v>29</v>
@@ -34631,13 +34631,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E370" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F370" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="G370">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H370">
         <v>1</v>
@@ -34649,47 +34649,47 @@
         <v>1</v>
       </c>
       <c r="K370" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L370">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="M370">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N370">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O370">
+        <v>2.8</v>
+      </c>
+      <c r="P370">
+        <v>2.875</v>
+      </c>
+      <c r="Q370">
+        <v>2.45</v>
+      </c>
+      <c r="R370">
+        <v>0</v>
+      </c>
+      <c r="S370">
+        <v>2.025</v>
+      </c>
+      <c r="T370">
+        <v>1.775</v>
+      </c>
+      <c r="U370">
+        <v>2.25</v>
+      </c>
+      <c r="V370">
+        <v>2.025</v>
+      </c>
+      <c r="W370">
+        <v>1.775</v>
+      </c>
+      <c r="X370">
         <v>1.8</v>
       </c>
-      <c r="P370">
-        <v>2.8</v>
-      </c>
-      <c r="Q370">
-        <v>5</v>
-      </c>
-      <c r="R370">
-        <v>-0.5</v>
-      </c>
-      <c r="S370">
-        <v>1.875</v>
-      </c>
-      <c r="T370">
-        <v>1.925</v>
-      </c>
-      <c r="U370">
-        <v>2</v>
-      </c>
-      <c r="V370">
-        <v>1.8</v>
-      </c>
-      <c r="W370">
-        <v>2</v>
-      </c>
-      <c r="X370">
-        <v>0.8</v>
-      </c>
       <c r="Y370">
         <v>-1</v>
       </c>
@@ -34697,13 +34697,13 @@
         <v>-1</v>
       </c>
       <c r="AA370">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB370">
         <v>-1</v>
       </c>
       <c r="AC370">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AD370">
         <v>-1</v>
@@ -34723,7 +34723,7 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E371" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F371" t="s">
         <v>75</v>
@@ -34741,7 +34741,7 @@
         <v>1</v>
       </c>
       <c r="K371" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L371">
         <v>1.571</v>
@@ -34815,10 +34815,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E372" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F372" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G372">
         <v>1</v>
@@ -34833,7 +34833,7 @@
         <v>2</v>
       </c>
       <c r="K372" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L372">
         <v>3</v>
@@ -34925,7 +34925,7 @@
         <v>0</v>
       </c>
       <c r="K373" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L373">
         <v>1.909</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K374" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L374">
         <v>1.8</v>
@@ -35109,7 +35109,7 @@
         <v>3</v>
       </c>
       <c r="K375" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L375">
         <v>2.3</v>
@@ -35186,7 +35186,7 @@
         <v>61</v>
       </c>
       <c r="F376" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G376">
         <v>3</v>
@@ -35201,7 +35201,7 @@
         <v>1</v>
       </c>
       <c r="K376" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L376">
         <v>2.1</v>
@@ -35275,10 +35275,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E377" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F377" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G377">
         <v>3</v>
@@ -35293,7 +35293,7 @@
         <v>2</v>
       </c>
       <c r="K377" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L377">
         <v>2.2</v>
@@ -35450,7 +35450,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>8225426</v>
+        <v>8225290</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -35459,16 +35459,16 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F379" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="G379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
         <v>1</v>
@@ -35480,58 +35480,58 @@
         <v>95</v>
       </c>
       <c r="L379">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="M379">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N379">
-        <v>1.533</v>
+        <v>4.4</v>
       </c>
       <c r="O379">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="P379">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q379">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="R379">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="S379">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T379">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U379">
         <v>2.75</v>
       </c>
       <c r="V379">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W379">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X379">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB379">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC379">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
       <c r="AD379">
         <v>-0.5</v>
@@ -35542,7 +35542,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>8225428</v>
+        <v>8225426</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -35551,46 +35551,46 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F380" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G380">
         <v>1</v>
       </c>
       <c r="H380">
+        <v>2</v>
+      </c>
+      <c r="I380">
+        <v>1</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+      <c r="K380" t="s">
+        <v>94</v>
+      </c>
+      <c r="L380">
+        <v>4.75</v>
+      </c>
+      <c r="M380">
         <v>4</v>
       </c>
-      <c r="I380">
-        <v>0</v>
-      </c>
-      <c r="J380">
-        <v>2</v>
-      </c>
-      <c r="K380" t="s">
-        <v>95</v>
-      </c>
-      <c r="L380">
-        <v>5.5</v>
-      </c>
-      <c r="M380">
-        <v>3.8</v>
-      </c>
       <c r="N380">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O380">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P380">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q380">
-        <v>1.65</v>
+        <v>1.533</v>
       </c>
       <c r="R380">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S380">
         <v>1.925</v>
@@ -35599,13 +35599,13 @@
         <v>1.875</v>
       </c>
       <c r="U380">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V380">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W380">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -35614,19 +35614,19 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.6499999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB380">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC380">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AD380">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="381" spans="1:30">
@@ -35634,7 +35634,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>8225494</v>
+        <v>8225428</v>
       </c>
       <c r="C381" t="s">
         <v>29</v>
@@ -35643,62 +35643,62 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E381" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F381" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H381">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K381" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L381">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M381">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="N381">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O381">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="P381">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q381">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="R381">
         <v>0.75</v>
       </c>
       <c r="S381">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T381">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U381">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V381">
+        <v>1.95</v>
+      </c>
+      <c r="W381">
         <v>1.85</v>
       </c>
-      <c r="W381">
-        <v>1.95</v>
-      </c>
       <c r="X381">
         <v>-1</v>
       </c>
@@ -35706,16 +35706,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.615</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA381">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AC381">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD381">
         <v>-1</v>
@@ -35726,7 +35726,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>8225290</v>
+        <v>8225494</v>
       </c>
       <c r="C382" t="s">
         <v>29</v>
@@ -35735,16 +35735,16 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E382" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F382" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G382">
         <v>2</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I382">
         <v>1</v>
@@ -35756,61 +35756,61 @@
         <v>94</v>
       </c>
       <c r="L382">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="M382">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="N382">
-        <v>4.4</v>
+        <v>1.615</v>
       </c>
       <c r="O382">
+        <v>3.9</v>
+      </c>
+      <c r="P382">
+        <v>4.1</v>
+      </c>
+      <c r="Q382">
         <v>1.615</v>
       </c>
-      <c r="P382">
-        <v>3.6</v>
-      </c>
-      <c r="Q382">
-        <v>4.5</v>
-      </c>
       <c r="R382">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S382">
+        <v>1.975</v>
+      </c>
+      <c r="T382">
         <v>1.825</v>
-      </c>
-      <c r="T382">
-        <v>1.975</v>
       </c>
       <c r="U382">
         <v>2.75</v>
       </c>
       <c r="V382">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W382">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X382">
+        <v>-1</v>
+      </c>
+      <c r="Y382">
+        <v>-1</v>
+      </c>
+      <c r="Z382">
         <v>0.615</v>
       </c>
-      <c r="Y382">
-        <v>-1</v>
-      </c>
-      <c r="Z382">
-        <v>-1</v>
-      </c>
       <c r="AA382">
+        <v>-0.5</v>
+      </c>
+      <c r="AB382">
         <v>0.4125</v>
       </c>
-      <c r="AB382">
-        <v>-0.5</v>
-      </c>
       <c r="AC382">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD382">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:30">
